--- a/ptt.xlsx
+++ b/ptt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[黑特] 蔡EE 過境美國見民代，中國有啥好森氣的</t>
+          <t>[討論] 蔡英文具體做了什麼事來抗中保台！？</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079297.A.826.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082909.A.33C.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>如題，蔡EE訪友邦過境美國見民代麥卡錫跟共和黨民代代表，並受邀到不具官方色彩的地點演講。不就跟馬這個一樣嗎？馬這個還有見地方的書記蔡EE只有見民代，高下立判，中共是在森氣氣啥？看不懂</t>
+          <t>如題死忠綠屎說蔡英文辣台派執政8年抗中保台那請問一下可不可以具體列一下蔡英文做了哪些事抗中保台？</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[討論] 內閣為何不能採政黨比例制?</t>
+          <t>[新聞] 分析／2024決戰中台灣　顏寬恒豪宅案「外</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079395.A.215.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083028.A.4A3.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>既然不分區立委可採政黨比例制那內閣也可以採政黨比例制這樣是否會更好呢?不管國際上是否有前例台灣需要創意可以廣納人才 不分黨派</t>
+          <t>1.新聞標題分析／2024決戰中台灣　顏寬恒豪宅案「外溢效應」衝擊藍選情？2.新聞來源ETtoday新聞雲3.新聞網址https://www.ettoday.net/news/20230329/2469518.htm4.新聞內容記者鄭佩玟／台北報導前立委顏寬恒22日完成2024立委大選黨內初選登記，昨晚卻遭檢調以涉犯竊佔公有地、偽造文書罪嫌大舉搜索，並以1千萬元交保。由於過往大選經常「決戰中台灣」，因此外界憂心此案將衝擊2024選情。對此，藍營人士指出，此事固然會勾起部份選民對去年中二補選及顏家黑金的負面印象，但近年選前遭受司法突襲的候選人，也往往獲得同情，正反交互影響之下，選情依舊撲朔迷離。去年甫參戰中二補選的顏寬恒，今年決定再接再厲，於22日完成2024立委大選黨內初選登記。未料，昨晚卻遭台中地檢署兵分多路大舉搜索，並以涉犯竊佔公有地、偽造文書罪嫌逮捕顏寬恒及其妻子陳麗玲，最後分別以1千萬元、5百萬元交保候傳。消息傳出後，顏寬恒發表聲明，澄清他和妻子沒有任何違法，並指檢調偵辦本案的強度和交保的金額，顯然不符比例原則，痛斥「這就是一件政治司法案件！司法豈能為政治操作利用？」面對近在咫尺的2024大選，國民黨要贏就必須「立足北台灣、決戰中台灣、固守南台灣」，因為北台灣是藍營優勢區，南台灣是藍營劣勢區，南北相互抵銷之後，最後決勝關鍵就落在中台灣。如今顏家爆出弊案，其與中台灣藍營最大母雞、台中市長盧秀燕關係匪淺，會否產生連鎖反應，進而衝擊選情，值得深入探究。國民黨黨章第36條規定：「涉犯重大侵佔經法院第一審判處有罪者，應予以先行停止黨權處分，立即喪失參與黨內初選資格」，一位熟知國民黨典章制度的黨務要角指出，竊佔公有地就是侵佔的一種，但顏寬恒的案情是否達到「重大侵佔」程度，尚須具體個案考量；況且目前司法進度還只在偵查階段，日後會否起訴、會否一審定罪，都還在未定之天。國民黨台中市黨部主委顏文正稍早證實，此案不影響立委提名作業，近日就會將名單提報給黨中央。對於顏寬恒自身選情，藍營人士表示，此事固然會勾起部份選民對去年中二補選及顏家黑金的負面印象，他們如果本來想投票給顏寬恒，如今可能望而卻步。但該人士也說，近年人民法治觀念愈加深植，大抵都有「無罪推定」觀念，因此舉凡新竹市長高虹安、宜蘭縣長林姿妙，凡是選前遭受司法突襲的候選人，往往獲得支持者同情，正反交互影響之下，選情依舊撲朔迷離。該人士並擔心，現在是媒體時代，此案可能受到媒體、政論、社群高度關注，預料綠營也會大肆炒作，案情若持續延燒，很可能會傷害國民黨形象，並產生外溢效應，波及總統乃至於立委選情。該人士強調，此案涉及家族豪宅及竊佔國土，這在高房價的今日，容易產生相對剝奪感，恐波及中間、都會、知識、青年選民。至於外溢效應的影響到底有多大，尤其會否延燒到台中市政府。該人士認為，就看後續案情發展而定，而台中市政府去年就已排拆違建，今天他們也重申，原住宅涉及違建部分，若有公安之虞將優先處理。在台中市政府已關注此事的情況下，藍營人士研判，案情應不至於向上延燒到台中市政府以及市長盧秀燕。或許是認為此事影響不大，國民黨文傳會副主委林家興今天於中常會後直接轉述顏寬恒聲明，表達力挺之意相當明確。林家興強調，國民黨都會密切關注，希望台灣司法「不要冤枉好人」，不要用司法來做政治打壓。台中地檢署稍早則發布「嚴正聲明」，強調「法律沒有假期，檢察官偵辦案件絕不考量任何政治因素及立場」，請外界切勿妄加臆測，給予檢察官公正之辦案空間。5.備註依照錢穆的中國歷史研究法所書中國的史觀大多會同情所謂的悲劇英雄其實這個可能也是華人視角的縮影（？The顏被弄成這樣加上他前面兩次敗選說不定外溢效應反而是同情票比較多不過這個交保金額為什麼那麼大？有專業鄉民可以開示嗎？</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
+          <t>Re: [討論] 顏家火速籌出1500萬代表臺灣經濟真的很好</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079592.A.7C3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083379.A.451.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>我是美國政府我也喊停，不過跟支那沒啥關係，美國有外星科技軍武，根本不在意支那。為什麼要喊停？首先，現在國際大環境/大風向是什麼？是同意台灣是個獨立國家，傳統支持台灣的美國/日本不用多講，現在連捷克/立陶宛這些過去覺得跟我們台灣沒啥關係的國家都來了。可見台灣的地位已經在國際越來越彰顯。所以，美國內心深處希望蔡總統用什麼形式拜訪美國？當然是&lt;台灣總統&gt;且正式訪問美國啊！有了上面認識後，我們再看看這次蔡總統實際上是用什麼形式拜訪美國？過境。我是美國政府，我一定想：過境？原來我大美國只是妳過境歇歇的地方？！然後再一看，目的地是中(華民)國友邦，我是美國我氣啊！！都暗示妳這樣明顯了，妳是代表台灣，不是代表中(華民)國！就算要過境，也拜託妳目的地是台灣友邦，比如加拿大好不好～～～所以這次美國突然喊停，意思就是告訴蔡總統，告訴我們台灣人，要想清楚為什麼來美國呀～應該是用台灣國總統的身分來美國呀～我知道，藍白豬腦這時要無能狂吼：那為什麼美國不直接跟台灣建交？唉，真的是一群豬！美國是民主國家啊！怎麼能直接告訴台灣：你給我正名！這是干涉內政好不好～　只能用這種暗示的方式。美國是在等我們正名制憲，堂堂正正以台灣國的身分，獨立於地球上，到時美國肯定搶第一個來建交。該醒醒了，美國老大哥給暗示了，不要過境，不要用中(華民)國總統身分，請正式拜訪，用台灣國總統身分！天佑台灣！！！</t>
+          <t xml:space="preserve">這就要考大家一個智力測驗了若有人要搭高鐵掉300萬給小冬瓜那要搭幾躺才能籌到1500萬元呢？沒想到好答案之後可以不用來政黑了因為智能不足…^  _  ^※ 引述《TsaoLuka71 (新北吳鎮宇)》之銘言：: 小冬瓜夫婦因為豪宅侵佔國有地，被檢方調查偵訊，然後連夜交保: 一個1000萬、一個500萬: 顏家能在短短幾小時內籌出1500萬真的很屌耶！而且是在晚上，銀行早就下班了還能生出15: 00萬現金，真不愧是土地的主人耶！: 真他媽有錢啊！這1500萬裡面有多少是信徒捐給媽祖的香油錢呢？！: 而且沒記錯顏寬恆現在應該是無業遊民吧？一個無業遊民的家庭都能馬上拿出1500萬，那代: 表臺灣的經濟真的是20年來最好耶！那些哭說沒錢買蛋沒錢旅遊沒錢幹嘛幹嘛的藍白賤畜應: 該多跟我們顏公子學學啊！: 結果國民黨還要提名這種垃圾出來選立委？: </t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[公告] 政治黑特板板規__20230217</t>
+          <t>[黑特] 費鴻泰會不會是說溜嘴巧芯謊報年齡？</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1676616205.A.AE3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083823.A.324.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>╭──────╮│第一章  總則│╰──────╯￣￣￣￣￣￣￣￣1.本板接受中華民國政府頒布之法律，教育部學術網路公約，以及PTT站方制定之站規管  轄。</t>
+          <t>費鴻泰最近建議巧芯可以去選總統結果被巧芯回「我還沒滿40歲」給打回去了但會不會有一種可能性就是巧芯謊報年齡 其實她實際已經滿40歲而費鴻泰也知道這個資訊 不小心說溜嘴了 說巧芯可以選總統啊 她年齡有到啊（說溜嘴）有沒有這種可能性？巧芯真的才33歲嗎？</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[公告] 暫行板規</t>
+          <t>Re: [討論] 中華民國到底是不是中國？</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677418156.A.5E3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083845.A.E81.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>暫行板規＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達3次以上，　違規一次水桶35天，板主得主動處理。＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝效期到五月底(5/31)檢舉時標題為： [檢舉] 文章AID碼 ID 暫行板規　　例： [檢舉] #1ZzmEAHX Rrrxddd 暫行板規不正常連噓→即利用BUG等方式 規避CD時間推噓文</t>
+          <t>※ 引述《CuLiZn5566 (同理心5566)》之銘言：: 人家馬冏跑去中國去說中華民國: 結果兩岸都有人不爽: 一個是說中華民國就是台獨: 一個是說宣揚中華</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[公告] 03/01起 政黑進板圖 徵選開跑</t>
+          <t>[公告] 政治黑特板板規__20230217</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677582219.A.6F8.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1676616205.A.AE3.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>本次活動期間為2023/03/01 至 2023/05/312023/03/01 ~ 2023/05/22 開始徵圖標題發文　[徵圖] ID + 作品名稱　例：[徵圖] Rrrxddd 藍綠白對決1人限投稿一篇，作品須為原創且符合政治黑特板旨，   確認無爭議後，板主M文且收錄於精華區。   反之，違者刪文並失去活動資格。2023/05/23 統整並發布候選名單2023/05/24 ~ 2023/05/30 開始投票由板友進行投票，選出最適合黑特板板旨的進板圖。視作品數多寡決定，至多一人2票。2023/05/31 公布結果若提前徵滿9篇 將停止徵選待投票結束統計無誤後由站方發放P幣第一名 20000P第二名 15000P第三名 10000P第四名  5000P參加獎x5  2000P x5</t>
+          <t>╭──────╮│第一章  總則│╰──────╯￣￣￣￣￣￣￣￣1.本板接受中華民國政府頒布之法律，教育部學術網路公約，以及PTT站方制定之站規管  轄。2.本板為政治黑特板，主旨在於討論政治/民生/社會現狀等相關議題。3.文章標題、文章內容、發文者簽名檔，皆視同發文本體，其內容應遵守板規。4.各項違規依違規事項所屬章節處置，連續違規者依各章節區分違規及前科數，板主得以  視情節給予處分，並依連續違規條文計算水桶天數。5.違規者（無論本尊/分身）於最新違規發生日之前一年度相對日內　（非水桶日期）再度違規為累犯者，並以該期間該使用者所有帳號違規次數為前科數，　違規次數應採「前科累積加重水桶」。　(板主可依照帳號部歷史公告判定或帳號部公告之簡易認定程序處置）　水桶天數＝判決水桶*(前科數+違規數)6.使用分身/Bug規避板規或水桶，經確認後本尊/分身皆判決原判決*2＋剩餘天數，  違規期間發文全數退文且水桶自新公告起計算。(分身案追溯期限為一年)7.所有水桶/前科紀錄定期歸檔，並將紀錄收錄政檢板精華區以供查詢。8.所有板務應依政黑/政檢規定執行/處分，結果應公開於板面上，並以政檢板文章為準。 （刪除/退文主動處置之違規不在此限，但結果應公開於政黑/政檢板面上）╭────────╮│第二章  文章分類│╰────────╯￣￣￣￣￣￣￣￣￣￣1.本板發文請遵守本板主旨、標題分類與分類格式，違者刪除。2.發表文章須40個繁體中文字以上，外文以單詞計算。作者本人轉錄文章以　轉錄文章字數計數。　(簽名檔、網址、無意義字詞、轉錄他人文章、他方平台及轉錄/發表新聞內容不計入)　禁止手動置底相似文章或發/推文過多簡體字，以上違者刪除。3.本板文章標題分類為『黑特』、『討論』、『創作』、『Live』、『轉錄』 『新聞』、『公告』，其餘分類隨公告而動態增減。4.標題分類使用說明：  a.黑特：心情抒發/幹意發洩等。  b.討論：時事/政治/民生/政問/獨家/政府決策/舊聞等討論。  (舊聞應附上40字備註、心得)　c.創作：延伸創作/空想/惡搞等。　d.Live：政論節目/政府實況/公民轉播等。  e.轉錄：社論/它版文章/其他平台資料等。  f.新聞：張貼付有來源之新聞。  g.公告：板主專用分類。5.「Live」、「新聞」、「轉錄」及轉錄他方內容遵守下列規定。　a.字數認定依板規2-2處置。  b.每日此類文章上限3篇。（任何原因自刪及被板主刪除均計入額度）  c.來源為外站者，須附上連結，過長須縮址      https://reurl.cc/main/tw  d.此分類文章禁止多篇合併發文或使用其他分類偷渡。  e.重複發文已有相同來源或內容文章。  f.「Live」文章限發表節目首播24hr內之政論節目/政府實況/公民轉播等。  g.「新聞」、「轉錄」文章限發表3天內之新聞、社論/它版文章/FB/其他平台資料等。  h.「新聞」、「轉錄」應完整轉錄該文且禁止修改原文。  i.轉錄它板文章應原作者同意，並刪除原文下之推文。  j.原文為外文者，須附上簡易翻譯。  k.轉錄來源為FB，須為公眾人物或牽涉公眾/政治議題。  l.「新聞」標題須為原新聞標題且從頭張貼，內文應張貼完整新聞標題，  轉錄FB標題須為來源名稱。(ex:人名、粉絲團名…etc)　m.轉錄站方公告不受2-2、2-5-h限制，嚴禁修改內文及濫用，並計入2-5每日額度。6.「公告」限板主使用，板主使用公告及轉錄站方公告不受板規第二章限制。7.政黑板嚴禁於板面上發文討論他板板務(公告、修改板規與之內容)，違者刪除。8.張貼公益救助/學術調查/活動宣傳等，應詢問板主並得到任一板主單次同意，違者刪除。9.每日發文/回文上限5篇，禁止手動置底相似文章 違者超貼文章刪除。 （任何原因自刪及被板主刪除均計入額度）10.嚴禁任何方式公開站內信/水球紀錄且未經當事人同意，違者水桶7天並刪除。11.嚴禁修/刪本板板友推文（除板主執行個資保護與板務處理外），   違者水桶7天。12.發表無關板旨文章，板主刪文警告後依然故我者，視為鬧板文章，違者文章退文刪除13.多篇文章下，8小時內重複、若無意義或相同之推噓文達5次以上違規。   (若板主處理板務可不列入)14.單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達5次以上， 　違規一次水桶14天。15.預留空條款16.預留空條款17.預留空條款18.預留空條款19.若違規條文沒有明定水桶天數，則以正常水桶之天數（7天）處之。╭─────────────╮│第三章  言語／漫罵攻擊規範│╰─────────────╯￣￣￣￣￣￣￣￣￣￣￣￣￣￣￣　判決要件:[特定的對象/群體]與[明顯貶抑詞語]，需兩者皆有應視為言語/漫罵攻擊。1.本板不鼓勵言語攻擊，發/推文皆受規範，違反本章規定者水桶35天。2.特定對象/群體定義:　a.PTT使用者，如(1)ID, (2)暱稱/代稱, (3)討論上下文行為等　　　　　　 (1) (2)客觀可確認為針對特定使用者， (3)由板主判定。　b.未明確對象，但回文特定對象之文章/推文，並發表非針對文章／推文之攻擊內容。　c.指定推文樓層並發表非針對推文之攻擊內容3.明顯貶抑詞定義: 經由下述網站判決書/辭意判斷，詞義相同且能證明貶抑之意。  若使用判決書系統，須為有罪判決；只接受妨害名譽/公然侮辱等案由判決書。  裁判書系統：http://goo.gl/BqhOjY  萌典：https://www.moedict.tw允許(1).發語詞以及同義但不同口語間轉換之使用    (2).詞語雖具貶抑但不具攻擊屬性        此部分交由板主判斷4.鼓吹暴力言論/以非法手段嚴重損害特定對象生命財產安全之言論，視同違反本章規定。5.公眾政治人物/政府機關/政治族群/經媒體披露/社會議題相關團體者等，　不受此章保護。6.非政治群體，如攻擊行政區域地緣/宗族/信仰/興趣/性別/性傾向/學歷/職業等，  水桶7天。╭──────╮│第四章  鬧板│╰──────╯￣￣￣￣￣￣￣￣￣￣￣1.禁止非板主者發/回公告文，違者水桶90天並退文刪除。2.廣告/色情血腥/惡意使人驚嚇整人/病毒/竊取個資/在文章以及推文影射或透漏他人個  資等內容或連結，禁止發/推文於本板，違者文章退文刪除水桶90天，  推文刪除水桶180天。(任一板主於接獲檢舉或巡查發現本項違規可直接執行違規處置，唯仍需公告於政黑板。)3.境外IP使用者「發文」內容經IFCN認證之事實查核相關網站查詢為錯誤、誤導或不正  確等訊息，並經由板主群多數決認定，處以退文刪除及水桶180天。  台灣事實查核中心    https://tfc-taiwan.org.tw  MyGoPen             https://www.mygopen.com  備註:檢舉人須提供查核確定錯誤資料。4.嚴禁編輯偽造本板板友或文章推文（除板主執行個資保護與板務處理外），　違者水桶90天，發表文章退文。╭──────────╮│第五章　修改板規相關│╰──────────╯￣￣￣￣￣￣￣￣￣￣￣￣1.新修板規由全體板主應由可紀錄方式達成共識通過後，由任一板主公布並置底。2.新修板規於公佈時應標注生效年月日時分，且生效時間應大於發文時間1hr  以此時視為新板規生效。3.所有新修板規皆不溯及既往。4.板主群發布新板規後需有7天宣導期，且須置底於板上。 （七天宣導期間，違反新板規應公告提醒不處分，舊板規違規依照舊板規處置）╭────────╮│第六章　板主規範│╰────────╯￣￣￣￣￣￣￣￣￣￣1.板主規範為板主自律之規範，與板主權限相關皆須明定於此章。如修改，應公佈並置底　修改後板規，並耗期7天投票表決（接受/不接受），違者修改無效。2.政黑板板主任期為1年1任，得連選連任一次。3.政黑板板主應為3位，如因罷免/辭職/解職等，應進行投票遴選新板主補滿剩餘任期。4.板主遴選須透過板友投票表決，禁止私相授受，違者板主/新板主應自請解職且　不得連任。 (選舉資格:登入300次/發文200篇/政黑20篇以上，前兩者條件以生活娛樂組規為準)5.舊任板主應於任期結束前2個月，開始舉辦新任板主選舉，並於選舉結果出來後，　與新任板主討論交接時程並公告之，不得無故拖延交接，違者應自請解職。6.板主對於言語攻擊／謾罵攻擊／需為2位以上板主有共識方能處理之違規，應被動處理  ，待有人檢舉後才能進行判決。（除第六章6-7規範之項目）7.板主對於採刪除/退文處置之違規，得主動處理，以維護板面秩序。 （第一章1-6 第二章除2-13、2-14外 及 第四章除4-3外）8.暫行板規規範　板主群若有意外情況需使用暫行板規，應在共識決後取得板友多數同意且於政黑板上舉　辦公投。且應註明：暫行板規名稱與規範，暫行板規時限。　投票時間為72小時，通過後直接生效。9.若板主本身違規，視為一般使用者身份，由其他板主代為處理判決。10.所有判決/板規/爭議判決為2位以上板主有共識下執行，若不足2位則依據先前　 已定共識。11.所有板務處理，應公開於板面上，並以政檢板文章為準。　（刪除/退文主動處置之違規不在此限，但結果應公開於板面上）12.若板務處理上板主意見不同，嚴禁進行獨斷處理且其處理無效，待有共識後才行處理。13.舉辦板主遴選投票時，除政見外，得要求參選人表態是否上任後願意遵守第六章板規   以供板友作為板主投票之參考。14.本板板務僅為板面秩序維護者/板規解釋/仲裁者，無法為任一板友之言論背書或   限制其言論（除違反板規外），本板板務由此善盡善良管理人的責任。╭─────────╮│第七章  小板主規範│╰─────────╯￣￣￣￣￣￣￣￣￣￣￣1.本規範為小板主相關設立、職權、解職相關的的規章。2.任命方式為：  板友私信板主，或板主自行推薦。  經板主群討論同意後，由板主直接任命。3.小板主任期為一年一任，經由板主同意得連任，小板主最多不可超過4位。4.板主任期屆滿一並解職，另外如小板主有失職情形。  經全體版主同意後直接解任5.小板主職權為精華區相關整理、參與檢舉相關流程、或其他板主委託的事務。6.申請M文與精華區流程(M文方式不限於此)：  板友如有希望M或收精華區的文可於該文章發表後2個禮拜前向小板主寄信申請  經小板主審核同意後該文章將M文或收入精華區  M文參考標準：有資料分析者、優良創作文章...等等之類的╭───────────────╮│第八章  檢舉申訴制度與板務相關│╰───────────────╯1.政黑板之檢舉文/申訴文/須發表HateP_Picket政檢板，違者不受理並刪除並水桶七天。2.討論本板或政檢板務需發表於政檢板，如在政黑板發文討論板務，  違規者刪除並水桶七天。3.其他相關規定請參閱政檢板(HateP_Picket)板規。                                  政治黑特板板規_20230217 20230217_1600起生</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[討論] 你各位進來猜 國民黨候選人</t>
+          <t>[公告] 暫行板規</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679135675.A.D64.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677418156.A.5E3.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>餓死抬頭你各位進來猜一下國民黨 總統候選人 是誰感覺時程 很不穩定感覺會變來變去 不好徵文如果跟之前換柱一樣 那也不算猜的時間就到第一波 國民黨自己公布 候選人是誰後來有變數的話 看情況 要不要再猜第一波 猜對的我給 稅前200p==我看誰是通靈大師這樣ok吧</t>
+          <t>暫行板規＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達3次以上，　違規一次水桶35天，板主得主動處理。＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝效期到五月底(5/31)檢舉時標題為： [檢舉] 文章AID碼 ID 暫行板規　　例： [檢舉] #1ZzmEAHX Rrrxddd 暫行板規不正常連噓→即利用BUG等方式 規避CD時間推噓文</t>
         </is>
       </c>
     </row>
@@ -596,3957 +596,3997 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[公告] 轉錄文章請注意 不能有斗內捐款資訊</t>
+          <t>[公告] 03/01起 政黑進板圖 徵選開跑</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679414519.A.704.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677582219.A.6F8.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>宣導一下這兩天有發現個案，轉錄的文章內容裡面有抖內捐款帳號基本上這種屬於私人營利性質的會被判定為廣告文(四-2)公益性質的也要先跟板主申請才能發(二-8)然而，板規二-5-h規定禁止修改轉錄內容所以把營利部分刪掉的作法，以現行板規來說也是不行的板主群會討論是否有這個必要補充板規現階段最好的解法就是不要轉錄含有營利內容的文章包括抖內、購物、商業連結、超明顯的業配等先感謝大家的配合</t>
+          <t>本次活動期間為2023/03/01 至 2023/05/312023/03/01 ~ 2023/05/22 開始徵圖標題發文　[徵圖] ID + 作品名稱　例：[徵圖] Rrrxddd 藍綠白對決1人限投稿一篇，作品須為原創且符合政治黑特板旨，   確認無爭議後，板主M文且收錄於精華區。   反之，違者刪文並失去活動資格。2023/05/23 統整並發布候選名單2023/05/24 ~ 2023/05/30 開始投票由板友進行投票，選出最適合黑特板板旨的進板圖。視作品數多寡決定，至多一人2票。2023/05/31 公布結果若提前徵滿9篇 將停止徵選待投票結束統計無誤後由站方發放P幣第一名 20000P第二名 15000P第三名 10000P第四名  5000P參加獎x5  2000P x5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[新聞] 【48退將捲共諜】點名吸收呂秀蓮　羅志</t>
+          <t>[討論] 你各位進來猜 國民黨候選人</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075064.A.D70.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679135675.A.D64.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>鏡周刊【48退將捲共諜】點名吸收呂秀蓮　羅志明共諜案延燒48退將文｜林俊宏    攝影｜王漢順 林煒凱台聯前立委羅志明涉在台發展共諜組織遭起訴，從而揭露中共對台滲透升級與更多不同的手法！檢調查出對岸曾企圖透過羅志明，慫恿前副總統呂秀蓮赴中，以及引介曾任國防部次長、副參謀總長、陸軍司令、大直衡山指揮所主任等48名高階退役將領，至湖北或廣東珠海等地參加球敘聯誼等活動，並穿插祭祖及參拜炎黃二帝，藉此大肆宣傳黃埔精神、促進祖國統一及一國兩制，有系統地對我方退將進行統戰滲透。知情人士告訴本刊，對岸透過廣東太普樂生技董事長李鷹，暗中滲透我軍退將至少已經10年，表面上李鷹是位商人，他的父親是中共退役空軍將領，李鷹更是中共情治系統人員，長期循著羅志明這條管道，煽動我方中將以上14人、少將30人、上校3人、中校1人，至少共48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月，也就是馬英九第二任總統期間。後來蔡英文就任總統，大幅強化國軍的國安意識，退將赴中人數驟減，羅志明這條管道開始失靈，李鷹2016年12月與2018年8月籌劃的退將赴中行程，分別只有3名及5名退將成行，到最後連退役中校都被找來參加，與馬政府時代每次動輒近20名退將出團的「滿天星」陣容相比，簡直如天壤之別。由於邀約退將赴中出現瓶頸，加上羅志明幾乎把能邀的退將都找了，對岸於是決定把滲透的層級拉高，將目標轉向政治人物。檢調監控發現，2020年12月24日，李鷹透過微信向羅志明提及：「我知道呂大姐退休10年了，是可以過來玩的。」雖然對話中並沒有講明「呂大姊」是誰，但羅志明早已知悉李鷹所說的正是前副總統呂秀蓮，因為李對台研析工作做得相當透澈，連2004年扁呂配尋求連任正副總統過程一波三折，羅志明以台聯立委身分力挺呂秀蓮的往事都瞭若指掌，於是想如法炮製，透過羅找呂秀蓮赴中，並且言明只要呂大姐點頭同意，即可包裝各種理由安排中國之旅。檢調掌握這段對話過程，偵訊時問羅志明，呂大姐指的是誰？羅始終不願說明，不過，在回覆李鷹的催促時，羅志明說：「不行，她仍有國安人員保護中。」專案小組於是挑明訊問，有國安人員保護的呂姓女子，符合條件的僅有呂秀蓮一人，至此，羅眼見紙包不住火，才坦承2人對話中提及的呂大姐，確實是呂秀蓮沒錯。由於呂曾任兩屆副總統，任職期間接觸許多國家機密，李鷹希望透過羅志明邀她前往中國訪問，但羅認為呂仍有國安人員保護，吸收成功的機率太低，李鷹知道難處後隨即回覆：「收到，明白了。」才使對岸企圖滲透呂秀蓮的目的未能得逞。https://www.mirrormedia.mg/story/20230328inv001/48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月===========================================================馬英狗任期 軍備國防大幅衰減役男4個月笑破美國人 反觀同時期對岸百艘神盾下水甚至想吸收呂副 軍中高達48位高官被滲透突防根本戰力盡失~~馬英狗賣台還有人想為他辯解?!幸好台灣2016選上DPP 整個撥亂反正.......各項法律通過 軍備疫期加強馬政府真是台灣最不堪回首的八年.....</t>
+          <t>餓死抬頭你各位進來猜一下國民黨 總統候選人 是誰感覺時程 很不穩定感覺會變來變去 不好徵文如果跟之前換柱一樣 那也不算猜的時間就到第一波 國民黨自己公布 候選人是誰後來有變數的話 看情況 要不要再猜第一波 猜對的我給 稅前200p==我看誰是通靈大師這樣ok吧</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[公告] 轉錄文章請注意 不能有斗內捐款資訊</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075410.A.38D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679414519.A.704.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>※ 引述《XX9》之銘言: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 也隨機認識了些朋友, 聽一下他們的故事: 先說結論吧: 經濟崩盤是真,消費不振是真.: 在台灣聽這些消息時, 事不關己 ,會比較冷漠.: 但當自己真實認識當地人民後: 不論是底層或曾經的中產,或知識份子: 都可以側面窺見整個社會氛圍: 和數年前的氣氛有很大的落差: 前幾年的大陸那種狂與浮躁感非常誇張: 普遍對未來感到有正面預期: 但這次則完全沒有,取而代之的是迷茫與煩惱: 我認識的有: 疫情下中產商界人士 破產倒閉賣房欠債 只求生存: 原來真有這樣的人 還真不少: 目前這樣的人 只是低調地在各城市流動: 由於並非農民工 還能住得起房: 預計會更接近日本的網咖難民: 其他朋友是一般普通上班族 大型上市製造業公司: 我正好聽見對方公司宣布下個月獎金停發 可能會有新一波裁撤: 獎金停發大概會導致這位仁兄一半的收入消失: 至於住橋洞和車站的 自媒體上有影片: 我自己行程原因 也不會特地去跑一趟 太麻煩了: 農民工階級我預計會死很多人: 你說GDP崩20%, 從街道人流去看並不會覺得太誇張: 核心商業區當然依舊有正常消費人口: 但比較偏的商業街 傍晚幾乎沒顧客: 我說的是二線城市以上規模: 要說正面的進步也是有啦: 比如手機支付的應用更普及了 乘車碼 奶茶店更普遍了: 大概就這些吧: 每個人背後都是一個家庭: 未來十年會死很多人: 也會有更多悲劇傳出 可能耳聞時只是一條新聞: 不過真實去接觸人 會有同理心和同情心氾濫出現: 不知道該說什麼: 希望不要死太多人: 當然這些死人的消息 很卑微 也傳不到我耳裡: 這都是台灣不曾出現的情景 台灣很穩: 喔對了 Realtw我有去廣西: 是蠻像越南的 房價又便宜 機車也多 發展得不錯啊: 不過我應該是不會想去工作生活啦: 恭喜你找到一個自己熱愛的土地: 只是不適合我: 也讓我更珍惜臺灣了 感動啊: 我去觀光也幫你們創造GDP了: 不用下跪啦 我沒那麼偉大: 其實也沒花多少錢: 如果能間接讓你多活五秒 也算是功德一件啦: 你以後不要再吹噓了唷: 如果需要照片當證明的話,我可以晚點放連結到推文這次當然是真的川普那次還很多外商想說花錢消災，中國供應鏈太完整了，跑去國外並沒有比較好。疫情後是，美國國策轉向，高階要封死中國，中低階的你現在不跑，哪天不準中國貨進美國是遲早的大老闆轉出中國，打工的不跑才怪中國跟日本/亞洲四小龍一樣，都是靠美國供應鏈起來的你現在跟大老闆幹，大老闆也出台一堆政策要幹死你神經病才會留中國當然，要做中國內需的可以待中國其他的全部ㄉ要跑不然哪天訂單就沒了大家都跟著錢走中國沒得撈了不走等死中國只會越來越慘只能靠內需循環感謝總加速師赴死</t>
+          <t>宣導一下這兩天有發現個案，轉錄的文章內容裡面有抖內捐款帳號基本上這種屬於私人營利性質的會被判定為廣告文(四-2)公益性質的也要先跟板主申請才能發(二-8)然而，板規二-5-h規定禁止修改轉錄內容所以把營利部分刪掉的作法，以現行板規來說也是不行的板主群會討論是否有這個必要補充板規現階段最好的解法就是不要轉錄含有營利內容的文章包括抖內、購物、商業連結、超明顯的業配等先感謝大家的配合</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Re: [討論] 事實證明民進黨根本不會談判</t>
+          <t>[黑特] 蔡EE 過境美國見民代，中國有啥好森氣的</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075536.A.423.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079297.A.826.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>民進黨不必要「真的」會談判，他們只要「會吹牛」跟「選贏」就夠了像中共同路人的賴功德，有人能夠細數他在國代、立委、市長、院長任內的「政績」嗎？賴有哪項政績跟柯文哲比是贏的？還債？社宅完工與興建中戶數？行人死亡率？不然就比當醫生的成就，柯文哲是台灣葉克膜之父，賴是肝膽腸胃內科權威嗎？結果一個沒政績，沒成就的被吹什麼賴神，我看叫賴皮鬼還差不多，這貨也能選總統？這牛皮真的吹大了不服歡迎來打臉</t>
+          <t>如題，蔡EE訪友邦過境美國見民代麥卡錫跟共和黨民代代表，並受邀到不具官方色彩的地點演講。不就跟馬這個一樣嗎？馬這個還有見地方的書記蔡EE只有見民代，高下立判，中共是在森氣氣啥？看不懂</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[黑特] 母豬出國搭China Airline，綠憤吞了</t>
+          <t>[討論] 內閣為何不能採政黨比例制?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075648.A.DC9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079395.A.215.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>可憐哪，母豬出國搭China Airline！沒想到綠憤們都裝死裝瞎硬吞下去！連罵都不敢罵？母豬果然是中共同路人，一下子說自己是中國人，讀中國書長大，這下又搭China Airline出國！然後綠憤們還是硬挺瞎挺？甚至喪事喜辦地說，美爹沒派官員接機是好事？好林老木啦，被無視，連噴都討不到一碗叫好事？到時又被斷叫又是好事？綠憤是不是只會諱敗為勝，喪事喜辦？中國母豬好棒棒？</t>
+          <t>既然不分區立委可採政黨比例制那內閣也可以採政黨比例制這樣是否會更好呢?不管國際上是否有前例台灣需要創意可以廣納人才 不分黨派</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Re: [黑特] 原來馬英九是去祭祀滅亡的中華民國</t>
+          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075650.A.3D7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079592.A.7C3.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>KMT 支共 同推的孫文1866年11月12日孫文在廣東省廣州府香山縣翠亨村誕生乳名帝象，上村塾讀書時取名文，成親時取字德明</t>
+          <t>我是美國政府我也喊停，不過跟支那沒啥關係，美國有外星科技軍武，根本不在意支那。為什麼要喊停？首先，現在國際大環境/大風向是什麼？是同意台灣是個獨立國家，傳統支持台灣的美國/日本不用多講，現在連捷克/立陶宛這些過去覺得跟我們台灣沒啥關係的國家都來了。可見台灣的地位已經在國際越來越彰顯。所以，美國內心深處希望蔡總統用什麼形式拜訪美國？當然是&lt;台灣總統&gt;且正式訪問美國啊！有了上面認識後，我們再看看這次蔡總統實際上是用什麼形式拜訪美國？過境。我是美國政府，我一定想：過境？原來我大美國只是妳過境歇歇的地方？！然後再一看，目的地是中(華民)國友邦，我是美國我氣啊！！都暗示妳這樣明顯了，妳是代表台灣，不是代表中(華民)國！就算要過境，也拜託妳目的地是台灣友邦，比如加拿大好不好～～～所以這次美國突然喊停，意思就是告訴蔡總統，告訴我們台灣人，要想清楚為什麼來美國呀～應該是用台灣國總統的身分來美國呀～我知道，藍白豬腦這時要無能狂吼：那為什麼美國不直接跟台灣建交？唉，真的是一群豬！美國是民主國家啊！怎麼能直接告訴台灣：你給我正名！這是干涉內政好不好～　只能用這種暗示的方式。美國是在等我們正名制憲，堂堂正正以台灣國的身分，獨立於地球上，到時美國肯定搶第一個來建交。該醒醒了，美國老大哥給暗示了，不要過境，不要用中(華民)國總統身分，請正式拜訪，用台灣國總統身分！天佑台灣！！！</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[討論] 政黑板板主每天挑釁板友對嗎？</t>
+          <t>[新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075711.A.99B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080208.A.B1E.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>這幾天不知道怎麼一回事政黑板板主，政黑宋楚瑜的文章都一直在挑釁板友然後就吵到無以復加，害某個政黑板友陪他浪費五小時，還是好幾個五小時。有必要這樣嗎？好運姐被你們趕走又到處蒐集全站水桶，還不夠嗎？一定要趕盡殺絕才善罷甘休嗎？收手吧。以和為貴不是很好嗎？政黑點：常看到有人說民進黨政府挑釁中國，政黑板板主是不是在模仿一樣的事？</t>
+          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230328005983-2604072.新聞來源︰中時3.完整新聞標題蔡政府將機密雙手奉上給美國？徐巧芯踢爆國安會會議內幕4.完整新聞內容︰行政院長陳建仁日前喊「不要在那邊講疑美論」，引發朝野攻防。國民黨台北市議員徐巧芯28日在《張雅婷辣晚報》爆料指出，國安會1月16日召開一個機密會議，發現美國跟台灣在辦兵棋推演時，裡面有所謂資訊交換的要求，包括基礎設施、光纖網路、通訊設備，美國都要管。她質疑蔡政府雙手奉上我方機密資訊？還讓美國擁有光纖電纜通訊的訪問權，是否表示有權限掌握台灣的網路？這樣中華民國還有主權的獨立嗎？徐巧芯表示，要公開請教國安會祕書長顧立雄，有沒有在1月16日國安會召開一個機密會議，這些文件也要封存10年？希望有立委可以看到這件事情，知道有多重要，把這個議題帶到立法院裡去。台美關係好歸好，但不能把主導權交給美國吧？台灣不管基礎設施或光纖網路，所有內容應該要掌握在我們手上，但發現美國跟台灣在辦兵棋推演時，裡面有所謂資訊交換的要求，因為美國好像覺得台灣基礎設施很差，若開戰的話一下就崩壞了。「所以不管基礎設施、光纖網路、通訊設備，美國通通都要管！」徐巧芯提到，美方要求，要逐一去檢查風險，民進黨抗中保台在美國眼裡，似乎是玩假的，所以人家就要把你的主導權拿過來，逐一去檢視。資訊交換是美國跟台灣互換嗎？還是名為交換，其實是我們雙手奉上我們的機密資訊？我們只有換到他們顧問給我們的一些意見。徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸的地方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司，說到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路？擔心的是這個。「顧立雄應該好好來說明。」徐巧芯強調，因為其中還提到協調美國要來參訪軍事作戰中心，再配上先前的美國學人訪問計畫，立委高金素梅曾在立院質詢，就是美國官員可以來我們中華民國的政府部門裡工作。再加上《全動法》他們一直希望去推動，把這幾件事加在一起看會發現，「台灣目前真的，中華民國還有主權的獨立嗎？」還是凡事都要聽美國的，凡事都要給美國監管？徐巧芯直言，真的像美國爸爸一樣，我們要每天交作業給美國，讓美國人幫我們打勾？當然基礎設施要做好，但當資訊交換、軍事作戰中心、光纖電纜的登入站，如果這三樣東西都讓美國人來擁有存取訪問權限的話，那是不是台灣人的隱私跟個資有外流的可能性？所以請民進黨不要再講說疑美論有什麼問題，如果真的有這樣的機密會議的話，台灣人難道沒有懷疑美國的資格嗎？資訊交換換到什麼？為什麼政府不告訴我們？5.附註、心得、想法︰台北市議員徐巧芯，手上掌握到國安會年初的一場機密會議的情資。這個訊息讓她強烈質疑國安會祕書長顧立雄辱國喪權，我們的政府竟然把國家的重要資料外流給美國爸爸。從目前的表現來看，巧芯確實能夠勝任立法委員的位置。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[討論] 一人舉一個綠狗政權捍衛台灣主權的例子</t>
+          <t>[討論] 這次畢業旅行會超買多少菸？</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076078.A.1D0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080341.A.69A.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>如題。大家都說投綠狗就是愛台灣，投藍白等於賣台，我智商只有20所以我深深相信大家跟我說的，剛剛我隔壁的鄰居問我為什麼投綠狗等於捍衛台灣主權，我想一想還真舉不出什麼例子，有綠狗糞要幫忙舉例一下嗎？謝謝※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>這次是EE的畢業旅行，一定要買些紀念品紀念一下。依照我黨愛買菸的傳統，一定要超買菸紀念一下。所以這次畢業旅行會超買多少菸？</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[討論] 未來台中市長顏寬恆</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076395.A.71F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080379.A.FA5.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>川普關稅制裁中國無效當然是有原因的現在的世界生活就是綁在一起套句黨說的話是中國需要台灣反過來說台灣也需要中國美國要制裁中國但是美國也需要中國所有國家就是這麼的互相需求中國經濟不好一點都不奇怪美國經濟也不好台灣今年經濟也很不好科技製造業從去年10月出口就開始衰退民生內需產業到過年前還不明顯過完年後到現在門市,百貨,餐飲,網購營業額隨便都是20~30%衰退對比去年估計至少會一路黑到9月外商在台灣也開始裁員了護國神山比較不怕景氣起伏有人笑美國印鈔票印到銀行爆炸有人笑中國爛尾樓一片韭菜死滿地現實就是經濟好就是全世界一起好美國或中國經濟不好也是全世界一起壞今年就是大家一起過苦日子希望年底就可以回暖</t>
+          <t>如果造這個情況繼續下去台中的主人顏寬恆應該是台中市長以後要佔多少國有地都輕輕鬆鬆國民黨還在裝死嗎？還是台中人覺得黑道治國好藍粉說看看啊</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[黑特] 加入國民黨民進黨光明會死後去的地方！</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076750.A.EB0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080693.A.0A4.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:   人家篡位者? 更好笑~~現實中國共兩黨當初都在ROC架構之下沒錯:   但是人家贏了中國大陸的領土，人家1949年獨立於ROC之外了也是世界都承認的事情阿Q的是你吧我都講2758號決議(1971)了你還要回這種東西被打臉PRC1949成立後承認的沒幾國喔至少在主要大國中沒幾國承認我舉主要的就好與中華人民共和國建交日期日本      1972年9月29日南韓      1992年8月24日馬來西亞  1974年5月31日菲律賓    1975年6月9日新加坡    1990年10月3日印度      1950年4月1日土耳其    1971年8月4日沙特      1990年7月21日埃及      1956年5月30日南非      1998年1月1日俄羅斯    1949年10月2日(當時是蘇聯 第一個承認PRC的國家)法國      1964年1月27日英國      1972年3月13日德國      1972年10月11日西班牙    1973年3月9日古巴      1960年9月28日加拿大    1970年10月13日美國      1979年1月1日巴西      1974年8月15日澳大利亞  1972年12月21日新西蘭    1972年12月22日來源 https://reurl.cc/b7dknX可以看見2758號決議是一個中國到底是誰的決定性事件中華民國在國際上的地位還是撐了很長一段時間而不是你講的世界一開始就承認PRC這種拉扯也多少印證我前一篇講的東西至少印證了國際局勢不一定有其必然性所以中華民國更應該宣示有大陸主權另外身為一個疑美仔我必須說美國在這件事情還算有情有義了你看看一直講台日友好的日本跑的比南韓快多了</t>
+          <t>你們知道加入國民黨民進黨光明會死後會去哪裡嗎？會去撒旦統治的世界。。。。在那個世界會跨越陰陽兩界。。變成羅剎夜叉或小鬼被撒旦役使。。。等待跟這些撒旦光明教徒簽契約（抓交替）。。一但契約得手，就可漸漸把這些撒旦教徒的身體和行為控制住。。接著撒旦會視簽約者是否有福報，來決定他們的死活，如果有福報就會讓你做很惡毒很壞的事來達到祂控制世界的目的！等到沒有福報就會直接把你身體搶走使用你在世間的財產和力量吃喝玩樂和試圖控制人類生活和政權，讓你死掉變成羅剎夜叉抓交替(惡性循環)，最重要是不管你是死是活，只要被控制住，撒旦要你吃大便，你就要吃大便，要你殺人，你就要殺人，要你用有錢人的身體跟各式各樣的女生上床，你就要一直上床，等壞事做盡連當羅剎夜叉的福報都沒有，就直接下地獄！就算有修行人想幫你忙都很難很難。。。因為就像白雪公主的巫婆後母和糖果屋吃人肉的羅剎婆婆一樣僧人想幫忙超度是很難很難的事弄不好連僧人都會下地獄！為什麼我知道？因為我有親人原來是國民黨的託夢給我！我怎麼迴向都沒有用！</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Re: [新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
+          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076892.A.FA1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081054.A.132.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>※ 引述《ericliu007 (彥)》之銘言：: 1.新聞網址︰: ※ 網址超過一行 請縮網址 ※: https://www.chinatimes.com/realtimenews/20230329002818-260407: 2.新聞來源︰: 中時: 3.完整新聞標題: ※ 請完整轉載標題 請勿修改與編排 ※: 葉元之驚爆友人兒以為「這人」才是國父：教改太可怕了: 4.完整新聞內容︰: ※ 請完整轉載原文 請勿修改內文與編排 ※: 12:32 2023/03/29: 中時新聞網 黃朝郁: 前總統馬英九出訪大陸展開祭祖之旅，昨（28）日率先前往中山陵、孫中山先生紀念館等地: 。國民黨新北市議員葉元之透露，友人的兒子竟然以為鄭成功才是中華民國國父，感嘆道「: 由此可知，馬總統昨天去中山陵謁陵有多重要！」: 馬英九昨日前往中山陵，題字「和平奮鬥，振興中華」8個大字，而落款時除寫下西元的202: 3年外，同時也寫下了民國的112年（百十二），還提及前總統這幾字，得到網友的大力讚聲: 。: 不過葉元之今日在臉書表示，友人傳訊給他，告知兒子居然詢問「我們有國父嗎？國父是誰: ？」而當友人解釋是孫中山先生時，他兒子居然追問「那鄭成功呢？」讓該友人差點暈倒，: 驚呼「我們的教育到底發生什麼事？中華民國國父成了鄭成功？」: 其他網友看到後也忍不住說「因為歷史已經被改的不是歷史了」、「真的，我小孩歷史課背: 一堆日本人名」、「不意外，篡改歷史是民進黨的認知作戰」、「我是補教文科老師，有不: 少國小生認為國父是蔣渭水」、「幾年之後是史明或是辜寬敏，悲哀的歷史課本」、「不要: 小看教改的影響力，很～可～怕～」。: 5.附註、心得、想法︰: ※ 40字心得、備註 ※: 葉元之從朋友兒子經歷，感嘆現在的</t>
+          <t>美國當然不在意中國但是台灣正在玩火馬英九去中國喊出了中華民國馬英九去中國喊出了台灣總統美國情報局掌握到現在過半的台灣地區人民心情振奮激動意思就是馬英九在中國的中華民國論讓台灣地區人民誤以為中共已經接受中華民國這是非常危險玩火的舉動如果這時候美國又見蔡英文總統那就是火上加油會讓全台灣地區的人民誤以為中美兩國已經接受中華民國到時候台灣地區人民認為中美兩國已經認同中華民國做出了錯誤的政治決策到時候察槍走火這不是美國想見到的畢竟現在烏俄戰爭還沒結束美國不想同時應付兩條戰線而且台積電到目前為止還沒完全轉移到美國貿然開戰美國也會受傷我敢說等台積電完全轉移到美國那天就是中華民國或台灣總統正式進入美國國會的那天※ 引述《moslaa (良心台派+正義DPP支持者)》之銘言：: 我是美國政府我也喊停，: 不過跟支那沒啥關係，美國有外星科技軍武，根本不在意支那。: 為什麼要喊停？: 美國是在等我們正名制憲，堂堂正正以台灣國的身分，獨立於地球上，: 到時美國肯定搶第一個來建交。: 該醒醒了，美國老大哥給暗示了，: 不要過境，不要用中(華民)國總統身分，: 請正式拜訪，用台灣國總統身分！: 天佑台灣！！！</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[新聞] 賴清德將授旗 「信賴台灣願景協會」台南</t>
+          <t>Re: [討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076926.A.E4F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081191.A.558.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42549142.新聞來源︰自由時報3.完整新聞標題賴清德將授旗 「信賴台灣願景協會」台南扛頭旗4/15成立首個分會4.完整新聞內容︰2023/03/29 13:58〔記者洪瑞琴／台南報導〕民進黨主席暨副總統賴清德將代表民進黨角逐2024總統大選，民間力量號召成立「信賴台灣願景協會」，由台南扛頭旗成立全國第1個分會，將於明（29）日開籌備會，敲定4月15日在桂田酒店舉行正式成立大會，由賴清德授旗首發，帶動挺賴力量遍地開花。協助台南分會籌備事宜的親賴友人表示， 台南是賴清德從政發跡「本命區」，第1個分會從台南出發別具意義，希望打響踏穩第一步，帶動全國挺賴士氣與信心，而且「信賴台灣願景協會」的使命責任，與一般後援會競選臨時任務不同，協會將朝登記立案社團發展，各地設分會，成為挺台灣民主堅定向前的力量。親賴友人表示，4月12日賴清德正式獲得民進黨黨內提名總統人選後，4月15日在台南成立信賴台灣願景協會第1個分會，集結社會各界、企業、醫界等民間力量，明天將開會討論台南分會會長人選與籌備事宜，目前敲定在桂田酒店國際廳舉行分會成立大會，估計至少5、6百人參加。參與台南分會籌備的賴清德台南醫療大聯盟後援會總召陳相國表示，大聯盟後援會有27個分會，以及6師後援會（會計師、律師、建築師、醫師、牙醫師、中醫師） 動員相挺，台南對賴清德競選總統之路很重要，因此信賴台灣願景協會第1個成立的分會，賴清德與後援會有共識，一定要留給台南。另有挺賴人士表示，回顧2019年民進黨總統初選，當時賴清德挑戰現任總統蔡英文，激發黨團結士氣，不畏黨內壓力與外界輿論，選得十分艱辛，甚至黨內同志敏感到「不敢靠近」表態支持，但賴清德仍讓大家看見他的沉著堅定，如今參選2024總統定於一尊，帶動團結勝選信心， 一定更是不可同日而語。5.附註、心得、想法︰2019年賴功德院長逼宮蔡英文總統，初選之前非常堅毅，初選之後顯得十分悲情。https://i.imgur.com/DlTNO7q.jpghttps://i.imgur.com/re5AOlA.jpg2019年賴神逼宮蔡英文，賴神的好麻吉邱莉莉議長堅定的和功德院長站同一陣線。https://i.imgur.com/ac0v73d.jpghttps://i.imgur.com/eEK4O2i.jpghttps://i.imgur.com/S5ASPMe.jpg「信賴台灣願景協會」舉行正式成立大會，由賴清德授旗首發，該由邱莉莉代表。</t>
+          <t>Me too上禮拜剛從昆山出差回來平日晚上或週末放假 去逛商城 人潮是真的明顯減少工廠作業員人力減少 不是找不到人 是不給招人現在也不給報加班 local RD五點一到全部準時下班有跟他們聊一下 縮編持續進行中聽說RD被派去產線打螺絲逼退的也有 不知道什麼時候會整廠搬走物價體感沒比台灣便宜 手機支付超級方便昆山市容屌打台灣所有城市房子漂亮 路大條整齊 規劃好 人行道寬駕駛素質倒是不怎麼樣 喇叭按不停而且騎車的大概一半沒戴安全帽 很有南部feel健康碼只有出入境要填 自己給你選選項核酸說是要做 但不管台灣做還是昆山做 出入境根本沒人檢查做做樣子而已</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Re: [討論] 馬娘是不是比想像中還有料???</t>
+          <t>[討論] 如果2020正副總統候選人互換 人民少苦4年</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076931.A.DC8.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081212.A.B5B.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>※ 引述《B0988698088 (廢文少女小円♥)》之銘言：: 先說我本來以為這次訪中充其量就是連爺爺2.0那樣去跪的: 結果居然直接炸人家主堡: 你能想像藍統馬居然能比蔡菸文還獨嗎?? 簡直反襯綠營有多共產!!: 直接盤點這次去幹了哪些成績：: 1. 當面洗江蘇書記臉，自稱台灣總統最好是有自稱台灣總統。連在台灣8年都從沒自稱過台灣總統了，去中國會這樣自稱？光看開頭第一點就在發揮聯想，以下可想而知。: 2. 直接洗共媒臉，共媒重複問從國父學到什麼，馬上嘴「我剛剛不是說了嗎？」: 3. 自比國父，稱國父當了中華民國總統，我也當了(中華民國總統): 4. 在南京直接講中華民國112年在南京的什麼場合講？聽說他預定的致詞確實有民國112年，他事先唸了這段致詞，當然是在南京唸的，但唸給誰聽？在南京睡前唸也算嗎？而正式致詞時就不敢唸民國112年了，可見明明就是精心設計提供給統媒，用來魚目混珠騙台灣人的。: 5. 拜謁中山陵，白紙黑字落款民國112年(各位 你最愛的白紙黑字來了= =)白紙黑字只有百十二，沒有民國。民國被馬特首消失了。: 6. 直接提習先生，畢竟是唯一會面過習的總統所以有談資，提及過往對話現場連個屁都?::</t>
+          <t>韓國瑜很會講，但後來被發現說的和做的有點落差但是理工男張善政，默默做卻表現出強大能力市長滿意度調查，只有10%不滿意如果扣掉一些偏激的人，幾乎可以算是零負評2020若是主打總統張善政副手韓國瑜用他的口才幫張善政宣傳現在就是張韓配執政，人民少苦4年不用等到2024才解脫.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[新聞] 桃園到高雄16具「半裸浮屍」！有5具台灣</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076945.A.4A9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081402.A.7BE.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 如果需要照片當證明的話,我可以晚點放連結到推文已經放到原文的推文中 作證明https://imgur.com/7aUZygH另外這位朋友的問題somehog: 推肉身田野調查，請問現在進出中國仍是      49.216.26.57 03/29 15:39→ somehog: 持台胞卡免簽嗎？目前是免簽沒錯但你需要帶手機 做健康碼申報印象中每個口岸 通關 都要你在排隊通關的過程就會有 https://imgur.com/0bOFHEP跨境一定會有這個從台灣過去的話 你需要先做PCR或醫院快篩 否則進不去中國大陸不用管我挺不挺小英 愛台灣就是要用行動證明唷愛台不需要反中中國人加油吧</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://news.tvbs.com.tw/local/20822492.新聞來源︰TVBS3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※桃園到高雄16具「半裸浮屍」！有5具台灣人　這縣市數量最多4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※https://imgur.com/hpGI7js.jpg台灣沿海連續發現浮屍！原本3月初先在台中港離岸風電高台上發現一具男屍；怎料，事隔2週，海巡隊在台中往南到高雄沿海，發現7具半裸男女浮屍；怎料，最新進度，從桃園到高沿海，一共發現16具浮屍，其中5具疑似是台灣人，有中華民國證件，「這縣市」浮屍數量最多！https://imgur.com/g6XxymE.jpg台中地檢署今針對此案說明，本月4日至17日期間，海巡署從桃園到高雄沿海撈獲11具男女無屍。此外，台中港離岸風電高台上還有一具男屍；換句話說，這短短半個月已找到12具無名屍。https://imgur.com/AJh0WbZ.jpg沒想到，再找到4具浮屍，累計至今共16具無名屍。海洋委員會海巡署今日透露，3月迄今，已在海上岸際線發現16具大體，其中有2具男屍卻定為越南籍身分，5具遺體身上有台灣籍證件。https://imgur.com/TVlgNMC.jpg根據統計，無名屍地點分別在，4日桃園市新屋溪北岸；5日台南市七股區網仔寮沙洲；6日雲林縣湖口鄉外海、台南市青山漁港港嘴海面；7日台中外海、彰化縣王功西方海域、雲林縣麥寮西方海域、台南市將軍西方海域。另外，10日雲林縣外傘頂洲、高雄市茄萣區沙灘；14日新竹圳頭西方海域；17日台南市七股區網仔寮沙洲等處，都有發現浮屍，全台一共有16具。https://imgur.com/F5ZkMxR.jpg從桃園、新竹沿海一路到高雄，浮屍遍布7個縣市；根據統計，台南市一共有4具，浮屍數量最多，雲林縣3具，其餘桃園、新竹、彰化、台中、高雄都有浮屍。由於屍體數量過多，相關單位初估懷疑是越南偷渡犯人蛇集團丟包。https://news.tvbs.com.tw/local/20822495.附註、心得、想法︰※ 40字心得、備註 ※抓一隻狒狒媒體報了18天狒聞 狒狒死了繼續報然後這篇新聞說近半個月找到12具無名屍所以這12名浮屍都沒比一隻自由的狒狒還重要就是了是台灣媒體在蓋新聞 還是政府都不在乎人命</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[討論] 台灣是悲情城市嗎？</t>
+          <t>[討論] 小孩不認識孫中山很正常</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076964.A.9B9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081494.A.BD6.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>馬英九去南京大屠殺紀念館哽咽，想到當初國民黨不論在中國或是台灣，都殺了為數眾多的共產黨員，覺得甚是諷刺國民黨要被共產黨打敗多少次呢？前天去威秀看悲情城市修復版，聽到過世的陳松勇說出「咱本島人最可憐，一下日本人，一下中國人，眾人吃、眾人騎，沒人疼。」想到現在的台灣，也是一樣吧。各個政黨用意識形態玩選舉，中國台灣關係永遠是政客不處理正事的搪塞藉口，反正關著喊喊，中華民國還是台灣，出了小島都跟啞巴一樣看中共噁心也是啦，桃園官員擺拍都可以把狒狒弄死，更不用討論台灣行人地獄問題、電力能源供給、人口老化議題，大家繼續吵中華台北^^台灣這塊土地自然環境明明這麼美、擁有多元的野生物種（雲豹滅絕，但還有石虎、穿山甲等）被弄到這麼醜惡，有些人忙著去中國祭祖、更有人忙著用祭祖議題掩蓋施政效能低落，台灣是否真的是座悲情城市？</t>
+          <t>針對前面原汁說他朋友的兒子以為國父是鄭成功那篇，因為不知道為什麼一直不能回文，所以我直接發一篇文認真回：我姪子現在讀小學五年級，他們社會課現在學的是「臺灣歷史」，前陣子剛上完「明鄭時期」，所以他們現在熟悉的歷史人物是鄭成功、鄭經、陳永華，所以原汁的朋友的小孩直覺講出鄭成功很正常，因為那是他現在熟悉的歷史人物，他還在學習然後他們最近正進入清領時期，正要接觸劉銘傳、中法戰爭、沈葆禎、牡丹社事件，然後再來甲午戰爭割讓臺灣所以根本還沒學到「中國」歷史跟朝代，也還沒接觸到清朝末年，就算接觸到也是臺灣歷史這邊的清末人事物，所以不認識孫中山很正常好嗎？教學是講究循序漸進的，中國歷史是國中才會教，孩子還沒學到推翻滿清你就直接跟他說我們的國父是孫中山喔！他們只會一臉你在供三小的表情看著你，想說孫中山是誰啊？！藍白賤畜能不能先關心一下自己的小孩現在學習進度到哪裡再來靠北</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[新聞] 疑越南人蛇集團海上丟包16具遺體 5台籍</t>
+          <t>[討論] 中華民國的網域是什麼？</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077564.A.00F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081787.A.FD4.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>疑越南人蛇集團海上丟包16具遺體5台籍2越籍9人待查https://bit.ly/3G1yFIJ自由 邱俊福針對本月台中往南到高雄沿海地區陸續發現多具男女浮屍，疑似有越南人蛇集團涉嫌海上丟包事件，海巡署表示，海巡人員本月至今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，根據身上的證件5具為台籍、2具為越南籍，其餘9具身分尚待查證，至於有無涉及偷渡情事，已會同相關單位深入調查中。海巡署表示，3月迄今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，均由署或轄區警察單位報請地檢署辦理相驗事宜，其中僅2具男浮屍確認為越南籍身分。另清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐台北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。海巡署表示，海岸海域執法工作，為嚴防偷渡案件，近年除積極掌握轄內偷渡集團動態，加強對轄內可疑人、船活動的注偵查察外，亦持續強化轄區巡查及執檢力度，確保我周邊海域安全。</t>
+          <t>中華人民共和國是 .cn中華民國的網域是 .tw為什麼網域不是 .roc.tw 是什麼喪權辱國的網域為什麼國民黨當初沒有抗議居然用區域名稱當網域是把自己當成 .hk 嗎中華民國派馬英九們上中華民國網站跟 .gov尾巴是打 .cn .tw 還是 .roc國旗裝生物怎麼還不上街抗議</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Re: [新聞] 「蔡英文你什麼身分訪美」？　朱立倫怒</t>
+          <t>[新聞] 黃珊珊「社會賢達」入列！民眾黨選決會名</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077714.A.167.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081887.A.65C.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>※ 引述《LeeSeDol (嘖嘖...)》之銘言: 蔡英文現任總統，在美國不敢說自己是中華民國總統，: 反觀馬英九卸任了，還敢在中國高官面前講自己是台灣總統，: 高下立判！LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，不是，你現在是不是高潮了，因為馬英九在中共說他是"台灣"總統，而蔡英文在美國連自己是台灣總統都不敢講，但是，醒醒啊，他是國民黨馬英九1.0，不是馬英九2.0的蔡英文，不要認錯人亂誇獎啊，馬的，就說綠粉真的沒有下限欸，中華民國國父是蔣渭水你也能接受，像個台灣人好嗎...呃，怕死愛錢蕭當官</t>
+          <t>黃珊珊「社會賢達」入列！民眾黨選決會名單出爐　4／3討論立委提名https://www.ettoday.net/news/20230329/2469515.htm記者袁茵／台北報導民眾黨29日召開中央委員會，並於會中通過「選舉決策委員會」成員名單，除了黨主席柯文哲、秘書長周台竹2位當然委員以外，指定委員包括新竹市長高虹安、民眾黨立法院黨團總召邱臣遠，而仍具有親民黨籍的前台北市副市長黃珊珊則以「社會賢達」入列，預計4月3日召開首次會議，討論總統、立委提名人選與時程。民眾黨29日表示，今於中央委員會會中通過「選舉決策委員會」成員名單，選決會將主責總統、立委提名人選與時程等相關作業，預計4月3日將召開首次會議；會中也通過「黨公職赴大陸地區準則」，針對黨公職人員未來「以黨名義」赴中國大陸制定條款，並於即日起實施。民眾黨提及，「黨公職人員赴大陸地區準則」規範一級主管以上黨務人員（含副主任）、直屬委員會主委，及擔任黨公職及縣市首長之黨員，以黨名義赴大陸地區，必須一週前向黨中央提出申請及報准，核准即可前往；未報准者，黨職人員赴陸不得「以黨名義」及職銜，依違反黨紀處分及相關規定辦理。民眾黨選舉決策委員會名單，2名當然委員為柯文哲、周台竹，8名指定委員為高虹安、邱臣遠、指定中央委員林富男、台大醫院乳房醫學中心主治醫師張金堅、宜蘭縣黨部主委李偉華、民眾黨黨代表張清俊，以及用「社會賢達」身份加入的黃珊珊、柯文哲辦公室特聘顧問林有志。關於民眾黨首次選決會討論重點，據了解，將討論到5名現任不分區立委邱臣遠、賴香伶、張其祿、吳欣盈、陳琬惠，以及前立委蔡壁如要投入的區域選區，不過讓6人投入區域立委選舉僅為柯文哲個人意願，4月3日選決會能否定案，仍有待討論。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[新聞] 西部沿海共「16具遺體」海巡署：2越南</t>
+          <t>[討論] 敵對政權用紅地毯接待的意義？</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078110.A.EA2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082095.A.139.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>西部沿海共「16具遺體」　海巡署：2越南、5台灣人https://news.tvbs.com.tw/local/2082193TVBS李昱菫 報導從這個月初開始，台灣西半部沿海地帶，陸續出現多具浮屍，疑似遭到人蛇集團丟包海上。據海巡署統計，3月在海上岸際發現的遺體，總計多達16具，已經由海巡署或轄區警察單位報請地檢署辦理相驗事宜，其中2具確認身分為越南籍男性，另外5具遺體上有台灣籍證件，其餘還在辨識中。據海巡署資料顯示，從3月4日在桃園市新屋溪北岸、3月5日台南市七股區網仔寮沙洲、3月6日台南市青山漁港港嘴海面、3月6日雲林縣湖口鄉外海、3月7日台南市將軍西方海域、3月7日彰化縣王功西方海域、3月7日雲林縣麥寮西方海域、3月7日台中外海、3月10日雲林縣外傘頂洲、3月10日高雄市茄萣區沙灘、3月14日新竹圳頭西方海域、3月17日台南市七股區網仔寮沙洲，都有發現屍體。據了解，遺體疑似因為在海上漂浮多日，已經嚴重腐爛，初步難以辨識身分，目前16具屍體中，2具確認為越南籍男子，另外有5具遺體上有台灣籍證件，其餘還在辨識身分中。由於浮屍出現時間相當密集，且人數眾多，遭人質疑可能是遭到人蛇集團丟包。對此海巡署表示，為了調查有無涉及偷渡情事，已會同相關單位深入查證中。另外清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐臺北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。</t>
+          <t>是這樣啦我國有些人啊，不知道是不是智能不足還是怎樣，希望敵對政權用紅地毯接待，不然就是有損國格先不說敵對政權，把他當成是同等地位的國家好了，這也是某黨最喜歡的論調幹你媽的，你跟中國建交了喔？肏，紅地毯接待前元首咧阿輝去日本有沒有紅地毯21響禮炮外加外藏省官員列席？沒有是不是該把阿輝抓起來鞭一下？講回來現實情況幹他媽現在ROC跟PRC內戰是結束了嗎？憲法都在互指說對方是不合法政權了，用元首級接待敵對政權前元首？馬能過去嗆聲大家就要拍拍手了，民進黨誰他媽敢過去中國嗆聲的？李明哲過去玩都被關好幾年，我笑你民進黨沒人比李明哲有種啦不信叫那個沒公職沒黨職賣襪子的去中國玩一下啊還是叫那個當記者然後八千塊把人家裡裡外外都玩透的那個去中國啊不敢啊？不要說林北不辦台胞證，不削過去啦辦了你也不敢過去啦笑死</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九赴陸自稱「前總統」　鄭文燦：有義</t>
+          <t>Re: [討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078372.A.CCA.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082281.A.3C4.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.ettoday.net/news/20230329/2469078.htm2.新聞來源︰ETtoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九赴陸自稱「前總統」　鄭文燦：有義務幫國家加分4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※https://cdn2.ettoday.net/images/6869/d6869825.jpg▲行政院副院長鄭文燦。（資料照／記者林敬旻攝）記者呂晏慈／台北報導前總統馬英九展開訪陸「和平祭祖之旅」，首站拜謁中山陵，題字「和平奮鬥，振興中華」致贈，落款以民國紀年寫下「百十二（112）」，受訪是更自稱前總統，並再喊出「民國」，引發網路熱議。行政院副院長鄭文燦29日受訪表示，馬英九有義務幫國家加分，中華民國在台灣是一個事實，也是兩岸互動的出發點。鄭文燦今天上午出席「第一屆ESG物流永續獎」頒獎典禮，媒體會前聯訪時關注，馬英九公開稱自己是「前總統」，這算捍衛中華民國嗎？鄭表示，馬英九作為前總統，自然有義務要幫國家來加分，「中華民國不只是歷史上的存在，中華民國在台灣已經是74年了，我想，這是一個事實，這個事實也是兩岸將來互動對等、尊嚴的出發點」。此外，針對報載警政署將下設「保八總隊」，專責於保護電廠、油庫、水庫、機場等國家重要基礎設施一事，鄭文燦說明，關鍵基礎設施的防護，必須要提升等級，包括人員、場域、設備，也包括像水電、通訊及網路，整體提升計畫都在討論與進行中，具體的部分會等拍板以後，再跟大家說明。馬英九昨天在國父孫中山陵寢獻花圈致敬，並發表「民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞」，內容談到孫中山推翻滿清、終結</t>
+          <t>這個狀況很久了。一樣是自身經歷，我三年前還在越南當台幹，採買布料的。有一次出差到江蘇盛澤。好慘。那時是中美貿易戰被加關稅。2019年10月。去染廠，五台機器染布機只開一台。事後聽說那天原本沒要排生產。聽說產的布其實業務沒客人。只是為了讓機器運作硬開的，不然工廠停止運作，銀行會抽銀根。下午三四點時，經過紡織大街，整條街五六十公尺，只有兩家有發財車裝貨。廠商跟我說以前下午三四點是最熱鬧的。現在完全沒人。另外同場加映，這個節目的來賓是去年年中逃回來的東莞台商，雖然他沒說，但字裡行間應該是本來就在苦撐，到上海封城他就覺得這個國家的經濟不會再起來了。於是潤回來退休。依他的分享，去年年中以前，東莞厚街的招租也是一半租不出去。跟我上面講的2019盛澤、原PO分享的狀況都差不多。可以互相呼應。https://youtu.be/MHtF2x_stMA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[討論] 顏家火速籌出1500萬代表臺灣經濟真的很好</t>
+          <t>Re: [討論] 未來台中市長顏寬恆</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078887.A.CDB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082281.A.5CF.html</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>小冬瓜夫婦因為豪宅侵佔國有地，被檢方調查偵訊，然後連夜交保一個1000萬、一個500萬顏家能在短短幾小時內籌出1500萬真的很屌耶！而且是在晚上，銀行早就下班了還能生出1500萬現金，真不愧是土地的主人耶！真他媽有錢啊！這1500萬裡面有多少是信徒捐給媽祖的香油錢呢？！而且沒記錯顏寬恆現在應該是無業遊民吧？一個無業遊民的家庭都能馬上拿出1500萬，那代表臺灣的經濟真的是20年來最好耶！那些哭說沒錢買蛋沒錢旅遊沒錢幹嘛幹嘛的藍白賤畜應該多跟我們顏公子學學啊！結果國民黨還要提名這種垃圾出來選立委？</t>
+          <t>※ 引述《closer0616 (closer0616)》之銘言：: 如果造這個情況繼續下去: 台中的主人顏寬恆應該是台中市長: 以後要佔多少國有地都輕輕鬆鬆: 國民黨還在裝死嗎？: 還是台中人覺得黑道治國好: 藍粉說看看啊台中市長歷來都是要高學歷的前面幾任至少中一中畢業起跳  建中也還行  去日本念大學  台大算標配或著當醫師牙醫律師盧秀燕不是台中人但也是基隆女中  政大畢業顏寬恒這種洗學歷的  抱歉  絕對拿不到市區票  這是台中人的堅持沒有市區票乖乖留在海線當議員就是顏家的路.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>Re: [新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079275.A.B80.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082346.A.050.html</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>套句當年溫家寶的話中國如果不快點進行政治改革會連經濟改革的成果都保不住https://www.youtube.com/watch?v=X51d6nO4yM8習大大疫情三年的表現讓所有資本家都有了紅色賭盤沈棟寫下的體悟:在中國，沒有權利，錢就是個屁主席一句話，阿里巴巴跟騰訊就要各上繳100億主席一句話，教育行業全滅，新東方 CEO 俞敏洪得去直播帶貨當你賺的資本無法保障時，資本家的唯一選擇只能外逃恭喜習大大總加速師讓所有在中國的資本家都有了深刻的體悟</t>
+          <t>: 「所以不管基礎設施、光纖網路、通訊設備，美國通通都要管！」徐巧芯提到，美方要求: ，要逐一去檢查風險，民進黨抗中保台在美國眼裡，似乎是玩假的，所以人家就要把你的: 主導權拿過來，逐一去檢視。資訊交換是美國跟台灣互換嗎？還是名為交換，其實是我們: 雙手奉上我們的機密資訊？我們只有換到他們顧問給我們的一些意見。: 徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸的地: 方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司，說: 到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路？擔: 心的是這個。看到非常無言中國準備攻打台灣可能從頭城到淡水之間登陸你應該去呼籲中國不要想不開就打仗有話大家好好說 兩岸大家都中華民族有甚麼話不能說一定要用打得??結果呢美國好心幫台灣檢查看基礎設施ok不ok可能有哪些問題快點一起來解決問題然後你講得一副美國 居心叵測的樣子有沒有搞錯~~今天是美國要來打台灣嗎????????不過喔美國動作這麼多看來可能是預估2027是真的很有可能會打了今年已經 2023了剩下四年而已我們大家 大部分人只剩下四年可以活了o.O之後 不是被炸彈炸死 就是沒食物吃餓死 上戰場戰死或是通訊全斷 沒辦法上網上批踢踢 無聊到死太慘了 真的太慘了所以我勸大家好好珍惜這 生命中 最後的四年有甚麼想吃的 就快點吃有甚麼想做的 就快點做有甚麼想買的 就快點買https://i.imgur.com/LtYVdEo.jpg像是 愛玉這台灣特有的以後如果統一了愛玉搞不好被中國列為 台獨食品大家不准吃愛玉一吃就代表你有台獨思想 不純淨所以大家快點趁現在 好好吃愛玉吧珍惜還吃的到愛玉的日子o.O</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>Re: [新聞] 西部沿海共「16具遺體」海巡署：2越南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072335.A.CB7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082369.A.84B.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>這根本是月經考古題可悲~到現在還有人不知道?現實上比你聰明的人應該佔大多數這些人都知道為何要堅持對大陸的主權?因為一旦放棄就是實質法理台獨現階段有必要這樣做嗎?不必要所以連民進黨都"現在太危險"我記得之前民進黨立委就有提案(陳婉真的樣子)但連民進黨自己人都不支持結果呢??太好笑了竟然有人這年頭又挑戰了!噗!!好可笑喔~對了!不能太笑他等下他又要說自己是海陸99旅退伍的了我怕傷了海陸99旅的名聲啊※ 引述《Mazda6680 (SEALs)》之銘言：:    是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情:    理組思維不用說了，就是絕大部分文組思維也根本知道的事情:    ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係:    台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈):    所以中國是我大ROC領土:    更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹:    哈哈哈:    是說現在還有多少老人還在用主權跟治權自慰? PRC也說ROC只有治權沒有主權:    所以台澎金馬是屬於PRC的:    連KMT年輕人巧芯都說出根本不想統一，都在嘴砲而已!!:    台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?</t>
+          <t>: 奇怪: 為什麼民進黨完全執政後: 會有這麼多台灣人成為浮屍？: 然後都查不出來？: https://i.imgur.com/Tb3IL5Z.jpg: https://i.imgur.com/4Mazs4R.jpg: 民進黨政客為了一隻進口狒狒: 可以悲傷到作詩寫賦: https://i.imgur.com/jLGWNSf.jpg: 但這麼多台灣人成為浮屍: 也沒看到這些綠圾政客寫賦弔念dpp的黨性就是進攻型 已經攻擊慣了 但偏偏又是過半執政黨必須壓抑住進攻慾望... 當其他黨只要出一點小事就會造成全黨高潮，所以dpp還是回去當在野黨好了 不然看到他們一直壓抑不能大鳴大放看了也痛苦...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[討論] 堅決回擊 會不會是把馬抓起來？</t>
+          <t>Fw: [新聞] 高市消保官查蛋商 未發現違法囤積</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072353.A.0BF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082576.A.9A1.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>EE要出訪 順便過境紐約跟洛杉磯國台辦氣pu pu說要是蔡敢與麥卡錫議長會面將堅決回擊上次已經搞過一次繞台軍演了這次應該會換個不一樣的把戲會不會其實所謂的堅決回擊其實是要把正在訪問中國的馬英九直接抓起來？以顛覆國家政權關進大牢？這個回擊夠猛烈吧？</t>
+          <t xml:space="preserve">※ [本文轉錄自 Gossiping 看板 #1a8_zsiq ]作者: CrazySept (九月) 看板: Gossiping標題: [新聞] 高市消保官查蛋商 未發現違法囤積時間: Wed Mar 29 17:05:56 2023備註請放最後面 違者新聞文章刪除1.媒體來源:※ 例如蘋果日報、自由時報（請參考版規下方的核准媒體名單）※ Yahoo、MSN、LINE等非直接官方新聞連結不被允許自由時報2.記者署名:※ 若新聞沒有記者名字或編輯名字，請勿張貼，否則會被水桶14天※ 外電至少要有來源或編輯 如:法新社葛祐豪、王榮祥3.完整新聞標題:※ 標題沒有完整寫出來 </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[討論] 郭台銘說台灣不能依賴中國</t>
+          <t>[新聞] 【48退將捲共諜】點名吸收呂秀蓮　羅志</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072407.A.72F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075064.A.D70.html</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>如題超重磅的新聞https://reurl.cc/mlpq5W才剛出訪美國的郭台銘說「台灣不能依賴中國」「台灣要跟美國日本整合」郭台銘這個立場感覺也不演了欸相較於這幾天才去中國跪舔的某人郭台銘的商人性格似乎已經預測到了某些國際風向了吧？郭台銘此番言論是不是把之前大肆宣揚「疑美論」的統派低能兒的臉打得劈啪響呢？統派賤畜仔你的臉是不是很痛啊？嘻</t>
+          <t>鏡周刊【48退將捲共諜】點名吸收呂秀蓮　羅志明共諜案延燒48退將文｜林俊宏    攝影｜王漢順 林煒凱台聯前立委羅志明涉在台發展共諜組織遭起訴，從而揭露中共對台滲透升級與更多不同的手法！檢調查出對岸曾企圖透過羅志明，慫恿前副總統呂秀蓮赴中，以及引介曾任國防部次長、副參謀總長、陸軍司令、大直衡山指揮所主任等48名高階退役將領，至湖北或廣東珠海等地參加球敘聯誼等活動，並穿插祭祖及參拜炎黃二帝，藉此大肆宣傳黃埔精神、促進祖國統一及一國兩制，有系統地對我方退將進行統戰滲透。知情人士告訴本刊，對岸透過廣東太普樂生技董事長李鷹，暗中滲透我軍退將至少已經10年，表面上李鷹是位商人，他的父親是中共退役空軍將領，李鷹更是中共情治系統人員，長期循著羅志明這條管道，煽動我方中將以上14人、少將30人、上校3人、中校1人，至少共48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月，也就是馬英九第二任總統期間。後來蔡英文就任總統，大幅強化國軍的國安意識，退將赴中人數驟減，羅志明這條管道開始失靈，李鷹2016年12月與2018年8月籌劃的退將赴中行程，分別只有3名及5名退將成行，到最後連退役中校都被找來參加，與馬政府時代每次動輒近20名退將出團的「滿天星」陣容相比，簡直如天壤之別。由於邀約退將赴中出現瓶頸，加上羅志明幾乎把能邀的退將都找了，對岸於是決定把滲透的層級拉高，將目標轉向政治人物。檢調監控發現，2020年12月24日，李鷹透過微信向羅志明提及：「我知道呂大姐退休10年了，是可以過來玩的。」雖然對話中並沒有講明「呂大姊」是誰，但羅志明早已知悉李鷹所說的正是前副總統呂秀蓮，因為李對台研析工作做得相當透澈，連2004年扁呂配尋求連任正副總統過程一波三折，羅志明以台聯立委身分力挺呂秀蓮的往事都瞭若指掌，於是想如法炮製，透過羅找呂秀蓮赴中，並且言明只要呂大姐點頭同意，即可包裝各種理由安排中國之旅。檢調掌握這段對話過程，偵訊時問羅志明，呂大姐指的是誰？羅始終不願說明，不過，在回覆李鷹的催促時，羅志明說：「不行，她仍有國安人員保護中。」專案小組於是挑明訊問，有國安人員保護的呂姓女子，符合條件的僅有呂秀蓮一人，至此，羅眼見紙包不住火，才坦承2人對話中提及的呂大姐，確實是呂秀蓮沒錯。由於呂曾任兩屆副總統，任職期間接觸許多國家機密，李鷹希望透過羅志明邀她前往中國訪問，但羅認為呂仍有國安人員保護，吸收成功的機率太低，李鷹知道難處後隨即回覆：「收到，明白了。」才使對岸企圖滲透呂秀蓮的目的未能得逞。https://www.mirrormedia.mg/story/20230328inv001/48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月===========================================================馬英狗任期 軍備國防大幅衰減役男4個月笑破美國人 反觀同時期對岸百艘神盾下水甚至想吸收呂副 軍中高達48位高官被滲透突防根本戰力盡失~~馬英狗賣台還有人想為他辯解?!幸好台灣2016選上DPP 整個撥亂反正.......各項法律通過 軍備疫期加強馬政府真是台灣最不堪回首的八年.....</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[黑特] 羅友志：侯的二岸論述是一場大災難</t>
+          <t>Re: [討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072411.A.504.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075410.A.38D.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>「馬英九的大陸行 幫國民黨開了一扇門，尤其是想要選總統的 一定要接的上去」「現在最重要的是，每天在那邊搞呼聲的侯友誼 二岸論述 居然用拼裝的 一點自己的原意都沒有」「侯友宜的兩半論述就是拿別人的拼裝起來」「內容根本就是一場大災難」「不講也就算了，講了之後發現他真的是一個草包，真的是一個大災難」「侯：中華民國是我的國家 台灣是我的家 最重要的我們能夠讓台灣穩定 區域和平」（除了幹話還是幹話）「從頭到尾無限循環這幾句話可見這是幕僚要他背下來的」</t>
+          <t>※ 引述《XX9》之銘言: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 也隨機認識了些朋友, 聽一下他們的故事: 先說結論吧: 經濟崩盤是真,消費不振是真.: 在台灣聽這些消息時, 事不關己 ,會比較冷漠.: 但當自己真實認識當地人民後: 不論是底層或曾經的中產,或知識份子: 都可以側面窺見整個社會氛圍: 和數年前的氣氛有很大的落差: 前幾年的大陸那種狂與浮躁感非常誇張: 普遍對未來感到有正面預期: 但這次則完全沒有,取而代之的是迷茫與煩惱: 我認識的有: 疫情下中產商界人士 破產倒閉賣房欠債 只求生存: 原來真有這樣的人 還真不少: 目前這樣的人 只是低調地在各城市流動: 由於並非農民工 還能住得起房: 預計會更接近日本的網咖難民: 其他朋友是一般普通上班族 大型上市製造業公司: 我正好聽見對方公司宣布下個月獎金停發 可能會有新一波裁撤: 獎金停發大概會導致這位仁兄一半的收入消失: 至於住橋洞和車站的 自媒體上有影片: 我自己行程原因 也不會特地去跑一趟 太麻煩了: 農民工階級我預計會死很多人: 你說GDP崩20%, 從街道人流去看並不會覺得太誇張: 核心商業區當然依舊有正常消費人口: 但比較偏的商業街 傍晚幾乎沒顧客: 我說的是二線城市以上規模: 要說正面的進步也是有啦: 比如手機支付的應用更普及了 乘車碼 奶茶店更普遍了: 大概就這些吧: 每個人背後都是一個家庭: 未來十年會死很多人: 也會有更多悲劇傳出 可能耳聞時只是一條新聞: 不過真實去接觸人 會有同理心和同情心氾濫出現: 不知道該說什麼: 希望不要死太多人: 當然這些死人的消息 很卑微 也傳不到我耳裡: 這都是台灣不曾出現的情景 台灣很穩: 喔對了 Realtw我有去廣西: 是蠻像越南的 房價又便宜 機車也多 發展得不錯啊: 不過我應該是不會想去工作生活啦: 恭喜你找到一個自己熱愛的土地: 只是不適合我: 也讓我更珍惜臺灣了 感動啊: 我去觀光也幫你們創造GDP了: 不用下跪啦 我沒那麼偉大: 其實也沒花多少錢: 如果能間接讓你多活五秒 也算是功德一件啦: 你以後不要再吹噓了唷: 如果需要照片當證明的話,我可以晚點放連結到推文這次當然是真的川普那次還很多外商想說花錢消災，中國供應鏈太完整了，跑去國外並沒有比較好。疫情後是，美國國策轉向，高階要封死中國，中低階的你現在不跑，哪天不準中國貨進美國是遲早的大老闆轉出中國，打工的不跑才怪中國跟日本/亞洲四小龍一樣，都是靠美國供應鏈起來的你現在跟大老闆幹，大老闆也出台一堆政策要幹死你神經病才會留中國當然，要做中國內需的可以待中國其他的全部ㄉ要跑不然哪天訂單就沒了大家都跟著錢走中國沒得撈了不走等死中國只會越來越慘只能靠內需循環感謝總加速師赴死</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>Re: [討論] 事實證明民進黨根本不會談判</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072541.A.CF5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075536.A.423.html</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kmt是抱著中華民國這個殼結果現在發現這個殼裡面的東西快沒有了但是又沒辦法放棄這個殼不然從統治上又或是對岸政策上來說都會出事Dpp 是一開始很想丟掉這個殼但是發現這個殼丟掉不得了台灣會出事只好巴著這個殼不放改口宣稱這個殼是綠色的但實際上這殼還是在那裡你塗個綠色上去她還是在那裡只是你心理上跟視覺上會比較舒服</t>
+          <t>民進黨不必要「真的」會談判，他們只要「會吹牛」跟「選贏」就夠了像中共同路人的賴功德，有人能夠細數他在國代、立委、市長、院長任內的「政績」嗎？賴有哪項政績跟柯文哲比是贏的？還債？社宅完工與興建中戶數？行人死亡率？不然就比當醫生的成就，柯文哲是台灣葉克膜之父，賴是肝膽腸胃內科權威嗎？結果一個沒政績，沒成就的被吹什麼賴神，我看叫賴皮鬼還差不多，這貨也能選總統？這牛皮真的吹大了不服歡迎來打臉</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[新聞] 「蔡英文你什麼身分訪美」？　朱立倫怒</t>
+          <t>[黑特] 母豬出國搭China Airline，綠憤吞了</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072693.A.770.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075648.A.DC9.html</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://www.ettoday.net/news/20230329/2469378.htm2.新聞來源︰ETToday3.完整新聞標題「蔡英文你什麼身分訪美」？　朱立倫怒：敢說是中華民國總統嗎4.完整新聞內容︰總統蔡英文睽違3年展開民主共榮夥伴之旅，為期10天將出訪中美洲，行程會過境美國紐約以及洛杉磯，第一站預計在台灣時間30日凌晨3時抵達美國紐約。對此，國民黨主席朱立倫今（29）日於中常會上批評，蔡英文訪美在機場沒講到半次中華民國，「你是什麼身分在出訪？你是代表誰在出訪？」並強調國民黨堅定立場，就是不管何時何地都捍衛中華民國，更盛讚目前赴陸祭祖的前總統馬英九，就在大陸很明確站穩中華民國與前總統立場。朱立倫表示，祝福前總統馬英九赴陸行程一切圓滿，肯定馬在大陸很明確站穩中華民國與前總統立場，連中華民國112年都清楚表達，擔任總統時對兩岸的努力也都說很清楚，「過去我在2018年時訪問中國大陸，在南京也都清楚說出中華民國」，這就是國民黨堅定立場從未改變。隨著語氣逐漸大聲、嚴厲，朱立倫重批，民進黨卻不斷雞蛋挑骨頭，這樣的態度國人無法接受，「民進黨在消滅中華民國！蔡英文訪美在機場沒講到半次中華民國，你是什麼身分在出訪？你是代表誰在出訪？」國民黨堅定立場就是不管何時何地都捍衛中華民國，真正讓兩岸和平的政黨，反觀民進黨讓兩岸衝突與緊張獲取政治利益，國人都看很清楚，希望蔡英文敢大聲說自己是中華民國總統，民進黨別嘴巴要別人說中華民國，自己都不敢講。此外，朱立倫也說，國民黨會有出訪計畫，包括國民黨智庫執行長柯志恩也將與美方智庫交流，夏立言四月也要到美國主持年度大會，整黨都是在不斷努力，希望為2024大選的總統候選人、立委候選人爭取更多朋友，「不過，我還是要呼籲一些朋友，別一直製造障礙，藍軍朋友要共同團結力拚勝選。」5.附註、心得、想法︰國民黨主席朱立倫在中常會重炮</t>
+          <t>可憐哪，母豬出國搭China Airline！沒想到綠憤們都裝死裝瞎硬吞下去！連罵都不敢罵？母豬果然是中共同路人，一下子說自己是中國人，讀中國書長大，這下又搭China Airline出國！然後綠憤們還是硬挺瞎挺？甚至喪事喜辦地說，美爹沒派官員接機是好事？好林老木啦，被無視，連噴都討不到一碗叫好事？到時又被斷叫又是好事？綠憤是不是只會諱敗為勝，喪事喜辦？中國母豬好棒棒？</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[黑特] 馬狗悼南京大屠殺，下一站悼64？</t>
+          <t>Re: [黑特] 原來馬英九是去祭祀滅亡的中華民國</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072923.A.56B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075650.A.3D7.html</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>聽說馬特首去南京大屠殺紀念館打卡，那年代更接近的64天安門廣場遇害的年輕大學生們，肯定也要去悼念一下的吧！請問是幾時要去？有卦嗎？</t>
+          <t>KMT 支共 同推的孫文1866年11月12日孫文在廣東省廣州府香山縣翠亨村誕生乳名帝象，上村塾讀書時取名文，成親時取字德明</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[討論] 如果清朝沒有被入侵 現在我們都是清國人</t>
+          <t>[討論] 政黑板板主每天挑釁板友對嗎？</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072927.A.52E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075711.A.99B.html</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>不談什麼中國正統稱呼若當時清朝好好的 沒事現在是不是就沒有啥台獨問題了搞不好還像英國一樣我們有皇帝或是國王一切中原天下太平</t>
+          <t>這幾天不知道怎麼一回事政黑板板主，政黑宋楚瑜的文章都一直在挑釁板友然後就吵到無以復加，害某個政黑板友陪他浪費五小時，還是好幾個五小時。有必要這樣嗎？好運姐被你們趕走又到處蒐集全站水桶，還不夠嗎？一定要趕盡殺絕才善罷甘休嗎？收手吧。以和為貴不是很好嗎？政黑點：常看到有人說民進黨政府挑釁中國，政黑板板主是不是在模仿一樣的事？</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[討論] 一人舉一個綠狗政權捍衛台灣主權的例子</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072967.A.22C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076078.A.1D0.html</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>: 中華民國為何要宣稱有大陸主權?: 這太好理解了吧?: 你看南北韓不就知道了?: 未來朝鮮半島如果有什麼變動: 都可以名正言順的接收對方(先不考慮背後勢力)  南北韓兩邊就是現實兩國啊..全世界誰否認南韓存在或是北韓不存在  同文同種還是照分兩國了  整天幻想接收對方，倒不如有點骨氣說反攻對方好嗎XD  你宣稱有鄉民女神主權，等她離婚你就能接收嗎  笑死: 換個角度: PRC為何那麼積極的想消滅ROC?: 因為他們某種程度是篡位者(2758號決議): 我們一天不死: 他們睡不好覺: 懂?  人家篡位者? 更好笑~~現實中國共兩黨當初都在ROC架構之下沒錯  但是人家贏了中國大陸的領土，人家1949年獨立於ROC之外了也是世界都承認的事情  一天不死他們睡不好覺?XD 真的是阿Q勝利法賽高境界  承認吧~~KMT當年輸掉中國大陸大好江山了  唯一能接收中國領土的方法就是反攻大陸而已  好嗎!! 至於一堆人嘴砲憲法哈  ROC憲法就是ROC國內法，就跟PRC憲法能管的到ROC真實存在嗎 也不行咩  所以PRC跟ROC根本兩國</t>
+          <t>如題。大家都說投綠狗就是愛台灣，投藍白等於賣台，我智商只有20所以我深深相信大家跟我說的，剛剛我隔壁的鄰居問我為什麼投綠狗等於捍衛台灣主權，我想一想還真舉不出什麼例子，有綠狗糞要幫忙舉例一下嗎？謝謝※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Re: [討論] 國台辦：蔡若與麥卡錫接觸 將採取措施回擊</t>
+          <t>Re: [討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073029.A.458.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076395.A.71F.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>※ 引述《palindromes ()》之銘言：: 回應記者蔡英文竄訪美國一事: 中國國台辦發言人朱鳳蓮表示：: 蔡英文“過境”美國不是老老實實待在機場或是賓館，而是以各種名目要同美國政府官員、: 她如果與美眾議長麥卡錫接觸，將是又一起嚴重: 違反“一個中國原則”和損害“中國主權與領土完整”: 破壞台海和平穩定的挑釁。: 我們對此堅決反對，必將採取措施回擊！國台辦這麼劇烈反應其實是打馬英九一巴掌因為年初馬英九其實是這樣呼籲https://udn.com/news/story/6656/6929821美眾議長麥卡錫傳訪台 馬英九籲蔡政府「必須非常慎重」2023-01-25美國眾議院議長麥卡錫傳出春季訪台，前總統馬英九今早在大甲鎮瀾宮被媒體問到此事，他說，之前美眾議院議長裴洛西訪台時，引來中共圍台軍演，若要邀請麥卡錫，必須非常慎重。當時馬英九也覺得如果民進黨還邀情麥卡錫來萬一又被環台軍演這非嚴重的事一定要很慎重好啦 民進黨也聽進去啦不邀請他來啦改在美國見面結果現在國台辦連在美國的土地上美國人要跟誰見面也有意見?!?!各位 這已經不是國台辦決定誰能來台灣 誰不能來 這樣而已而是連在美國的土地上 美國人要見誰也要國台辦同意才可以!!!你們說說這像話嗎???????????????????????????????所以事實上 從國台辦這麼激烈的發言來看阿伯我是很悲觀的這樣解讀1.民進黨有沒有椅美謀獨已經完全是中共說的算今天就算是蔡英文去紐約吃小籠包他一樣可以擴大解讀為椅美謀獨居然敢在美國吃台灣小籠包!這不是搞台獨是甚麼?去美國就該吃美式食物阿還特地跑去吃台灣小籠包! 這就是台獨行</t>
+          <t>川普關稅制裁中國無效當然是有原因的現在的世界生活就是綁在一起套句黨說的話是中國需要台灣反過來說台灣也需要中國美國要制裁中國但是美國也需要中國所有國家就是這麼的互相需求中國經濟不好一點都不奇怪美國經濟也不好台灣今年經濟也很不好科技製造業從去年10月出口就開始衰退民生內需產業到過年前還不明顯過完年後到現在門市,百貨,餐飲,網購營業額隨便都是20~30%衰退對比去年估計至少會一路黑到9月外商在台灣也開始裁員了護國神山比較不怕景氣起伏有人笑美國印鈔票印到銀行爆炸有人笑中國爛尾樓一片韭菜死滿地現實就是經濟好就是全世界一起好美國或中國經濟不好也是全世界一起壞今年就是大家一起過苦日子希望年底就可以回暖</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[黑特] 台灣又被美國打壓 塔綠班跪美黨人呢？</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073262.A.905.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076750.A.EB0.html</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>塔綠班 威脅台灣人民說你不可以 疑美結果今天塔綠班的頭子 要出訪美國卻被美國人打壓簡報不給你做不安排任何官員 進行見面過境層級 大幅下降明顯就是在打壓台灣欺負中華民國再看到 中國大陸願意給馬英九 說中華民國中國 明顯對台灣比較好而美國卻在處處 打壓台灣2300萬老百姓大家都看的 非常的清楚</t>
+          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:   人家篡位者? 更好笑~~現實中國共兩黨當初都在ROC架構之下沒錯:   但是人家贏了中國大陸的領土，人家1949年獨立於ROC之外了也是世界都承認的事情阿Q的是你吧我都講2758號決議(1971)了你還要回這種東西被打臉PRC1949成立後承認的沒幾國喔至少在主要大國中沒幾國承認我舉主要的就好與中華人民共和國建交日期日本      1972年9月29日南韓      1992年8月24日馬來西亞  1974年5月31日菲律賓    1975年6月9日新加坡    1990年10月3日印度      1950年4月1日土耳其    1971年8月4日沙特      1990年7月21日埃及      1956年5月30日南非      1998年1月1日俄羅斯    1949年10月2日(當時是蘇聯 第一個承認PRC的國家)法國      1964年1月27日英國      1972年3月13日德國      1972年10月11日西班牙    1973年3月9日古巴      1960年9月28日加拿大    1970年10月13日美國      1979年1月1日巴西      1974年8月15日澳大利亞  1972年12月21日新西蘭    1972年12月22日來源 https://reurl.cc/b7dknX可以看見2758號決議是一個中國到底是誰的決定性事件中華民國在國際上的地位還是撐了很長一段時間而不是你講的世界一開始就承認PRC這種拉扯也多少印證我前一篇講的東西至少印證了國際局勢不一定有其必然性所以中華民國更應該宣示有大陸主權另外身為一個疑美仔我必須說美國在這件事情還算有情有義了你看看一直講台日友好的日本跑的比南韓快多了</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[黑特] 原來馬鷹狗提的中華民國是歷史啊！</t>
+          <t>Re: [新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073273.A.198.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076892.A.FA1.html</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>馬狗說孫文創建中華民國，這沒有問題，對中國政府而言，中華民國就跟宋元明清一樣，是中國歷史上的一個朝代。看統媒報導，我還以為馬狗說中華民國萬歲呢！哈哈大笑</t>
+          <t>※ 引述《ericliu007 (彥)》之銘言：: 1.新聞網址︰: ※ 網址超過一行 請縮網址 ※: https://www.chinatimes.com/realtimenews/20230329002818-260407: 2.新聞來源︰: 中時: 3.完整新聞標題: ※ 請完整轉載標題 請勿修改與編排 ※: 葉元之驚爆友人兒以為「這人」才是國父：教改太可怕了: 4.完整新聞內容︰: ※ 請完整轉載原文 請勿修改內文與編排 ※: 12:32 2023/03/29: 中時新聞網 黃朝郁: 前總統馬英九出訪大陸展開祭祖之旅，昨（28）日率先前往中山陵、孫中山先生紀念館等地: 。國民黨新北市議員葉元之透露，友人的兒子竟然以為鄭成功才是中華民國國父，感嘆道「: 由此可知，馬總統昨天去中山陵謁陵有多重要！」: 馬英九昨日前往中山陵，題字「和平奮鬥，振興中華」8個大字，而落款時除寫下西元的202: 3年外，同時也寫下了民國的112年（百十二），還提及前總統這幾字，得到網友的大力讚聲: 。: 不過葉元之今日在臉書表示，友人傳訊給他，告知兒子居然詢問「我們有國父嗎？國父是誰: ？」而當友人解釋是孫中山先生時，他兒子居然追問「那鄭成功呢？」讓該友人差點暈倒，: 驚呼「我們的教育到底發生什麼事？中華民國國父成了鄭成功？」: 其他網友看到後也忍不住說「因為歷史已經被改的不是歷史了」、「真的，我小孩歷史課背: 一堆日本人名」、「不意外，篡改歷史是民進黨的認知作戰」、「我是補教文科老師，有不: 少國小生認為國父是蔣渭水」、「幾年之後是史明或是辜寬敏，悲哀的歷史課本」、「不要: 小看教改的影響力，很～可～怕～」。: 5.附註、心得、想法︰: ※ 40字心得、備註 ※: 葉元之從朋友兒子經歷，感嘆現在的教育怎麼了？孩子竟然認為中華民國的國父是鄭成功。: 網友也認為這就是民進黨的教改，用篡改歷史來認知作戰，還有補習班老師回覆，竟有小孩: 認為國父是蔣渭水，有網友擔心之後國父改成史明和辜寬敏。https://imgur.com/9Y7P3cO.jpg其實中華民國國父應該是他吧?https://image.peoplemedia.tw/collection/1580971835.jpg中華民國國旗這旗幟是1912年南北議和後，南北議員共同認定通過的，而孫文匪旗，沒有任何合法性。五色旗，五族共和的意思 這才是中華民國真正的國旗https://imgur.com/WvO7Y7f.jpg國民黨匪旗孫文其實是中華民國政府第一個認證的國賊https://i.imgur.com/yKcmNZN.jpg1915年6月，中日“21條”事件後，針對日本政府利用流亡日本的孫中山和中華革命黨，從事顛覆分裂中國的行動。中華民國政府於1915年6月16日頒布《懲辦國賊條例》，並發行《國賊孫文》一書，揭露孫中山勾結日本，顛覆中國政權的種種劣跡。1915年第35期《司法公報》第62頁，刊載《懲辦國賊條例》全文。國父袁世凱在面對日本人屈辱的21條時，盡力爭取中華民國權益在內有國賊孫文攪和，外有日本人威脅出兵下簽訂對中華民國政府最小損失條約因為當時孫文提出的賣國條件更為優厚不過最後還是沒讓孫文得逞https://imgur.com/TiOI182.jpg國父袁世凱深感運輸建設對國家之重要中國要強，基礎建設就要健全國賊孫文也看到了撈錢機會孫文這輩子專門幹三件事搞女人搞錢搞賣國不幸國父袁世凱失察讓這嘴砲滿嘴跑火車撈了高官厚祿一個月薪水三萬元，三萬個袁大頭這筆錢後來就是他拿來分裂國土搞內亂的本錢之一</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九從「先生」變「地區領導人」？趙</t>
+          <t>[新聞] 賴清德將授旗 「信賴台灣願景協會」台南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073364.A.179.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076926.A.E4F.html</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.storm.mg/amparticle/47678592.新聞來源︰風傳媒3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九從「先生」變「地區領導人」？趙春山曝中方突改稱呼因「我不爽了」4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※陳嬿婷  2023-03-29 11:16前總統馬英九正式展開為期12天的訪中行程，並於28日前往南京中山陵拜謁國父孫中山，除現場題字「和平奮鬥，振興中華」，落款採民國紀年，更提到「中華民國」、「前總統」等用語。對此，淡江大學中國大陸研究所教授趙春山表示，馬英九此行是希望達到文化、歷史的連結，但此番言論恐讓中國方面相當不滿。趙春山接受媒體人黃暐瀚節目《POP撞新聞》專訪時表示，馬英九在祭文及訪中提及「中華民國」、「前總統」是很自然的；而據他了解，大家一開始都互稱「先生」，但之後江蘇省委書記信長星就改口稱馬為「地區領導人」，顯見其發言惹怒對方。「我不爽我就叫你地區領導人」、「兩岸很多本來是很一般的事，但因為太敏感了，就變成很特別的事。趙春山表示，馬英九此行的目的是祭祖，又帶了學生到中山陵，這樣的激動是由衷的，因為他們的世代都是抗戰前後出生的，不可否認對中國有一些情懷，和台灣的年輕人不太一樣。「馬英九還有機會回去祭祖，像我們這一代很多人根本沒機會回去祭祖。」趙春山感嘆，「我父親現在葬在哪裡我都不知道，孤魂野鬼，根本沒機會祭祖。戰亂的時代哪有什麼祖譜家譜，現在台灣年輕人真的不了解，所以他去慎終追遠，我是滿感慨的。」他提到，很多中南部的朋友家裏都有祠堂，但人家到中國祭祖就被說三道四，「想想就覺得 不知道從何說起。」至於馬英九此行是否影響2024大選？趙春山強調，他不在乎誰當選，而是在乎整個台灣問題。「台灣，尤其是年輕人，我們在一個全球化的時代，台灣四面環海，是不是要了解一下世界發生什麼事情，尤其我們旁邊有一個這麼大的中國，每年跟我們貿易這麼密切，你說有沒有關係？要不要了解？」5.附註、心得、想法︰※ 40字心得、備註 ※中國江蘇省信委書記以地區領導人稱呼馬前總統，趙春山教授認為這透露出中方不爽訊息，根據趙教授事前了解，雙方本來以先生互稱，他認為應該是馬前總統之前的言論惹怒對方，逼得中方官員必須有所反應，趙教授覺得兩岸在有些事上太過敏感。</t>
+          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42549142.新聞來源︰自由時報3.完整新聞標題賴清德將授旗 「信賴台灣願景協會」台南扛頭旗4/15成立首個分會4.完整新聞內容︰2023/03/29 13:58〔記者洪瑞琴／台南報導〕民進黨主席暨副總統賴清德將代表民進黨角逐2024總統大選，民間力量號召成立「信賴台灣願景協會」，由台南扛頭旗成立全國第1個分會，將於明（29）日開籌備會，敲定4月15日在桂田酒店舉行正式成立大會，由賴清德授旗首發，帶動挺賴力量遍地開花。協助台南分會籌備事宜的親賴友人表示， 台南是賴清德從政發跡「本命區」，第1個分會從台南出發別具意義，希望打響踏穩第一步，帶動全國挺賴士氣與信心，而且「信賴台灣願景協會」的使命責任，與一般後援會競選臨時任務不同，協會將朝登記立案社團發展，各地設分會，成為挺台灣民主堅定向前的力量。親賴友人表示，4月12日賴清德正式獲得民進黨黨內提名總統人選後，4月15日在台南成立信賴台灣願景協會第1個分會，集結社會各界、企業、醫界等民間力量，明天將開會討論台南分會會長人選與籌備事宜，目前敲定在桂田酒店國際廳舉行分會成立大會，估計至少5、6百人參加。參與台南分會籌備的賴清德台南醫療大聯盟後援會總召陳相國表示，大聯盟後援會有27個分會，以及6師後援會（會計師、律師、建築師、醫師、牙醫師、中醫師） 動員相挺，台南對賴清德競選總統之路很重要，因此信賴台灣願景協會第1個成立的分會，賴清德與後援會有共識，一定要留給台南。另有挺賴人士表示，回顧2019年民進黨總統初選，當時賴清德挑戰現任總統蔡英文，激發黨團結士氣，不畏黨內壓力與外界輿論，選得十分艱辛，甚至黨內同志敏感到「不敢靠近」表態支持，但賴清德仍讓大家看見他的沉著堅定，如今參選2024總統定於一尊，帶動團結勝選信心， 一定更是不可同日而語。5.附註、心得、想法︰2019年賴功德院長逼宮蔡英文總統，初選之前非常堅毅，初選之後顯得十分悲情。https://i.imgur.com/DlTNO7q.jpghttps://i.imgur.com/re5AOlA.jpg2019年賴神逼宮蔡英文，賴神的好麻吉邱莉莉議長堅定的和功德院長站同一陣線。https://i.imgur.com/ac0v73d.jpghttps://i.imgur.com/eEK4O2i.jpghttps://i.imgur.com/S5ASPMe.jpg「信賴台灣願景協會」舉行正式成立大會，由賴清德授旗首發，該由邱莉莉代表。</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[討論] 剛飛中國回來心得</t>
+          <t xml:space="preserve">							(本文已被刪除) [minjindon]						</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073431.A.047.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076945.A.4A9.html</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>最近想驗證一下自媒體上的消息真實性所以跑了趟大陸旅行也隨機認識了些朋友, 聽一下他們的故事先說結論吧經濟崩盤是真,消費不振是真.在台灣聽這些消息時, 事不關己 ,會比較冷漠.但當自己真實認識當地人民後不論是底層或曾經的中產,或知識份子都可以側面窺見整個社會氛圍和數年前的氣氛有很大的落差前幾年的大陸那種狂與浮躁感非常誇張普遍對未來感到有正面預期但這次則完全沒有,取而代之的是迷茫與煩惱我認識的有疫情下中產商界人士 破產倒閉賣房欠債 只求生存原來真有這樣的人 還真不少目前這樣的人 只是低調地在各城市流動由於並非農民工 還能住得起房預計會更接近日本的網咖難民其他朋友是一般普通上班族 大型上市製造業公司我正好聽見對方公司宣布下個月獎金停發 可能會有新一波裁撤獎金停發大概會導致這位仁兄一半的收入消失至於住橋洞和車站的 自媒體上有影片我自己行程原因 也不會特地去跑一趟 太麻煩了農民工階級我預計會死很多人你說GDP崩20%, 從街道人流去看並不會覺得太誇張核心商業區當然依舊有正常消費人口但比較偏的商業街 傍晚幾乎沒顧客我說的是二線城市以上規模要說正面的進步也是有啦比如手機支付的應用更普及了 乘車碼 奶茶店更普遍了大概就這些吧每個人背後都是一個家庭未來十年會死很多人也會有更多悲劇傳出 可能耳聞時只是一條新聞不過真實去接觸人 會有同理心和同情心氾濫出現不知道該說什麼希望不要死太多人當然這些死人的消息 很卑微 也傳不到我耳裡這都是台灣不曾出現的情景 台灣很穩喔對了 Realtw我有去廣西是蠻像越南的 房價又便宜 機車也多 發展得不錯啊不過我應該是不會想去工作生活啦恭喜你找到一個自己熱愛的土地只是不適合我也讓我更珍惜臺灣了 感動啊我去觀光也幫你們創造GDP了不用下跪啦 我沒那麼偉大其實也沒花多少錢如果能間接讓你多活五秒 也算是功德一件啦你以後不要再吹噓了唷如果需要照片當證明的話,我可以晚點放連結到推文</t>
+          <t>: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 如果需要照片當證明的話,我可以晚點放連結到推文已經放到原文的推文中 作證明https://imgur.com/7aUZygH另外這位朋友的問題somehog: 推肉身田野調查，請問現在進出中國仍是      49.216.26.57 03/29 15:39→ somehog: 持台胞卡免簽嗎？目前是免簽沒錯但你需要帶手機 做健康碼申報印象中每個口岸 通關 都要你在排隊通關的過程就會有 https://imgur.com/0bOFHEP跨境一定會有這個從台灣過去的話 你需要先做PCR或醫院快篩 否則進不去中國大陸不用管我挺不挺小英 愛台灣就是要用行動證明唷愛台不需要反中中國人加油吧</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[黑特] 要怎麼打醒腦水腫綠處男朋友?</t>
+          <t>Re: [討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073608.A.396.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076964.A.9B9.html</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>我有一個朋友已經是87歲的大叔了還是個處男他是綠營的死忠仔 所以就叫他綠處男好了今天跑來問我 台灣中國 一邊一國 兩岸分治 中華民國就是個笑話我就用手指一直搓他腦門 叫他把故宮的[鮑可摸]通通還人家再說他就森77哭著跑走惹我484該跟這種人絕交比較快?</t>
+          <t>馬英九去南京大屠殺紀念館哽咽，想到當初國民黨不論在中國或是台灣，都殺了為數眾多的共產黨員，覺得甚是諷刺國民黨要被共產黨打敗多少次呢？前天去威秀看悲情城市修復版，聽到過世的陳松勇說出「咱本島人最可憐，一下日本人，一下中國人，眾人吃、眾人騎，沒人疼。」想到現在的台灣，也是一樣吧。各個政黨用意識形態玩選舉，中國台灣關係永遠是政客不處理正事的搪塞藉口，反正關著喊喊，中華民國還是台灣，出了小島都跟啞巴一樣看中共噁心也是啦，桃園官員擺拍都可以把狒狒弄死，更不用討論台灣行人地獄問題、電力能源供給、人口老化議題，大家繼續吵中華台北^^台灣這塊土地自然環境明明這麼美、擁有多元的野生物種（雲豹滅絕，但還有石虎、穿山甲等）被弄到這麼醜惡，有些人忙著去中國祭祖、更有人忙著用祭祖議題掩蓋施政效能低落，台灣是否真的是座悲情城市？</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[黑特] 原來馬英九是去祭祀滅亡的中華民國</t>
+          <t>[討論] 台灣是悲情城市嗎？</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073881.A.D84.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077564.A.00F.html</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>馬英九去中國拜訪中華民國滅亡的紀念館原來祭祖不止自己的祖先搶先去給中華民國上香了中華民國已死 百十二 —— 馬先生台灣也在向狒狒鞠躬好巧</t>
+          <t>疑越南人蛇集團海上丟包16具遺體5台籍2越籍9人待查https://bit.ly/3G1yFIJ自由 邱俊福針對本月台中往南到高雄沿海地區陸續發現多具男女浮屍，疑似有越南人蛇集團涉嫌海上丟包事件，海巡署表示，海巡人員本月至今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，根據身上的證件5具為台籍、2具為越南籍，其餘9具身分尚待查證，至於有無涉及偷渡情事，已會同相關單位深入調查中。海巡署表示，3月迄今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，均由署或轄區警察單位報請地檢署辦理相驗事宜，其中僅2具男浮屍確認為越南籍身分。另清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐台北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。海巡署表示，海岸海域執法工作，為嚴防偷渡案件，近年除積極掌握轄內偷渡集團動態，加強對轄內可疑人、船活動的注偵查察外，亦持續強化轄區巡查及執檢力度，確保我周邊海域安全。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[討論] EE園區要學游泳是必備的嗎？</t>
+          <t>[新聞] 疑越南人蛇集團海上丟包16具遺體 5台籍</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074080.A.427.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077714.A.167.html</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>老實說我不太會游泳，平常也不愛去海邊不過看到浮屍新聞從7個迅速到16個了我在想我還是應該學一下游泳說不定有些不是被丟包是出海游泳結果泳技太差溺死的看來該去報名學游泳順便看妹子了</t>
+          <t>※ 引述《LeeSeDol (嘖嘖...)》之銘言: 蔡英文現任總統，在美國不敢說自己是中華民國總統，: 反觀馬英九卸任了，還敢在中國高官面前講自己是台灣總統，: 高下立判！LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，不是，你現在是不是高潮了，因為馬英九在中共說他是"台灣"總統，而蔡英文在美國連自己是台灣總統都不敢講，但是，醒醒啊，他是國民黨馬英九1.0，不是馬英九2.0的蔡英文，不要認錯人亂誇獎啊，馬的，就說綠粉真的沒有下限欸，中華民國國父是蔣渭水你也能接受，像個台灣人好嗎...呃，怕死愛錢蕭當官</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[黑特] 國民黨什麼時候要開除顏寬恆</t>
+          <t>Re: [新聞] 「蔡英文你什麼身分訪美」？　朱立倫怒</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074415.A.B71.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078110.A.EA2.html</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>自恃最清廉的國民黨最討厭黑道的國民黨有排黑條款的國民黨結果黨內組成三分之一黑道背景柯文哲說全台灣的議長都是黑道好死不死都國民黨的現在狗黨黑道為何不敢開除？是在騙人民還是在騙自己？</t>
+          <t>西部沿海共「16具遺體」　海巡署：2越南、5台灣人https://news.tvbs.com.tw/local/2082193TVBS李昱菫 報導從這個月初開始，台灣西半部沿海地帶，陸續出現多具浮屍，疑似遭到人蛇集團丟包海上。據海巡署統計，3月在海上岸際發現的遺體，總計多達16具，已經由海巡署或轄區警察單位報請地檢署辦理相驗事宜，其中2具確認身分為越南籍男性，另外5具遺體上有台灣籍證件，其餘還在辨識中。據海巡署資料顯示，從3月4日在桃園市新屋溪北岸、3月5日台南市七股區網仔寮沙洲、3月6日台南市青山漁港港嘴海面、3月6日雲林縣湖口鄉外海、3月7日台南市將軍西方海域、3月7日彰化縣王功西方海域、3月7日雲林縣麥寮西方海域、3月7日台中外海、3月10日雲林縣外傘頂洲、3月10日高雄市茄萣區沙灘、3月14日新竹圳頭西方海域、3月17日台南市七股區網仔寮沙洲，都有發現屍體。據了解，遺體疑似因為在海上漂浮多日，已經嚴重腐爛，初步難以辨識身分，目前16具屍體中，2具確認為越南籍男子，另外有5具遺體上有台灣籍證件，其餘還在辨識身分中。由於浮屍出現時間相當密集，且人數眾多，遭人質疑可能是遭到人蛇集團丟包。對此海巡署表示，為了調查有無涉及偷渡情事，已會同相關單位深入查證中。另外清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐臺北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[討論] 馬娘是不是比想像中還有料???</t>
+          <t>[新聞] 西部沿海共「16具遺體」海巡署：2越南</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074814.A.3BC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078372.A.CCA.html</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>先說我本來以為這次訪中充其量就是連爺爺2.0那樣去跪的結果居然直接炸人家主堡你能想像藍統馬居然能比蔡菸文還獨嗎?? 簡直反襯綠營有多共產!!直接盤點這次去幹了哪些成績：1. 當面洗江蘇書記臉，自稱台灣總統2. 直接洗共媒臉，共媒重複問從國父學到什麼，馬上嘴「我剛剛不是說了嗎？」3. 自比國父，稱國父當了中華民國總統，我也當了(中華民國總統)4. 在南京直接講中華民國112年5. 拜謁中山陵，白紙黑字落款民國112年(各位 你最愛的白紙黑字來了= =)6. 直接提習先生，畢竟是唯一會面過習的總統所以有談資，提及過往對話現場連個屁都不敢放馬英九是獨派嗎？不是那他為什麼表現起來比綠營總統還獨？這是個對比的概念，蔡菸文的行為太統了馬英九態度就很明確：　　九二共識擱置爭議ＯＫ　    一個中國ＯＫ反正我就是中華民國　至於你老共愛自認是什麼隨你　　兩岸同屬中華民族ＯＫ　反正我就想和談　至於民族叫什麼無所謂反觀蔡菸文：　　整天抗中保台提款選票　實際上自稱中華台北　　一天到晚自以為代表台灣獨立　實際上中華民國總統位置真香阿不惜內鬥也要選馬英九有想促進台獨嗎？沒有阿 他就當他的藍統 立場一直是這樣反觀蔡菸文呢？台獨有做出成績嗎？沒有阿 整天矮化自已 可悲X種不是馬英九有多好是蔡菸文太爛太垃圾只想提款台灣價值一個無能的台女總統 是國家的不幸更是獨派的悲歌並不是說支持馬你就能得到台獨但顯然支持廢物綠營 你也肯定得不到台獨懂？</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.ettoday.net/news/20230329/2469078.htm2.新聞來源︰ETtoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九赴陸自稱「前總統」　鄭文燦：有義務幫國家加分4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※https://cdn2.ettoday.net/images/6869/d6869825.jpg▲行政院副院長鄭文燦。（資料照／記者林敬旻攝）記者呂晏慈／台北報導前總統馬英九展開訪陸「和平祭祖之旅」，首站拜謁中山陵，題字「和平奮鬥，振興中華」致贈，落款以民國紀年寫下「百十二（112）」，受訪是更自稱前總統，並再喊出「民國」，引發網路熱議。行政院副院長鄭文燦29日受訪表示，馬英九有義務幫國家加分，中華民國在台灣是一個事實，也是兩岸互動的出發點。鄭文燦今天上午出席「第一屆ESG物流永續獎」頒獎典禮，媒體會前聯訪時關注，馬英九公開稱自己是「前總統」，這算捍衛中華民國嗎？鄭表示，馬英九作為前總統，自然有義務要幫國家來加分，「中華民國不只是歷史上的存在，中華民國在台灣已經是74年了，我想，這是一個事實，這個事實也是兩岸將來互動對等、尊嚴的出發點」。此外，針對報載警政署將下設「保八總隊」，專責於保護電廠、油庫、水庫、機場等國家重要基礎設施一事，鄭文燦說明，關鍵基礎設施的防護，必須要提升等級，包括人員、場域、設備，也包括像水電、通訊及網路，整體提升計畫都在討論與進行中，具體的部分會等拍板以後，再跟大家說明。馬英九昨天在國父孫中山陵寢獻花圈致敬，並發表「民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞」，內容談到孫中山推翻滿清、終結中國4000多年的君主專政、建立亞洲第一個民主共和國─中華民國，至今已112年。5.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※鄭文燦 欸 你怎麼下車了 不要這樣幫他講話啊王定宇：洗勒考喔 我才發文要大家一起罵欸卸仁的有義務那順便請現任的去中國講幾句話</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[新聞] 馬英九赴陸自稱「前總統」　鄭文燦：有義</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074878.A.364.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078887.A.CDB.html</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>:    台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?台灣要大躍進根本不關統派的事統派就只剩下不到5%所以統派人這麼少蔡EE怎麼不敢大躍進美國怎麼不跟台灣建交台灣的一中憲法是自慰台灣的兩國論也是自慰兩國論結果世界上沒幾個國家承認邦交國還越來越少現實世界雖然台灣邦交國很少但是台灣護照比中國好用所以不廢除一中憲法不法理台獨就是希望維持這個現狀真的是自我安慰阿台灣人不想打仗中國不放過台灣美國也要求台灣維持現狀這麼想大躍進趕快去簽一簽去當兵阿自願去外島然後不管軍令為了台灣的自主有機會就直接對對岸開槍製造衝突之後可能就有機會改變現狀只是不知道會變好還是變壞別整天只會嘴砲自己自慰完還要笑別人自慰</t>
+          <t>小冬瓜夫婦因為豪宅侵佔國有地，被檢方調查偵訊，然後連夜交保一個1000萬、一個500萬顏家能在短短幾小時內籌出1500萬真的很屌耶！而且是在晚上，銀行早就下班了還能生出1500萬現金，真不愧是土地的主人耶！真他媽有錢啊！這1500萬裡面有多少是信徒捐給媽祖的香油錢呢？！而且沒記錯顏寬恆現在應該是無業遊民吧？一個無業遊民的家庭都能馬上拿出1500萬，那代表臺灣的經濟真的是20年來最好耶！那些哭說沒錢買蛋沒錢旅遊沒錢幹嘛幹嘛的藍白賤畜應該多跟我們顏公子學學啊！結果國民黨還要提名這種垃圾出來選立委？</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[討論] 顏家火速籌出1500萬代表臺灣經濟真的很好</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069639.A.471.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079275.A.B80.html</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:    是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情:    理組思維不用說了，就是絕大部分文組思維也根本知道的事情:    ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係:    台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈):    所以中國是我大ROC領土:    更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹:    哈哈哈中華民國為何要宣稱有大陸主權?這太好理解了吧?你看南北韓不就知道了?未來朝鮮半島如果有什麼變動都可以名正言順的接收對方(先不考慮背後勢力)當然你可以說中國大陸哪可能會倒台?難說吧?蘇聯?在一種可以想見的未來美中真的發生戰爭(很可能就是WW3)PRC如果戰敗政權解體如果我們ROC沒死(極大可能是在美國組臨時政府)我講的事情就很有可能發生換個角度PRC為何那麼積極的想消滅ROC?因為他們某種程度是篡位者(2758號決議)我們一天不死他們睡不好覺懂?</t>
+          <t>套句當年溫家寶的話中國如果不快點進行政治改革會連經濟改革的成果都保不住https://www.youtube.com/watch?v=X51d6nO4yM8習大大疫情三年的表現讓所有資本家都有了紅色賭盤沈棟寫下的體悟:在中國，沒有權力，錢就是個屁主席一句話，阿里巴巴跟騰訊就要各上繳100億主席一句話，教育行業全滅，新東方 CEO 俞敏洪得去直播帶貨當你賺的資本無法保障時，資本家的唯一選擇只能外逃恭喜習大大總加速師讓所有在中國的資本家都有了深刻的體悟</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[新聞] 又多4具！台灣7縣市外海2周內出現12具浮</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069849.A.AF2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072335.A.CB7.html</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://is.gd/aL22sM2.新聞來源︰Ettoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※又多4具！台灣7縣市外海2周內出現12具浮屍　台南數量最多4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※記者張君豪、陳韻如／台北報導台中港離岸風電7日被發現一具詭異男屍躺在高10公尺的高台上，至今仍無法查出身分。沒想到，事隔才兩周，海巡隊又在台中往南到高雄沿海陸續發現7具半裸男女浮屍，陳屍地點分別在台中、雲林、台南、高雄等地。不過，經海巡署清查後發現，北部地區也出現浮屍，目前人數累計至12人。對此，國安單位高度重視，懷疑遺體是遭人蛇集團海上丟包，但詳細案情仍有待調查釐清。台中地檢署今針對此案說明，表示經海巡署後續清查發現，本月4日至17日，從桃園到高雄沿海另撈獲11具男女無名屍。換句話說，包括台中離岸風機，前後2週內，跨越7縣市的海岸線就出現多達12具無名屍。由於浮屍出現的「特別密集、且很多」，相關單位懷疑是遭到人蛇集團丟包的越南偷渡犯，目前海巡署已與警政署成立專案小組追查釐清。經統計，無名屍發現時間與地點，分別為：3月4日桃園市新屋溪北岸、3月5日台南市七股區網仔寮沙洲、3月6日台南市青山漁港港嘴海面、3月6日雲林縣湖口鄉外海、3月7日台南市將軍西方海域、3月7日彰化縣王功西方海域、3月7日雲林縣麥寮西方海域、3月7日台中外海、3月10日雲林縣外傘頂洲、3月10日高雄市茄萣區沙灘、3月14日新竹圳頭西方海域、3月17日台南市七股區網仔寮沙洲。根據資料，其中以台南市4具最多、雲林縣3具次之，桃園、新竹、彰化、台中、高雄各1具，且3月7日單日就發現4具。目前都分別由當地警方報請檢方相驗，部分遺體已嚴重腐爛，但都沒有證件。另外，台中地檢署已與越南辦事處、刑事警察局國際科聯繫，會協助越南家屬，透過官方管道提供家屬檢體，以供法醫研究所比對確認身分。5.附註、心得、想法︰哇靠全台周圍都被浮屍包圍了太可怕了吧最近是不是很忙阿 一波未平一波又起政府有辦法大動作掃人蛇嗎※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+          <t>這根本是月經考古題可悲~到現在還有人不知道?現實上比你聰明的人應該佔大多數這些人都知道為何要堅持對大陸的主權?因為一旦放棄就是實質法理台獨現階段有必要這樣做嗎?不必要所以連民進黨都"現在太危險"我記得之前民進黨立委就有提案(陳婉真的樣子)但連民進黨自己人都不支持結果呢??太好笑了竟然有人這年頭又挑戰了!噗!!好可笑喔~對了!不能太笑他等下他又要說自己是海陸99旅退伍的了我怕傷了海陸99旅的名聲啊※ 引述《Mazda6680 (SEALs)》之銘言：:    是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情:    理組思維不用說了，就是絕大部分文組思維也根本知道的事情:    ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係:    台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈):    所以中國是我大ROC領土:    更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹:    哈哈哈:    是說現在還有多少老人還在用主權跟治權自慰? PRC也說ROC只有治權沒有主權:    所以台澎金馬是屬於PRC的:    連KMT年輕人巧芯都說出根本不想統一，都在嘴砲而已!!:    台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[討論] 沒抗中保台自助餐，民進黨這下要輸慘了</t>
+          <t>[討論] 堅決回擊 會不會是把馬抓起來？</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069941.A.A2B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072353.A.0BF.html</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>馬喊一聲民國和台灣總統打破各種紛爭台灣現在最需要的不只是團結吧還得要有人能夠以兩國論來建交增加台灣實力管他就九二共識也好、雙重承認也好已經不再是非綠就紅、非民進黨就統一、非親美就舔共的現實了誰不能維持現狀？執政這八年我們獨立了？修憲了？不要一直用販賣焦慮給洗腦再用抗中保台這招也沒用了沒有人想打仗！更沒有人想被統一！正視自己的斷交政績想想辦法怎麼樣提升台灣在國際上弱勢的地位一直靠著「不投民進黨，台灣變香港」大家有一天都會疲乏的好嗎「就算不投民進黨，也不等於我們要被統一」現在已經不是只有民進黨會能吃這抗中或維持現狀的自助餐不包含87統一派的情況下誰不想要一邊一國？誰不想要維持現狀？難道沒了抗中這個神主牌，就沒戲唱了嗎？既然大家都能維持現狀，是不是民進黨也無所謂，反正你們也只會用愛發電做功德，不爽你去跟你老闆說阿，你們要自立自強那民進黨明年要自立自強少了神主牌這下要輸慘了</t>
+          <t>EE要出訪 順便過境紐約跟洛杉磯國台辦氣pu pu說要是蔡敢與麥卡錫議長會面將堅決回擊上次已經搞過一次繞台軍演了這次應該會換個不一樣的把戲會不會其實所謂的堅決回擊其實是要把正在訪問中國的馬英九直接抓起來？以顛覆國家政權關進大牢？這個回擊夠猛烈吧？</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文出訪美國 為何兩邊共產黨都氣炸了?</t>
+          <t>[討論] 郭台銘說台灣不能依賴中國</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070008.A.5CF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072407.A.72F.html</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>安安蔡英文應該起飛前往美國了剛剛看新聞國台辦說絕對會報復  會有所行動中國那邊的共產黨看來氣炸了台灣這邊的也不遑多讓 藍色的說蔡英文要戰爭 不要去接待她  之類的為什麼只是過境 見見議長  兩邊共產黨都氣炸了@@</t>
+          <t>如題超重磅的新聞https://reurl.cc/mlpq5W才剛出訪美國的郭台銘說「台灣不能依賴中國」「台灣要跟美國日本整合」郭台銘這個立場感覺也不演了欸相較於這幾天才去中國跪舔的某人郭台銘的商人性格似乎已經預測到了某些國際風向了吧？郭台銘此番言論是不是把之前大肆宣揚「疑美論」的統派低能兒的臉打得劈啪響呢？統派賤畜仔你的臉是不是很痛啊？嘻</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[黑特] 羅友志：侯的二岸論述是一場大災難</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070102.A.755.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072411.A.504.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>版上綠粉終於攻擊巧芯到語無倫次吳思瑤在士林北投非常強新潮流台北市掌門人四年後跟蔣萬安PK台北市長最有機會的綠營候選人這樣的腳色巧芯啥都沒做民調就只輸4%我只能說巧芯超級強不信你拿目前這區的國民黨參選人張斯剛去跟吳pk一下民調看他輸幾%我個人滿欣賞張斯剛的士北在地好議員但民調目前應該會被吳痛電再來說到謝龍介的大同贏何志偉同一份民調聽說謝龍介被同樣選這區的王志堅痛電這只代表何志偉在這區得罪深綠後沒有大家想像中的強拿來跟巧芯民調比完全斷章取義只想帶風向而已綠粉永遠只會故意打壓對手永遠不敢正視你的對手其實也很強的事實一直狂打巧芯不就代表他還是個咖這就是去年打高虹安的翻版這種貶低戰法只會越打她越強啦最後贏了嘴砲輸了大選看來這網路戰法一點都沒學到教訓去年1126大落敗的戰術現在還繼續用真的完全不知長進我是認為巧芯今面初選如果能過狒狒那關那七年後跟吳的台北市長的確終需一戰七年後民進黨最可能的人選就是吳跟高還有堅哥但高被自己人幹掉出局機會超大吳有新潮流王有謝系跟自己長年人脈高就孤鳥出局機會最高藍的話大概就巧芯羅智強二者PK一個出來選</t>
+          <t>「馬英九的大陸行 幫國民黨開了一扇門，尤其是想要選總統的 一定要接的上去」「現在最重要的是，每天在那邊搞呼聲的侯友誼 二岸論述 居然用拼裝的 一點自己的原意都沒有」「侯友宜的兩半論述就是拿別人的拼裝起來」「內容根本就是一場大災難」「不講也就算了，講了之後發現他真的是一個草包，真的是一個大災難」「侯：中華民國是我的國家 台灣是我的家 最重要的我們能夠讓台灣穩定 區域和平」（除了幹話還是幹話）「從頭到尾無限循環這幾句話可見這是幕僚要他背下來的」</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070499.A.FBF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072541.A.CF5.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.chinatimes.com/realtimenews/20230329002818-2604072.新聞來源︰中時3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※葉元之驚爆友人兒以為「這人」才是國父：教改太可怕了4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※12:32 2023/03/29中時新聞網 黃朝郁前總統馬英九出訪大陸展開祭祖之旅，昨（28）日率先前往中山陵、孫中山先生紀念館等地。國民黨新北市議員葉元之透露，友人的兒子竟然以為鄭成功才是中華民國國父，感嘆道「由此可知，馬總統昨天去中山陵謁陵有多重要！」馬英九昨日前往中山陵，題字「和平奮鬥，振興中華」8個大字，而落款時除寫下西元的2023年外，同時也寫下了民國的112年（百十二），還提及前總統這幾字，得到網友的大力讚聲。不過葉元之今日在臉書表示，友人傳訊給他，告知兒子居然詢問「我們有國父嗎？國父是誰？」而當友人解釋是孫中山先生時，他兒子居然追問「那鄭成功呢？」讓該友人差點暈倒，驚呼「我們的教育到底發生什麼事？中華民國國父成了鄭成功？」其他網友看到後也忍不住說「因為歷史已經被改的不是歷史了」、「真的，我小孩歷史課背一堆日本人名」、「不意外，篡改歷史是民進黨的認知作戰」、「我是補教文科老師，有不少國小生認為國父是蔣渭水」、「幾年之後是史明或是辜寬敏，悲哀的歷史課本」、「不要小看教改的影響力，很～可～怕～」。5.附註、心得、想法︰※ 40字心得、備註 ※葉元之從朋友兒子經歷，感嘆現在的教育怎麼了？孩子竟然認為中華民國的國父是鄭成功。網友也認為這就是民進黨的教改，用篡改歷史來認知作戰，還有補習班老師回覆，竟有小孩認為國父是蔣渭水，有網友擔心之後國父改成史明和辜寬敏。</t>
+          <t>Kmt是抱著中華民國這個殼結果現在發現這個殼裡面的東西快沒有了但是又沒辦法放棄這個殼不然從統治上又或是對岸政策上來說都會出事Dpp 是一開始很想丟掉這個殼但是發現這個殼丟掉不得了台灣會出事只好巴著這個殼不放改口宣稱這個殼是綠色的但實際上這殼還是在那裡你塗個綠色上去她還是在那裡只是你心理上跟視覺上會比較舒服</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[討論] 恭喜郭總統了</t>
+          <t>[新聞] 「蔡英文你什麼身分訪美」？　朱立倫怒</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070696.A.551.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072693.A.770.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>目前美國會考進入第二階段面試階段郭：受邀進政府核心部門蔡：沒簡報 (反正他不選)賴：第一階段沒過柯：沒人接待這樣看是不是郭總統穩了呢？ 美國認可的總統。</t>
+          <t>1.新聞網址︰https://www.ettoday.net/news/20230329/2469378.htm2.新聞來源︰ETToday3.完整新聞標題「蔡英文你什麼身分訪美」？　朱立倫怒：敢說是中華民國總統嗎4.完整新聞內容︰總統蔡英文睽違3年展開民主共榮夥伴之旅，為期10天將出訪中美洲，行程會過境美國紐約以及洛杉磯，第一站預計在台灣時間30日凌晨3時抵達美國紐約。對此，國民黨主席朱立倫今（29）日於中常會上批評，蔡英文訪美在機場沒講到半次中華民國，「你是什麼身分在出訪？你是代表誰在出訪？」並強調國民黨堅定立場，就是不管何時何地都捍衛中華民國，更盛讚目前赴陸祭祖的前總統馬英九，就在大陸很明確站穩中華民國與前總統立場。朱立倫表示，祝福前總統馬英九赴陸行程一切圓滿，肯定馬在大陸很明確站穩中華民國與前總統立場，連中華民國112年都清楚表達，擔任總統時對兩岸的努力也都說很清楚，「過去我在2018年時訪問中國大陸，在南京也都清楚說出中華民國」，這就是國民黨堅定立場從未改變。隨著語氣逐漸大聲、嚴厲，朱立倫重批，民進黨卻不斷雞蛋挑骨頭，這樣的態度國人無法接受，「民進黨在消滅中華民國！蔡英文訪美在機場沒講到半次中華民國，你是什麼身分在出訪？你是代表誰在出訪？」國民黨堅定立場就是不管何時何地都捍衛中華民國，真正讓兩岸和平的政黨，反觀民進黨讓兩岸衝突與緊張獲取政治利益，國人都看很清楚，希望蔡英文敢大聲說自己是中華民國總統，民進黨別嘴巴要別人說中華民國，自己都不敢講。此外，朱立倫也說，國民黨會有出訪計畫，包括國民黨智庫執行長柯志恩也將與美方智庫交流，夏立言四月也要到美國主持年度大會，整黨都是在不斷努力，希望為2024大選的總統候選人、立委候選人爭取更多朋友，「不過，我還是要呼籲一些朋友，別一直製造障礙，藍軍朋友要共同團結力拚勝選。」5.附註、心得、想法︰國民黨主席朱立倫在中常會重炮抨擊民進黨：蔡英文現任總統，在美國不敢說自己是中華民國總統，反觀馬英九卸任了，還敢在中國高官面前講自己是台灣總統，高下立判！</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[討論] 潛藏在台灣的人蛇集團很難抓嗎 EE園區E</t>
+          <t>[黑特] 馬狗悼南京大屠殺，下一站悼64？</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070731.A.A48.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072923.A.56B.html</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>為什麼不叫數位發展部處理一下現在都已經21世紀運用一下科技辦案不為過吧駭客部長駭進去人蛇集團主機然後監看監視器再帶警方攻堅減少台海浮屍這樣有很難嗎</t>
+          <t>聽說馬特首去南京大屠殺紀念館打卡，那年代更接近的64天安門廣場遇害的年輕大學生們，肯定也要去悼念一下的吧！請問是幾時要去？有卦嗎？</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Re: [新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
+          <t>[討論] 如果清朝沒有被入侵 現在我們都是清國人</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070776.A.E54.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072927.A.52E.html</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>※ 引述《spector66 (天氣預報)》之銘言：馬英九現在看覺得很可愛，不過想到以前他的事情就覺得這個人很爛尤其是當著原住民說：我把你們當人看.....這骨子裡到底多歧視原住民才會說出這種混蛋話？把你們當人看....阿不就要謝主隆恩？想到這個就覺得馬英九會被叫馬陰狗不是沒有道理的。可悲的陰狗</t>
+          <t>不談什麼中國正統稱呼若當時清朝好好的 沒事現在是不是就沒有啥台獨問題了搞不好還像英國一樣我們有皇帝或是國王一切中原天下太平</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Re: [新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070868.A.3A8.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680072967.A.22C.html</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>我覺得台獨綠狗真的很可憐，幾年前說母親的名字叫台灣https://youtu.be/ovJI7Edp6yw現在說台灣已經獨立，名字是中華民國...幹你娘，不要隨便認祖宗啊，中華民國國父是鄭成功蔣渭水...是要多無恥才可以把別人的國家當成自己的東西，要叫台灣，你就自己獨立，寄生綠狗，無恥。</t>
+          <t>: 中華民國為何要宣稱有大陸主權?: 這太好理解了吧?: 你看南北韓不就知道了?: 未來朝鮮半島如果有什麼變動: 都可以名正言順的接收對方(先不考慮背後勢力)  南北韓兩邊就是現實兩國啊..全世界誰否認南韓存在或是北韓不存在  同文同種還是照分兩國了  整天幻想接收對方，倒不如有點骨氣說反攻對方好嗎XD  你宣稱有鄉民女神主權，等她離婚你就能接收嗎  笑死: 換個角度: PRC為何那麼積極的想消滅ROC?: 因為他們某種程度是篡位者(2758號決議): 我們一天不死: 他們睡不好覺: 懂?  人家篡位者? 更好笑~~現實中國共兩黨當初都在ROC架構之下沒錯  但是人家贏了中國大陸的領土，人家1949年獨立於ROC之外了也是世界都承認的事情  一天不死他們睡不好覺?XD 真的是阿Q勝利法賽高境界  承認吧~~KMT當年輸掉中國大陸大好江山了  唯一能接收中國領土的方法就是反攻大陸而已  好嗎!! 至於一堆人嘴砲憲法哈  ROC憲法就是ROC國內法，就跟PRC憲法能管的到ROC真實存在嗎 也不行咩  所以PRC跟ROC根本兩國</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[新聞] 日缺口100至180萬顆蛋！ 農委會：五月有</t>
+          <t>Re: [討論] 國台辦：蔡若與麥卡錫接觸 將採取措施回擊</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070876.A.F42.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073029.A.458.html</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://udn.com/news/story/7266/70640582.新聞來源︰UDN3.完整新聞標題日缺口100至180萬顆蛋！ 農委會：五月有上億進口蛋補缺口4.完整新聞內容︰現在雞蛋市場價格紊亂，也可能零售市場一天一個價格，甚至散裝蛋比洗選盒裝蛋更貴，農委會表示，進口雞蛋今天已經開賣，農委會現階段掌握的進口量為7000萬顆，最快4月底前，國內雞蛋價格可以趨於平穩。農委會畜牧處長張經緯表示，現在有雞蛋缺口，每日100至180萬顆，要把這樣的缺口補足，讓市場回歸正常的一個機制，預估應該是在4月的下半旬，透過進口的量能、陸陸續續透過有牌價機制的這些通路系統，能夠市場慢慢導正回到一般的常軌。張經緯表示，3月、4月進口的量，就現在掌握的，已經超過3500萬顆；到5月份，現在進口的已經到了，農委會跟民間進口可達將近7000萬顆，加起來超過1億，4月下旬開始，希望這個市場能夠能夠回歸到正常的一個機制。他表示，台灣自己的蛋雞產業也一定要能夠恢復大家的復養，才是原來真正國內工具的一個根本，現在預估的缺口量，大概是介於一成到一成五之間。隨著氣溫的回暖，隨著對疫情的控制，相信整體蛋雞復養成數漸漸提高，缺口是可以解決的。5.附註、心得、想法︰    農委會不放吉仲出來保證不缺蛋了嗎?    缺蛋到底是不是認知作戰啊    塔綠斑綠畜每天都有一個新說法    搞得每個家庭去買蛋都好亂啊    進口破億的蛋    是不是圖利?    綠共吃屎</t>
+          <t>※ 引述《palindromes ()》之銘言：: 回應記者蔡英文竄訪美國一事: 中國國台辦發言人朱鳳蓮表示：: 蔡英文“過境”美國不是老老實實待在機場或是賓館，而是以各種名目要同美國政府官員、: 她如果與美眾議長麥卡錫接觸，將是又一起嚴重: 違反“一個中國原則”和損害“中國主權與領土完整”: 破壞台海和平穩定的挑釁。: 我們對此堅決反對，必將採取措施回擊！國台辦這麼劇烈反應其實是打馬英九一巴掌因為年初馬英九其實是這樣呼籲https://udn.com/news/story/6656/6929821美眾議長麥卡錫傳訪台 馬英九籲蔡政府「必須非常慎重」2023-01-25美國眾議院議長麥卡錫傳出春季訪台，前總統馬英九今早在大甲鎮瀾宮被媒體問到此事，他說，之前美眾議院議長裴洛西訪台時，引來中共圍台軍演，若要邀請麥卡錫，必須非常慎重。當時馬英九也覺得如果民進黨還邀情麥卡錫來萬一又被環台軍演這非嚴重的事一定要很慎重好啦 民進黨也聽進去啦不邀請他來啦改在美國見面結果現在國台辦連在美國的土地上美國人要跟誰見面也有意見?!?!各位 這已經不是國台辦決定誰能來台灣 誰不能來 這樣而已而是連在美國的土地上 美國人要見誰也要國台辦同意才可以!!!你們說說這像話嗎???????????????????????????????所以事實上 從國台辦這麼激烈的發言來看阿伯我是很悲觀的這樣解讀1.民進黨有沒有椅美謀獨已經完全是中共說的算今天就算是蔡英文去紐約吃小籠包他一樣可以擴大解讀為椅美謀獨居然敢在美國吃台灣小籠包!這不是搞台獨是甚麼?去美國就該吃美式食物阿還特地跑去吃台灣小籠包! 這就是台獨行為!所以有沒有踩到紅線完全他說得算 沒有下限的2.中國明知美國人要在美國的土地上見誰這美國人自己的事情中國怎麼可以替美國人決定中國不可能連這麼基本常識都不知道所以 你也想到了他不是太笨 就是太壞好啦 那中國很笨嗎?你想有可能嗎???所以基本上我已經很悲觀的看到不管最後蔡英文有沒有見到議長中國幾乎篤定又會再次軍演 而且規模一定更大只是可能給馬一點面子等馬回來台灣在軍演3.美國是預估2027可能會開打今年已經2023只剩四年了各位 也就是我們大部分的人其實四年後都會死不管是被炸彈炸死還是上戰場戰死所以各位一定要好好珍惜這四年想做甚麼就去做想吃甚麼就去吃想玩甚麼就去玩PS5現在很便宜 不要猶豫了快買一台回家玩這可能是你這輩子最後一台PS了https://i.imgur.com/Lo6pucO.jpg前幾天阿伯我才點了漢堡王來吃這麼好吃的食物四年後 可能再也吃不到了o.O</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[新聞] 林智堅小心了？高虹安3月下旬開挖新竹棒</t>
+          <t>[黑特] 台灣又被美國打壓 塔綠班跪美黨人呢？</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071044.A.CC6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073262.A.905.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230329002768-260407?chdtv2.新聞來源︰中時3.完整新聞標題林智堅小心了？高虹安3月下旬開挖新竹棒球場4.完整新聞內容︰新竹棒球場後續改善進度備受矚目，先前棒球場工程體檢會決議，3月下旬起要挖掘檢測，外界關心目前進度。新竹市長高虹安29日表示，目前正在進行試挖掘，約莫4月會擴大規模挖掘，目標是盡快將球場修復完成。前市長林智堅任內耗費巨資重新整修的新竹市棒球場，後被發現諸多缺失，遭外界質疑是否有弊端，也成為九合一綠營敗選重要因素。高虹安市府先前舉行第2次棒球場工程體檢會議，決議將3月下旬起以點狀、帶溝狀、面狀3種挖掘方式進行檢測，釐清回填土壤切斷面的分層構造厚度、各分層洩水波度、土壤物理性質及滲透性試驗，以及是否有不符合契約約定的異常比例的異物及廢棄物等。外界關心挖掘進度，高虹安表示，目前已經跟廠商進行試挖掘作業，大概在4月會有擴大規模挖掘，這部分也多次和統包商以及龍來公司，在府內都有多次相關協調會議，目前傾向將球場盡快修復完成，此為目標前進當中。5.附註、心得、想法︰    終於要開挖大祕寶了    大家有沒有預期會挖出甚麼神奇的東西    小智品質    塔綠斑都保證過的五星    我好期待啊~~~    綠共吃屎</t>
+          <t>塔綠班 威脅台灣人民說你不可以 疑美結果今天塔綠班的頭子 要出訪美國卻被美國人打壓簡報不給你做不安排任何官員 進行見面過境層級 大幅下降明顯就是在打壓台灣欺負中華民國再看到 中國大陸願意給馬英九 說中華民國中國 明顯對台灣比較好而美國卻在處處 打壓台灣2300萬老百姓大家都看的 非常的清楚</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[討論] 每年的挺黑大遊行 台灣人怎麼這麼愛挺</t>
+          <t>[黑特] 原來馬鷹狗提的中華民國是歷史啊！</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071067.A.474.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073273.A.198.html</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>就是說那個被黑道綁在架子上的媽祖拉每年都要被綁出來巡迴一下然後台灣人就一大推跟著一起遊行捐錢給宗教的也不用繳稅難怪台中的槍枝氾濫?台灣的黑道盛行  你我都推了一把?</t>
+          <t>馬狗說孫文創建中華民國，這沒有問題，對中國政府而言，中華民國就跟宋元明清一樣，是中國歷史上的一個朝代。看統媒報導，我還以為馬狗說中華民國萬歲呢！哈哈大笑</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九以「百十二」迴避民國 鄭運鵬：</t>
+          <t>[新聞] 馬英九從「先生」變「地區領導人」？趙</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071235.A.82D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073364.A.179.html</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>馬英九以「百十二」迴避民國 鄭運鵬：再過138年就會變「二百五」前總統馬英九前往中國訪問，昨（28）上午前往中山陵拜謁，並於現場題字「和平奮鬥 振興中華」8 字，但在落款時因迴避「民國」紀年僅寫「百十二」，引發熱議。對此，民進黨立委鄭運鵬今（29）在臉書發文諷刺，若「百十二」寫法變成國民黨赴中慣例，再過138年就會變「二百五」。鄭運鵬指出，馬英九前總統在中國面對「中華民國、前總統」等關鍵詞時，提及中華民國是用「百十二」來迴避；講到前總統職務則是以孫文的臨時大總統來提示，另外，講到自己的「前總統」職務更是用「這個」來代替閃避，甚至還講到自己結巴。鄭運鵬表示：「有嘗試過，還是要給予肯定。」然而，隨後鄭運鵬也針對馬英九落款的「百十二」提出評論，他指出：「比較麻煩的是，如果『百十二』變成中國國民黨赴中的慣例，再過138年，就會寫成『二百五』。」最後鄭更諷刺地說：「逃避可恥但有用，阿Q雖然好笑但還是可以度小月。」新頭殼https://newtalk.tw/news/view/2023-03-29/864088哈哈哈，好好笑喔，沒想到我們的立委諸公還蠻幽默的這個比他堅信小智沒抄論文，還有相信鄭文燦論文沒造假還好笑還好他沒去演藝圈，不然其他主持人都沒飯吃了</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.storm.mg/amparticle/47678592.新聞來源︰風傳媒3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九從「先生」變「地區領導人」？趙春山曝中方突改稱呼因「我不爽了」4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※陳嬿婷  2023-03-29 11:16前總統馬英九正式展開為期12天的訪中行程，並於28日前往南京中山陵拜謁國父孫中山，除現場題字「和平奮鬥，振興中華」，落款採民國紀年，更提到「中華民國」、「前總統」等用語。對此，淡江大學中國大陸研究所教授趙春山表示，馬英九此行是希望達到文化、歷史的連結，但此番言論恐讓中國方面相當不滿。趙春山接受媒體人黃暐瀚節目《POP撞新聞》專訪時表示，馬英九在祭文及訪中提及「中華民國」、「前總統」是很自然的；而據他了解，大家一開始都互稱「先生」，但之後江蘇省委書記信長星就改口稱馬為「地區領導人」，顯見其發言惹怒對方。「我不爽我就叫你地區領導人」、「兩岸很多本來是很一般的事，但因為太敏感了，就變成很特別的事。趙春山表示，馬英九此行的目的是祭祖，又帶了學生到中山陵，這樣的激動是由衷的，因為他們的世代都是抗戰前後出生的，不可否認對中國有一些情懷，和台灣的年輕人不太一樣。「馬英九還有機會回去祭祖，像我們這一代很多人根本沒機會回去祭祖。」趙春山感嘆，「我父親現在葬在哪裡我都不知道，孤魂野鬼，根本沒機會祭祖。戰亂的時代哪有什麼祖譜家譜，現在台灣年輕人真的不了解，所以他去慎終追遠，我是滿感慨的。」他提到，很多中南部的朋友家裏都有祠堂，但人家到中國祭祖就被說三道四，「想想就覺得 不知道從何說起。」至於馬英九此行是否影響2024大選？趙春山強調，他不在乎誰當選，而是在乎整個台灣問題。「台灣，尤其是年輕人，我們在一個全球化的時代，台灣四面環海，是不是要了解一下世界發生什麼事情，尤其我們旁邊有一個這麼大的中國，每年跟我們貿易這麼密切，你說有沒有關係？要不要了解？」5.附註、心得、想法︰※ 40字心得、備註 ※中國江蘇省信委書記以地區領導人稱呼馬前總統，趙春山教授認為這透露出中方不爽訊息，根據趙教授事前了解，雙方本來以先生互稱，他認為應該是馬前總統之前的言論惹怒對方，逼得中方官員必須有所反應，趙教授覺得兩岸在有些事上太過敏感。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Re: [討論] 馬英九談南京大屠殺</t>
+          <t>[討論] 剛飛中國回來心得</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071344.A.1DE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073431.A.047.html</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>是說當年蔣中正差一點把中共滅黨。但該死的日軍又來犯我大中華，所以不得以國民黨政府，才聯共抗日。甚至站在國民黨的立場，當年共產黨就是趁機壯大自己，抗日只是虛應了事，後來歷史大家也知道，整個秋海棠就弄丟了。毛澤東甚至還有公開，感謝日本侵華; 我猜馬英九這前國民黨黨主席，應該是拿了相當多的好處，才會連金溥聰都反對的情況下，硬要去祭袓(被統戰)</t>
+          <t>最近想驗證一下自媒體上的消息真實性所以跑了趟大陸旅行也隨機認識了些朋友, 聽一下他們的故事先說結論吧經濟崩盤是真,消費不振是真.在台灣聽這些消息時, 事不關己 ,會比較冷漠.但當自己真實認識當地人民後不論是底層或曾經的中產,或知識份子都可以側面窺見整個社會氛圍和數年前的氣氛有很大的落差前幾年的大陸那種狂與浮躁感非常誇張普遍對未來感到有正面預期但這次則完全沒有,取而代之的是迷茫與煩惱我認識的有疫情下中產商界人士 破產倒閉賣房欠債 只求生存原來真有這樣的人 還真不少目前這樣的人 只是低調地在各城市流動由於並非農民工 還能住得起房預計會更接近日本的網咖難民其他朋友是一般普通上班族 大型上市製造業公司我正好聽見對方公司宣布下個月獎金停發 可能會有新一波裁撤獎金停發大概會導致這位仁兄一半的收入消失至於住橋洞和車站的 自媒體上有影片我自己行程原因 也不會特地去跑一趟 太麻煩了農民工階級我預計會死很多人你說GDP崩20%, 從街道人流去看並不會覺得太誇張核心商業區當然依舊有正常消費人口但比較偏的商業街 傍晚幾乎沒顧客我說的是二線城市以上規模要說正面的進步也是有啦比如手機支付的應用更普及了 乘車碼 奶茶店更普遍了大概就這些吧每個人背後都是一個家庭未來十年會死很多人也會有更多悲劇傳出 可能耳聞時只是一條新聞不過真實去接觸人 會有同理心和同情心氾濫出現不知道該說什麼希望不要死太多人當然這些死人的消息 很卑微 也傳不到我耳裡這都是台灣不曾出現的情景 台灣很穩喔對了 Realtw我有去廣西是蠻像越南的 房價又便宜 機車也多 發展得不錯啊不過我應該是不會想去工作生活啦恭喜你找到一個自己熱愛的土地只是不適合我也讓我更珍惜臺灣了 感動啊我去觀光也幫你們創造GDP了不用下跪啦 我沒那麼偉大其實也沒花多少錢如果能間接讓你多活五秒 也算是功德一件啦你以後不要再吹噓了唷如果需要照片當證明的話,我可以晚點放連結到推文</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[討論] 國民黨要全黨挺顏家 還是要說不認識</t>
+          <t>[黑特] 要怎麼打醒腦水腫綠處男朋友?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071495.A.E7D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073608.A.396.html</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>剛看到已經有國民黨員說是因為顏要選舉所以政治迫害天啊台中市長不是盧秀燕嗎國民黨要全黨挺O金 挺顏家嗎？還是到時候被判刑要說不認識顏家 顏家跟民進黨比較好顏家是民進黨之類的吧？下幹黨日常發揮</t>
+          <t>我有一個朋友已經是87歲的大叔了還是個處男他是綠營的死忠仔 所以就叫他綠處男好了今天跑來問我 台灣中國 一邊一國 兩岸分治 中華民國就是個笑話我就用手指一直搓他腦門 叫他把故宮的[鮑可摸]通通還人家再說他就森77哭著跑走惹我484該跟這種人絕交比較快?</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Re: [新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
+          <t>[黑特] 原來馬英九是去祭祀滅亡的中華民國</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071668.A.1D3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680073881.A.D84.html</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>關於「背叛連戰」這件事情，在今年連戰出的回憶錄裡面連戰也有提到會記得是因為連戰在那本回憶錄寫了不少自己的豐功偉業，很少抱怨，極少數抱怨的就只有馬英九。畢竟都30年前的事情了，還要一直挖出來講，想必連戰應該是印象很深。當然，連戰以前就出過很多書，搞不好不只提過一次，感覺寫這篇文章的人從很多不同的國民黨大老的回憶錄挖出來，例如王金平，李登輝，郝柏村等等整理成一篇，倒也不難就是了。: 第二，該文指出，1993年連戰出任行政院長時，邀馬英九擔任法務部長，幾年後馬轉任行: 政院政務委員，在1997年轟動全台的白曉燕命案發生，當連戰內閣焦頭爛額之際，「馬英: 九不僅沒有與提攜自己的恩人共患難」，反而在連戰毫不知情的情況下自行對外宣布辭任: 「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒台。:: 第三，馬英九在辭去政務委員後數次承諾不會參選台北市長，但在第二年就食言參加國民: 黨內台北市長初選並獲得提名，在參選後遲未得到當時國民黨主席李登輝的支持，直到選: 前一周，李登輝突與馬英九同台，並用閩南話質問「馬英九先生，告訴我你是哪裡人啊？: 」，該文大酸，面對李登輝這一表忠心的問題，在香港出生的馬英九自然不會說他是「中: 國人」，毫不猶豫地用他蹩腳的閩南話回答「我是台灣人」，最後以5%的差距戰勝當時聲: 勢正盛的陳水扁，當選台北市長。但在一年多後，國民黨在總統選戰敗給陳水扁，李登輝: 被質疑「棄連保扁」受到許多國民黨支持者抗議。此時馬英九察覺到藍營內部的政治風向: 變化，立刻公開「逼宮」要求李辭任黨主席，馬李二人遂反目成仇。</t>
+          <t>馬英九去中國拜訪中華民國滅亡的紀念館原來祭祖不止自己的祖先搶先去給中華民國上香了中華民國已死 百十二 —— 馬先生台灣也在向狒狒鞠躬好巧</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九南京謁陵提創建民國與中華民國 央</t>
+          <t>[討論] EE園區要學游泳是必備的嗎？</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071784.A.D85.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074080.A.427.html</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/40s7M8U2.新聞來源︰中央社3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九南京謁陵提創建民國與中華民國 央視刪光光4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中央社台北29日電）前總統馬英九為期12天的訪中祭祖行，昨天首個行程赴南京中山陵謁陵，期間他提及國父孫中山創建民國，發表公開致詞提及中華民國，以及落款題民國紀年，中國官媒央視全都不表並剪掉。據央視發布有關馬英九訪中謁陵的影音和文字報導，馬英九率團步行進入祭堂，並由司儀宣讀頌讚孫中山豐功偉績與高風亮節的祭文。央視報導引述的祭文內容包括：「兩岸人民，同屬中華，炎黃子孫，振興民族，共創未來，薪傳綿延。九二共識，和平基礎。蒼生為念，百姓謀福，共同發展，永繼無疆。」不過祭文中提到國父「力抗列強，創建民國」，央視的影音與文字報導全都不表。此外，馬英九在中山陵祭堂耳房題8字「和平奮鬥，振興中華」，並以他的大名及公元和民國紀元落款。但央視發布的新聞照片和影音畫面，僅留下題字和他的姓名，手書的公元和民國紀元則被裁掉，即使馬英九書寫「百十二．三．廿八」未註明民國字樣，也不能倖免。隨後他前往孫中山紀念館發表公開致詞，提及「民國112年3月28日馬英九前總統」，並說國父孫中山先生「終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國」，「到今天已經112年」，以及「民國14年（1925年）3月12日國父逝世」。央視的影音和文字報導同樣省略不題，只引述他公開致詞未提及民國與中華民國的段落：「兩岸人民同屬中華民族，都是炎黃子孫。深盼兩岸共同努力，追求和平，避免戰爭，致力振興中華，這是兩岸中國人不可迴避的責任，我們一定要努力實現。」隨後馬英九接受聯訪表示，兩岸一定要追求和平，否則雙方都沒有前途，央視的文字和影音報導也是略過，僅提及他說，希望台灣青年深入了解中山先生生平和兩岸關係，大陸朋友非常熱情，回去後會把這份好意轉達給台灣民眾等。至於昨晚會見江蘇省委書記信長星，央視官網則未呈現隻字片語。馬英九會信長星指出，他在「台灣總統」任內推動兩岸交流，創造兩岸分治70多年來「最和平繁榮的一個階段」，信長星則回以「馬英九先生」，並提及馬曾擔任國民黨主席及「台灣地區前領導人」。（編輯：曹宇帆/唐佩君）11203295.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※馬這個不是很滿意這次的“款待”嗎？央視刻意刪掉這些畫面又如何？反正這些未修剪畫面是播給台灣看的。中國人就不用看這種，反正跟中國人民沒關係不是？</t>
+          <t>老實說我不太會游泳，平常也不愛去海邊不過看到浮屍新聞從7個迅速到16個了我在想我還是應該學一下游泳說不定有些不是被丟包是出海游泳結果泳技太差溺死的看來該去報名學游泳順便看妹子了</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[黑特] 國民黨什麼時候要開除顏寬恆</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071809.A.B25.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074415.A.B71.html</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>你說ROC宣稱擁有大陸主權是自慰？我同意啊，我完全同意問題我們是民主國家、法治國家，政策都是依照多數民意在走的，ROC擁有大陸主權，這可不是只有統派的意見，現行法律這樣規定，代表多數民意就是如此，懂？如果有哪裡不妥，要依照民主程序去修改，懂？憲法增修條文第11條兩岸條例第2條地方制度法第3條....如果不改，代表多數民意都想自慰，你又能怎樣？武力推翻中華民國政府嗎？</t>
+          <t>自恃最清廉的國民黨最討厭黑道的國民黨有排黑條款的國民黨結果黨內組成三分之一黑道背景柯文哲說全台灣的議長都是黑道好死不死都國民黨的現在狗黨黑道為何不敢開除？是在騙人民還是在騙自己？</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[新聞] 獨／顏寬恒原本鐵了心拒保 顏清標父子僵3</t>
+          <t>[討論] 馬娘是不是比想像中還有料???</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071944.A.66C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074814.A.3BC.html</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>獨／顏寬恒原本鐵了心拒保 顏清標父子僵3小時軟化2023-03-29 13:01 聯合報 記者陳秋雲／台中即時報導國民黨前立委顏寬恒無預警遭檢調詢問與千萬交保，投下政壇震撼彈。顏寬恒今早出面說明，原打算拒絕交保，幾經波折才同意。據了解，顏寬恒與顏清標父子隔空對話兩、三小時，顏寬恒原本鐵了心不交保，抗議司法不公，但幕僚紅著眼眶直說「這樣太刺激標哥身體」，最後顏寬恒才同意籌措保金交保。檢調動作突然，據了解，顏寬恒昨晚從自宅被帶走，他對檢調所說的案情無法接受，認為是舊案重炒，當聽到妻子以500萬元交保時，他當下決定拒絕交保，因為早在去年補選時，就把違建案情交代清楚，現在卻又舊案重提，要抗議司法不公。據了解，顏清標聽到幕僚轉述，顏寬恒要拒絕交保，顏清標非常震驚，當時連手拿東西手都拿不穩，頻頻要幕僚溝通「平安回來最重要」，顏寬恒反駁說「今天千萬交保，就被綠營壓著打，什麼都說不清楚了」。顏家父子對峙2、3個小時，後來幕僚告訴顏寬恒「標哥情緒激動，怕太刺激標哥身體」，最後顏才同意交保。據轉述，顏寬恒要抗議司法不公，但顏清標認為「人回來就好」、「平安就好」，也怕顏寬恒會被抓起來，父子來回溝通，讓幕僚也紅了眼眶。對於舊案再提，顏寬恒今早出面說明，但難掩沮喪情緒。https://udn.com/news/amp/story/122555/70642381.他那棟在龍井交流道附近，其實蠻偏僻的2.如果拒絕交保，學蘇治芬陳明文其實對他比較加分3.學蘇嘉全捐農舍不知道有沒有好一點？？4.年輕時的標董說不定會跟顏寬恒一樣拒絕交保</t>
+          <t>先說我本來以為這次訪中充其量就是連爺爺2.0那樣去跪的結果居然直接炸人家主堡你能想像藍統馬居然能比蔡菸文還獨嗎?? 簡直反襯綠營有多共產!!直接盤點這次去幹了哪些成績：1. 當面洗江蘇書記臉，自稱台灣總統2. 直接洗共媒臉，共媒重複問從國父學到什麼，馬上嘴「我剛剛不是說了嗎？」3. 自比國父，稱國父當了中華民國總統，我也當了(中華民國總統)4. 在南京直接講中華民國112年5. 拜謁中山陵，白紙黑字落款民國112年(各位 你最愛的白紙黑字來了= =)6. 直接提習先生，畢竟是唯一會面過習的總統所以有談資，提及過往對話現場連個屁都不敢放馬英九是獨派嗎？不是那他為什麼表現起來比綠營總統還獨？這是個對比的概念，蔡菸文的行為太統了馬英九態度就很明確：　　九二共識擱置爭議ＯＫ　    一個中國ＯＫ反正我就是中華民國　至於你老共愛自認是什麼隨你　　兩岸同屬中華民族ＯＫ　反正我就想和談　至於民族叫什麼無所謂反觀蔡菸文：　　整天抗中保台提款選票　實際上自稱中華台北　　一天到晚自以為代表台灣獨立　實際上中華民國總統位置真香阿不惜內鬥也要選馬英九有想促進台獨嗎？沒有阿 他就當他的藍統 立場一直是這樣反觀蔡菸文呢？台獨有做出成績嗎？沒有阿 整天矮化自已 可悲X種不是馬英九有多好是蔡菸文太爛太垃圾只想提款台灣價值一個無能的台女總統 是國家的不幸更是獨派的悲歌並不是說支持馬你就能得到台獨但顯然支持廢物綠營 你也肯定得不到台獨懂？</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[討論] 不意外，馬這趟又打回原形了! 可惜啊</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066201.A.304.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680074878.A.364.html</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  馬前總統這用詞大家昨天很肯定是因為，台灣人認為他就是台灣前總統ROC前總統  大家讚賞度頗高  起碼不是先生這種說法了...承認是台灣前總統就是自然兩國論了  可是人生就是那個BUT...  馬前總統還是說出了身為"一個中國人"的說法，直接打回原點...  畢竟2023年兩岸認同民調覺得自己是台灣人的比例78%，認為自己純中國人的只剩7.7%  你各位只開心了一天XD 年輕的泛藍票還是會跑去給柯文哲 柯吸老K票大概10%起跳  還是要不回來了  如果後面這幾天，馬英九還是老調重提的92共識再講一次的話(民調只剩9.8%)  整個就打回原形了  而且機率可能還不低92共識對岸早就升級成一國兩制了 傻呼呼  可惜啊....年輕人對於你自己是中國人你自便! 投票的時候他們還是台灣人 鳩咪</t>
+          <t>:    台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?台灣要大躍進根本不關統派的事統派就只剩下不到5%所以統派人這麼少蔡EE怎麼不敢大躍進美國怎麼不跟台灣建交台灣的一中憲法是自慰台灣的兩國論也是自慰兩國論結果世界上沒幾個國家承認邦交國還越來越少現實世界雖然台灣邦交國很少但是台灣護照比中國好用所以不廢除一中憲法不法理台獨就是希望維持這個現狀真的是自我安慰阿台灣人不想打仗中國不放過台灣美國也要求台灣維持現狀這麼想大躍進趕快去簽一簽去當兵阿自願去外島然後不管軍令為了台灣的自主有機會就直接對對岸開槍製造衝突之後可能就有機會改變現狀只是不知道會變好還是變壞別整天只會嘴砲自己自慰完還要笑別人自慰</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Re: [討論] 台灣誰能繼承馬英九路線?</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066286.A.D1A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069639.A.471.html</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>※ 引述《Borges (波波波波)》之銘言：: 在中國受禮遇: 在美國受禮遇: 幾乎沒有斷交國: 在中國可以嗆中國: 在美國也可以嗆美國: 這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?: 台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?繼承三小馬英九是死了喔他還很健康的馬英九那麼優秀國民黨直接徵召他不就好了有一個正版馬英九，幹嘛屈就自己找一個相似的呢</t>
+          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:    是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情:    理組思維不用說了，就是絕大部分文組思維也根本知道的事情:    ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係:    台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈):    所以中國是我大ROC領土:    更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹:    哈哈哈中華民國為何要宣稱有大陸主權?這太好理解了吧?你看南北韓不就知道了?未來朝鮮半島如果有什麼變動都可以名正言順的接收對方(先不考慮背後勢力)當然你可以說中國大陸哪可能會倒台?難說吧?蘇聯?在一種可以想見的未來美中真的發生戰爭(很可能就是WW3)PRC如果戰敗政權解體如果我們ROC沒死(極大可能是在美國組臨時政府)我講的事情就很有可能發生換個角度PRC為何那麼積極的想消滅ROC?因為他們某種程度是篡位者(2758號決議)我們一天不死他們睡不好覺懂?</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[討論] 馬英九主持二二二八紀念會時有哽咽嗎？</t>
+          <t>[新聞] 又多4具！台灣7縣市外海2周內出現12具浮</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066468.A.17D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069849.A.AF2.html</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>我記得他主持二二八紀念活動時是沒有哽咽吧今年還加碼已經道歉很多次了但他都不會忘記跟他無關的中日戰爭也不會厭煩提92共識蔣萬安主持228活動也沒哽咽馬英九看到中日戰爭為什麼會哽咽？他是在那場屠殺中的受難者投胎的嗎？</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://is.gd/aL22sM2.新聞來源︰Ettoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※又多4具！台灣7縣市外海2周內出現12具浮屍　台南數量最多4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※記者張君豪、陳韻如／台北報導台中港離岸風電7日被發現一具詭異男屍躺在高10公尺的高台上，至今仍無法查出身分。沒想到，事隔才兩周，海巡隊又在台中往南到高雄沿海陸續發現7具半裸男女浮屍，陳屍地點分別在台中、雲林、台南、高雄等地。不過，經海巡署清查後發現，北部地區也出現浮屍，目前人數累計至12人。對此，國安單位高度重視，懷疑遺體是遭人蛇集團海上丟包，但詳細案情仍有待調查釐清。台中地檢署今針對此案說明，表示經海巡署後續清查發現，本月4日至17日，從桃園到高雄沿海另撈獲11具男女無名屍。換句話說，包括台中離岸風機，前後2週內，跨越7縣市的海岸線就出現多達12具無名屍。由於浮屍出現的「特別密集、且很多」，相關單位懷疑是遭到人蛇集團丟包的越南偷渡犯，目前海巡署已與警政署成立專案小組追查釐清。經統計，無名屍發現時間與地點，分別為：3月4日桃園市新屋溪北岸、3月5日台南市七股區網仔寮沙洲、3月6日台南市青山漁港港嘴海面、3月6日雲林縣湖口鄉外海、3月7日台南市將軍西方海域、3月7日彰化縣王功西方海域、3月7日雲林縣麥寮西方海域、3月7日台中外海、3月10日雲林縣外傘頂洲、3月10日高雄市茄萣區沙灘、3月14日新竹圳頭西方海域、3月17日台南市七股區網仔寮沙洲。根據資料，其中以台南市4具最多、雲林縣3具次之，桃園、新竹、彰化、台中、高雄各1具，且3月7日單日就發現4具。目前都分別由當地警方報請檢方相驗，部分遺體已嚴重腐爛，但都沒有證件。另外，台中地檢署已與越南辦事處、刑事警察局國際科聯繫，會協助越南家屬，透過官方管道提供家屬檢體，以供法醫研究所比對確認身分。5.附註、心得、想法︰哇靠全台周圍都被浮屍包圍了太可怕了吧最近是不是很忙阿 一波未平一波又起政府有辦法大動作掃人蛇嗎※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[討論] 為什麼叫EE??</t>
+          <t>[討論] 沒抗中保台自助餐，民進黨這下要輸慘了</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066980.A.EDF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069941.A.A2B.html</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>我不太關心政治不太了解什麼梗為什麼蔡英文要叫成蔡EE??英文english不是只有一個E而已嗎??怎麼叫成兩個E??另一個是什麼意思??有人可以告訴我媽??</t>
+          <t>馬喊一聲民國和台灣總統打破各種紛爭台灣現在最需要的不只是團結吧還得要有人能夠以兩國論來建交增加台灣實力管他就九二共識也好、雙重承認也好已經不再是非綠就紅、非民進黨就統一、非親美就舔共的現實了誰不能維持現狀？執政這八年我們獨立了？修憲了？不要一直用販賣焦慮給洗腦再用抗中保台這招也沒用了沒有人想打仗！更沒有人想被統一！正視自己的斷交政績想想辦法怎麼樣提升台灣在國際上弱勢的地位一直靠著「不投民進黨，台灣變香港」大家有一天都會疲乏的好嗎「就算不投民進黨，也不等於我們要被統一」現在已經不是只有民進黨會能吃這抗中或維持現狀的自助餐不包含87統一派的情況下誰不想要一邊一國？誰不想要維持現狀？難道沒了抗中這個神主牌，就沒戲唱了嗎？既然大家都能維持現狀，是不是民進黨也無所謂，反正你們也只會用愛發電做功德，不爽你去跟你老闆說阿，你們要自立自強那民進黨明年要自立自強少了神主牌這下要輸慘了</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[討論] 蔡英文出訪美國 為何兩邊共產黨都氣炸了?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067011.A.966.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070008.A.5CF.html</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">   是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情   理組思維不用說了，就是絕大部分文組思維也根本知道的事情   ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係   台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈)   所以中國是我大ROC領土   更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹   哈哈哈   是說現在還有多少老人還在用主權跟治權自慰? PRC也說ROC只有治權沒有主權   所以台澎金馬是屬於PRC的   連KMT年輕人巧芯都說出根本不想統一，都在嘴砲而已!!   台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?</t>
+          <t>安安蔡英文應該起飛前往美國了剛剛看新聞國台辦說絕對會報復  會有所行動中國那邊的共產黨看來氣炸了台灣這邊的也不遑多讓 藍色的說蔡英文要戰爭 不要去接待她  之類的為什麼只是過境 見見議長  兩邊共產黨都氣炸了@@</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[討論] 馬英九談南京大屠殺</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067178.A.DBD.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070102.A.755.html</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>新聞又出來了馬英九訪南京大屠殺紀念館悲慟落淚“歷史絕不可以被遺忘”這就是有名的“放下228，勿忘南京大屠殺”政黑眾說484</t>
+          <t>版上綠粉終於攻擊巧芯到語無倫次吳思瑤在士林北投非常強新潮流台北市掌門人四年後跟蔣萬安PK台北市長最有機會的綠營候選人這樣的腳色巧芯啥都沒做民調就只輸4%我只能說巧芯超級強不信你拿目前這區的國民黨參選人張斯剛去跟吳pk一下民調看他輸幾%我個人滿欣賞張斯剛的士北在地好議員但民調目前應該會被吳痛電再來說到謝龍介的大同贏何志偉同一份民調聽說謝龍介被同樣選這區的王志堅痛電這只代表何志偉在這區得罪深綠後沒有大家想像中的強拿來跟巧芯民調比完全斷章取義只想帶風向而已綠粉永遠只會故意打壓對手永遠不敢正視你的對手其實也很強的事實一直狂打巧芯不就代表他還是個咖這就是去年打高虹安的翻版這種貶低戰法只會越打她越強啦最後贏了嘴砲輸了大選看來這網路戰法一點都沒學到教訓去年1126大落敗的戰術現在還繼續用真的完全不知長進我是認為巧芯今面初選如果能過狒狒那關那七年後跟吳的台北市長的確終需一戰七年後民進黨最可能的人選就是吳跟高還有堅哥但高被自己人幹掉出局機會超大吳有新潮流王有謝系跟自己長年人脈高就孤鳥出局機會最高藍的話大概就巧芯羅智強二者PK一個出來選</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Re: [新聞] 受訪一度哽咽！馬英九重申</t>
+          <t>[新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067350.A.C24.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070499.A.FBF.html</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>※ 引述《jennifer0314 (jennifer0314)》之銘言：: https://www.ettoday.net/news/20230329/2468974.htm: 2.新聞來源︰: ETtoday新聞雲: 3.完整新聞標題: 受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人: 4.完整新聞內容︰: 前總統馬英九訪問大陸一行，今（29）日上午9點左右參訪侵華日軍南京大屠殺遇難同胞: 紀念館，他向遇難同胞獻花、獻花籃致祭並鞠躬致哀，隨後進館參觀，結束時將接受兩岸: 媒體聯訪。馬英九受訪提到兩岸問題時指出，兩岸都應該避戰、去謀和，避免戰爭的發生: ，一旦發生戰爭，沒有任何東西可以彌補。: 馬英九接受媒體採訪時表情沉痛，一度說不出話哽咽。他強調，「身為一個中: 國人，不管在海峽哪一邊」，對於外面的欺凌，要自立自強，所有中國人都應該得到: 教訓。首先，馬先定義兩岸都是中國人，意思就是告訴國際社會，我們這是內戰，外國勢力不應該插手。舉例來說：只要想想假如澤倫斯基說「兩邊都是俄羅斯人」，國際輿論會發生什麼事就知道了。馬所謂「外面的欺凌」這句話，看上下文可知，指的就只有美帝、八國聯軍。: 馬英九也呼籲，保持仁愛的心，不要去侵略別人。前面都已經說兩岸都是中國人了，還特別強調外面的欺凌，這邊的侵略很顯然是指日本侵略中國，並延伸後面的南京事件。: 侵華日軍南京大屠殺遇難同胞紀念館位於南京市建鄴區水西門大街418號，通稱江東門紀: 念館，選址於南京大屠殺江東門集體屠殺遺址及遇難者叢葬地，是中國大陸首批國家一級: 博物館，首批全國愛國主義教育示範基地，全國重點文物保護單位，首批國家級抗戰紀念: 設施、遺址名錄，也是國際公認的二戰期間三大慘案紀念館之一。同意以上馬英九所講言論的人，基本上就等同替習近平完成最後一塊拼圖，直接把台灣可能被中國侵略的問題，轉變成國共內戰的自家紛爭，直接讓外國無理由介入。之後無論是被和平協議統戰，或是中共直接侵略，馬的這話都把外國援助擋死了。台灣，或是民進黨，從來沒說要攻擊中國，只有說受到侵略時要保衛台灣。講攻擊中國、發動戰爭的從來都是兩蔣反攻大陸的國民黨。而現在也是中國單方面威脅台灣，所以正常人都會說：反對中國侵略，台灣應該有所準備。而非馬英九的把被害人和加害人說成一家人，兩邊各打五十板。瑞士作為最知名的絕對中立國，人家也是跟美國買一堆戰鬥機，沒有整天喊避戰的啦！人家中國現在還不敢打台灣，是因為李登輝時期買了一堆軍備威嚇的，才不是你馬的跪。你無法決定對方要不要打你，就像以前烏克蘭跪舔俄羅斯，克里米亞一樣被打。但你能決定對方打你要付多少代價，減低對方的武力。馬執政時國軍空轉，解放軍可沒有停止買武器和增加軍事預算呢。</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.chinatimes.com/realtimenews/20230329002818-2604072.新聞來源︰中時3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※葉元之驚爆友人兒以為「這人」才是國父：教改太可怕了4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※12:32 2023/03/29中時新聞網 黃朝郁前總統馬英九出訪大陸展開祭祖之旅，昨（28）日率先前往中山陵、孫中山先生紀念館等地。國民黨新北市議員葉元之透露，友人的兒子竟然以為鄭成功才是中華民國國父，感嘆道「由此可知，馬總統昨天去中山陵謁陵有多重要！」馬英九昨日前往中山陵，題字「和平奮鬥，振興中華」8個大字，而落款時除寫下西元的2023年外，同時也寫下了民國的112年（百十二），還提及前總統這幾字，得到網友的大力讚聲。不過葉元之今日在臉書表示，友人傳訊給他，告知兒子居然詢問「我們有國父嗎？國父是誰？」而當友人解釋是孫中山先生時，他兒子居然追問「那鄭成功呢？」讓該友人差點暈倒，驚呼「我們的教育到底發生什麼事？中華民國國父成了鄭成功？」其他網友看到後也忍不住說「因為歷史已經被改的不是歷史了」、「真的，我小孩歷史課背一堆日本人名」、「不意外，篡改歷史是民進黨的認知作戰」、「我是補教文科老師，有不少國小生認為國父是蔣渭水」、「幾年之後是史明或是辜寬敏，悲哀的歷史課本」、「不要小看教改的影響力，很～可～怕～」。5.附註、心得、想法︰※ 40字心得、備註 ※葉元之從朋友兒子經歷，感嘆現在的教育怎麼了？孩子竟然認為中華民國的國父是鄭成功。網友也認為這就是民進黨的教改，用篡改歷史來認知作戰，還有補習班老師回覆，竟有小孩認為國父是蔣渭水，有網友擔心之後國父改成史明和辜寬敏。</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文要不要也加個植物園動物園行程</t>
+          <t>[討論] 恭喜郭總統了</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067358.A.E85.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070696.A.551.html</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>是這樣的蔡英文這次去美國好像沒太多的事情耶會不會很無聊啊要不要也加個植物園動物園行程一下有無八卦</t>
+          <t>目前美國會考進入第二階段面試階段郭：受邀進政府核心部門蔡：沒簡報 (反正他不選)賴：第一階段沒過柯：沒人接待這樣看是不是郭總統穩了呢？ 美國認可的總統。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Re: [黑特] 才笑柯訪美行程 結果蔡也吃鱉 怎麼辦？</t>
+          <t>[討論] 潛藏在台灣的人蛇集團很難抓嗎 EE園區E</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067790.A.591.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070731.A.A48.html</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>美國政府看到2022年大選蔡主席的DPP居然可以輸得比2018年還慘應該也看得出來蔡雖然目前仍是中華民國總統  但未來不會是影響力多大的人了他們對藍綠的態度還是要看未來對賴清德與KMT候選人的接待規格分別為何才說得準吧!</t>
+          <t>為什麼不叫數位發展部處理一下現在都已經21世紀運用一下科技辦案不為過吧駭客部長駭進去人蛇集團主機然後監看監視器再帶警方攻堅減少台海浮屍這樣有很難嗎</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[討論]美國爸爸不給簡報，民進黨明年應該落選了</t>
+          <t>Re: [新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067877.A.E3C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070776.A.E54.html</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>台灣總統誰當選其實是由美國爸爸決定，柯文哲去美國還有拜會一些政治人物，某人過境原本要簡報，被美國爸爸直接取消，看來美國爸爸也不看好民進黨明年會贏，就看美麗島民調比較準還是美國爸爸比較準，在這裡真的可以先恭喜侯總統了。</t>
+          <t>※ 引述《spector66 (天氣預報)》之銘言：馬英九現在看覺得很可愛，不過想到以前他的事情就覺得這個人很爛尤其是當著原住民說：我把你們當人看.....這骨子裡到底多歧視原住民才會說出這種混蛋話？把你們當人看....阿不就要謝主隆恩？想到這個就覺得馬英九會被叫馬陰狗不是沒有道理的。可悲的陰狗</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[新聞] 台捷合作11項成果曝光 艾達莫娃：支持民</t>
+          <t>Re: [新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068048.A.099.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070868.A.3A8.html</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>台捷合作11項成果曝光　艾達莫娃：支持民主普世價值的戰鬥沒有止盡https://bit.ly/42LC4VI三立 高逸帆捷克眾議長艾達莫娃（Markéta Pekarová Adamová）率領的160餘人訪團，今（29）日是最後一天訪台行程。艾達莫娃表示，這趟「台灣使命」成果豐碩，但是為了支持民主自由人權，這些普世價值的戰鬥無止盡，從來不會完畢。外交部今舉行艾達莫娃訪問團合作備忘錄簽署儀式暨訪台記者會。會中，外交部長吳釗燮、立法院長游錫堃、國發會主委龔明鑫皆親自到場。吳釗燮致詞表示，再次感謝議長對兩國友誼支持，為台捷交流開啟新的紀元，面對全球威權主義擴張，以及更具挑戰的國際情勢，台灣會持續與捷克等理念相近國家，強化民主供應鏈的韌性。吳釗燮說，艾達莫娃來訪讓台捷交流有豐富成果，包括3項備忘錄、7項合作成果，以及兩國會簽署友好聲明，彰顯彼此友好情誼。他也很高興捷商與我國企業的商談會，雙方會促成非常可觀的商機，希望未來能多見面，也歡迎更多捷克友人來到台灣。艾達莫娃致詞表示，此次訪台之行真的有豐富收穫，這次訪問台灣的代表團是在台灣規模最大，也是捷克最近5年最大的代表團。她感謝吳釗燮、游錫堃等人的熱情接待。艾達莫娃說，這次訪問台灣成果豐碩，包括簽署備忘錄，在立法院演說，以及會見總統蔡英文。她特別提到，蔡英文注意到他們眾議院創立的網站，訪問台灣之行是「台灣使命」，蔡總統也感謝他們，對兩國關係的合作有很大貢獻。艾達莫娃指出，「台灣使命」成果豐碩，但是為了支持民主自由人權，這些普世價值的戰鬥無止盡，從來不會完畢。游錫堃表示，很高興艾達莫娃訪問團成果豐碩，此行簽署了多項合作備忘錄及合作聲明；合作遍及文化、生技、科技等產業面，為兩國帶來更多元、更深化的民主夥伴關係。台捷的合作成果包括國立台灣博物館與捷克國家博物館展覽合作意向書、政大與捷克查理士大學成立供應鏈韌性教研中心合作備忘錄、國防安全研究院與布拉格國際關係研究院合作了解備忘錄、台捷醫療科技採購合作備忘錄、台北科技大學暨捷克科技大學學術合作專題研究計畫，以及捷克共和國國會眾議院和台灣立法院友好合作聲明等。</t>
+          <t>我覺得台獨綠狗真的很可憐，幾年前說母親的名字叫台灣https://youtu.be/ovJI7Edp6yw現在說台灣已經獨立，名字是中華民國...幹你娘，不要隨便認祖宗啊，中華民國國父是鄭成功蔣渭水...是要多無恥才可以把別人的國家當成自己的東西，要叫台灣，你就自己獨立，寄生綠狗，無恥。</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[討論] 馬英九算起來應該叫我叔叔</t>
+          <t>[新聞] 日缺口100至180萬顆蛋！ 農委會：五月有</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068105.A.129.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680070876.A.F42.html</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>馬英九中山陵遇見幼稚園的小朋友讓人家叫他哥哥，我小女兒在上幼兒園耶。那以後我可以叫馬英九馬世侄嗎馬英九也是真政治腦，幼稚園的小朋友不知道孫中山就不悅。沒點度量。還就此批評人家老師真是黨國遺毒，幼稚園的小朋友就要洗腦政治人物，不認識就不行哦我要批評他了。我女兒上大班，但是毛澤東還是我前幾天通過人民幣教給她認識的我們的幼稚園老師可不會可怕到給幼稚園小朋友灌輸政治偶像。XD</t>
+          <t>1.新聞網址︰https://udn.com/news/story/7266/70640582.新聞來源︰UDN3.完整新聞標題日缺口100至180萬顆蛋！ 農委會：五月有上億進口蛋補缺口4.完整新聞內容︰現在雞蛋市場價格紊亂，也可能零售市場一天一個價格，甚至散裝蛋比洗選盒裝蛋更貴，農委會表示，進口雞蛋今天已經開賣，農委會現階段掌握的進口量為7000萬顆，最快4月底前，國內雞蛋價格可以趨於平穩。農委會畜牧處長張經緯表示，現在有雞蛋缺口，每日100至180萬顆，要把這樣的缺口補足，讓市場回歸正常的一個機制，預估應該是在4月的下半旬，透過進口的量能、陸陸續續透過有牌價機制的這些通路系統，能夠市場慢慢導正回到一般的常軌。張經緯表示，3月、4月進口的量，就現在掌握的，已經超過3500萬顆；到5月份，現在進口的已經到了，農委會跟民間進口可達將近7000萬顆，加起來超過1億，4月下旬開始，希望這個市場能夠能夠回歸到正常的一個機制。他表示，台灣自己的蛋雞產業也一定要能夠恢復大家的復養，才是原來真正國內工具的一個根本，現在預估的缺口量，大概是介於一成到一成五之間。隨著氣溫的回暖，隨著對疫情的控制，相信整體蛋雞復養成數漸漸提高，缺口是可以解決的。5.附註、心得、想法︰    農委會不放吉仲出來保證不缺蛋了嗎?    缺蛋到底是不是認知作戰啊    塔綠斑綠畜每天都有一個新說法    搞得每個家庭去買蛋都好亂啊    進口破億的蛋    是不是圖利?    綠共吃屎</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
+          <t>[新聞] 林智堅小心了？高虹安3月下旬開挖新竹棒</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068235.A.494.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071044.A.CC6.html</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://newtalk.tw/news/view/2023-03-29/864094新頭殼 馬英九是什麼人？中媒細數他10大往事 「促進台獨」又「背叛連戰」 前總統馬英九訪中行程，28日晚間在南京會見中共江蘇省委書記信長星，馬英九此次中國行也引發中國民眾的注意，中媒更在馬英九訪中行前為此刊出一篇專文，內容細數了馬英九的10大往事，不過，文中敘明的卻是馬英九過往「放任台獨」又「背叛連戰」的過往，直言在兩岸事務上馬英九陽奉陰違、虛與委蛇，表面上號稱支持一中，實際以消極的態度應付了事，該文作者表示，「這樣的人要來大陸，他不知道有誰會歡迎」。 中媒《觀察者網》近日刊出一篇文章，講述馬英九的10件往事，首先提到，馬英九在70年代靠著國民黨中山獎學金資助赴美留學，在美期間多次在國民黨海工會刊物《波士頓通訊》撰文「批判中國」、海外左派和台獨分子，受到國民黨高層注意，返台後便擔任蔣經國的翻譯。 第二，該文指出，1993年連戰出任行政院長時，邀馬英九擔任法務部長，幾年後馬轉任行政院政務委員，在1997年轟動全台的白曉燕命案發生，當連戰內閣焦頭爛額之際，「馬英九不僅沒有與提攜自己的恩人共患難」，反而在連戰毫不知情的情況下自行對外宣布辭任「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒台。 第三，馬英九在辭去政務委員後數次承諾不會參選台北市長，但在第二年就食言參加國民黨內台北市長初選並獲得提名，在參選後遲未得到當時國民黨主席李登輝的支持，直到選前一周，李登輝突與馬英九同台，並用閩南話質問「馬英九先生，告訴我你是哪裡人啊？」，該文大酸，面對李登輝這一表忠心的問題，在香港出生的馬英九自然不會說他是「中國人」，毫不猶豫地用他蹩腳的閩南話回答「我是台灣人」，最後以5%的差距戰勝當時聲勢正盛的陳水扁，當選台北市長。但在一年多後，國民黨在總統選戰敗給陳水扁，李登輝被質疑「棄連保扁」受到許多國民黨支持者抗議。此時馬英九察覺到藍營內部的政治風向變化，立刻公開「逼宮」要求李辭任黨主席，馬李二人遂反目成仇。 第四，該文提到，馬英九在2005年打敗王金平當選國民黨主席，接著當時的總統陳水扁接連遭遇國務機要費案以及女婿趙建銘內線交易、妻子吳淑珍受賄醜聞，前民進黨主席施明德發起百萬人倒扁運動，當時的馬英九「口頭上也稱自己支持倒扁，但並未帶領國民黨做出任何實際行動」，而是盤算著陳水扁的爛攤子拖到幾年後的選舉，到時他就可以輕鬆取代，最終果然如願輕鬆當選。 第五，馬英九當選後在「就職演說」中稱「唯有台灣在國際上不被孤立，兩岸關係才能向前發展」。該文作者解讀，意思是說，如果大陸繼續阻攔台灣參與各種國際組織、抵制台灣和其他國家的「軍事和外交協作」、限縮台灣的「國際空間」，那麼兩岸關係就不能「向前發展」。 第六，文章作者提到馬英九的「不統、不獨、不武」兩岸論述，開門見山將拒統的主張放到了最前面，用不宣布「台獨」作為騙取大陸優惠政策的籌碼，以圖達到永久維持兩岸分治的終極目標。 第七，作者回憶馬英九執政時期，國民黨將「九二共識」原本的內容「堅持一個中國原則，共同努力謀求國家統一」，竄改成了所謂的「一中各表」。 第八，該文細數了兩次馬英九在公開場合中的「台獨立場」，2011年在某場記者會上說：「台灣是我們的家園，也是我們的國家，正式國名是中華民國，通稱當然就是『台灣』」；2012年又在競選連任的造勢活動上說：「台灣在中華民國政府的治理下，是一個主權獨立的國家。」這些言論徹底暴露了其「獨台」（華獨）的立場，作者認為，在馬英九看來，台灣已經「實質獨立」，只不過「國名」還沒改而已。 第九，文章提到，馬英九上任後長期未糾正李登輝和陳水扁執政時期推動的台獨課綱，反而提出應該「捍衛台灣主體性」，向文化「台獨」勢力低頭。 最後，該文引述了台灣民意基金會的調查指出，在2008年馬英九上台的時候，有38%的台灣人支持「台獨」，17%的台灣人支持統一。到了2016年馬英九下台的時候，台灣人裡支持「台獨」的比例竄升到了51.2%的歷史新高，支持統一的比例則下降到了14.9%。在拒統促獨這方面，馬英九可謂厥功至偉。 撰寫這篇文章的中媒專欄作者「戴雨瀟」強調，這就是馬英九，以反共起家、靠鑽營升官；做人刻薄寡恩，背叛提攜他的連戰，踩著恩人的頭往上爬；從政嫉賢妒能，奪權後打壓宋楚瑜、開除王金平，費盡心機整倒政治對手。在兩岸事務上馬英九陽奉陰違、虛與委蛇，表面上號稱支持一中，實際以消極的態度應付了事，拒不謀求統一，放任「台獨」勢力做大。 戴雨瀟認為，這樣的人要來大陸，他不知道有誰會歡迎，他作為一個熱切期待國家統一的普通中國老百姓一點也不歡迎馬英九。不過既然此行已成定數，他只能說希望馬先生可以在中山陵前深刻懺悔自己為官幾十年的庸碌無為，好好反思應當如何用自己有限的餘生贖罪，為國家統一和民族復興做點真正有益的事情。 </t>
+          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230329002768-260407?chdtv2.新聞來源︰中時3.完整新聞標題林智堅小心了？高虹安3月下旬開挖新竹棒球場4.完整新聞內容︰新竹棒球場後續改善進度備受矚目，先前棒球場工程體檢會決議，3月下旬起要挖掘檢測，外界關心目前進度。新竹市長高虹安29日表示，目前正在進行試挖掘，約莫4月會擴大規模挖掘，目標是盡快將球場修復完成。前市長林智堅任內耗費巨資重新整修的新竹市棒球場，後被發現諸多缺失，遭外界質疑是否有弊端，也成為九合一綠營敗選重要因素。高虹安市府先前舉行第2次棒球場工程體檢會議，決議將3月下旬起以點狀、帶溝狀、面狀3種挖掘方式進行檢測，釐清回填土壤切斷面的分層構造厚度、各分層洩水波度、土壤物理性質及滲透性試驗，以及是否有不符合契約約定的異常比例的異物及廢棄物等。外界關心挖掘進度，高虹安表示，目前已經跟廠商進行試挖掘作業，大概在4月會有擴大規模挖掘，這部分也多次和統包商以及龍來公司，在府內都有多次相關協調會議，目前傾向將球場盡快修復完成，此為目標前進當中。5.附註、心得、想法︰    終於要開挖大祕寶了    大家有沒有預期會挖出甚麼神奇的東西    小智品質    塔綠斑都保證過的五星    我好期待啊~~~    綠共吃屎</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Re: [討論] 馬英九談南京大屠殺</t>
+          <t>[討論] 每年的挺黑大遊行 台灣人怎麼這麼愛挺</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068327.A.1D4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071067.A.474.html</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>※ 引述《redbeansyrup (紅豆湯)》之銘言：: 新聞又出來了: 馬英九訪南京大屠殺紀念館: 悲慟落淚: “歷史絕不可以被遺忘”: 這就是有名的: “放下228，勿忘南京大屠殺”: 政黑眾說484只有中文圈再自嗨南京大屠殺大屠殺「Holocaust」  納粹大屠殺就是用這個字中文圈顛倒黑白的本事  以為殺的人多  就是大屠殺下一代什麼都不懂得屁孩也跟著叫西方人的態度  認為這又又又是中文圈的無理取鬧恰好又碰到保留英國內涵的"日本人"有錯就認  哪怕是小錯  甚至沒錯但讓人誤會  或其他方面造成別人損失這種造成他人損失的事  我們必須認上等人的心態  我天生也有  懂日本人的困擾遇上了碰瓷界大師中國人只能無故被碰瓷造成南京人口數死亡  用人肉盾牌抗戰的國民黨最需要負責任當時 日本軍人已經撤換了好幾位將領  並命他們不準傷害平民這都是有文獻  西方人早知道但身為在第一線的將領你碰到一群穿著平民便服  混在平民中  時不時打黑槍  讓你部下死傷慘重而你的部下們  對方如此卑鄙  我們卻只能挨槍才能還手幾次換將後  總會有一任  突破底線  命令只要可疑的男性平民就殺所謂的南京大屠殺  婦女兒童死亡比例非常低  就可以知道中國人多麼不要臉而別忘了  你們2300萬中國台灣人也是中國人跟我們華僑不一樣少她媽在那邊噁心別人了一群只會吃吃吃的豬</t>
+          <t>就是說那個被黑道綁在架子上的媽祖拉每年都要被綁出來巡迴一下然後台灣人就一大推跟著一起遊行捐錢給宗教的也不用繳稅難怪台中的槍枝氾濫?台灣的黑道盛行  你我都推了一把?</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[新聞] 快訊 台中某高中生被導師叫去辦公室 4</t>
+          <t>[新聞] 馬英九以「百十二」迴避民國 鄭運鵬：</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068331.A.950.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071235.A.82D.html</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>快訊／台中某高中生被導師叫去辦公室　4樓墜落手腳全斷搶救中https://bit.ly/40nJOvx記者鄧木卿／台中報導台中市霧峰區某所高中一年級男生，今天上午被導師叫去4樓辦公室，結果該男生竟從4樓墜落到一樓水泥地，地上一灘血跡，警消獲報到場緊急送醫，該生意識不清，有腦震盪、左手腳骨折、後腦撕裂傷，至於該生墜樓是見了導師之前或之後，原因為何，校方仍未回應。警消上午9點半獲報，有高中生從高處墜落，9點47分到達緊急送醫，該男生年約16歲，意識不清，對痛有反應，跳樓原因，校方仍未作出回應。說個笑話 媽媽市長轄內第幾件學生自殺了啊反正顏色對了 中央十成我看黑雞苞秘書只關心老大的兒子選立委吧要不要陪少年董A出來開記者會 痛批司法不公</t>
+          <t>馬英九以「百十二」迴避民國 鄭運鵬：再過138年就會變「二百五」前總統馬英九前往中國訪問，昨（28）上午前往中山陵拜謁，並於現場題字「和平奮鬥 振興中華」8 字，但在落款時因迴避「民國」紀年僅寫「百十二」，引發熱議。對此，民進黨立委鄭運鵬今（29）在臉書發文諷刺，若「百十二」寫法變成國民黨赴中慣例，再過138年就會變「二百五」。鄭運鵬指出，馬英九前總統在中國面對「中華民國、前總統」等關鍵詞時，提及中華民國是用「百十二」來迴避；講到前總統職務則是以孫文的臨時大總統來提示，另外，講到自己的「前總統」職務更是用「這個」來代替閃避，甚至還講到自己結巴。鄭運鵬表示：「有嘗試過，還是要給予肯定。」然而，隨後鄭運鵬也針對馬英九落款的「百十二」提出評論，他指出：「比較麻煩的是，如果『百十二』變成中國國民黨赴中的慣例，再過138年，就會寫成『二百五』。」最後鄭更諷刺地說：「逃避可恥但有用，阿Q雖然好笑但還是可以度小月。」新頭殼https://newtalk.tw/news/view/2023-03-29/864088哈哈哈，好好笑喔，沒想到我們的立委諸公還蠻幽默的這個比他堅信小智沒抄論文，還有相信鄭文燦論文沒造假還好笑還好他沒去演藝圈，不然其他主持人都沒飯吃了</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[討論] 為何中國還沒用 反分裂法 抓平民馬英九?</t>
+          <t>Re: [討論] 馬英九談南京大屠殺</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068774.A.DDB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071344.A.1DE.html</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>平民馬英九 自稱是偽政權前總統 還坐實台獨勢力復僻 言必稱台灣與中國為何公安、武警還沒出動  以反分裂法制裁 馬英九?是不是中國看穿這是美國設的陷阱  要引誘中國上當後美中開戰  而中國偏偏不上當還是有其它原因?</t>
+          <t>是說當年蔣中正差一點把中共滅黨。但該死的日軍又來犯我大中華，所以不得以國民黨政府，才聯共抗日。甚至站在國民黨的立場，當年共產黨就是趁機壯大自己，抗日只是虛應了事，後來歷史大家也知道，整個秋海棠就弄丟了。毛澤東甚至還有公開，感謝日本侵華; 我猜馬英九這前國民黨黨主席，應該是拿了相當多的好處，才會連金溥聰都反對的情況下，硬要去祭袓(被統戰)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Re: [討論]美國爸爸不給簡報，民進黨明年應該落選了</t>
+          <t>[討論] 國民黨要全黨挺顏家 還是要說不認識</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068879.A.7B1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071495.A.E7D.html</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>我這邊是建議我們死忠仔不要失志灰心，因爲柯文哲他是沒人要接待，馬英九雖然有被接待但沒有鋪紅地毯，所以到時蔡英文去美國有人舖紅地毯接待我們就贏了</t>
+          <t>剛看到已經有國民黨員說是因為顏要選舉所以政治迫害天啊台中市長不是盧秀燕嗎國民黨要全黨挺O金 挺顏家嗎？還是到時候被判刑要說不認識顏家 顏家跟民進黨比較好顏家是民進黨之類的吧？下幹黨日常發揮</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[討論] 毛澤東殺中國人 比日本多 怎麼都罵日本人</t>
+          <t>Re: [新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069353.A.311.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071668.A.1D3.html</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>在毛澤東的治理之下 毛澤東殺的中國人 比日本人殺得還多怎麼都罵日本鬼子 南京大屠殺但三年風調雨順的大飢荒 就死了 5000萬人十年文化大革命  又死了 5000萬人更不要說 還有 大躍進、大鍊鋼、人民公社、知青下鄉 等生靈塗碳的政策毛澤東還說「與天鬥、與地鬥、其樂無窮」、「中國6億人，死一半還剩3億，我怕誰去」日本侵華 中國人因此死亡 150萬人怎麼大家都罵日本  而稱毛澤東為領袖?是因為毛澤東比較恐怖嗎?</t>
+          <t>關於「背叛連戰」這件事情，在今年連戰出的回憶錄裡面連戰也有提到會記得是因為連戰在那本回憶錄寫了不少自己的豐功偉業，很少抱怨，極少數抱怨的就只有馬英九。畢竟都30年前的事情了，還要一直挖出來講，想必連戰應該是印象很深。當然，連戰以前就出過很多書，搞不好不只提過一次，感覺寫這篇文章的人從很多不同的國民黨大老的回憶錄挖出來，例如王金平，李登輝，郝柏村等等整理成一篇，倒也不難就是了。: 第二，該文指出，1993年連戰出任行政院長時，邀馬英九擔任法務部長，幾年後馬轉任行: 政院政務委員，在1997年轟動全台的白曉燕命案發生，當連戰內閣焦頭爛額之際，「馬英: 九不僅沒有與提攜自己的恩人共患難」，反而在連戰毫不知情的情況下自行對外宣布辭任: 「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒台。:: 第三，馬英九在辭去政務委員後數次承諾不會參選台北市長，但在第二年就食言參加國民: 黨內台北市長初選並獲得提名，在參選後遲未得到當時國民黨主席李登輝的支持，直到選: 前一周，李登輝突與馬英九同台，並用閩南話質問「馬英九先生，告訴我你是哪裡人啊？: 」，該文大酸，面對李登輝這一表忠心的問題，在香港出生的馬英九自然不會說他是「中: 國人」，毫不猶豫地用他蹩腳的閩南話回答「我是台灣人」，最後以5%的差距戰勝當時聲: 勢正盛的陳水扁，當選台北市長。但在一年多後，國民黨在總統選戰敗給陳水扁，李登輝: 被質疑「棄連保扁」受到許多國民黨支持者抗議。此時馬英九察覺到藍營內部的政治風向: 變化，立刻公開「逼宮」要求李辭任黨主席，馬李二人遂反目成仇。</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[新聞] 蔡總統今出訪 中國氣炸：採取措施堅決回</t>
+          <t>[新聞] 馬英九南京謁陵提創建民國與中華民國 央</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069363.A.730.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071784.A.D85.html</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42549162.新聞來源︰自由3.完整新聞標題蔡總統今出訪 中國氣炸：採取措施堅決回擊4.完整新聞內容︰〔記者鍾麗華／台北報導〕總統蔡英文今（29）日至4月7日率團訪問瓜地馬拉及貝里斯等友邦國家，對於期間可能於過境美國時會見美國眾議院議長麥卡錫，中國國台辦發言人朱鳳蓮宣稱，對此堅決反對，必將採取措施堅決回擊。陸委會主委邱太三接受本報專訪時指出，可想見中國一定會有反應，反應是強、中或弱，軍事、外交、兩岸哪個面向，政府都有各種情勢研判。陸委會日前也強調，中華民國總統出訪及過境相關國家，已經有非常多慣例，我國是主權國家，與國際間從事正常交流符合全體國民的期待，中共沒有任何立場發表不當言論。朱鳳蓮稱，台灣當局領導人所謂「過境」本質上是「倚美謀獨」的挑釁行徑，企圖製造「一中一台」、「兩個中國」等違反一個中國原則的事件。朱鳳蓮說，民進黨當局出於謀「獨」政治私利，製造各種藉口，利用各種機會，從事謀「獨」活動。伺機在國際上兜售「台獨」主張，並謀求美國反華勢力的支持。朱鳳蓮宣稱，蔡英文「過境」，不是老老實實待在機場或賓館，而是以各種名目要同美國政府官員、國會議員接觸，搞美台官方往來，與外部反華勢力勾連。如果與美眾議長麥卡錫接觸，將是又一起嚴重違反一個中國原則和損害中國主權和領土完整，破壞台海和平穩定的挑釁。朱鳳蓮說，中方敦促美方嚴格恪守一個中國原則和中美三個聯合公報規定，不安排蔡英文過境「竄訪」甚至與美官方接觸，以實際行動兌現不支持「台獨」的嚴肅承諾。5.附註、心得、想法︰本板＆藍白粉：老大不要生氣 蔡英文見不到美國官員中華民國也好 台灣也好本來就是一中一台一個中國政策怎麼了嗎？人家美國說知道了 已經知道40幾年了</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/40s7M8U2.新聞來源︰中央社3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九南京謁陵提創建民國與中華民國 央視刪光光4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中央社台北29日電）前總統馬英九為期12天的訪中祭祖行，昨天首個行程赴南京中山陵謁陵，期間他提及國父孫中山創建民國，發表公開致詞提及中華民國，以及落款題民國紀年，中國官媒央視全都不表並剪掉。據央視發布有關馬英九訪中謁陵的影音和文字報導，馬英九率團步行進入祭堂，並由司儀宣讀頌讚孫中山豐功偉績與高風亮節的祭文。央視報導引述的祭文內容包括：「兩岸人民，同屬中華，炎黃子孫，振興民族，共創未來，薪傳綿延。九二共識，和平基礎。蒼生為念，百姓謀福，共同發展，永繼無疆。」不過祭文中提到國父「力抗列強，創建民國」，央視的影音與文字報導全都不表。此外，馬英九在中山陵祭堂耳房題8字「和平奮鬥，振興中華」，並以他的大名及公元和民國紀元落款。但央視發布的新聞照片和影音畫面，僅留下題字和他的姓名，手書的公元和民國紀元則被裁掉，即使馬英九書寫「百十二．三．廿八」未註明民國字樣，也不能倖免。隨後他前往孫中山紀念館發表公開致詞，提及「民國112年3月28日馬英九前總統」，並說國父孫中山先生「終結中國四千多年的君主專政，建立亞洲第一個民主共和國─中華民國」，「到今天已經112年」，以及「民國14年（1925年）3月12日國父逝世」。央視的影音和文字報導同樣省略不題，只引述他公開致詞未提及民國與中華民國的段落：「兩岸人民同屬中華民族，都是炎黃子孫。深盼兩岸共同努力，追求和平，避免戰爭，致力振興中華，這是兩岸中國人不可迴避的責任，我們一定要努力實現。」隨後馬英九接受聯訪表示，兩岸一定要追求和平，否則雙方都沒有前途，央視的文字和影音報導也是略過，僅提及他說，希望台灣青年深入了解中山先生生平和兩岸關係，大陸朋友非常熱情，回去後會把這份好意轉達給台灣民眾等。至於昨晚會見江蘇省委書記信長星，央視官網則未呈現隻字片語。馬英九會信長星指出，他在「台灣總統」任內推動兩岸交流，創造兩岸分治70多年來「最和平繁榮的一個階段」，信長星則回以「馬英九先生」，並提及馬曾擔任國民黨主席及「台灣地區前領導人」。（編輯：曹宇帆/唐佩君）11203295.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※馬這個不是很滿意這次的“款待”嗎？央視刻意刪掉這些畫面又如何？反正這些未修剪畫面是播給台灣看的。中國人就不用看這種，反正跟中國人民沒關係不是？</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Re: [新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　</t>
+          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069558.A.6FC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071809.A.B25.html</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>※ 引述《zkow (逍遙山水憶秋年)》之銘言：: 標題: [新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　: 時間: Wed Mar 29 12:32:07 2023::: → Aidrux: 會就不高沒錯                             223.137.126.66 03/29 12:52: → chirex: 交保1000萬= =                             59.125.46.247 03/29 12:53: 推 ucs1: 我說那個高宏安呢 怎麼都沒消沒息了              101.10.2.3 03/29 12:56: 推 bbn826330410: 反觀邱莉莉150 真屌                 111.252.84.201 03/29 12:58: 噓 saimeitetsu: 哈哈哈                              223.137.71.234 03/29 12:58: 推 Capital235: 猴子肯定不會站台。                      49.217.4.41 03/29 12:59: → pzztt: 有錢真好                                  114.42.202.216 03/29 13:00: 噓 giaour: 邱ZZ賄選才100萬交保，有黨證真好。         60.248.17.229 03/29 13:01: → bibiwei: 國民黨黑金                             101.137.122.128 03/29 13:02: 推 Blazeleo819: 撕髮迫害                             59.124.95.106 03/29 13:03: 推 e12518166339: 按顏寬恆跟他支持者的智商應該很難    42.73.224.189 03/29 13:09: → e12518166339: 理解交保金為什麼比別人高            42.73.224.189 03/29 13:09我是不知道顏寬恆的財力如何啦!我也查不到李全教的財力如何!當年李全教因為議長賄選案，當時的交保金是1500萬。並且被定禁止出海、出境。但是網路上現在可以找到邱莉莉的財力證明，所以各位可以計算看看邱莉莉以150W交保是否合理?https://reurl.cc/b7dR6l另外再補上林志展的財力證明各位。https://reurl.cc/V82XLy顏家是有錢，那是不是也去探聽台南巿議長是不是很有錢?</t>
+          <t>你說ROC宣稱擁有大陸主權是自慰？我同意啊，我完全同意問題我們是民主國家、法治國家，政策都是依照多數民意在走的，ROC擁有大陸主權，這可不是只有統派的意見，現行法律這樣規定，代表多數民意就是如此，懂？如果有哪裡不妥，要依照民主程序去修改，懂？憲法增修條文第11條兩岸條例第2條地方制度法第3條....如果不改，代表多數民意都想自慰，你又能怎樣？武力推翻中華民國政府嗎？</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Re: [黑特] 雞排一片100元</t>
+          <t>[新聞] 獨／顏寬恒原本鐵了心拒保 顏清標父子僵3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064198.A.D53.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680071944.A.66C.html</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">認真雞排最沒資格漲一個雞排便當也差不多100-120你一片雞排賣100我去便當店買雞排便當 飯給狗吃都比你划算丟臉※ 引述《DDDDRR (QQ)》之銘言：: 真的有人會吃嗎: https://i.imgur.com/sEP8dvy.jpg: 應該是不會吧: 至少我好久沒吃雞排了: 上次吃好像是派克: 有人知道派克現在一片多少錢了嗎: 去年跟今年民生通膨哪個體感比較有感覺阿？: 我只記得前年12月訂附近便當90 去年2月變110: 現在變125....: </t>
+          <t>獨／顏寬恒原本鐵了心拒保 顏清標父子僵3小時軟化2023-03-29 13:01 聯合報 記者陳秋雲／台中即時報導國民黨前立委顏寬恒無預警遭檢調詢問與千萬交保，投下政壇震撼彈。顏寬恒今早出面說明，原打算拒絕交保，幾經波折才同意。據了解，顏寬恒與顏清標父子隔空對話兩、三小時，顏寬恒原本鐵了心不交保，抗議司法不公，但幕僚紅著眼眶直說「這樣太刺激標哥身體」，最後顏寬恒才同意籌措保金交保。檢調動作突然，據了解，顏寬恒昨晚從自宅被帶走，他對檢調所說的案情無法接受，認為是舊案重炒，當聽到妻子以500萬元交保時，他當下決定拒絕交保，因為早在去年補選時，就把違建案情交代清楚，現在卻又舊案重提，要抗議司法不公。據了解，顏清標聽到幕僚轉述，顏寬恒要拒絕交保，顏清標非常震驚，當時連手拿東西手都拿不穩，頻頻要幕僚溝通「平安回來最重要」，顏寬恒反駁說「今天千萬交保，就被綠營壓著打，什麼都說不清楚了」。顏家父子對峙2、3個小時，後來幕僚告訴顏寬恒「標哥情緒激動，怕太刺激標哥身體」，最後顏才同意交保。據轉述，顏寬恒要抗議司法不公，但顏清標認為「人回來就好」、「平安就好」，也怕顏寬恒會被抓起來，父子來回溝通，讓幕僚也紅了眼眶。對於舊案再提，顏寬恒今早出面說明，但難掩沮喪情緒。https://udn.com/news/amp/story/122555/70642381.他那棟在龍井交流道附近，其實蠻偏僻的2.如果拒絕交保，學蘇治芬陳明文其實對他比較加分3.學蘇嘉全捐農舍不知道有沒有好一點？？4.年輕時的標董說不定會跟顏寬恒一樣拒絕交保</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[討論] 陸委會要怎麼接招</t>
+          <t>[討論] 不意外，馬這趟又打回原形了! 可惜啊</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064267.A.64D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066201.A.304.html</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>雖說這次是給馬和kmt做球完全在呼應配合藍營的兩岸政治立論但不管怎樣可說是習上臺以來最大的一次善液展示肯定是對政府有所期待陸委會要怎麼接球呢喜迎陸客陸生已經是進行式了政治上的表態要怎樣纔算是有禮有節還是說裝作沒看到糊弄過去算了</t>
+          <t xml:space="preserve">  馬前總統這用詞大家昨天很肯定是因為，台灣人認為他就是台灣前總統ROC前總統  大家讚賞度頗高  起碼不是先生這種說法了...承認是台灣前總統就是自然兩國論了  可是人生就是那個BUT...  馬前總統還是說出了身為"一個中國人"的說法，直接打回原點...  畢竟2023年兩岸認同民調覺得自己是台灣人的比例78%，認為自己純中國人的只剩7.7%  你各位只開心了一天XD 年輕的泛藍票還是會跑去給柯文哲 柯吸老K票大概10%起跳  還是要不回來了  如果後面這幾天，馬英九還是老調重提的92共識再講一次的話(民調只剩9.8%)  整個就打回原形了  而且機率可能還不低92共識對岸早就升級成一國兩制了 傻呼呼  可惜啊....年輕人對於你自己是中國人你自便! 投票的時候他們還是台灣人 鳩咪</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">[新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　</t>
+          <t>Re: [討論] 台灣誰能繼承馬英九路線?</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064329.A.386.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066286.A.D1A.html</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.ettoday.net/news/20230329/2469245.htm2.新聞來源︰ETTODAY3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※搜索偵訊16hrs！顏寬恒亮公證書證清白　怒批：學甲槍擊2萬交保4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※搜索偵訊16hrs！顏寬恒亮公證書證清白　怒批：學甲槍擊2萬交保ETTODAY2023年03月29日 12:19https://cdn2.ettoday.net/images/6931/d6931245.jpg▲顏寬恒遭檢調偵訊11小時交保，顏家1小時火速籌1000萬保證金。（圖／記者許權毅攝）記者游瓊華、許權毅／台中報導台中地檢署以前立委顏寬恒涉嫌竊佔、偽造文書等罪嫌為由，昨天一早7點到顏家進行搜索，上午10點鐘將顏寬恒與妻子陳麗淩帶回調查。據了解，陳麗淩下午5點中諭知500萬元交保，顏家先籌500萬交保；顏寬恒一路偵訊到深夜11點，獲知1000萬元交保，顏寬恒認為不符比例，一度拒保，也準備被移到看守所，但遭檢方勸說1個多小時後同意，顏家火速籌出1000萬交保。顏寬恒今天召開記者會表示，檢調房屋已經真實交易，因為自己的物品較多沒有完全搬走，竟遭指是假買賣，拒絕交保是要凸顯此事之離譜。https://cdn2.ettoday.net/images/6931/d6931375.jpg▲顏寬恒亮出向國產署承租國有地的合約公證書，證明一切合法。（圖／顏寬恒服務處提供）顏寬恒今天也亮出文件證明有向國有財產署承租土地，痛批檢方控他們夫妻竊占國有地及偽造文書，但妻子繳足20年租金，一切都是有憑有據，合法承租，何來竊占之說！顏寬恒也批，他合法出售沙鹿住宅、合法標國有土地，只因為私人物品太多沒有完全搬走，就被</t>
+          <t>※ 引述《Borges (波波波波)》之銘言：: 在中國受禮遇: 在美國受禮遇: 幾乎沒有斷交國: 在中國可以嗆中國: 在美國也可以嗆美國: 這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?: 台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?繼承三小馬英九是死了喔他還很健康的馬英九那麼優秀國民黨直接徵召他不就好了有一個正版馬英九，幹嘛屈就自己找一個相似的呢</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[討論] 馬英九主持二二二八紀念會時有哽咽嗎？</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064486.A.9D6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066468.A.17D.html</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>你這說  你有問過巧芯同不同意嗎?身為全國知名人物  全國不分區議員立志幹倒民進黨的巧芯  不管在松信或者是士北  應該是一樣知名的笑死  你這樣說  你不怕人家生氣嗎反正不管他位在哪一區  對在地選民的服務都是一樣的好不好?※ 引述《jojoway (凝淵)》之銘言：: 說真的 我是真的為這些綠綠 和深綠費粉感到可悲: 不只大腦有毛病 連眼睛都有問題: 這民調是900芯直接空降到別的選區去比: 然後她比的還是綠營在地立委吳思瑤: 然後還能只差4% 這很厲害好嗎: 甚至有點太吹捧900芯了: 結果發這文的 不知道是腦殘還是眼殘 還是都有: 竟然看不懂 真的是可憐阿</t>
+          <t>我記得他主持二二八紀念活動時是沒有哽咽吧今年還加碼已經道歉很多次了但他都不會忘記跟他無關的中日戰爭也不會厭煩提92共識蔣萬安主持228活動也沒哽咽馬英九看到中日戰爭為什麼會哽咽？他是在那場屠殺中的受難者投胎的嗎？</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[討論] 換蔡英文講中華民國 現任台灣總統</t>
+          <t>[討論] 為什麼叫EE??</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064521.A.28F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680066980.A.EDF.html</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>馬英九出發前被嗆不敢講中華民國 不敢講台灣總統 結果全講了這次該換蔡英文表現了 大聲說出來 中華民國112年3月29日 台灣總統拜訪美國 以國與國的關係拜訪請嚴厲對美方宣示 你是台灣總統 中華民國總統</t>
+          <t>我不太關心政治不太了解什麼梗為什麼蔡英文要叫成蔡EE??英文english不是只有一個E而已嗎??怎麼叫成兩個E??另一個是什麼意思??有人可以告訴我媽??</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文去美國是背包客自由行嗎？</t>
+          <t>[討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064655.A.EDF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067011.A.966.html</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>如題美國說不會派人見蔡英文蔡英文這一趟美國行算是背包客去美國自由行嗎？？國際談判專家怎麼落到這種下場？</t>
+          <t xml:space="preserve">   是這樣的啦齁...PRC擁有中國那片土地的主權就是治權是全世界都承認的事情   理組思維不用說了，就是絕大部分文組思維也根本知道的事情   ROC擁有台澎金馬的主權跟治權...所以PRC跟ROC就根本兩國了  兩邊根本沒鳥關係   台灣是不是被那些不到5%想統一的統派咖整天扯PRC只有治權沒有中國主權(哈哈)   所以中國是我大ROC領土   更甚有統派咖說:不能放棄宣稱ROC對大陸的主權，等PRC動亂我們ROC就能去接收惹   哈哈哈   是說現在還有多少老人還在用主權跟治權自慰? PRC也說ROC只有治權沒有主權   所以台澎金馬是屬於PRC的   連KMT年輕人巧芯都說出根本不想統一，都在嘴砲而已!!   台灣要大躍進是不是只能等統派跟小部分統派老人式微了才能ROC台灣崛起了!?</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[討論] 寬恆加油！不要輸給塔綠版</t>
+          <t>[討論] 馬英九談南京大屠殺</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064832.A.5EE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067178.A.DBD.html</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>寬恆加油！民進黨政府的政治迫害越來越誇張，也越來越明目張膽。為了台中立委席次，已經無所不用其極的地步。欲加之罪何患無辭寬恆加油！你不是一個人對抗惡勢力的請記住在你背後永遠有廣大的藍白粉無條件支持你。</t>
+          <t>新聞又出來了馬英九訪南京大屠殺紀念館悲慟落淚“歷史絕不可以被遺忘”這就是有名的“放下228，勿忘南京大屠殺”政黑眾說484</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[討論] 事實證明民進黨根本不會談判</t>
+          <t>Re: [新聞] 受訪一度哽咽！馬英九重申</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064954.A.155.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067350.A.C24.html</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>以前民進黨最喜歡笑國民黨沒有談判人才，只要談出什麼結果都會被笑喪權辱國民進黨只會打順風球不說，連什麼屁貿易協定都沒談成川普任內通過的旅行法就是對抗中國的順風球之一但國民黨時期談成的一些協定，至今仍是台灣重要的養份能舉出來的包括台灣關係法WTOWHO觀察員兩岸經濟合作框架國際免簽VWP免簽計畫兩岸司法互助協定台星經濟夥伴協定台印投資保障協定台日漁業協定台泰投資保障協定族繁不及備載有關經濟協定簽署詳情請看inves taiwan網站民進黨談出什麼鳥東西？談斷交比較厲害吧？民進黨談出什麼好東西可以討論一下嗎？</t>
+          <t>※ 引述《jennifer0314 (jennifer0314)》之銘言：: https://www.ettoday.net/news/20230329/2468974.htm: 2.新聞來源︰: ETtoday新聞雲: 3.完整新聞標題: 受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人: 4.完整新聞內容︰: 前總統馬英九訪問大陸一行，今（29）日上午9點左右參訪侵華日軍南京大屠殺遇難同胞: 紀念館，他向遇難同胞獻花、獻花籃致祭並鞠躬致哀，隨後進館參觀，結束時將接受兩岸: 媒體聯訪。馬英九受訪提到兩岸問題時指出，兩岸都應該避戰、去謀和，避免戰爭的發生: ，一旦發生戰爭，沒有任何東西可以彌補。: 馬英九接受媒體採訪時表情沉痛，一度說不出話哽咽。他強調，「身為一個中: 國人，不管在海峽哪一邊」，對於外面的欺凌，要自立自強，所有中國人都應該得到: 教訓。首先，馬先定義兩岸都是中國人，意思就是告訴國際社會，我們這是內戰，外國勢力不應該插手。舉例來說：只要想想假如澤倫斯基說「兩邊都是俄羅斯人」，國際輿論會發生什麼事就知道了。馬所謂「外面的欺凌」這句話，看上下文可知，指的就只有美帝、八國聯軍。: 馬英九也呼籲，保持仁愛的心，不要去侵略別人。前面都已經說兩岸都是中國人了，還特別強調外面的欺凌，這邊的侵略很顯然是指日本侵略中國，並延伸後面的南京事件。: 侵華日軍南京大屠殺遇難同胞紀念館位於南京市建鄴區水西門大街418號，通稱江東門紀: 念館，選址於南京大屠殺江東門集體屠殺遺址及遇難者叢葬地，是中國大陸首批國家一級: 博物館，首批全國愛國主義教育示範基地，全國重點文物保護單位，首批國家級抗戰紀念: 設施、遺址名錄，也是國際公認的二戰期間三大慘案紀念館之一。同意以上馬英九所講言論的人，基本上就等同替習近平完成最後一塊拼圖，直接把台灣可能被中國侵略的問題，轉變成國共內戰的自家紛爭，直接讓外國無理由介入。之後無論是被和平協議統戰，或是中共直接侵略，馬的這話都把外國援助擋死了。台灣，或是民進黨，從來沒說要攻擊中國，只有說受到侵略時要保衛台灣。講攻擊中國、發動戰爭的從來都是兩蔣反攻大陸的國民黨。而現在也是中國單方面威脅台灣，所以正常人都會說：反對中國侵略，台灣應該有所準備。而非馬英九的把被害人和加害人說成一家人，兩邊各打五十板。瑞士作為最知名的絕對中立國，人家也是跟美國買一堆戰鬥機，沒有整天喊避戰的啦！人家中國現在還不敢打台灣，是因為李登輝時期買了一堆軍備威嚇的，才不是你馬的跪。你無法決定對方要不要打你，就像以前烏克蘭跪舔俄羅斯，克里米亞一樣被打。但你能決定對方打你要付多少代價，減低對方的武力。馬執政時國軍空轉，解放軍可沒有停止買武器和增加軍事預算呢。</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[討論] 蔡英文要不要也加個植物園動物園行程</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065033.A.DBC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067358.A.E85.html</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>這就說明了一個事實徐巧芯只能靠國民黨的鐵票沒了國民黨的奶水她什麼都不是沒像謝龍介還可以贏何志偉整天炒新聞結果對戰一個五五波的區域就贏不了了許淑華應該很期待徐巧芯出線吧※ 引述《pennyone (California boy)》之銘言：: 根據東森最新的民調: 若派徐巧芯參戰2022藍綠五五波的北投士林: https://i.imgur.com/4PbdY4v.jpg: 自詡空戰天后的徐巧芯民調完全不敵吳思瑤: https://i.imgur.com/b9EL0iA.jpg: 反觀謝龍介都還比較有實力選立委: https://i.imgur.com/nnNoucS.jpg: 我是比較驚訝: 吳思瑤這麼邊緣: 徐巧芯還輸她一截: 難怪徐巧芯不敢離開松信區: 因為實力真的不足....: 只能對費鴻泰多年經營的票源流口水: https://i.imgur.com/f2PHhKe.jpg</t>
+          <t>是這樣的蔡英文這次去美國好像沒太多的事情耶會不會很無聊啊要不要也加個植物園動物園行程一下有無八卦</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[討論] 國台辦：蔡若與麥卡錫接觸 將採取措施回擊</t>
+          <t>Re: [黑特] 才笑柯訪美行程 結果蔡也吃鱉 怎麼辦？</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065117.A.4E4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067790.A.591.html</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>回應記者蔡英文竄訪美國一事中國國台辦發言人朱鳳蓮表示：蔡英文“過境”美國不是老老實實待在機場或是賓館，而是以各種名目要同美國政府官員、她如果與美眾議長麥卡錫接觸，將是又一起嚴重違反“一個中國原則”和損害“中國主權與領土完整”破壞台海和平穩定的挑釁。我們對此堅決反對，必將採取措施回擊！</t>
+          <t>美國政府看到2022年大選蔡主席的DPP居然可以輸得比2018年還慘應該也看得出來蔡雖然目前仍是中華民國總統  但未來不會是影響力多大的人了他們對藍綠的態度還是要看未來對賴清德與KMT候選人的接待規格分別為何才說得準吧!</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Re: [討論] 馬英九這波給國民黨總統候選人加多少分?</t>
+          <t>[討論]美國爸爸不給簡報，民進黨明年應該落選了</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065168.A.76D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680067877.A.E3C.html</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>真正的選舉還沒開始賴跟侯(應該沒別人了)確定提名後才是真正的開跑每一個政治事件都會有即時的短期效應看政黑跟媒體民調其實還是都跟的上風向去年選完到過年國民黨持續順風國完年南投補選國民黨內亂開始逆風民進黨團結方向一致基本盤回歸馬英九訪中+小英訪美短期最大的效應就是媒體不用繼續一直追著侯友宜朱侯本來的計畫就是要拖到六月以後侯要正式成為候選人才會正面回應Yes I DO到時候會不會有正向的宣傳就看個人造化了短期來說尷尬回答少扣分就是加分馬說了台灣總統中華民國看起來好像打臉民進黨有的沒的不過也不會直接加分到侯友宜身上馬可以說的做的不代表侯友宜會說會做最終還是要侯正式參選後自己說出口來才會定調長期效應主要看的是中共對台的態度從朱鳳蓮開口說出92共識跟一國兩制是兩個概念到這次允許馬說出台灣總統+中華民國多想一想當然不可能相信中共真的放軟但是中共就是變聰明了有認真思考該怎麼幫助國民黨選舉了不會像2020以前那麼容易做提款機如果更進一步有辦法限制美國像蔡英文訪美就傳言被降級不直接干預台灣但是間接都在打擊民進黨回到大選這樣最多只是把中共的影響降低選舉影響的因素還有很多新竹桃園提款國民黨中央繼續內亂敗票台南黑金後續發展2023經濟不景氣百業蕭條暑假會不會缺電看七月以後什麼議題會變成主軸對選舉結果才影響比較大現在真的還太早侯賴兩個人本身真的算是比較無聊的候選人需要在各種其他議題事件上做攻防才能帶的起風向如果侯友宜都正式參選了還是對各種議題都不沾鍋旁邊還有一個喜歡打順風球的柯文哲就算議題是順風的票可能也是被柯吸走這一次選戰絕對不是不沾鍋就能躺贏的</t>
+          <t>台灣總統誰當選其實是由美國爸爸決定，柯文哲去美國還有拜會一些政治人物，某人過境原本要簡報，被美國爸爸直接取消，看來美國爸爸也不看好民進黨明年會贏，就看美麗島民調比較準還是美國爸爸比較準，在這裡真的可以先恭喜侯總統了。</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[新聞] 台捷合作11項成果曝光 艾達莫娃：支持民</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065200.A.835.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068048.A.099.html</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>※ 引述《sunyeah (   湯元嗎)》之銘言：: 你這說  你有問過巧芯同不同意嗎?: 身為全國知名人物  全國不分區議員: 立志幹倒民進黨的巧芯  不管在松信或者是士北  應該是一樣知名的: 笑死  你這樣說  你不怕人家生氣嗎: 反正不管他位在哪一區  對在地選民的服務都是一樣的好不好?現在問出來如果算上誤差範圍，基本上徐巧芯去士林北投都有當刺客的潛力。因為以這種民調來看，起跑就是35%去打39%。而且搞清楚，士林大同本身就是民進黨在台北巿比較有優勢的區域。看看當年民進黨在2019年何志偉補選立委時，也是一路壓著陳柄甫和陳思宇。但是你以為徐巧芯在這裡的民調是輸的。但是看看過去民進黨在士林大同的得票率就知道了!這種民調就是告訴你，現在表態的就是深綠的基本盤。同樣的這種民調在這個階段就是雙方基本盤的對決。https://imgur.com/8qAffxG</t>
+          <t>台捷合作11項成果曝光　艾達莫娃：支持民主普世價值的戰鬥沒有止盡https://bit.ly/42LC4VI三立 高逸帆捷克眾議長艾達莫娃（Markéta Pekarová Adamová）率領的160餘人訪團，今（29）日是最後一天訪台行程。艾達莫娃表示，這趟「台灣使命」成果豐碩，但是為了支持民主自由人權，這些普世價值的戰鬥無止盡，從來不會完畢。外交部今舉行艾達莫娃訪問團合作備忘錄簽署儀式暨訪台記者會。會中，外交部長吳釗燮、立法院長游錫堃、國發會主委龔明鑫皆親自到場。吳釗燮致詞表示，再次感謝議長對兩國友誼支持，為台捷交流開啟新的紀元，面對全球威權主義擴張，以及更具挑戰的國際情勢，台灣會持續與捷克等理念相近國家，強化民主供應鏈的韌性。吳釗燮說，艾達莫娃來訪讓台捷交流有豐富成果，包括3項備忘錄、7項合作成果，以及兩國會簽署友好聲明，彰顯彼此友好情誼。他也很高興捷商與我國企業的商談會，雙方會促成非常可觀的商機，希望未來能多見面，也歡迎更多捷克友人來到台灣。艾達莫娃致詞表示，此次訪台之行真的有豐富收穫，這次訪問台灣的代表團是在台灣規模最大，也是捷克最近5年最大的代表團。她感謝吳釗燮、游錫堃等人的熱情接待。艾達莫娃說，這次訪問台灣成果豐碩，包括簽署備忘錄，在立法院演說，以及會見總統蔡英文。她特別提到，蔡英文注意到他們眾議院創立的網站，訪問台灣之行是「台灣使命」，蔡總統也感謝他們，對兩國關係的合作有很大貢獻。艾達莫娃指出，「台灣使命」成果豐碩，但是為了支持民主自由人權，這些普世價值的戰鬥無止盡，從來不會完畢。游錫堃表示，很高興艾達莫娃訪問團成果豐碩，此行簽署了多項合作備忘錄及合作聲明；合作遍及文化、生技、科技等產業面，為兩國帶來更多元、更深化的民主夥伴關係。台捷的合作成果包括國立台灣博物館與捷克國家博物館展覽合作意向書、政大與捷克查理士大學成立供應鏈韌性教研中心合作備忘錄、國防安全研究院與布拉格國際關係研究院合作了解備忘錄、台捷醫療科技採購合作備忘錄、台北科技大學暨捷克科技大學學術合作專題研究計畫，以及捷克共和國國會眾議院和台灣立法院友好合作聲明等。</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[討論] 現在是獨派最好的開局！</t>
+          <t>[討論] 馬英九算起來應該叫我叔叔</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065345.A.4AE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068105.A.129.html</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>之前馬英九執政 推廣ROC民進黨推廣台灣後來中共加強否認ROC存在 馬英九無地自容換民進黨推廣ROC 獨派哭暈在廁所今天又回到馬英九執政時的時空背景中共允許馬英九在中國談ROC民進黨應該要準備回歸堅持台灣正名了現在是獨派最好的開局</t>
+          <t>馬英九中山陵遇見幼稚園的小朋友讓人家叫他哥哥，我小女兒在上幼兒園耶。那以後我可以叫馬英九馬世侄嗎馬英九也是真政治腦，幼稚園的小朋友不知道孫中山就不悅。沒點度量。還就此批評人家老師真是黨國遺毒，幼稚園的小朋友就要洗腦政治人物，不認識就不行哦我要批評他了。我女兒上大班，但是毛澤東還是我前幾天通過人民幣教給她認識的我們的幼稚園老師可不會可怕到給幼稚園小朋友灌輸政治偶像。XD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Re: [討論] 柯文哲到底為什麼要訪美啦..........</t>
+          <t>[新聞] 馬英九是什麼人？中媒細數他10大往事 「</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065367.A.B13.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068235.A.494.html</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>柯屁去美國 被已讀不回民眾黨是說許多會晤人員與參訪細節都仍在確認中，只是基於信賴與默契無法提前曝光，認為外界有些誤解蔡英文要做總統簡報臨時喊卡美臨時延後又「取消」蔡英文過境簡報未安排官員和她會面所以蔡英文幹嘛訪美母豬被騙炮喔6旬婦網上結識「國外將軍」 稱作戰急需15萬險遭詐騙差低 綠粉要出來噴之一下嗎</t>
+          <t xml:space="preserve">https://newtalk.tw/news/view/2023-03-29/864094新頭殼 馬英九是什麼人？中媒細數他10大往事 「促進台獨」又「背叛連戰」 前總統馬英九訪中行程，28日晚間在南京會見中共江蘇省委書記信長星，馬英九此次中國行也引發中國民眾的注意，中媒更在馬英九訪中行前為此刊出一篇專文，內容細數了馬英九的10大往事，不過，文中敘明的卻是馬英九過往「放任台獨」又「背叛連戰」的過往，直言在兩岸事務上馬英九陽奉陰違、虛與委蛇，表面上號稱支持一中，實際以消極的態度應付了事，該文作者表示，「這樣的人要來大陸，他不知道有誰會歡迎」。 中媒《觀察者網》近日刊出一篇文章，講述馬英九的10件往事，首先提到，馬英九在70年代靠著國民黨中山獎學金資助赴美留學，在美期間多次在國民黨海工會刊物《波士頓通訊》撰文「批判中國」、海外左派和台獨分子，受到國民黨高層注意，返台後便擔任蔣經國的翻譯。 第二，該文指出，1993年連戰出任行政院長時，邀馬英九擔任法務部長，幾年後馬轉任行政院政務委員，在1997年轟動全台的白曉燕命案發生，當連戰內閣焦頭爛額之際，「馬英九不僅沒有與提攜自己的恩人共患難」，反而在連戰毫不知情的情況下自行對外宣布辭任「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒台。 第三，馬英九在辭去政務委員後數次承諾不會參選台北市長，但在第二年就食言參加國民黨內台北市長初選並獲得提名，在參選後遲未得到當時國民黨主席李登輝的支持，直到選前一周，李登輝突與馬英九同台，並用閩南話質問「馬英九先生，告訴我你是哪裡人啊？」，該文大酸，面對李登輝這一表忠心的問題，在香港出生的馬英九自然不會說他是「中國人」，毫不猶豫地用他蹩腳的閩南話回答「我是台灣人」，最後以5%的差距戰勝當時聲勢正盛的陳水扁，當選台北市長。但在一年多後，國民黨在總統選戰敗給陳水扁，李登輝被質疑「棄連保扁」受到許多國民黨支持者抗議。此時馬英九察覺到藍營內部的政治風向變化，立刻公開「逼宮」要求李辭任黨主席，馬李二人遂反目成仇。 第四，該文提到，馬英九在2005年打敗王金平當選國民黨主席，接著當時的總統陳水扁接連遭遇國務機要費案以及女婿趙建銘內線交易、妻子吳淑珍受賄醜聞，前民進黨主席施明德發起百萬人倒扁運動，當時的馬英九「口頭上也稱自己支持倒扁，但並未帶領國民黨做出任何實際行動」，而是盤算著陳水扁的爛攤子拖到幾年後的選舉，到時他就可以輕鬆取代，最終果然如願輕鬆當選。 第五，馬英九當選後在「就職演說」中稱「唯有台灣在國際上不被孤立，兩岸關係才能向前發展」。該文作者解讀，意思是說，如果大陸繼續阻攔台灣參與各種國際組織、抵制台灣和其他國家的「軍事和外交協作」、限縮台灣的「國際空間」，那麼兩岸關係就不能「向前發展」。 第六，文章作者提到馬英九的「不統、不獨、不武」兩岸論述，開門見山將拒統的主張放到了最前面，用不宣布「台獨」作為騙取大陸優惠政策的籌碼，以圖達到永久維持兩岸分治的終極目標。 第七，作者回憶馬英九執政時期，國民黨將「九二共識」原本的內容「堅持一個中國原則，共同努力謀求國家統一」，竄改成了所謂的「一中各表」。 第八，該文細數了兩次馬英九在公開場合中的「台獨立場」，2011年在某場記者會上說：「台灣是我們的家園，也是我們的國家，正式國名是中華民國，通稱當然就是『台灣』」；2012年又在競選連任的造勢活動上說：「台灣在中華民國政府的治理下，是一個主權獨立的國家。」這些言論徹底暴露了其「獨台」（華獨）的立場，作者認為，在馬英九看來，台灣已經「實質獨立」，只不過「國名」還沒改而已。 第九，文章提到，馬英九上任後長期未糾正李登輝和陳水扁執政時期推動的台獨課綱，反而提出應該「捍衛台灣主體性」，向文化「台獨」勢力低頭。 最後，該文引述了台灣民意基金會的調查指出，在2008年馬英九上台的時候，有38%的台灣人支持「台獨」，17%的台灣人支持統一。到了2016年馬英九下台的時候，台灣人裡支持「台獨」的比例竄升到了51.2%的歷史新高，支持統一的比例則下降到了14.9%。在拒統促獨這方面，馬英九可謂厥功至偉。 撰寫這篇文章的中媒專欄作者「戴雨瀟」強調，這就是馬英九，以反共起家、靠鑽營升官；做人刻薄寡恩，背叛提攜他的連戰，踩著恩人的頭往上爬；從政嫉賢妒能，奪權後打壓宋楚瑜、開除王金平，費盡心機整倒政治對手。在兩岸事務上馬英九陽奉陰違、虛與委蛇，表面上號稱支持一中，實際以消極的態度應付了事，拒不謀求統一，放任「台獨」勢力做大。 戴雨瀟認為，這樣的人要來大陸，他不知道有誰會歡迎，他作為一個熱切期待國家統一的普通中國老百姓一點也不歡迎馬英九。不過既然此行已成定數，他只能說希望馬先生可以在中山陵前深刻懺悔自己為官幾十年的庸碌無為，好好反思應當如何用自己有限的餘生贖罪，為國家統一和民族復興做點真正有益的事情。 </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>Re: [討論] 馬英九談南京大屠殺</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065550.A.5E6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068327.A.1D4.html</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>好了啦跑步哥 真的別買太多我還以為真的有那麼多推文結果一點進來都是你這隻和底下兩隻帳號再洗而且都被八卦版捅破2千多天現在還敢跑到這邊撒野是還要不要臉啊補個政黑點 徐巧芯就是松信現任議員整天要人家空降去其他選區的到底腦子有沒有發育完全啊※ 引述《pennyone (California boy)》之銘言: 根據東森最新的民調: 若派徐巧芯參戰2022藍綠五五波的北投士林: https://i.imgur.com/4PbdY4v.jpg: 自詡空戰天后的徐巧芯民調完全不敵吳思瑤: https://i.imgur.com/b9EL0iA.jpg: 反觀謝龍介都還比較有實力選立委: https://i.imgur.com/nnNoucS.jpg: 我是比較驚訝: 吳思瑤這麼邊緣: 徐巧芯還輸她一截: 難怪徐巧芯不敢離開松信區: 因為實力真的不足....: 只能對費鴻泰多年經營的票源流口水: https://i.imgur.com/f2PHhKe.jpg</t>
+          <t>※ 引述《redbeansyrup (紅豆湯)》之銘言：: 新聞又出來了: 馬英九訪南京大屠殺紀念館: 悲慟落淚: “歷史絕不可以被遺忘”: 這就是有名的: “放下228，勿忘南京大屠殺”: 政黑眾說484只有中文圈再自嗨南京大屠殺大屠殺「Holocaust」  納粹大屠殺就是用這個字中文圈顛倒黑白的本事  以為殺的人多  就是大屠殺下一代什麼都不懂得屁孩也跟著叫西方人的態度  認為這又又又是中文圈的無理取鬧恰好又碰到保留英國內涵的"日本人"有錯就認  哪怕是小錯  甚至沒錯但讓人誤會  或其他方面造成別人損失這種造成他人損失的事  我們必須認上等人的心態  我天生也有  懂日本人的困擾遇上了碰瓷界大師中國人只能無故被碰瓷造成南京人口數死亡  用人肉盾牌抗戰的國民黨最需要負責任當時 日本軍人已經撤換了好幾位將領  並命他們不準傷害平民這都是有文獻  西方人早知道但身為在第一線的將領你碰到一群穿著平民便服  混在平民中  時不時打黑槍  讓你部下死傷慘重而你的部下們  對方如此卑鄙  我們卻只能挨槍才能還手幾次換將後  總會有一任  突破底線  命令只要可疑的男性平民就殺所謂的南京大屠殺  婦女兒童死亡比例非常低  就可以知道中國人多麼不要臉而別忘了  你們2300萬中國台灣人也是中國人跟我們華僑不一樣少她媽在那邊噁心別人了一群只會吃吃吃的豬</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[黑特] 慟！居然今天就沒什麼狒狒的新聞了</t>
+          <t>[新聞] 快訊 台中某高中生被導師叫去辦公室 4</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065550.A.CF6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068331.A.950.html</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>乳題本來還預估周末還是連假才會被洗掉結果今天新聞跟ptt就沒什麼狒狒的討論了比起馬去中國喪權辱國，王八千跟林俊憲說國民還比較在乎狒狒不洗起來怎麼掩飾EE被美國當背包客阿政黑粉怎麼看？</t>
+          <t>快訊／台中某高中生被導師叫去辦公室　4樓墜落手腳全斷搶救中https://bit.ly/40nJOvx記者鄧木卿／台中報導台中市霧峰區某所高中一年級男生，今天上午被導師叫去4樓辦公室，結果該男生竟從4樓墜落到一樓水泥地，地上一灘血跡，警消獲報到場緊急送醫，該生意識不清，有腦震盪、左手腳骨折、後腦撕裂傷，至於該生墜樓是見了導師之前或之後，原因為何，校方仍未回應。警消上午9點半獲報，有高中生從高處墜落，9點47分到達緊急送醫，該男生年約16歲，意識不清，對痛有反應，跳樓原因，校方仍未作出回應。說個笑話 媽媽市長轄內第幾件學生自殺了啊反正顏色對了 中央十成我看黑雞苞秘書只關心老大的兒子選立委吧要不要陪少年董A出來開記者會 痛批司法不公</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[討論] 3/28政黑 狒狒56篇，馬173篇</t>
+          <t>[討論] 為何中國還沒用 反分裂法 抓平民馬英九?</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065587.A.391.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068774.A.DDB.html</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 嗨，政黑佔七成的民進黨網軍們 扣掉新聞以及新聞回文 昨天政黑狒狒文洗了76篇，3/27還只有46篇328難得看到綠共紅共站在一起打壓中華民國 然後政黑英系網軍們搭配政論節目還有民代一條龍拼命洗說"馬英九的新聞不如狒狒"，想盡辦法幫中共解套!!  想盡辦法羞辱前中華民國總統，想盡辦法羞辱前台灣總統 你們這些綠色台共在228時期是要被殺頭的XDDD 結果綠共想盡辦法還是沒辦法幫中共蓋住前總統的新聞央視跟三民自肯定跨海一起氣得跳腳XDDDD 3/28馬英九文來到了173篇  那些還在拼命幫中共硬洗"馬不如狒狒新聞"的綠共 慘敗!! 接下來要洗什麼來蓋蔡英文浪費稅金出訪巴拉圭呢?綠色台共不是早就定調這些邦交國都是來要錢的壞朋友?那幹嘛還要浪費那稅金出訪這些討債鬼?然後還要被美國取消簡報，不派任何官員迎接來羞辱XDDD  馬都卸任了，影響力還是屌打空心蔡 不服中華民國百十二年的 可以燒身分證來慶祝冥誕 我會敬你們至少是條漢子! </t>
+          <t>平民馬英九 自稱是偽政權前總統 還坐實台獨勢力復僻 言必稱台灣與中國為何公安、武警還沒出動  以反分裂法制裁 馬英九?是不是中國看穿這是美國設的陷阱  要引誘中國上當後美中開戰  而中國偏偏不上當還是有其它原因?</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[新聞] 【48退將捲共諜5】馬英九赴中行程神複製</t>
+          <t>Re: [討論]美國爸爸不給簡報，民進黨明年應該落選了</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065629.A.D57.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680068879.A.7B1.html</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://tinyurl.com/yc85xmjm2.新聞來源︰鏡週刊3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※【48退將捲共諜5】祭祖、抗日紀念同一套路搞統戰　馬英九赴中行程神複製4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中共利用黃埔情或國父孫中山誕辰等系列活動邀約退將赴中，途中穿插祭祖或參觀抗日紀念碑及遊覽黃河等景點，營造彼此都是炎黃子孫的氛圍，對照前總統馬英九赴中祭祖也安排參觀抗戰遺址博物館、南京中山陵謁陵等景點，恐被中共淪為統戰工具。馬英九宣布訪中，對岸以「馬先生」稱呼、維安配備被要求砍半，甚至不准媒體以馬總統稱呼他，當他抵達上海走出機外，不但沒有象徵貴賓的紅地毯，原先傳出要接機的中共政治局常委丁薛祥未出現，由國台辦副主任陳元豐接機，規格再降低，讓國內不少人質疑馬英九自取其辱，矮化國格。馬英九下機後，未在機場發表談話，隨後搭高鐵直奔南京，除拜謁南京中山陵、中國近代史遺址博物館、國父孫中山先生故居等，對於與中共高官會面的行程，馬辦則表示「客隨主便」。不過，被接觸的赴中退將不約而同向檢調提到，聯誼活動中，中共將領雖都提到將武統台灣，但大抵來說還是不斷強調兩岸血濃於水，招待目的就是為了統戰。例如熟悉資通電訊的退役少將周薛萍說，每次黃埔情活動，中方的前提都是兩岸一家親及同種同源，會中也會交換名片，方便後續聯繫。曾任空軍官校校長的退役中將王文周則說，他知道郝一峰兼負統促任務，他們上面是統戰部，每人都知道，如果不是統戰部也不需要跟他接觸，座談會都提到同文同種，一國兩制及和平統一等語。檢調掌握中共的滲透手法五花八門，中國國際戰略研究基金會也曾派人接觸夏復翔，該會理事及成員多為中共官員，另外一個與夏接觸的海峽兩岸將軍聯誼會，則是廣東省航空聯誼會旗下組織，由廣東省統戰部成立。檢調還查出，黃埔同學會會長林上元為黃埔18期，祕書長肖虹兼任統一促進會副祕書長，且曾任中共統戰部第12局副局長，專門負責對台政策研析。陸委會10年前已公告統一促進會及黃埔同學會，涉及國家認同與對台統戰工作，有妨害國家安全及利益之虞，皆屬中共統戰部附屬團體。中共近年不斷以黃埔軍校同學會名義邀台籍退將赴中，但該會早被陸委會認定是中共附屬政治組織。（翻攝黃埔軍校同學會官網）從羅、夏2人有計畫拉攏、吸收我方退將，甚至鎖定綠營的前副總統呂秀蓮極欲滲透，最終雖未得逞，但時至今日，即使兩岸情勢緊繃，仍有退伍軍方社團號召500名黃埔校友，欲前往中國參加黃埔99週年紀念大會，不難看出中方統戰意圖未減；加上中共軍機、軍艦頻頻擾台，破壞亞太區域穩定，唯有國人提高警覺，才能避免落入中共的統戰套路，確保台海安全。對於退伍社團近來廣邀黃埔軍校校友，前往中國參加建校99週年活動，位在鳳山的陸軍官校校友總會發聲明，呼籲校友要慎思、謹慎，勿陷入統戰陰謀。（陸軍軍官學校臉書）5.附註、心得、想法︰※ 40字心得、備註 ※是說在這選舉的節骨眼，前立委羅志明被檢方，因涉嫌國家安全法，被檢查署羈押。現在馬英九，基本上也在幹一樣的事情，還高調出門。前面看到還有人，因為馬英九喊了兩聲"台灣總統"，爽到出汁; 都是去那給阿共統戰的，就不用在那掩耳盜鈴。</t>
+          <t>我這邊是建議我們死忠仔不要失志灰心，因爲柯文哲他是沒人要接待，馬英九雖然有被接待但沒有鋪紅地毯，所以到時蔡英文去美國有人舖紅地毯接待我們就贏了</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[新聞] 海上人蛇丟包？台南、高雄6天發現四具浮</t>
+          <t>[討論] 毛澤東殺中國人 比日本多 怎麼都罵日本人</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065710.A.244.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069353.A.311.html</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://news.tvbs.com.tw/local/20819652.新聞來源︰tvbs3.完整新聞標題海上人蛇丟包？台南、高雄6天發現四具浮屍　腐爛嚴重難辨身分4.完整新聞內容︰期，海巡接獲多起浮屍案件，除了台中港離岸風場被發現一名男性乾屍，包括台南沿岸地區，從這個月5號開始到10號，陸續發現四具浮屍，由於屍體嚴重腐爛，無法辨識身分，目前傳出有人蛇集團在海上丟包，與台南近期發現的浮屍是否有關，目前調查中。海巡署透露，四具浮屍發現的位置，從這個月5號在台南七股網仔寮沙洲，發現一具男性屍體，由於五官已經腐爛，無法辨識身分，隔天6號，台南青山漁港外又發現另一具男性無名屍，緊接著，7號台南將軍近海，又發現一具腐爛嚴重，難以辨識性別的無名浮屍，一連三天，台南沿岸出現浮屍，也讓海巡署人員起疑，懷疑非輕生案件，展開調查，而過沒幾天，3月10號高雄茄萣岸際邊，又發現一名男性浮屍，從外觀初判，疑似是台灣籍人士，至於死者的身分仍待釐清。海巡署近日陸續發現浮屍 獨家／海上人蛇丟包？台南、高雄6天發現四具浮屍　腐爛嚴重難辨身分海巡署近日陸續發現浮屍由於岸際陸續出現浮屍，光是在台南、高雄就有四件，全案讓國安單位相當重視，台南地檢署檢察官已經啟動調查，是否是海上人蛇丟包案件有待釐清。5.附註、心得、想法︰台灣是個人不如狒狒的可悲的地方想想從去年到今年多少浮屍 和那些園區等等等但是新聞熱度 和話題度狒狒之死 還有三名監察委員自請調查然後 對比人的死亡 從去年至今的 有哪些有後續笑死這就是價值</t>
+          <t>在毛澤東的治理之下 毛澤東殺的中國人 比日本人殺得還多怎麼都罵日本鬼子 南京大屠殺但三年風調雨順的大飢荒 就死了 5000萬人十年文化大革命  又死了 5000萬人更不要說 還有 大躍進、大鍊鋼、人民公社、知青下鄉 等生靈塗碳的政策毛澤東還說「與天鬥、與地鬥、其樂無窮」、「中國6億人，死一半還剩3億，我怕誰去」日本侵華 中國人因此死亡 150萬人怎麼大家都罵日本  而稱毛澤東為領袖?是因為毛澤東比較恐怖嗎?</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[討論] 美方營造對立 被馬化解 習解套</t>
+          <t>[新聞] 蔡總統今出訪 中國氣炸：採取措施堅決回</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062969.A.8DF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069363.A.730.html</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>美方履履把台海情勢升溫 使兩岸陷入對立局面 習近平也不得不進一步施壓台灣 此次參訪中國 馬英九以幽默詼諧的方式講述兩岸和平的理念 並宣揚中華民國 台灣總統的存在事實中方也樂見和平 避免陷入美方逼戰陷阱 習近平也樂見馬英九當和事佬國際上欠一座諾貝爾和平獎給馬英九</t>
+          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42549162.新聞來源︰自由3.完整新聞標題蔡總統今出訪 中國氣炸：採取措施堅決回擊4.完整新聞內容︰〔記者鍾麗華／台北報導〕總統蔡英文今（29）日至4月7日率團訪問瓜地馬拉及貝里斯等友邦國家，對於期間可能於過境美國時會見美國眾議院議長麥卡錫，中國國台辦發言人朱鳳蓮宣稱，對此堅決反對，必將採取措施堅決回擊。陸委會主委邱太三接受本報專訪時指出，可想見中國一定會有反應，反應是強、中或弱，軍事、外交、兩岸哪個面向，政府都有各種情勢研判。陸委會日前也強調，中華民國總統出訪及過境相關國家，已經有非常多慣例，我國是主權國家，與國際間從事正常交流符合全體國民的期待，中共沒有任何立場發表不當言論。朱鳳蓮稱，台灣當局領導人所謂「過境」本質上是「倚美謀獨」的挑釁行徑，企圖製造「一中一台」、「兩個中國」等違反一個中國原則的事件。朱鳳蓮說，民進黨當局出於謀「獨」政治私利，製造各種藉口，利用各種機會，從事謀「獨」活動。伺機在國際上兜售「台獨」主張，並謀求美國反華勢力的支持。朱鳳蓮宣稱，蔡英文「過境」，不是老老實實待在機場或賓館，而是以各種名目要同美國政府官員、國會議員接觸，搞美台官方往來，與外部反華勢力勾連。如果與美眾議長麥卡錫接觸，將是又一起嚴重違反一個中國原則和損害中國主權和領土完整，破壞台海和平穩定的挑釁。朱鳳蓮說，中方敦促美方嚴格恪守一個中國原則和中美三個聯合公報規定，不安排蔡英文過境「竄訪」甚至與美官方接觸，以實際行動兌現不支持「台獨」的嚴肅承諾。5.附註、心得、想法︰本板＆藍白粉：老大不要生氣 蔡英文見不到美國官員中華民國也好 台灣也好本來就是一中一台一個中國政策怎麼了嗎？人家美國說知道了 已經知道40幾年了</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[黑特] 綠粉靈壓又消失了?</t>
+          <t xml:space="preserve">Re: [新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062974.A.98E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680069558.A.6FC.html</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>看新聞說我們馬小九跑去中國說我是台灣總統敢這樣說的真的前無古人後無來者之前罵馬小九賣台狗的綠畜都惦惦了整天還抗中飽台 結果沒一個綠的政治人物敢去中國這樣講回頭看看蔡英文在米國的簡報被爸爸取消真的高下立判左看右看綠粉靈壓又消失了幹 太弱了吧不是說要拚2024?加油好嗎</t>
+          <t>※ 引述《zkow (逍遙山水憶秋年)》之銘言：: 標題: [新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　: 時間: Wed Mar 29 12:32:07 2023::: → Aidrux: 會就不高沒錯                             223.137.126.66 03/29 12:52: → chirex: 交保1000萬= =                             59.125.46.247 03/29 12:53: 推 ucs1: 我說那個高宏安呢 怎麼都沒消沒息了              101.10.2.3 03/29 12:56: 推 bbn826330410: 反觀邱莉莉150 真屌                 111.252.84.201 03/29 12:58: 噓 saimeitetsu: 哈哈哈                              223.137.71.234 03/29 12:58: 推 Capital235: 猴子肯定不會站台。                      49.217.4.41 03/29 12:59: → pzztt: 有錢真好                                  114.42.202.216 03/29 13:00: 噓 giaour: 邱ZZ賄選才100萬交保，有黨證真好。         60.248.17.229 03/29 13:01: → bibiwei: 國民黨黑金                             101.137.122.128 03/29 13:02: 推 Blazeleo819: 撕髮迫害                             59.124.95.106 03/29 13:03: 推 e12518166339: 按顏寬恆跟他支持者的智商應該很難    42.73.224.189 03/29 13:09: → e12518166339: 理解交保金為什麼比別人高            42.73.224.189 03/29 13:09我是不知道顏寬恆的財力如何啦!我也查不到李全教的財力如何!當年李全教因為議長賄選案，當時的交保金是1500萬。並且被定禁止出海、出境。但是網路上現在可以找到邱莉莉的財力證明，所以各位可以計算看看邱莉莉以150W交保是否合理?https://reurl.cc/b7dR6l另外再補上林志展的財力證明各位。https://reurl.cc/V82XLy顏家是有錢，那是不是也去探聽台南巿議長是不是很有錢?</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[討論] 美國是不是在畫大陸台灣三角形？</t>
+          <t>Re: [黑特] 雞排一片100元</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063037.A.268.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064198.A.D53.html</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>如題本來要開說明會，結果最後一刻喊咖是不是發現現在全台灣目光只在狒狒跟馬前總統身上反而一個即將卸任的蔡草包一點都不重要了加上大陸終究是全世界最大生產製造基地美國為了降通膨一定要好好跟大陸交往不能刺激大陸而且大陸也有最多的人口，最大的市場愛瘋賣的業績還靠大陸現在美國是不是在畫大陸台灣三角形有掛嗎？</t>
+          <t xml:space="preserve">認真雞排最沒資格漲一個雞排便當也差不多100-120你一片雞排賣100我去便當店買雞排便當 飯給狗吃都比你划算丟臉※ 引述《DDDDRR (QQ)》之銘言：: 真的有人會吃嗎: https://i.imgur.com/sEP8dvy.jpg: 應該是不會吧: 至少我好久沒吃雞排了: 上次吃好像是派克: 有人知道派克現在一片多少錢了嗎: 去年跟今年民生通膨哪個體感比較有感覺阿？: 我只記得前年12月訂附近便當90 去年2月變110: 現在變125....: </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Re: [新聞] R: 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
+          <t>[討論] 陸委會要怎麼接招</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063138.A.A4B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064267.A.64D.html</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">美方刻意低調 其實這是好事表示美中對抗和緩 兩方都各退一步台灣沒有必要成為美中角力的主戰場EE過去一直拉美抗中其實是把呆完變成烏克蘭玩弄主權爭議獲取國內的政治利益非常不智在美國阿爸沒有明顯表態之前台灣不要一頭熱冥進洞最可惡的就是利用台灣人希望成為國家的缺憾來謀取自己的利益只會搞事不會做事※ 引述《kaminari22tw (拳擊袋鼠能暴漲數十倍的)》之銘言：: 氣氛微妙 美臨時喊停蔡總統過境簡報: 2023-03-29: 聯合報 記者張文馨／華盛頓即時報導: https://i.imgur.com/LHtMJSw.jpg: </t>
+          <t>雖說這次是給馬和kmt做球完全在呼應配合藍營的兩岸政治立論但不管怎樣可說是習上臺以來最大的一次善液展示肯定是對政府有所期待陸委會要怎麼接球呢喜迎陸客陸生已經是進行式了政治上的表態要怎樣纔算是有禮有節還是說裝作沒看到糊弄過去算了</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[黑特] 我們最擔心的是馬製造和平的希望</t>
+          <t xml:space="preserve">[新聞] 搜索偵訊16hrs！顏寬恒亮公證書證清白　</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063175.A.867.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064329.A.386.html</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>因為烏克蘭戰爭台海發生戰爭的機率無限提高就跟福島核災發生後台灣核災發生機率無限提高一樣台灣現在最重要的任務就是備戰千萬不要以為馬囧訪中講出中華民國卻沒有當場被打死就代表中共不會打過來了絕對不可以覺得投給國民黨就會和平中共積極備戰就是要打台灣帶來戰爭而只有投給民進黨台灣才能夠真正備戰唯有備戰才能帶來和平</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.ettoday.net/news/20230329/2469245.htm2.新聞來源︰ETTODAY3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※搜索偵訊16hrs！顏寬恒亮公證書證清白　怒批：學甲槍擊2萬交保4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※搜索偵訊16hrs！顏寬恒亮公證書證清白　怒批：學甲槍擊2萬交保ETTODAY2023年03月29日 12:19https://cdn2.ettoday.net/images/6931/d6931245.jpg▲顏寬恒遭檢調偵訊11小時交保，顏家1小時火速籌1000萬保證金。（圖／記者許權毅攝）記者游瓊華、許權毅／台中報導台中地檢署以前立委顏寬恒涉嫌竊佔、偽造文書等罪嫌為由，昨天一早7點到顏家進行搜索，上午10點鐘將顏寬恒與妻子陳麗淩帶回調查。據了解，陳麗淩下午5點中諭知500萬元交保，顏家先籌500萬交保；顏寬恒一路偵訊到深夜11點，獲知1000萬元交保，顏寬恒認為不符比例，一度拒保，也準備被移到看守所，但遭檢方勸說1個多小時後同意，顏家火速籌出1000萬交保。顏寬恒今天召開記者會表示，檢調房屋已經真實交易，因為自己的物品較多沒有完全搬走，竟遭指是假買賣，拒絕交保是要凸顯此事之離譜。https://cdn2.ettoday.net/images/6931/d6931375.jpg▲顏寬恒亮出向國產署承租國有地的合約公證書，證明一切合法。（圖／顏寬恒服務處提供）顏寬恒今天也亮出文件證明有向國有財產署承租土地，痛批檢方控他們夫妻竊占國有地及偽造文書，但妻子繳足20年租金，一切都是有憑有據，合法承租，何來竊占之說！顏寬恒也批，他合法出售沙鹿住宅、合法標國有土地，只因為私人物品太多沒有完全搬走，就被認定是假交易，還重保1000萬元，對比台南學甲案開了88槍，參與涉案的人僅2萬元交保，檢察機關不僅大力拿起，卻輕輕放下、沒有作為，是不是因為他要參選，把陳年舊案又拿來炒一次。https://www.ettoday.net/news/20230329/2469245.htm5.附註、心得、想法︰※ 40字心得、備註 ※上次補選民進黨贏了，不知明年再選一次會是誰贏另外國民黨這邊盧秀燕朱立倫等，又要如何應對這次大家怎麼看，這件事的後續對政壇會有什麼影響變化嗎※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[討論] 三民政論今晚要怎麼幫蔡英文開脫？</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063287.A.A4C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064486.A.9D6.html</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>三民政論這次沒法大肆痛批馬英九舔共結果今天又囧了蔡英文身為總統 美國要啥都配合 萊豬吃了軍火買了能舔的都舔了結果白宮沒安排官員接見蔡英文 真的超級可悲但黨媒總有辦法能粉飾太平 好好的捧高蔡總統那麼今晚三民政論要怎麼幫蔡英文開脫呢？</t>
+          <t>你這說  你有問過巧芯同不同意嗎?身為全國知名人物  全國不分區議員立志幹倒民進黨的巧芯  不管在松信或者是士北  應該是一樣知名的笑死  你這樣說  你不怕人家生氣嗎反正不管他位在哪一區  對在地選民的服務都是一樣的好不好?※ 引述《jojoway (凝淵)》之銘言：: 說真的 我是真的為這些綠綠 和深綠費粉感到可悲: 不只大腦有毛病 連眼睛都有問題: 這民調是900芯直接空降到別的選區去比: 然後她比的還是綠營在地立委吳思瑤: 然後還能只差4% 這很厲害好嗎: 甚至有點太吹捧900芯了: 結果發這文的 不知道是腦殘還是眼殘 還是都有: 竟然看不懂 真的是可憐阿</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[新聞] 羅志明共諜案延燒48退將</t>
+          <t>[討論] 換蔡英文講中華民國 現任台灣總統</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063393.A.E98.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064521.A.28F.html</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://reurl.cc/gZrk9Q※ 網址超過一行 請縮網址 ※2.新聞來源︰鏡週刊3.完整新聞標題【48退將捲共諜】點名吸收呂秀蓮　羅志明共諜案延燒48退將※ 請完整轉載標題 請勿修改與編排 ※4.完整新聞內容︰台聯前立委羅志明涉在台發展共諜組織遭起訴，從而揭露中共對台滲透升級與更多不同的手法！檢調查出對岸曾企圖透過羅志明，慫恿前副總統呂秀蓮赴中，以及引介曾任國防部次長、副參謀總長、陸軍司令、大直衡山指揮所主任等48名高階退役將領，至湖北或廣東珠海等地參加球敘聯誼等活動，並穿插祭祖及參拜炎黃二帝，藉此大肆宣傳黃埔精神、促進祖國統一及一國兩制，有系統地對我方退將進行統戰滲透。知情人士告訴本刊，對岸透過廣東太普樂生技董事長李鷹，暗中滲透我軍退將至少已經10年，表面上李鷹是位商人，他的父親是中共退役空軍將領，李鷹更是中共情治系統人員，長期循著羅志明這條管道，煽動我方中將以上14人、少將30人、上校3人、中校1人，至少共48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月，也就是馬英九第二任總統期間。中共利用黃埔校友活動搞統戰，讓台籍退將與對岸將官一起在「發揚黃埔精神促進祖國統一」布條上簽名、合影。（翻攝黃埔軍校同學會活動手冊）大批台籍退將受邀赴中，中共卻要求他們在寫有祖國統一字眼的布條上簽名，形同被統戰。（讀者提供）後來蔡英文就任總統，大幅強化國軍的國安意識，退將赴中人數驟減，羅志明這條管道開始失靈，李鷹2016年12月與2018年8月籌劃的退將赴中行程，分別只有3名及5名退將成行，到最後連退役中校都被找來參加，與馬政府時代每次動輒近20名退將出團的「滿天星」陣容相比，簡直如天壤之別。由於邀約退將赴中出現瓶頸，加上羅志明幾乎把能邀的退將都找了，對岸於是決定把滲透的層級拉高，將目標轉向政治人物。檢調監控發現，2020年12月24日，李鷹透過微信向羅志明提及：「我知道呂大姐退休10年了，是可以過來玩的。」雖然對話中並沒有講明「呂大姊」是誰，但羅志明早已知悉李鷹所說的正是前副總統呂秀蓮，因為李對台研析工作做得相當透澈，連2004年扁呂配尋求連任正副總統過程一波三折，羅志明以台聯立委身分力挺呂秀蓮的往事都瞭若指掌，於是想如法炮製，透過羅找呂秀蓮赴中，並且言明只要呂大姐點頭同意，即可包裝各種理由安排中國之旅。檢調掌握這段對話過程，偵訊時問羅志明，呂大姐指的是誰？羅始終不願說明，不過，在回覆李鷹的催促時，羅志明說：「不行，她仍有國安人員保護中。」專案小組於是挑明訊問，有國安人員保護的呂姓女子，符合條件的僅有呂秀蓮一人，至此，羅眼見紙包不住火，才坦承2人對話中提及的呂大姐，確實是呂秀蓮沒錯。由於呂曾任兩屆副總統，任職期間接觸許多國家機密，李鷹希望透過羅志明邀她前往中國訪問，但羅認為呂仍有國安人員保護，吸收成功的機率太低，李鷹知道難處後隨即回覆：「收到，明白了。」才使對岸企圖滲透呂秀蓮的目的未能得逞。5.附註、心得、想法︰在野時：軍購預算擋了五十幾次，這樣夠不夠強悍？ -任職時：弱化國軍，重大軍購毫無建樹，兩岸軍力急劇失衡；退將上行下效集體赴中接受招待，連橫山指揮所主任都被滲透退休時：首戰及終戰；美軍不可能援台…實質弱台第一人，板上還能吹？※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+          <t>馬英九出發前被嗆不敢講中華民國 不敢講台灣總統 結果全講了這次該換蔡英文表現了 大聲說出來 中華民國112年3月29日 台灣總統拜訪美國 以國與國的關係拜訪請嚴厲對美方宣示 你是台灣總統 中華民國總統</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[討論] 為什麼會有第二三島鏈呀？</t>
+          <t>[討論] 蔡英文去美國是背包客自由行嗎？</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063414.A.538.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064655.A.EDF.html</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>台灣人愛台灣土生土長的本土台灣人說土生土長的本土台灣話台灣在重要性的關鍵位置身於第一島鏈中心處美國必定保護那為什麼會有第二三島鏈咧？是不是說美軍考慮會打敗時要拋棄第一島鏈退守二三島鏈咧？</t>
+          <t>如題美國說不會派人見蔡英文蔡英文這一趟美國行算是背包客去美國自由行嗎？？國際談判專家怎麼落到這種下場？</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文過境美國沒人接待，會超買香煙嗎</t>
+          <t>[討論] 寬恆加油！不要輸給塔綠版</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063467.A.F4D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064832.A.5EE.html</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>如題這次民進黨的國際談判專家蔡英文在進口美豬內臟後和送走台積電後敲鑼打鼓的向死忠仔高調宣傳過境美國結果沒有美國官員要接待她只能在飛機上氣噗噗的吃法國菜在吃大餐和品嚐高級紅酒的閒暇之餘是不是要買一些便宜的免稅外國煙反正飛機上空位很多國際談判高手小英沒有官員要接待https://i.imgur.com/1cwUjRf.jpghttps://i.imgur.com/34N84ly.jpg法學+貿易的自稱1.5博士蔡英文說走私叫做超買https://i.imgur.com/WzIyKi3.jpghttps://i.imgur.com/0YVWV7Q.jpg</t>
+          <t>寬恆加油！民進黨政府的政治迫害越來越誇張，也越來越明目張膽。為了台中立委席次，已經無所不用其極的地步。欲加之罪何患無辭寬恆加油！你不是一個人對抗惡勢力的請記住在你背後永遠有廣大的藍白粉無條件支持你。</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Re: [討論] 大家都是中國人</t>
+          <t>[討論] 事實證明民進黨根本不會談判</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063517.A.404.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064954.A.155.html</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">其實中國人還是台灣人本56都沒啥意見啦如果是中國人那麼我大中華民國自推翻滿清一直以來都是華夏正統現雖然共匪竊據大陸但有朝一日一定會反攻大陸 收復河山如果是台灣人那麼請先把中華民國推翻掉不要去當三小中華民國官員總統就算不用軍事政變至少憲法也正名台灣憲法現在的問題是你用中華民國用的不亦樂乎當中華民國的官員拿中華民國的護照然後造中華民國的反畢竟台獨這件事情在中華民國體系下就是叛亂割據絕對是叛國罪死刑的一邊說台獨一邊榨取中華民國國民的稅收對外說是台灣自慰改了封面但是真正的護照內頁還是中華民國護照對內說中華民國就是台灣但憲法明明就說要統一中國哪有台灣中國一邊一國整套說法看下來根本整個精神錯亂....可悲的是台灣人一樣是習以為常整個問題說到底就是國家認同問題你要奪權 要打破黨國一家明明就有很多方法可以做選擇了用分裂國家認同的方式結果智障選民居然還接受這種模式美國民主黨共和黨打的不亦樂乎但就算再激烈有哪一個黨敢跳出來直接用分裂美國的方式拿選票絕對被美國人幹爆即便多數美國人腦袋都不太好用只能說啦有些東西是不能妥協的台灣玩政治的人很聰明但如果國家認同都能妥協掉連到底效忠誰都不知道政治的基本底線都沒有就不用談忠誠還是團結那真的到了戰爭或是國難當頭的時候民眾也絕對是一盤散沙※ 引述《jfw616 (jj)》之銘言：: 馬去大陸喊出了中華民國: 現在大家開始正視自己國家是中華民國: 我覺得是不是從現在開始: 大家也要開始喊我是中國人？: 畢竟我們的國家是中華民國: 我們就是中國人: 台灣,台灣人會讓人家</t>
+          <t>以前民進黨最喜歡笑國民黨沒有談判人才，只要談出什麼結果都會被笑喪權辱國民進黨只會打順風球不說，連什麼屁貿易協定都沒談成川普任內通過的旅行法就是對抗中國的順風球之一但國民黨時期談成的一些協定，至今仍是台灣重要的養份能舉出來的包括台灣關係法WTOWHO觀察員兩岸經濟合作框架國際免簽VWP免簽計畫兩岸司法互助協定台星經濟夥伴協定台印投資保障協定台日漁業協定台泰投資保障協定族繁不及備載有關經濟協定簽署詳情請看inves taiwan網站民進黨談出什麼鳥東西？談斷交比較厲害吧？民進黨談出什麼好東西可以討論一下嗎？</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Re: [討論] 三民政論今晚要怎麼幫蔡英文開脫？</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063528.A.23A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065033.A.DBC.html</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>※ 引述《coeXist (蔓)》之銘言：: 三民政論這次沒法大肆痛批馬英九舔共: 結果今天又囧了: 蔡英文身為總統 美國要啥都配合 萊豬吃了軍火買了能舔的都舔了: 結果白宮沒安排官員接見蔡英文 真的超級可悲: 但黨媒總有辦法能粉飾太平 好好的捧高蔡總統: 那麼今晚三民政論要怎麼幫蔡英文開脫呢？ 說到這個 我剛剛跟深.淺綠同事對話 我說馬英九這次出行佳芬了吧 同事說 中國用中巴 派出地方官員 就是修乳台灣 我說 但是蔡英文過境美國也沒有中央官員要出來迎接耶 同事說 那妳可以罵 我沒說你不能罵 我說所以你覺得有羞辱台灣嗎 同事:...... 然後轉頭繼續說 用中巴就是羞辱台灣</t>
+          <t>這就說明了一個事實徐巧芯只能靠國民黨的鐵票沒了國民黨的奶水她什麼都不是沒像謝龍介還可以贏何志偉整天炒新聞結果對戰一個五五波的區域就贏不了了許淑華應該很期待徐巧芯出線吧※ 引述《pennyone (California boy)》之銘言：: 根據東森最新的民調: 若派徐巧芯參戰2022藍綠五五波的北投士林: https://i.imgur.com/4PbdY4v.jpg: 自詡空戰天后的徐巧芯民調完全不敵吳思瑤: https://i.imgur.com/b9EL0iA.jpg: 反觀謝龍介都還比較有實力選立委: https://i.imgur.com/nnNoucS.jpg: 我是比較驚訝: 吳思瑤這麼邊緣: 徐巧芯還輸她一截: 難怪徐巧芯不敢離開松信區: 因為實力真的不足....: 只能對費鴻泰多年經營的票源流口水: https://i.imgur.com/f2PHhKe.jpg</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[討論] 兩岸打不起來美國跟舔美狗會更激烈動作嗎</t>
+          <t>[討論] 國台辦：蔡若與麥卡錫接觸 將採取措施回擊</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063601.A.EB7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065117.A.4E4.html</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>馬英九帶年輕台灣人去交流巡中華民國在大陸的田水，化解蔡政府結合美國境外勢力製造的台海緊張，現在兩岸打不起來美國跟舔美的台獨叛亂集團會不會有更激烈的動作來製造開戰危機※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>回應記者蔡英文竄訪美國一事中國國台辦發言人朱鳳蓮表示：蔡英文“過境”美國不是老老實實待在機場或是賓館，而是以各種名目要同美國政府官員、她如果與美眾議長麥卡錫接觸，將是又一起嚴重違反“一個中國原則”和損害“中國主權與領土完整”破壞台海和平穩定的挑釁。我們對此堅決反對，必將採取措施回擊！</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[黑特] 雞排一片100元</t>
+          <t>Re: [討論] 馬英九這波給國民黨總統候選人加多少分?</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063608.A.F38.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065168.A.76D.html</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>真的有人會吃嗎https://i.imgur.com/sEP8dvy.jpg應該是不會吧至少我好久沒吃雞排了上次吃好像是派克有人知道派克現在一片多少錢了嗎去年跟今年民生通膨哪個體感比較有感覺阿？我只記得前年12月訂附近便當90 去年2月變110現在變125....</t>
+          <t>真正的選舉還沒開始賴跟侯(應該沒別人了)確定提名後才是真正的開跑每一個政治事件都會有即時的短期效應看政黑跟媒體民調其實還是都跟的上風向去年選完到過年國民黨持續順風國完年南投補選國民黨內亂開始逆風民進黨團結方向一致基本盤回歸馬英九訪中+小英訪美短期最大的效應就是媒體不用繼續一直追著侯友宜朱侯本來的計畫就是要拖到六月以後侯要正式成為候選人才會正面回應Yes I DO到時候會不會有正向的宣傳就看個人造化了短期來說尷尬回答少扣分就是加分馬說了台灣總統中華民國看起來好像打臉民進黨有的沒的不過也不會直接加分到侯友宜身上馬可以說的做的不代表侯友宜會說會做最終還是要侯正式參選後自己說出口來才會定調長期效應主要看的是中共對台的態度從朱鳳蓮開口說出92共識跟一國兩制是兩個概念到這次允許馬說出台灣總統+中華民國多想一想當然不可能相信中共真的放軟但是中共就是變聰明了有認真思考該怎麼幫助國民黨選舉了不會像2020以前那麼容易做提款機如果更進一步有辦法限制美國像蔡英文訪美就傳言被降級不直接干預台灣但是間接都在打擊民進黨回到大選這樣最多只是把中共的影響降低選舉影響的因素還有很多新竹桃園提款國民黨中央繼續內亂敗票台南黑金後續發展2023經濟不景氣百業蕭條暑假會不會缺電看七月以後什麼議題會變成主軸對選舉結果才影響比較大現在真的還太早侯賴兩個人本身真的算是比較無聊的候選人需要在各種其他議題事件上做攻防才能帶的起風向如果侯友宜都正式參選了還是對各種議題都不沾鍋旁邊還有一個喜歡打順風球的柯文哲就算議題是順風的票可能也是被柯吸走這一次選戰絕對不是不沾鍋就能躺贏的</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Re: [討論] 馬英九這波給國民黨總統候選人加多少分?</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063678.A.4C6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065200.A.835.html</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>至少他敢去敢去中國大陸談中華民國談自己曾經身為中華民國總統的過往敢在中國領土上激怒小粉紅請問笑他的那些綠營政客哪個敢我看國民黨既然推不出人不然推老馬再戰算了至少有guts</t>
+          <t>※ 引述《sunyeah (   湯元嗎)》之銘言：: 你這說  你有問過巧芯同不同意嗎?: 身為全國知名人物  全國不分區議員: 立志幹倒民進黨的巧芯  不管在松信或者是士北  應該是一樣知名的: 笑死  你這樣說  你不怕人家生氣嗎: 反正不管他位在哪一區  對在地選民的服務都是一樣的好不好?現在問出來如果算上誤差範圍，基本上徐巧芯去士林北投都有當刺客的潛力。因為以這種民調來看，起跑就是35%去打39%。而且搞清楚，士林大同本身就是民進黨在台北巿比較有優勢的區域。看看當年民進黨在2019年何志偉補選立委時，也是一路壓著陳柄甫和陳思宇。但是你以為徐巧芯在這裡的民調是輸的。但是看看過去民進黨在士林大同的得票率就知道了!這種民調就是告訴你，現在表態的就是深綠的基本盤。同樣的這種民調在這個階段就是雙方基本盤的對決。https://imgur.com/8qAffxG</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[討論] 現在是獨派最好的開局！</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063716.A.9B6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065345.A.4AE.html</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>根據東森最新的民調若派徐巧芯參戰2022藍綠五五波的北投士林https://i.imgur.com/4PbdY4v.jpg自詡空戰天后的徐巧芯民調完全不敵吳思瑤https://i.imgur.com/b9EL0iA.jpg反觀謝龍介都還比較有實力選立委https://i.imgur.com/nnNoucS.jpg我是比較驚訝吳思瑤這麼邊緣徐巧芯還輸她一截難怪徐巧芯不敢離開松信區因為實力真的不足....只能對費鴻泰多年經營的票源流口水https://i.imgur.com/f2PHhKe.jpg</t>
+          <t>之前馬英九執政 推廣ROC民進黨推廣台灣後來中共加強否認ROC存在 馬英九無地自容換民進黨推廣ROC 獨派哭暈在廁所今天又回到馬英九執政時的時空背景中共允許馬英九在中國談ROC民進黨應該要準備回歸堅持台灣正名了現在是獨派最好的開局</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[討論] 急！66歲女孩兒疑似被美國律師騙了怎麼辦</t>
+          <t>Re: [討論] 柯文哲到底為什麼要訪美啦..........</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063821.A.375.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065367.A.B13.html</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>是這樣的常常聽說有人打著美國軍官的名號來詐騙最近聽到有一位66歲的女孩兒跨國結交了一位80歲美國律師最近去他家好像沒很被歡迎人都沒見過就算了可能還準備要匯一堆錢過去該怎麼辦有無八卦</t>
+          <t>柯屁去美國 被已讀不回民眾黨是說許多會晤人員與參訪細節都仍在確認中，只是基於信賴與默契無法提前曝光，認為外界有些誤解蔡英文要做總統簡報臨時喊卡美臨時延後又「取消」蔡英文過境簡報未安排官員和她會面所以蔡英文幹嘛訪美母豬被騙炮喔6旬婦網上結識「國外將軍」 稱作戰急需15萬險遭詐騙差低 綠粉要出來噴之一下嗎</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[黑特] 看到總統被美國羞辱。很難過。</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063894.A.5A4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065550.A.5E6.html</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>我是認真的一個美國國務次卿。說穿了就一個副部長要向我國總統簡報資料可以在30分鐘前通知會議取消有沒有把我們總統當一回事？看沒有！我是真的難過。我不想批評總統因為欺負她等於欺負全中華民國外交部你在幹嘛？出了斷交外 你還會什麼？</t>
+          <t>好了啦跑步哥 真的別買太多我還以為真的有那麼多推文結果一點進來都是你這隻和底下兩隻帳號再洗而且都被八卦版捅破2千多天現在還敢跑到這邊撒野是還要不要臉啊補個政黑點 徐巧芯就是松信現任議員整天要人家空降去其他選區的到底腦子有沒有發育完全啊※ 引述《pennyone (California boy)》之銘言: 根據東森最新的民調: 若派徐巧芯參戰2022藍綠五五波的北投士林: https://i.imgur.com/4PbdY4v.jpg: 自詡空戰天后的徐巧芯民調完全不敵吳思瑤: https://i.imgur.com/b9EL0iA.jpg: 反觀謝龍介都還比較有實力選立委: https://i.imgur.com/nnNoucS.jpg: 我是比較驚訝: 吳思瑤這麼邊緣: 徐巧芯還輸她一截: 難怪徐巧芯不敢離開松信區: 因為實力真的不足....: 只能對費鴻泰多年經營的票源流口水: https://i.imgur.com/f2PHhKe.jpg</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>[討論] 鏡週刊爆料的48退將共諜案</t>
+          <t>[黑特] 慟！居然今天就沒什麼狒狒的新聞了</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063932.A.2DE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065550.A.CF6.html</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>如題關鍵字都有了就不貼新聞了我怎麼覺得這事情的層級還蠻高的最近一年多來的共諜案感覺特別的多應該也是美中角力的一環吧都說美中雙方未來幾年即將開戰那開戰前當然是清查內鬼就算你明明什麼都沒做但只要是有嫌疑就列入名單一起查一下算是廣義的麥卡錫主義吧？新聞還連同呂秀蓮也點名在其中了雖然是註明吸收失敗但當事人勢必要費一番心力澄清吧（難道要承認嗎？）大家怎麼看？我怎麼覺得there is a storm coming了</t>
+          <t>乳題本來還預估周末還是連假才會被洗掉結果今天新聞跟ptt就沒什麼狒狒的討論了比起馬去中國喪權辱國，王八千跟林俊憲說國民還比較在乎狒狒不洗起來怎麼掩飾EE被美國當背包客阿政黑粉怎麼看？</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[新聞] 普悠瑪超速出軌釀18死 司機員尤振仲再判</t>
+          <t>[討論] 3/28政黑 狒狒56篇，馬173篇</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064043.A.DAB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065587.A.391.html</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://udn.com/news/story/7321/70637282.新聞來源︰聯合3.完整新聞標題普悠瑪超速出軌釀18死 司機員尤振仲再判撤職停止任用4年4.完整新聞內容︰台鐵普悠瑪列車5年前在宜蘭出軌，釀18死116輕重傷，法院認為司機員尤振仲關閉自動防護系統、超速達140公里，是全案肇事主因，依過失致死罪判刑4年6月定讞；另外，懲戒法院也判尤振仲撤職，停止任用4年，可上訴。2018年10月21日，普悠瑪列車在宜蘭縣蘇澳新馬車站出軌翻覆，法院認為，尤振仲因 ATP故障，誤判列車動力已切斷，擅自關閉 ATP卻未依規定重啟，又超速75公里，以約140公里高速駛入車站大彎道路段，是造成列車出軌翻覆主因，最高法院本月初判決4年6月定讞。交通部事後將尤振仲移送懲戒，尤振仲辯稱他在事故中已盡力尋求支援協助，排除列車故障，他沒有超速駕駛，仍不幸發生憾事，難認有違失，但懲戒法院認為尤經最高法院判決確定，且有交通部提出的調查報告佐證，認為尤違失事證明確，說法不足採信。懲戒法院指出，尤振仲除違反刑罰法律外，也有違公務員服務法規定「公務員應謹慎」、「公務員執行職務，應力求切實」的意旨，屬於公務員懲戒法所規定的執行職務違法失職行為，且他的違失導致重大傷亡，造成公眾喪失對相關職位的尊重與執行職務的信賴，嚴重損害政府信譽，為維持公務紀律，認為有懲戒的必要。懲戒法院審酌尤振仲是鐵路列車駕駛員，應深刻體認自己職務掌握搭乘列車乘客的生命、身體安全，稍有不慎，即會影響大眾交通安全，但他2017年12月間，曾因施用安非他命，被檢察官處分緩起訴，公務員懲戒委員會也已判決記過懲戒，可見他對自身職務體認不足。懲戒法院指出，台鐵1999年間耗費鉅資建置ATP系統，目的是為了防杜司機員的恣意，避免危害乘客生命、身體安全，且改善行車安全也有賴現代自動系統的輔助，才能全面防護而無缺失，尤振仲2014年10月起擔任司機員，也受過ATP系統教育訓練，應知悉ATP系統的重要性，卻因誤判車輛故障原因，關閉ATP系統，又未依規定重啟，造成ATP系統沒有作用。判決認為，依速限駕駛是一般人應遵守的常識，尤振仲駕駛火車，承載眾多乘客，加上本案列車為傾斜式列車，更應注意車速，卻在肇事地點彎道前以遠超過速限75公里的140公里高速行駛，造成18人死亡的重大交通事件，過失重大，又尤振仲肇事後，本身也受傷，並曾向死者及遺族致哀、道歉，但訴訟上否認違失，考量一切情狀，判決撤職並停止任用4年。5.附註、心得、想法︰可憐基層被高層凹 到扛罪法官只能看證據判也沒辦法昨日尤仲振 今日獵人可憐阿 當官的 聯合網軍媒體 想盡辦法打壓出賣勞力的獵人</t>
+          <t xml:space="preserve"> 嗨，政黑佔七成的民進黨網軍們 扣掉新聞以及新聞回文 昨天政黑狒狒文洗了76篇，3/27還只有46篇328難得看到綠共紅共站在一起打壓中華民國 然後政黑英系網軍們搭配政論節目還有民代一條龍拼命洗說"馬英九的新聞不如狒狒"，想盡辦法幫中共解套!!  想盡辦法羞辱前中華民國總統，想盡辦法羞辱前台灣總統 你們這些綠色台共在228時期是要被殺頭的XDDD 結果綠共想盡辦法還是沒辦法幫中共蓋住前總統的新聞央視跟三民自肯定跨海一起氣得跳腳XDDDD 3/28馬英九文來到了173篇  那些還在拼命幫中共硬洗"馬不如狒狒新聞"的綠共 慘敗!! 接下來要洗什麼來蓋蔡英文浪費稅金出訪巴拉圭呢?綠色台共不是早就定調這些邦交國都是來要錢的壞朋友?那幹嘛還要浪費那稅金出訪這些討債鬼?然後還要被美國取消簡報，不派任何官員迎接來羞辱XDDD  馬都卸任了，影響力還是屌打空心蔡 不服中華民國百十二年的 可以燒身分證來慶祝冥誕 我會敬你們至少是條漢子! </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
+          <t>[新聞] 【48退將捲共諜5】馬英九赴中行程神複製</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064059.A.2A6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065629.A.D57.html</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>說真的 我是真的為這些綠綠 和深綠費粉感到可悲不只大腦有毛病 連眼睛都有問題這民調是900芯直接空降到別的選區去比然後她比的還是綠營在地立委吳思瑤然後還能只差4% 這很厲害好嗎甚至有點太吹捧900芯了結果發這文的 不知道是腦殘還是眼殘 還是都有竟然看不懂 真的是可憐阿</t>
+          <t>1.新聞網址︰https://tinyurl.com/yc85xmjm2.新聞來源︰鏡週刊3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※【48退將捲共諜5】祭祖、抗日紀念同一套路搞統戰　馬英九赴中行程神複製4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中共利用黃埔情或國父孫中山誕辰等系列活動邀約退將赴中，途中穿插祭祖或參觀抗日紀念碑及遊覽黃河等景點，營造彼此都是炎黃子孫的氛圍，對照前總統馬英九赴中祭祖也安排參觀抗戰遺址博物館、南京中山陵謁陵等景點，恐被中共淪為統戰工具。馬英九宣布訪中，對岸以「馬先生」稱呼、維安配備被要求砍半，甚至不准媒體以馬總統稱呼他，當他抵達上海走出機外，不但沒有象徵貴賓的紅地毯，原先傳出要接機的中共政治局常委丁薛祥未出現，由國台辦副主任陳元豐接機，規格再降低，讓國內不少人質疑馬英九自取其辱，矮化國格。馬英九下機後，未在機場發表談話，隨後搭高鐵直奔南京，除拜謁南京中山陵、中國近代史遺址博物館、國父孫中山先生故居等，對於與中共高官會面的行程，馬辦則表示「客隨主便」。不過，被接觸的赴中退將不約而同向檢調提到，聯誼活動中，中共將領雖都提到將武統台灣，但大抵來說還是不斷強調兩岸血濃於水，招待目的就是為了統戰。例如熟悉資通電訊的退役少將周薛萍說，每次黃埔情活動，中方的前提都是兩岸一家親及同種同源，會中也會交換名片，方便後續聯繫。曾任空軍官校校長的退役中將王文周則說，他知道郝一峰兼負統促任務，他們上面是統戰部，每人都知道，如果不是統戰部也不需要跟他接觸，座談會都提到同文同種，一國兩制及和平統一等語。檢調掌握中共的滲透手法五花八門，中國國際戰略研究基金會也曾派人接觸夏復翔，該會理事及成員多為中共官員，另外一個與夏接觸的海峽兩岸將軍聯誼會，則是廣東省航空聯誼會旗下組織，由廣東省統戰部成立。檢調還查出，黃埔同學會會長林上元為黃埔18期，祕書長肖虹兼任統一促進會副祕書長，且曾任中共統戰部第12局副局長，專門負責對台政策研析。陸委會10年前已公告統一促進會及黃埔同學會，涉及國家認同與對台統戰工作，有妨害國家安全及利益之虞，皆屬中共統戰部附屬團體。中共近年不斷以黃埔軍校同學會名義邀台籍退將赴中，但該會早被陸委會認定是中共附屬政治組織。（翻攝黃埔軍校同學會官網）從羅、夏2人有計畫拉攏、吸收我方退將，甚至鎖定綠營的前副總統呂秀蓮極欲滲透，最終雖未得逞，但時至今日，即使兩岸情勢緊繃，仍有退伍軍方社團號召500名黃埔校友，欲前往中國參加黃埔99週年紀念大會，不難看出中方統戰意圖未減；加上中共軍機、軍艦頻頻擾台，破壞亞太區域穩定，唯有國人提高警覺，才能避免落入中共的統戰套路，確保台海安全。對於退伍社團近來廣邀黃埔軍校校友，前往中國參加建校99週年活動，位在鳳山的陸軍官校校友總會發聲明，呼籲校友要慎思、謹慎，勿陷入統戰陰謀。（陸軍軍官學校臉書）5.附註、心得、想法︰※ 40字心得、備註 ※是說在這選舉的節骨眼，前立委羅志明被檢方，因涉嫌國家安全法，被檢查署羈押。現在馬英九，基本上也在幹一樣的事情，還高調出門。前面看到還有人，因為馬英九喊了兩聲"台灣總統"，爽到出汁; 都是去那給阿共統戰的，就不用在那掩耳盜鈴。</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[轉錄] 觀察者網：馬英九是什麼人？</t>
+          <t>[新聞] 海上人蛇丟包？台南、高雄6天發現四具浮</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061389.A.B12.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680065710.A.244.html</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1.轉錄網址︰https://reurl.cc/mlkWYV2.轉錄來源︰觀察者網(中媒)戴雨潇(自由撰稿人)3.轉錄內容︰講十件馬英九的往事：❶ 70年代馬英九在國民D中山獎學金的資助下赴美留學，在美期間多次於國民D海工會的刊物《波士頓通訊》上撰文批判中G、海外左派和台毒分子，引起了國民D高層的注意。1981年馬英九返台後即擔任小蔣的翻譯。https://i.imgur.com/3lejCN9.png❷ 1993年連戰出任「行政院院長」，邀馬英九擔任「法務部部長」，幾年後馬轉任「行政院政務委員」。1997年轟動全台的惡性治安事件白曉燕命案發生。就在連戰「內閣」焦頭爛額之際，馬英九不僅沒有與提攜自己的恩人共患難，反而在連戰毫不知情的情況下自行對外宣佈辭任「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒臺。https://i.imgur.com/Fih85SU.png❸ 辭職後馬英九數次承諾不會參選臺北市長，卻在第二年就食言參加了臺北市長候選人的D內初選並獲得提名。參選後馬英九遲遲未得到時任國民D主席和呆丸地區領導人李登H的支持。直到1998年11月，在選舉投票前一周，李登H突然現身和馬英九同台，並當眾用閩南話質問他：「馬英九先生，告訴我你是哪裡人啊？」面對李登H這一表忠心的問題，在巷岡出生的馬英九自然不會說他是「中國人」，而是毫不猶豫地用他蹩腳的閩南話回答：「報告XX，我是呆丸人啦。我是吃呆丸米、喝呆丸水的新呆丸人啦！」於是李登H拉起馬英九的手，讓大家把票投給他。「台毒教父」的首肯為馬英九贏得了不少本土選票。最終他以5%的票數差距戰勝了當時聲勢正盛的陳氵扁，成功當選臺北市長。https://i.imgur.com/9epLj7F.png一年多後，國民D的連蕭配在呆丸地區領導人選舉中敗給了陳氵扁，李登H被質疑「棄連保扁」，上萬國民D支持者聚集在國民D總部前抗議。此時馬英九察覺到藍營內部的政治風向變化，於是立刻公開「逼宮」要求李辭任D主席，馬李二人遂反目成仇。❹ 2005年7月，馬英九擊敗王金平當選國民D主席。隨後的幾個月時間裡，陳氵扁當局的高捷泰勞弊案和國務機要費案陸續爆發，陳氵扁的女婿趙健銘被檢舉內幕交易、妻子吳淑珍也深陷受賄醜聞。到了2006年8月，前民進D主席施明德更是發起了轟轟烈烈的「百萬人民反貪倒扁運動」。此時的馬英九口頭上也稱自己支持倒扁，但並未帶領國民D做出任何實際行動。他的盤算是希望陳氵扁的爛攤子拖到幾年後的呆丸地區領導人選舉，到時候他就可以輕鬆取而代之。2008年，陳氵扁在一片狼藉中下苔。馬英九果然如願輕鬆當選。❺ 馬英九當選後在「就職演說」中稱「唯有呆丸在國際上不被孤立，兩岸關係才能向前發展」。意思是說，如果大陸繼續阻攔呆丸參與各種國際組織、抵制呆丸和其他國家的「軍事和外交協作」、限縮呆丸的「國際空間」，那麼兩岸關係就不能「向前發展」。❻ 在兩岸論述方面，馬英九提出「新三不」，即「不統、不毒、不武」。開門見山將拒統的主張放到了最前面，用不宣佈「台毒」作為騙取大陸優惠政策的籌碼，以圖達到永久維持兩岸分治的終極目標。https://i.imgur.com/QAcH6ax.png❼ 也是在馬英九時期，國民D將「九二共識」原本的內容「堅持一個Z.G原則，共同努力謀求國家統一」竄改成了所謂的「一中各表」。對此我方明確駁斥道：「『一中各表』嚴格意義上已經『偏</t>
+          <t>1.新聞網址︰https://news.tvbs.com.tw/local/20819652.新聞來源︰tvbs3.完整新聞標題海上人蛇丟包？台南、高雄6天發現四具浮屍　腐爛嚴重難辨身分4.完整新聞內容︰期，海巡接獲多起浮屍案件，除了台中港離岸風場被發現一名男性乾屍，包括台南沿岸地區，從這個月5號開始到10號，陸續發現四具浮屍，由於屍體嚴重腐爛，無法辨識身分，目前傳出有人蛇集團在海上丟包，與台南近期發現的浮屍是否有關，目前調查中。海巡署透露，四具浮屍發現的位置，從這個月5號在台南七股網仔寮沙洲，發現一具男性屍體，由於五官已經腐爛，無法辨識身分，隔天6號，台南青山漁港外又發現另一具男性無名屍，緊接著，7號台南將軍近海，又發現一具腐爛嚴重，難以辨識性別的無名浮屍，一連三天，台南沿岸出現浮屍，也讓海巡署人員起疑，懷疑非輕生案件，展開調查，而過沒幾天，3月10號高雄茄萣岸際邊，又發現一名男性浮屍，從外觀初判，疑似是台灣籍人士，至於死者的身分仍待釐清。海巡署近日陸續發現浮屍 獨家／海上人蛇丟包？台南、高雄6天發現四具浮屍　腐爛嚴重難辨身分海巡署近日陸續發現浮屍由於岸際陸續出現浮屍，光是在台南、高雄就有四件，全案讓國安單位相當重視，台南地檢署檢察官已經啟動調查，是否是海上人蛇丟包案件有待釐清。5.附註、心得、想法︰台灣是個人不如狒狒的可悲的地方想想從去年到今年多少浮屍 和那些園區等等等但是新聞熱度 和話題度狒狒之死 還有三名監察委員自請調查然後 對比人的死亡 從去年至今的 有哪些有後續笑死這就是價值</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Re: [討論] 之前嗆不要挑釁中國的人都死了嗎？</t>
+          <t>[討論] 美方營造對立 被馬化解 習解套</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061403.A.97A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062969.A.8DF.html</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>※ 引述《saxpiano (口罩戴到長蛆)》之銘言: 真是奇怪了，板上一群之前嗆不要挑釁中國的人: 現在去美國沒有被接見: 又開始有意見: 所以這一群低能兒到底腦子裝了多少屎: 還是都死了？綠狗群不是一直都在，你大概色盲看不到吧？你只要發一篇台灣要正名，下面推文說：現在太危險，不要挑釁中國，下星期五再說，那些人就是了。</t>
+          <t>美方履履把台海情勢升溫 使兩岸陷入對立局面 習近平也不得不進一步施壓台灣 此次參訪中國 馬英九以幽默詼諧的方式講述兩岸和平的理念 並宣揚中華民國 台灣總統的存在事實中方也樂見和平 避免陷入美方逼戰陷阱 習近平也樂見馬英九當和事佬國際上欠一座諾貝爾和平獎給馬英九</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[討論] 演講能取消 出兵協防更能夠食言吧？</t>
+          <t>[黑特] 綠粉靈壓又消失了?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061425.A.DD3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062974.A.98E.html</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>不過就是個演講大不了事先審核講稿照劇本演出這樣都能出爾反爾那將來說要出兵協防台灣不夠更容易食言了？</t>
+          <t>看新聞說我們馬小九跑去中國說我是台灣總統敢這樣說的真的前無古人後無來者之前罵馬小九賣台狗的綠畜都惦惦了整天還抗中飽台 結果沒一個綠的政治人物敢去中國這樣講回頭看看蔡英文在米國的簡報被爸爸取消真的高下立判左看右看綠粉靈壓又消失了幹 太弱了吧不是說要拚2024?加油好嗎</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[討論] 英九，我的超人</t>
+          <t>[討論] 美國是不是在畫大陸台灣三角形？</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061650.A.89F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063037.A.268.html</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>我實在很難想像，馬英九怎麼說的出口，前總統以及中華民國這兩個詞的，在中國，類似的話是大忌，也是一種默契，特別在正式場合，根本不可能會提到。我去過上海兩次，公開的展覽，那種環境壓力會壓著你講不出口，認真說，馬英九真的不是軟腳蝦美國已經在發力了，這些事情都不是巧合，包括疑美論、馬英九、蔡英文、郭柯，之後政壇有趣了，2024民進黨已經出局</t>
+          <t>如題本來要開說明會，結果最後一刻喊咖是不是發現現在全台灣目光只在狒狒跟馬前總統身上反而一個即將卸任的蔡草包一點都不重要了加上大陸終究是全世界最大生產製造基地美國為了降通膨一定要好好跟大陸交往不能刺激大陸而且大陸也有最多的人口，最大的市場愛瘋賣的業績還靠大陸現在美國是不是在畫大陸台灣三角形有掛嗎？</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[討論] 到底什麼時候買得到蛋？</t>
+          <t>Re: [新聞] R: 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061860.A.47E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063138.A.A4B.html</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>難道真的要跟沒事做的老人一樣一大早天剛亮就去蛋行排隊？這不是缺蛋 、什麼才是缺蛋？陳吉仲我知道農委會主委不好當但沒能力請自行離開換有能力的去做好嗎？</t>
+          <t xml:space="preserve">美方刻意低調 其實這是好事表示美中對抗和緩 兩方都各退一步台灣沒有必要成為美中角力的主戰場EE過去一直拉美抗中其實是把呆完變成烏克蘭玩弄主權爭議獲取國內的政治利益非常不智在美國阿爸沒有明顯表態之前台灣不要一頭熱冥進洞最可惡的就是利用台灣人希望成為國家的缺憾來謀取自己的利益只會搞事不會做事※ 引述《kaminari22tw (拳擊袋鼠能暴漲數十倍的)》之銘言：: 氣氛微妙 美臨時喊停蔡總統過境簡報: 2023-03-29: 聯合報 記者張文馨／華盛頓即時報導: https://i.imgur.com/LHtMJSw.jpg: </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[討論] 台灣誰能繼承馬英九路線?</t>
+          <t>[黑特] 我們最擔心的是馬製造和平的希望</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061861.A.3B2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063175.A.867.html</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>在中國受禮遇在美國受禮遇幾乎沒有斷交國在中國可以嗆中國在美國也可以嗆美國這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?</t>
+          <t>因為烏克蘭戰爭台海發生戰爭的機率無限提高就跟福島核災發生後台灣核災發生機率無限提高一樣台灣現在最重要的任務就是備戰千萬不要以為馬囧訪中講出中華民國卻沒有當場被打死就代表中共不會打過來了絕對不可以覺得投給國民黨就會和平中共積極備戰就是要打台灣帶來戰爭而只有投給民進黨台灣才能夠真正備戰唯有備戰才能帶來和平</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Re: [討論] 中華民國到底是不是中國？</t>
+          <t>[討論] 三民政論今晚要怎麼幫蔡英文開脫？</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061878.A.C7A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063287.A.A4C.html</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>※ 引述《kauosong (如何一少年，匆匆已白頭)》之銘言：: 中華民國 一直都是唯一的中國合法政府你當然可以繼續這樣認定，我們只是當年內戰戰敗，暫時等待時機反攻大陸，解救被蘇維埃荼毒的大陸同胞，等待時機匡復中原。這條線是你祖父幫你選的，你也可以繼續幫你沒出生的兒子孫子選這條路，這叫祖父學。當然他們當年跑來台灣，比留在新中國會受到的對待，好上千萬倍了。: 而且這部憲法也是在1947年由各省各區推選國大制定的現在是人大: 就算1949年後政府來台: 各位比較年輕: 當時是中華民國打壓對岸整整30年: 那時候局勢是相反中華民國的人，只是在政: 我們是常任理事國 當時中共只能找非洲跟中南美的小朋友自組 「第三世界」: 反正就是十年河東 十年河西: 知道這段歷史就能知道 中華民國代表中國一點也不奇怪。內戰並沒有結束，對方就是要消滅中華民國，邏輯上，中華民國要繼續生存，應該整軍經武，反攻大陸。這不是做不到，將國防預算加到GDP的80%，在海空決戰中殲滅解放軍，一路北伐，逼北京簽訂城下之盟，並且肅清認同蘇維埃的共黨餘孽。中華民國就可以重返首都南京。</t>
+          <t>三民政論這次沒法大肆痛批馬英九舔共結果今天又囧了蔡英文身為總統 美國要啥都配合 萊豬吃了軍火買了能舔的都舔了結果白宮沒安排官員接見蔡英文 真的超級可悲但黨媒總有辦法能粉飾太平 好好的捧高蔡總統那麼今晚三民政論要怎麼幫蔡英文開脫呢？</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Re: [新聞] 顏寬恒投入立委選戰　遭檢調搜索偵訊！</t>
+          <t>[新聞] 羅志明共諜案延燒48退將</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061980.A.4EE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063393.A.E98.html</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>※ 引述《slimak (shady)》之銘言：: 顏寬恒投入立委選戰　遭檢調搜索偵訊！夫妻1000萬、500萬交保:  2023/03/29 09:41: 【記者王煌忠／台中報導】前立委顏寬恒去年投入台中第二選區立委補選，爆出沙鹿豪宅違: 建爭議而敗選，上週顏寬恒才領表登記宣布投入下屆立委選戰，台中地檢署就接獲檢舉，直: 指顏氏夫妻涉嫌竊占、偽造文書，昨天（28日）前往顏家搜索，並帶走顏寬恒及妻子陳麗凌: ，訊後分別諭知1000萬、500萬交保候傳。: 台中地檢署表示，偵辦顏姓被告涉嫌竊佔、偽造文書等罪嫌案件，經指揮本署重案支援中心: 、調查局中機站、航調處，執行搜索、傳訊，經檢察官訊後，分別諭知顏姓被告、其配偶陳: 姓被告新臺幣1000萬元、500萬元交保候傳。: https://reurl.cc/n7lkL2: 看來國家機器動得很厲害: 綠畜又在噁心別人了: 看到馬英九讓綠畜生氣 就知道是打到痛點: 幹你媽塔綠班分別是1000萬和500萬!然後我們看台南巿的情況好了!李全教當年疑似賄選案!2015年4月2日，臺南地檢署偵查終結，檢方認定李全教等8人違反選罷法，提起公訴。全案移審後，臺南地方法院裁定李全教以新臺幣1,500萬元交保，限制住居並限制出境、出海。然後我們看邱莉莉和林志展的議長賄選案!邱莉莉150萬林志展120萬https://news.ltn.com.tw/news/society/breakingnews/4203300然後偵辦的檢察長就自請退休了。各位快加入民進黨吧!反正有黨證，也許真的犯上事之後，交保金也比較少一些。至少比其它黨派便宜多了，對了，記得找台南地院丫!</t>
+          <t>1.新聞網址︰https://reurl.cc/gZrk9Q※ 網址超過一行 請縮網址 ※2.新聞來源︰鏡週刊3.完整新聞標題【48退將捲共諜】點名吸收呂秀蓮　羅志明共諜案延燒48退將※ 請完整轉載標題 請勿修改與編排 ※4.完整新聞內容︰台聯前立委羅志明涉在台發展共諜組織遭起訴，從而揭露中共對台滲透升級與更多不同的手法！檢調查出對岸曾企圖透過羅志明，慫恿前副總統呂秀蓮赴中，以及引介曾任國防部次長、副參謀總長、陸軍司令、大直衡山指揮所主任等48名高階退役將領，至湖北或廣東珠海等地參加球敘聯誼等活動，並穿插祭祖及參拜炎黃二帝，藉此大肆宣傳黃埔精神、促進祖國統一及一國兩制，有系統地對我方退將進行統戰滲透。知情人士告訴本刊，對岸透過廣東太普樂生技董事長李鷹，暗中滲透我軍退將至少已經10年，表面上李鷹是位商人，他的父親是中共退役空軍將領，李鷹更是中共情治系統人員，長期循著羅志明這條管道，煽動我方中將以上14人、少將30人、上校3人、中校1人，至少共48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月，也就是馬英九第二任總統期間。中共利用黃埔校友活動搞統戰，讓台籍退將與對岸將官一起在「發揚黃埔精神促進祖國統一」布條上簽名、合影。（翻攝黃埔軍校同學會活動手冊）大批台籍退將受邀赴中，中共卻要求他們在寫有祖國統一字眼的布條上簽名，形同被統戰。（讀者提供）後來蔡英文就任總統，大幅強化國軍的國安意識，退將赴中人數驟減，羅志明這條管道開始失靈，李鷹2016年12月與2018年8月籌劃的退將赴中行程，分別只有3名及5名退將成行，到最後連退役中校都被找來參加，與馬政府時代每次動輒近20名退將出團的「滿天星」陣容相比，簡直如天壤之別。由於邀約退將赴中出現瓶頸，加上羅志明幾乎把能邀的退將都找了，對岸於是決定把滲透的層級拉高，將目標轉向政治人物。檢調監控發現，2020年12月24日，李鷹透過微信向羅志明提及：「我知道呂大姐退休10年了，是可以過來玩的。」雖然對話中並沒有講明「呂大姊」是誰，但羅志明早已知悉李鷹所說的正是前副總統呂秀蓮，因為李對台研析工作做得相當透澈，連2004年扁呂配尋求連任正副總統過程一波三折，羅志明以台聯立委身分力挺呂秀蓮的往事都瞭若指掌，於是想如法炮製，透過羅找呂秀蓮赴中，並且言明只要呂大姐點頭同意，即可包裝各種理由安排中國之旅。檢調掌握這段對話過程，偵訊時問羅志明，呂大姐指的是誰？羅始終不願說明，不過，在回覆李鷹的催促時，羅志明說：「不行，她仍有國安人員保護中。」專案小組於是挑明訊問，有國安人員保護的呂姓女子，符合條件的僅有呂秀蓮一人，至此，羅眼見紙包不住火，才坦承2人對話中提及的呂大姐，確實是呂秀蓮沒錯。由於呂曾任兩屆副總統，任職期間接觸許多國家機密，李鷹希望透過羅志明邀她前往中國訪問，但羅認為呂仍有國安人員保護，吸收成功的機率太低，李鷹知道難處後隨即回覆：「收到，明白了。」才使對岸企圖滲透呂秀蓮的目的未能得逞。5.附註、心得、想法︰在野時：軍購預算擋了五十幾次，這樣夠不夠強悍？ -任職時：弱化國軍，重大軍購毫無建樹，兩岸軍力急劇失衡；退將上行下效集體赴中接受招待，連橫山指揮所主任都被滲透退休時：首戰及終戰；美軍不可能援台…實質弱台第一人，板上還能吹？※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[討論] 猴導為何自認為比郭董行?</t>
+          <t>[討論] 為什麼會有第二三島鏈呀？</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062085.A.1EF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063414.A.538.html</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>猴導也知道郭董想選但是猴導為何覺得自己比郭董還行?到底是立基於什麼基礎之上讓猴導自我膨脹?難道只是因為民調?那把張育成 王建民 證嚴法師一起比猴導 還會贏嗎?猴導覺得自己比郭董還有能力嗎? 你信嗎?</t>
+          <t>台灣人愛台灣土生土長的本土台灣人說土生土長的本土台灣話台灣在重要性的關鍵位置身於第一島鏈中心處美國必定保護那為什麼會有第二三島鏈咧？是不是說美軍考慮會打敗時要拋棄第一島鏈退守二三島鏈咧？</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[討論] 哪裡登記團購買菸？</t>
+          <t>[討論] 蔡英文過境美國沒人接待，會超買香煙嗎</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062145.A.A67.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063467.A.F4D.html</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>是這樣的我們小菸菸的菸超買團又要再次出團不知道要去哪裡登記我也要訂個幾箱回來現在還來得及嗎？超買應該不會怎樣吧？</t>
+          <t>如題這次民進黨的國際談判專家蔡英文在進口美豬內臟後和送走台積電後敲鑼打鼓的向死忠仔高調宣傳過境美國結果沒有美國官員要接待她只能在飛機上氣噗噗的吃法國菜在吃大餐和品嚐高級紅酒的閒暇之餘是不是要買一些便宜的免稅外國煙反正飛機上空位很多國際談判高手小英沒有官員要接待https://i.imgur.com/1cwUjRf.jpghttps://i.imgur.com/34N84ly.jpg法學+貿易的自稱1.5博士蔡英文說走私叫做超買https://i.imgur.com/WzIyKi3.jpghttps://i.imgur.com/0YVWV7Q.jpg</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Re: [討論] 台灣誰能繼承馬英九路線?</t>
+          <t>Re: [討論] 大家都是中國人</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062238.A.658.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063517.A.404.html</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>※ 引述《Borges (波波波波)》之銘言：: 在中國受禮遇: 在美國受禮遇: 幾乎沒有斷交國: 在中國可以嗆中國: 在美國也可以嗆美國: 這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?: 台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?誰都可以喔只要認同自己是中國人 都能有上述待遇中國覺得你能利用 對你寬容 也不搶你邦交 也同意你嗆他美國對多數國家都是禮遇的 也能接受你嗆他所以 馬英狗認同自己是中國人就可以受到這種待遇</t>
+          <t xml:space="preserve">其實中國人還是台灣人本56都沒啥意見啦如果是中國人那麼我大中華民國自推翻滿清一直以來都是華夏正統現雖然共匪竊據大陸但有朝一日一定會反攻大陸 收復河山如果是台灣人那麼請先把中華民國推翻掉不要去當三小中華民國官員總統就算不用軍事政變至少憲法也正名台灣憲法現在的問題是你用中華民國用的不亦樂乎當中華民國的官員拿中華民國的護照然後造中華民國的反畢竟台獨這件事情在中華民國體系下就是叛亂割據絕對是叛國罪死刑的一邊說台獨一邊榨取中華民國國民的稅收對外說是台灣自慰改了封面但是真正的護照內頁還是中華民國護照對內說中華民國就是台灣但憲法明明就說要統一中國哪有台灣中國一邊一國整套說法看下來根本整個精神錯亂....可悲的是台灣人一樣是習以為常整個問題說到底就是國家認同問題你要奪權 要打破黨國一家明明就有很多方法可以做選擇了用分裂國家認同的方式結果智障選民居然還接受這種模式美國民主黨共和黨打的不亦樂乎但就算再激烈有哪一個黨敢跳出來直接用分裂美國的方式拿選票絕對被美國人幹爆即便多數美國人腦袋都不太好用只能說啦有些東西是不能妥協的台灣玩政治的人很聰明但如果國家認同都能妥協掉連到底效忠誰都不知道政治的基本底線都沒有就不用談忠誠還是團結那真的到了戰爭或是國難當頭的時候民眾也絕對是一盤散沙※ 引述《jfw616 (jj)》之銘言：: 馬去大陸喊出了中華民國: 現在大家開始正視自己國家是中華民國: 我覺得是不是從現在開始: 大家也要開始喊我是中國人？: 畢竟我們的國家是中華民國: 我們就是中國人: 台灣,台灣人會讓人家誤會: 外國人不知道你的台灣,台灣人是指國家: 還是地區: 就像大家覺得喊中國人: 人家不知道你講的是哪個中國: 所以到底台灣人,台灣是台獨: 還是地區？: 我相信大部分人只是認同台灣是地區,: 不想跟民進黨隨風起舞: 當然: 如果覺得中國人目前難改: 我的建議是中國台灣人: 這樣慢慢改變: 感謝馬前總統起了個頭: 讓大家開始正視中華民國: ※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※: ※ 發文 內文請滿40字 ※: </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Re: [新聞] 「台南人！不要互相傷害了」</t>
+          <t>Re: [討論] 三民政論今晚要怎麼幫蔡英文開脫？</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062317.A.F95.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063528.A.23A.html</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>對啊高雄和台南都一樣大家都是喝著死豬水準備要吃萊豬內臟的好夥伴不要再互相傷害了好嗎？https://i.imgur.com/8sxjHOU.jpghttps://i.imgur.com/VdZIopo.jpg台中人要道歉高雄人要道歉台南人什麼時候要道歉呢？</t>
+          <t>※ 引述《coeXist (蔓)》之銘言：: 三民政論這次沒法大肆痛批馬英九舔共: 結果今天又囧了: 蔡英文身為總統 美國要啥都配合 萊豬吃了軍火買了能舔的都舔了: 結果白宮沒安排官員接見蔡英文 真的超級可悲: 但黨媒總有辦法能粉飾太平 好好的捧高蔡總統: 那麼今晚三民政論要怎麼幫蔡英文開脫呢？ 說到這個 我剛剛跟深.淺綠同事對話 我說馬英九這次出行佳芬了吧 同事說 中國用中巴 派出地方官員 就是修乳台灣 我說 但是蔡英文過境美國也沒有中央官員要出來迎接耶 同事說 那妳可以罵 我沒說你不能罵 我說所以你覺得有羞辱台灣嗎 同事:...... 然後轉頭繼續說 用中巴就是羞辱台灣</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[討論] 現在回想黃國昌打私菸很惡毒吧？</t>
+          <t>[討論] 兩岸打不起來美國跟舔美狗會更激烈動作嗎</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062389.A.DDC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063601.A.EB7.html</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>蔡英文上次出訪是2019年7月過境美國紐約、丹佛外交成果不能說不好但那時黃國昌把私菸案往死裡打那時韓導的聲勢還在高峰黃國昌其心可議吧？黃國昌寧願看到韓當選嗎？</t>
+          <t>馬英九帶年輕台灣人去交流巡中華民國在大陸的田水，化解蔡政府結合美國境外勢力製造的台海緊張，現在兩岸打不起來美國跟舔美的台獨叛亂集團會不會有更激烈的動作來製造開戰危機※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[討論] 民進黨連台灣這個招牌都被搶走還剩什麼？</t>
+          <t>[黑特] 雞排一片100元</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062396.A.085.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063608.A.F38.html</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>民進黨以為馬英九去中國不敢講中華民國，台灣，沒想到馬英九連當台灣總統都講出來了，國民黨很明顯在往中華民國就是台灣這塊靠，把中間選民搶過來再說，民進黨連台灣這塊招牌都快被國民黨搶走了，那民進黨還剩什麼？缺蛋，電價漲，排骨飯破百，雞排80，90，荷包蛋20，25，民進黨做8年了有什麼政績嗎？</t>
+          <t>真的有人會吃嗎https://i.imgur.com/sEP8dvy.jpg應該是不會吧至少我好久沒吃雞排了上次吃好像是派克有人知道派克現在一片多少錢了嗎去年跟今年民生通膨哪個體感比較有感覺阿？我只記得前年12月訂附近便當90 去年2月變110現在變125....</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[討論] 現在的時機點太危險 美國其實在保護台灣</t>
+          <t>Re: [討論] 馬英九這波給國民黨總統候選人加多少分?</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062398.A.95A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063678.A.4C6.html</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>蔡訪美白宮說是私人行程 美官員不會見面但是有沒有見面誰又能知道呢？中國一直在找藉口攻台美國知道台灣國軍根本沒準備好而且武器也還在排訂單階段美國低調處理蔡英文訪美台灣看似屈辱實際上是時機點太危險美國在保護台灣 維持台海穩定只可惜台灣聰明的人太少被認知作戰的人太多看破不說破 懂的人就懂最後謝謝美國謝謝你們一直保護台灣</t>
+          <t>至少他敢去敢去中國大陸談中華民國談自己曾經身為中華民國總統的過往敢在中國領土上激怒小粉紅請問笑他的那些綠營政客哪個敢我看國民黨既然推不出人不然推老馬再戰算了至少有guts</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[討論] 昨天政論節目都怎麼討論馬英九</t>
+          <t>[討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062434.A.96A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063716.A.9B6.html</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>昨天大概看了面對面跟凝觀的節目大多都說馬英九過去跪 接機規格矮化然後不敢中華民國什麼的最屌的大概是苗苗說狒狒新聞點比較高大家看昨天的節目都看到什麼了</t>
+          <t>根據東森最新的民調若派徐巧芯參戰2022藍綠五五波的北投士林https://i.imgur.com/4PbdY4v.jpg自詡空戰天后的徐巧芯民調完全不敵吳思瑤https://i.imgur.com/b9EL0iA.jpg反觀謝龍介都還比較有實力選立委https://i.imgur.com/nnNoucS.jpg我是比較驚訝吳思瑤這麼邊緣徐巧芯還輸她一截難怪徐巧芯不敢離開松信區因為實力真的不足....只能對費鴻泰多年經營的票源流口水https://i.imgur.com/f2PHhKe.jpg</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[討論] 馬英九會為了中華民國不惜粉身碎骨嗎</t>
+          <t>[討論] 急！66歲女孩兒疑似被美國律師騙了怎麼辦</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062532.A.143.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063821.A.375.html</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>馬英九近來聲勢大增威風八面直接在中國高呼中華民國相信除了部分偏激綠粉大多數的人都對他目前的表現算是滿意那麼馬英九有沒有機會不惜為了中華民國粉身碎骨再度出來參選從馬前總統恢復到馬總統有無相關八卦</t>
+          <t>是這樣的常常聽說有人打著美國軍官的名號來詐騙最近聽到有一位66歲的女孩兒跨國結交了一位80歲美國律師最近去他家好像沒很被歡迎人都沒見過就算了可能還準備要匯一堆錢過去該怎麼辦有無八卦</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[討論] 浮屍都抓不到?</t>
+          <t>[黑特] 看到總統被美國羞辱。很難過。</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062777.A.D0A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063894.A.5A4.html</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>太扯了吧 看到新聞說外海找到八具浮屍黑道越來越大膽了從原本只是丟愛河 現在一次丟整批的浮屍真的抓不到嗎?總會有能辨認身份，能調到監視器的吧還是通通都自殺結案啊現在殺人很容易 連挖洞埋都不用直接丟水裡就好嗎?</t>
+          <t>我是認真的一個美國國務次卿。說穿了就一個副部長要向我國總統簡報資料可以在30分鐘前通知會議取消有沒有把我們總統當一回事？看沒有！我是真的難過。我不想批評總統因為欺負她等於欺負全中華民國外交部你在幹嘛？出了斷交外 你還會什麼？</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[討論] 狒狒死了有人鞠躬，台灣中南部浮屍有人鞠躬嗎</t>
+          <t>[討論] 鏡週刊爆料的48退將共諜案</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062814.A.76D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680063932.A.2DE.html</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>台灣中南部浮屍8具。一個狒狒吵三天，這8具屍體應該吵幾天，什麽新聞規格呢？什麽級別的人去鞠躬呢有請政黑狒本塔綠班開示。</t>
+          <t>如題關鍵字都有了就不貼新聞了我怎麼覺得這事情的層級還蠻高的最近一年多來的共諜案感覺特別的多應該也是美中角力的一環吧都說美中雙方未來幾年即將開戰那開戰前當然是清查內鬼就算你明明什麼都沒做但只要是有嫌疑就列入名單一起查一下算是廣義的麥卡錫主義吧？新聞還連同呂秀蓮也點名在其中了雖然是註明吸收失敗但當事人勢必要費一番心力澄清吧（難道要承認嗎？）大家怎麼看？我怎麼覺得there is a storm coming了</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[黑特] 吹噓台美關係的綠粉 都躲起來了</t>
+          <t>[新聞] 普悠瑪超速出軌釀18死 司機員尤振仲再判</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062882.A.F8B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064043.A.DAB.html</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>塔綠班跪美黨整天跪舔美帝國主義專程去美國對曾經侵略中華民族的白人殖民者下跪結果人家白人根本不領情美國對台灣 還處處設限 肆意打壓訪問層級也是被美國一降再降這時候整天吹噓壯膽  說美台關係好說美軍會來的 塔綠班發現自己被美帝國主義瘋狂打臉現在都躲起來了</t>
+          <t>1.新聞網址︰https://udn.com/news/story/7321/70637282.新聞來源︰聯合3.完整新聞標題普悠瑪超速出軌釀18死 司機員尤振仲再判撤職停止任用4年4.完整新聞內容︰台鐵普悠瑪列車5年前在宜蘭出軌，釀18死116輕重傷，法院認為司機員尤振仲關閉自動防護系統、超速達140公里，是全案肇事主因，依過失致死罪判刑4年6月定讞；另外，懲戒法院也判尤振仲撤職，停止任用4年，可上訴。2018年10月21日，普悠瑪列車在宜蘭縣蘇澳新馬車站出軌翻覆，法院認為，尤振仲因 ATP故障，誤判列車動力已切斷，擅自關閉 ATP卻未依規定重啟，又超速75公里，以約140公里高速駛入車站大彎道路段，是造成列車出軌翻覆主因，最高法院本月初判決4年6月定讞。交通部事後將尤振仲移送懲戒，尤振仲辯稱他在事故中已盡力尋求支援協助，排除列車故障，他沒有超速駕駛，仍不幸發生憾事，難認有違失，但懲戒法院認為尤經最高法院判決確定，且有交通部提出的調查報告佐證，認為尤違失事證明確，說法不足採信。懲戒法院指出，尤振仲除違反刑罰法律外，也有違公務員服務法規定「公務員應謹慎」、「公務員執行職務，應力求切實」的意旨，屬於公務員懲戒法所規定的執行職務違法失職行為，且他的違失導致重大傷亡，造成公眾喪失對相關職位的尊重與執行職務的信賴，嚴重損害政府信譽，為維持公務紀律，認為有懲戒的必要。懲戒法院審酌尤振仲是鐵路列車駕駛員，應深刻體認自己職務掌握搭乘列車乘客的生命、身體安全，稍有不慎，即會影響大眾交通安全，但他2017年12月間，曾因施用安非他命，被檢察官處分緩起訴，公務員懲戒委員會也已判決記過懲戒，可見他對自身職務體認不足。懲戒法院指出，台鐵1999年間耗費鉅資建置ATP系統，目的是為了防杜司機員的恣意，避免危害乘客生命、身體安全，且改善行車安全也有賴現代自動系統的輔助，才能全面防護而無缺失，尤振仲2014年10月起擔任司機員，也受過ATP系統教育訓練，應知悉ATP系統的重要性，卻因誤判車輛故障原因，關閉ATP系統，又未依規定重啟，造成ATP系統沒有作用。判決認為，依速限駕駛是一般人應遵守的常識，尤振仲駕駛火車，承載眾多乘客，加上本案列車為傾斜式列車，更應注意車速，卻在肇事地點彎道前以遠超過速限75公里的140公里高速行駛，造成18人死亡的重大交通事件，過失重大，又尤振仲肇事後，本身也受傷，並曾向死者及遺族致哀、道歉，但訴訟上否認違失，考量一切情狀，判決撤職並停止任用4年。5.附註、心得、想法︰可憐基層被高層凹 到扛罪法官只能看證據判也沒辦法昨日尤仲振 今日獵人可憐阿 當官的 聯合網軍媒體 想盡辦法打壓出賣勞力的獵人</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[黑特] 獅子丸：Ptt的藍粉見識淺薄</t>
+          <t>Re: [討論] 悲報！不敵民進黨 徐巧芯民調慘敗</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059647.A.C82.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680064059.A.2A6.html</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>「千萬不要學Ptt上的人 說什被馬英九圈粉了」「說什麼 馬英九在大陸講了中華民國 講了前總統 令人非常尊敬」「覺得是很大的突破 在那邊嗨 這會讓大陸看笑話 就其器之小哉了」「要很淡定 很自然 那不然呢？」「這根本沒什麼 因為建國有先後 是平起平坐的 平等的 」「中華民國現在在台灣 可是當年建國在大陸」</t>
+          <t>說真的 我是真的為這些綠綠 和深綠費粉感到可悲不只大腦有毛病 連眼睛都有問題這民調是900芯直接空降到別的選區去比然後她比的還是綠營在地立委吳思瑤然後還能只差4% 這很厲害好嗎甚至有點太吹捧900芯了結果發這文的 不知道是腦殘還是眼殘 還是都有竟然看不懂 真的是可憐阿</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">[新聞] 川普受訪稱 能在一天內結束烏克蘭戰爭 </t>
+          <t>[轉錄] 觀察者網：馬英九是什麼人？</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059753.A.F8F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061389.A.B12.html</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230328006075-260408?chdtv2.新聞來源︰ 中時新聞網3.完整新聞標題川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播4.完整新聞內容︰川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播22:43 2023/03/28 中時新聞網 江飛宇美國前總統川普(Donald Trump)在接受福斯電視專訪時，聲稱他可以主導和平談判，並在「24 小時內解決烏克蘭戰爭」，但他拒絕透露具體方法。然而，他可能並非賣關子，而是電視把那一段給刪除了。紐約郵報(NY Port)報導，川普接受福斯新聞主持人漢尼提(Sean Hannity)的採訪提到，如果贏得2024 年總統大選，並且那時候俄烏戰爭還沒有結束，那麼他會主導雙方談判，並在一天之內達成和平協議。公開的1分鐘節目短影片稱，「他本人與烏克蘭總統澤倫斯基，和俄羅斯總統普丁都有認識，所以談判很容易。」「如果戰爭沒有結束，我會在 24 小時內，與澤倫斯基和普丁一起解決，談判很容易進行，但我不能告訴你我會怎麼做，那樣我就無法談判。」川普多次聲稱，他與普丁相處得很好，如果是他在2020年連任，俄羅斯就不會入侵烏克蘭。然而，野獸時報(the daily beast)則披露，川普所說的方式，就是「讓俄羅斯接管烏克蘭的部分地區」，那些主要說俄語的地區。川普在說到如何談判，之後補充說：「在最壞的情況下，我本可以做成一些協議來讓俄國接管一些地方。坦率地說，有些地區本來就是俄語區，但那些地方可以成為停戰協議。」在節目錄製後，漢尼提播出了川普提到「自己本可以停止戰爭」的片段，但奇怪是，省略了川普透露的部分計劃。那一部分出現剪接，在川普說「我本可以主持談判」後，跳過了大約 30 秒的內，然後又回到川普抱怨「中國不再尊重美國」的地方。商業內幕(Insider)詢問福斯，福斯指出，川普的評論是22 分鐘採訪的一部分，該採訪被剪輯成 2 分鐘的片段，內容會有所取捨。5.附註、心得、想法︰有這麼容易嗎？就算不用當美國總統還是可以斡旋談判吧川普怎不當個最強的斡旋談判者，還有機會拿諾貝爾和平獎</t>
+          <t>1.轉錄網址︰https://reurl.cc/mlkWYV2.轉錄來源︰觀察者網(中媒)戴雨潇(自由撰稿人)3.轉錄內容︰講十件馬英九的往事：❶ 70年代馬英九在國民D中山獎學金的資助下赴美留學，在美期間多次於國民D海工會的刊物《波士頓通訊》上撰文批判中G、海外左派和台毒分子，引起了國民D高層的注意。1981年馬英九返台後即擔任小蔣的翻譯。https://i.imgur.com/3lejCN9.png❷ 1993年連戰出任「行政院院長」，邀馬英九擔任「法務部部長」，幾年後馬轉任「行政院政務委員」。1997年轟動全台的惡性治安事件白曉燕命案發生。就在連戰「內閣」焦頭爛額之際，馬英九不僅沒有與提攜自己的恩人共患難，反而在連戰毫不知情的情況下自行對外宣佈辭任「政務委員」，在上司背後插了一刀。幾個月後，連戰「內閣」倒臺。https://i.imgur.com/Fih85SU.png❸ 辭職後馬英九數次承諾不會參選臺北市長，卻在第二年就食言參加了臺北市長候選人的D內初選並獲得提名。參選後馬英九遲遲未得到時任國民D主席和呆丸地區領導人李登H的支持。直到1998年11月，在選舉投票前一周，李登H突然現身和馬英九同台，並當眾用閩南話質問他：「馬英九先生，告訴我你是哪裡人啊？」面對李登H這一表忠心的問題，在巷岡出生的馬英九自然不會說他是「中國人」，而是毫不猶豫地用他蹩腳的閩南話回答：「報告XX，我是呆丸人啦。我是吃呆丸米、喝呆丸水的新呆丸人啦！」於是李登H拉起馬英九的手，讓大家把票投給他。「台毒教父」的首肯為馬英九贏得了不少本土選票。最終他以5%的票數差距戰勝了當時聲勢正盛的陳氵扁，成功當選臺北市長。https://i.imgur.com/9epLj7F.png一年多後，國民D的連蕭配在呆丸地區領導人選舉中敗給了陳氵扁，李登H被質疑「棄連保扁」，上萬國民D支持者聚集在國民D總部前抗議。此時馬英九察覺到藍營內部的政治風向變化，於是立刻公開「逼宮」要求李辭任D主席，馬李二人遂反目成仇。❹ 2005年7月，馬英九擊敗王金平當選國民D主席。隨後的幾個月時間裡，陳氵扁當局的高捷泰勞弊案和國務機要費案陸續爆發，陳氵扁的女婿趙健銘被檢舉內幕交易、妻子吳淑珍也深陷受賄醜聞。到了2006年8月，前民進D主席施明德更是發起了轟轟烈烈的「百萬人民反貪倒扁運動」。此時的馬英九口頭上也稱自己支持倒扁，但並未帶領國民D做出任何實際行動。他</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
+          <t>Re: [討論] 之前嗆不要挑釁中國的人都死了嗎？</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059809.A.B40.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061403.A.97A.html</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>氣氛微妙 美臨時喊停蔡總統過境簡報2023-03-29聯合報 記者張文馨／華盛頓即時報導https://i.imgur.com/LHtMJSw.jpg蔡英文總統準備出訪中美洲並過境美國，就在出發前夕，美國國務院亞太助卿康達臨時延後針對蔡過境的簡報；白宮國安會重申，蔡過境美國並不罕見，這是非官方的過境，此外，美國官員沒有計畫要與蔡碰面。國務卿布林肯（Antony Blinken）28日會晤巴拉圭外長，稱民主國家需要團結一致對抗人權和自由的壓迫者；國務院表示，對於巴拉圭對台灣有原則的承諾，巴拉圭在多邊論壇針對中俄等諸多棘手議題的表態，以及兩國在聯合國人權理事會的優先議題的主張，布林肯表達感謝。在宏都拉斯與中華民國斷交後，外界憂心下一個可能生變的邦交國就是巴拉圭。華府外籍記者俱樂部27日發布簡報會通知，載明主題為「台灣總統過境美國」，簡報人為負責美中台事務的亞太助卿康達（Daniel Kritenbrink）。不過就在簡報舉行前半小時，外籍記者俱樂部分別通知「延期」與「取消」，並說會在準備好的時候宣布新的簡報日期與時間。這可能是中華民國總統在兩國斷交後的歷次過境以來，首次有美國國務院資深官員為過境特別舉行簡報會，最後一刻喊停，備受關注；國務院和外籍記者俱樂部並未說明原因。國務院拒絕評論這項行程變動的原因與安排。白宮和國務院發言人近日分別就蔡總統過境表示，這符合美國長期以來的做法和不變的「一個中國」政策，過境待遇出於對乘客的安全、舒適、便利與尊嚴考量進行。白宮國安會戰略溝通協調官柯比（John Kirby）上周表示，台灣總統過境美國行之有年，北京沒有理由反應過度。媒體詢問美國官員是否會趁著蔡過境時會晤或打電話，柯比28日說，美國政府官員沒有計畫要和她碰面。https://udn.com/news/amp/story/6656/7063382</t>
+          <t>※ 引述《saxpiano (口罩戴到長蛆)》之銘言: 真是奇怪了，板上一群之前嗆不要挑釁中國的人: 現在去美國沒有被接見: 又開始有意見: 所以這一群低能兒到底腦子裝了多少屎: 還是都死了？綠狗群不是一直都在，你大概色盲看不到吧？你只要發一篇台灣要正名，下面推文說：現在太危險，不要挑釁中國，下星期五再說，那些人就是了。</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[討論] 之前嗆不要挑釁中國的人都死了嗎？</t>
+          <t>[討論] 演講能取消 出兵協防更能夠食言吧？</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059810.A.82D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061425.A.DD3.html</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>真是奇怪了，板上一群之前嗆不要挑釁中國的人現在去美國沒有被接見又開始有意見所以這一群低能兒到底腦子裝了多少屎還是都死了？</t>
+          <t>不過就是個演講大不了事先審核講稿照劇本演出這樣都能出爾反爾那將來說要出兵協防台灣不夠更容易食言了？</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[討論] 美國官員不見蔡英文是因為給的東西太多</t>
+          <t>[討論] 英九，我的超人</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060102.A.F1B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061650.A.89F.html</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>是這樣的新聞說美國官員不見蔡英文引來大家熱議難道只有我覺得可能是因為給的東西太多不好搬上檯面吧怕太刺激中共情緒台灣暗地裡發大財也是好事吧有無相關八卦</t>
+          <t>我實在很難想像，馬英九怎麼說的出口，前總統以及中華民國這兩個詞的，在中國，類似的話是大忌，也是一種默契，特別在正式場合，根本不可能會提到。我去過上海兩次，公開的展覽，那種環境壓力會壓著你講不出口，認真說，馬英九真的不是軟腳蝦美國已經在發力了，這些事情都不是巧合，包括疑美論、馬英九、蔡英文、郭柯，之後政壇有趣了，2024民進黨已經出局</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[討論] 雙英出國 誰勝？</t>
+          <t>[討論] 到底什麼時候買得到蛋？</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060111.A.1CF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061860.A.47E.html</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>一個男英去中國當「臭要飯」的一個女英也要去美國當「臭乞丐」兩個人在中美亂竄 規格？一樣半斤八兩的低級那是誰勝？當然是菜陰魂阿怎說？回台時可以「超買」香菸阿不然老馬哥是能買幾百幾千條阿</t>
+          <t>難道真的要跟沒事做的老人一樣一大早天剛亮就去蛋行排隊？這不是缺蛋 、什麼才是缺蛋？陳吉仲我知道農委會主委不好當但沒能力請自行離開換有能力的去做好嗎？</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[討論] 鄭弘儀會去接機嗎</t>
+          <t>[討論] 台灣誰能繼承馬英九路線?</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060200.A.A32.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061861.A.3B2.html</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>鄭弘儀之前說身體不好卸下主持棒結果卻馬上就飛去美國找老婆兒子老美對蔡英文過境完全無感沒動作比起馬英九的表現 氣勢弱上不少遠在美國的紅姨會帶著滯美台派鋪紅毯列隊歡迎小英過境嗎？</t>
+          <t>在中國受禮遇在美國受禮遇幾乎沒有斷交國在中國可以嗆中國在美國也可以嗆美國這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文訪美，顧立雄監國，那賴副總統呢</t>
+          <t>Re: [討論] 中華民國到底是不是中國？</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060202.A.823.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061878.A.C7A.html</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>這是趙少康和沈大老很不解的，認為蔡英文破壞行政體制總統蔡英文訪美，國內沒總統，結果是由顧立雄坐鎮國內。可是明明有賴清德副總統，為什麼不是賴清德總統監國坐鎮呢？賀錦麗也曾經代替拜登坐鎮國內當了幾小時的總統塔綠班說說看？https://i.imgur.com/on27Csk.jpg</t>
+          <t>※ 引述《kauosong (如何一少年，匆匆已白頭)》之銘言：: 中華民國 一直都是唯一的中國合法政府你當然可以繼續這樣認定，我們只是當年內戰戰敗，暫時等待時機反攻大陸，解救被蘇維埃荼毒的大陸同胞，等待時機匡復中原。這條線是你祖父幫你選的，你也可以繼續幫你沒出生的兒子孫子選這條路，這叫祖父學。當然他們當年跑來台灣，比留在新中國會受到的對待，好上千萬倍了。: 而且這部憲法也是在1947年由各省各區推選國大制定的現在是人大: 就算1949年後政府來台: 各位比較年輕: 當時是中華民國打壓對岸整整30年: 那時候局勢是相反中華民國的人，只是在政: 我們是常任理事國 當時中共只能找非洲跟中南美的小朋友自組 「第三世界」: 反正就是十年河東 十年河西: 知道這段歷史就能知道 中華民國代表中國一點也不奇怪。內戰並沒有結束，對方就是要消滅中華民國，邏輯上，中華民國要繼續生存，應該整軍經武，反攻大陸。這不是做不到，將國防預算加到GDP的80%，在海空決戰中殲滅解放軍，一路北伐，逼北京簽訂城下之盟，並且肅清認同蘇維埃的共黨餘孽。中華民國就可以重返首都南京。</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Re: [黑特] 獅子丸：Ptt的藍粉見識淺薄</t>
+          <t>Re: [新聞] 顏寬恒投入立委選戰　遭檢調搜索偵訊！</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060223.A.188.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061980.A.4EE.html</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>最殘酷的事實是藍粉的中華民國就是被啊共滅了才會一群人跑來台灣避難獅子丸在那邊氣度也是很好笑打贏仗的對面沒嘲笑你你就真的以為自己才是贏家這什麼鬼東西XDDDDD</t>
+          <t>※ 引述《slimak (shady)》之銘言：: 顏寬恒投入立委選戰　遭檢調搜索偵訊！夫妻1000萬、500萬交保:  2023/03/29 09:41: 【記者王煌忠／台中報導】前立委顏寬恒去年投入台中第二選區立委補選，爆出沙鹿豪宅違: 建爭議而敗選，上週顏寬恒才領表登記宣布投入下屆立委選戰，台中地檢署就接獲檢舉，直: 指顏氏夫妻涉嫌竊占、偽造文書，昨天（28日）前往顏家搜索，並帶走顏寬恒及妻子陳麗凌: ，訊後分別諭知1000萬、500萬交保候傳。: 台中地檢署表示，偵辦顏姓被告涉嫌竊佔、偽造文書等罪嫌案件，經指揮本署重案支援中心: 、調查局中機站、航調處，執行搜索、傳訊，經檢察官訊後，分別諭知顏姓被告、其配偶陳: 姓被告新臺幣1000萬元、500萬元交保候傳。: https://reurl.cc/n7lkL2: 看來國家機器動得很厲害: 綠畜又在噁心別人了: 看到馬英九讓綠畜生氣 就知道是打到痛點: 幹你媽塔綠班分別是1000萬和500萬!然後我們看台南巿的情況好了!李全教當年疑似賄選案!2015年4月2日，臺南地檢署偵查終結，檢方認定李全教等8人違反選罷法，提起公訴。全案移審後，臺南地方法院裁定李全教以新臺幣1,500萬元交保，限制住居並限制出境、出海。然後我們看邱莉莉和林志展的議長賄選案!邱莉莉150萬林志展120萬https://news.ltn.com.tw/news/society/breakingnews/4203300然後偵辦的檢察長就自請退休了。各位快加入民進黨吧!反正有黨證，也許真的犯上事之後，交保金也比較少一些。至少比其它黨派便宜多了，對了，記得找台南地院丫!</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[新聞] 受訪一度哽咽！馬英九重申</t>
+          <t>[討論] 猴導為何自認為比郭董行?</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060252.A.247.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062085.A.1EF.html</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.ettoday.net/news/20230329/2468974.htm2.新聞來源︰ETtoday新聞雲3.完整新聞標題受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人4.完整新聞內容︰前總統馬英九訪問大陸一行，今（29）日上午9點左右參訪侵華日軍南京大屠殺遇難同胞紀念館，他向遇難同胞獻花、獻花籃致祭並鞠躬致哀，隨後進館參觀，結束時將接受兩岸媒體聯訪。馬英九受訪提到兩岸問題時指出，兩岸都應該避戰、去謀和，避免戰爭的發生，一旦發生戰爭，沒有任何東西可以彌補。馬英九接受媒體採訪時表情沉痛，一度說不出話哽咽。他強調，「身為一個中國人，不管在海峽哪一邊」，對於外面的欺凌，要自立自強，所有中國人都應該得到教訓。馬英九也呼籲，保持仁愛的心，不要去侵略別人。侵華日軍南京大屠殺遇難同胞紀念館位於南京市建鄴區水西門大街418號，通稱江東門紀念館，選址於南京大屠殺江東門集體屠殺遺址及遇難者叢葬地，是中國大陸首批國家一級博物館，首批全國愛國主義教育示範基地，全國重點文物保護單位，首批國家級抗戰紀念設施、遺址名錄，也是國際公認的二戰期間三大慘案紀念館之一。5.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+          <t>猴導也知道郭董想選但是猴導為何覺得自己比郭董還行?到底是立基於什麼基礎之上讓猴導自我膨脹?難道只是因為民調?那把張育成 王建民 證嚴法師一起比猴導 還會贏嗎?猴導覺得自己比郭董還有能力嗎? 你信嗎?</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[討論] 等邊三角形劃得最好的是郭董吧？</t>
+          <t>[討論] 哪裡登記團購買菸？</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060347.A.62E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062145.A.A67.html</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>先說，我不是郭粉，我也不看好郭董選總統會上，無論他是哪一黨提名我都不看好。但是「商人無祖國」，哪裡有錢賺就往哪裡走。中國、美國誰都不得罪。就算郭董選上總統，同意美國軍售案，中國也不太會有太強烈的反對。難道會大規模軍演給郭董難看？就算郭董當總統跟中國簽和平協議，我也相信美國最多就是重申不改變兩岸現狀的立場而已。商人本性就是左右逢源。郭董當總統，不會增加國防壓力，外交上對美關係也不會惡化，兩岸關係只會比塔綠班更和諧融洽。國民黨真的確定還要徵召侯友宜這個兩岸跟外交都是門外漢參選總統嗎？</t>
+          <t>是這樣的我們小菸菸的菸超買團又要再次出團不知道要去哪裡登記我也要訂個幾箱回來現在還來得及嗎？超買應該不會怎樣吧？</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[黑特] 塔綠班說不要疑美 結果被美帝重重打臉</t>
+          <t>Re: [討論] 台灣誰能繼承馬英九路線?</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060504.A.858.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062238.A.658.html</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>塔綠班跪美黨專程去美國對白人殖民者下跪結果美帝國主義嘴巴上說的 都很非常好聽什麼台灣是 民主夥伴事實上卻是處處設限肆意刁難台灣這次出訪蔡英文誰都見不到美國還刻意打壓台灣故意降低規格塔綠班說不要疑美自己卻被美國重重的 打了一個大巴掌真是可憐跪美黨跪到被美帝國主義一腳踢開難怪台灣人民不信任塔綠班更不信任美帝國主義</t>
+          <t>※ 引述《Borges (波波波波)》之銘言：: 在中國受禮遇: 在美國受禮遇: 幾乎沒有斷交國: 在中國可以嗆中國: 在美國也可以嗆美國: 這種路線 撇開本人娘了一點之外 應該是最風光的路線了吧?: 台灣有哪個有可能選上總統的政治人物 是馬英九路線的呢?誰都可以喔只要認同自己是中國人 都能有上述待遇中國覺得你能利用 對你寬容 也不搶你邦交 也同意你嗆他美國對多數國家都是禮遇的 也能接受你嗆他所以 馬英狗認同自己是中國人就可以受到這種待遇</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[黑特] 塔綠斑真的是跟共產黨很類似</t>
+          <t>Re: [新聞] 「台南人！不要互相傷害了」</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060707.A.AF9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062317.A.F95.html</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>為什麼塔綠斑就不肯承認自己是共產主義？自從蔡政府掌權之後，所有自由就在不斷限縮，以前說的可以大聲一點、拍桌子都消失了，甚至過去說過謠言也是一種言論自由，結果現在中天新聞也被關台、社維法更是強力發展，甚至還想強硬通過中介法來對網路箝制，其他利用疫情來施展威權政治的行為也不在話下。反觀以前白色恐怖跟戒嚴的KMT，變成可以隨便罵、隨便砸蛋、丟鞋、丟書的總統，甚至各種抗議，佔領立法院都可以被容忍。我發現小粉紅跟塔綠斑都有幾個共通點：1.從不自我檢討，就算我有錯，他們更爛你怎麼不說？2.中心思想都要樹立一個高大的敵人，中共的敵人是美帝、塔綠斑的敵人是老共，自詡為挑戰威權的人，但其實自己也是威權。3.喊著解放與自由起家，一但掌權了就走回老路，不是反對威權，其實只是反對別人的威權，自己可以。以上，有沒有塔綠斑覺得那裡說的不對的，歡迎指正，歷史證明馬英九比蔡英文好不知道幾個次元。</t>
+          <t>對啊高雄和台南都一樣大家都是喝著死豬水準備要吃萊豬內臟的好夥伴不要再互相傷害了好嗎？https://i.imgur.com/8sxjHOU.jpghttps://i.imgur.com/VdZIopo.jpg台中人要道歉高雄人要道歉台南人什麼時候要道歉呢？</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Re: [新聞] 受訪一度哽咽！馬英九重申</t>
+          <t>[討論] 現在回想黃國昌打私菸很惡毒吧？</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060764.A.FA5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062389.A.DDC.html</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>: 受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人: 推 ajemtw: 推，看來對岸也回到和平統一的基調了       125.227.90.115 03/29 11:26哪有那麼快啦普習會剛會完而已習近平講的話也快把大家嚇死了https://www.businesstoday.com.tw/article/category/183027/post/202303210003/普丁習近平會面互相取暖！普丁「有人嫉妒中國」、習「兩國有相似目標」可一起合作實現習近平當著普丁的面當著大家的面對著一個正在打烏克蘭的國家說出 兩國有相似目標這相似目標是甚麼?難道是瘋狂做菜嗎??有這麼和平嗎???所以基本上大家已經快被習近平這番話嚇死了馬英九這幾天動作頻頻直說兩岸都應該避戰蔡英文訪美 美國動作也出來先說沒有安排官員會面想要避免刺激中國都是因為大家發現習近平還真的很想打 不得了了對岸要回到和平統一基調我認為要等習近平下來才有機會台灣換領導人根本沒用要對岸也換才行</t>
+          <t>蔡英文上次出訪是2019年7月過境美國紐約、丹佛外交成果不能說不好但那時黃國昌把私菸案往死裡打那時韓導的聲勢還在高峰黃國昌其心可議吧？黃國昌寧願看到韓當選嗎？</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[討論] 我們跟美國算是一中各表嗎？</t>
+          <t>[討論] 民進黨連台灣這個招牌都被搶走還剩什麼？</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060804.A.BAF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062396.A.085.html</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>美國承認只有一個中國就是中華人民共和國對台主張主權未定，非屬中國台灣承認只有一個中國就是中華民國對台主張主權，屬於中國台美對中國的定義對台灣主權的定義跟我們這麼不同明顯跟我們不是站在一個主權對等的立場為什麼我們可以一方面擱置爭議另一方面作足交流比如：進口萊豬萊牛，晶片供應鏈搬遷至美軍購買好買滿，面試台灣總統候選人等等某政府不是一直說一定要主權對等才能談美國認為台灣主權未定，也是主權對等ㄛ？怎麼回事R？</t>
+          <t>民進黨以為馬英九去中國不敢講中華民國，台灣，沒想到馬英九連當台灣總統都講出來了，國民黨很明顯在往中華民國就是台灣這塊靠，把中間選民搶過來再說，民進黨連台灣這塊招牌都快被國民黨搶走了，那民進黨還剩什麼？缺蛋，電價漲，排骨飯破百，雞排80，90，荷包蛋20，25，民進黨做8年了有什麼政績嗎？</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Re: [新聞] 川普受訪稱 能在一天內結束烏克蘭戰爭 </t>
+          <t>[討論] 現在的時機點太危險 美國其實在保護台灣</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060906.A.BE1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062398.A.95A.html</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>※ 引述《lpbrother (LP哥(LP = Love &amp; Peace))》之銘言：: 1.新聞網址︰: https://www.chinatimes.com/realtimenews/20230328006075-260408?chdtv: 2.新聞來源︰ 中時新聞網: 3.完整新聞標題: 川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播: 4.完整新聞內容︰: 川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播: 22:43 2023/03/28 中時新聞網 江飛宇: 美國前總統川普(Donald Trump)在接受福斯電視專訪時，聲稱他可以主導和平談判，並在: 「24 小時內解決烏克蘭戰爭」，但他拒絕透露具體方法。然而，他可能並非賣關子，而: 是電視把那一段給刪除了。: 紐約郵報(NY Port)報導，川普接受福斯新聞主持人漢尼提(Sean Hannity)的採訪提到，: 如果贏得2024 年總統大選，並且那時候俄烏戰爭還沒有結束，那麼他會主導雙方談判，: 並在一天之內達成和平協議。: 公開的1分鐘節目短影片稱，「他本人與烏克蘭總統澤倫斯基，和俄羅斯總統普丁都有認: 識，所以談判很容易。」: 「如果戰爭沒有結束，我會在 24 小時內，與澤倫斯基和普丁一起解決，談判很容易進行: ，但我不能告訴你我會怎麼做，那樣我就無法談判。」: 川普多次聲稱，他與普丁相處得很好，如果是他在2020年連任，俄羅斯就不會入侵烏克蘭: 。: 然而，野獸時報(the daily beast)則披露，川普所說的方式，就是「讓俄羅斯接管烏克: 蘭的部分地區」，那些主要說俄語的地區。: 川普在說到如何談判，之後補充說：「在最壞的情況下，我本可以做成一些協議來讓俄國: 接管一些地方。坦率地說，有些地區本來就是俄語區，但那些地方可以成為停戰協議。」: 在節目錄製後，漢尼提播出了川普提到「自己本可以停止戰爭」的片段，但奇怪是，省略: 了川普透露的部分計劃。那一部分出現剪接，在川普說「我本可以主持談判」後，跳過了: 大約 30 秒的內，然後又回到川普抱怨「中國不再尊重美國」的地方。: 商業內幕(Insider)詢問福斯，福斯指出，川普的評論是22 分鐘採訪的一部分，該採訪被: 剪輯成 2 分鐘的片段，內容會有所取捨。: 5.附註、心得、想法︰: 有這麼容易嗎？: 就算不用當美國總統還是可以斡旋談判吧: 川普怎不當個最強的斡旋談判者，: 還有機會拿諾貝爾和平獎其實這邏輯很簡單啊換作是台海本來就對中國有民生必需需求的兩個外島金門地區 割讓給中國兩岸的戰爭也可以直接結束今年的諾貝爾物理獎林北絕對是得主笑死人 幫狒狒舉辦告別式要不要順便立個碑然後寫篇墓誌銘有這種官員還愁被中國統治嗎</t>
+          <t>蔡訪美白宮說是私人行程 美官員不會見面但是有沒有見面誰又能知道呢？中國一直在找藉口攻台美國知道台灣國軍根本沒準備好而且武器也還在排訂單階段美國低調處理蔡英文訪美台灣看似屈辱實際上是時機點太危險美國在保護台灣 維持台海穩定只可惜台灣聰明的人太少被認知作戰的人太多看破不說破 懂的人就懂最後謝謝美國謝謝你們一直保護台灣</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">[新聞] 快訊／林穎孟遭助理爆料「假面甜心」　</t>
+          <t>[討論] 昨天政論節目都怎麼討論馬英九</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060970.A.C0F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062434.A.96A.html</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://is.gd/uw5EhK2.新聞來源︰Ettoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※快訊／林穎孟遭助理爆料「假面甜心」　提告怒索380萬結果出爐4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※記者黃哲民／台北報導連任失利的台北市議會前「甜心議員」林穎孟任內與自己的助理群鬧翻，因而被查出涉用人頭詐領助理補助款並被起訴、仍在審理，林穎孟認為時任她辦公室主任吳香君及另4位助理公然羞辱她「低能」、「草包」等語，告5人求償共380萬元，吳女等人辯稱模仿林女評論政治的用語，沒有貶低人格與名譽的意圖，台北地院審結，今（29日）判決5助理免賠，可上訴。現年39歲的林穎孟出身太陽花學運，曾任立委林昶佐國會助理，時代力量政黨2018年提名她初次參選，即當選台北市第六選區（大安、文山）市議員，因外型亮眼被稱為「甜心議員」。但2020年間，林穎孟跟擔任她辦公室主任的吳香君及林家宇等4位助理發生勞資爭議，被5人公開爆料她表裡不一、對員工苛刻，還要求女助理請生理假要附「憑證」，批林穎孟是「假面甜心」、「慣老闆」等語，雙方鬧翻，林穎孟開除這5位助理並告5人涉犯誹謗、妨害信用、恐嚇危害安全等罪嫌，均不起訴。林穎孟另提本件民事訴訟要求吳香君5人賠償共380萬元，林穎孟認為吳女5人公開說她「低能」、「草包」等語，嚴重貶低她人格與社會評價，但勞動部不當勞動裁決委員會2021年已認定吳女5人爆料不實，她提告希望5人為自己行為負責、向她道歉，也讓大眾知道實情，「請法官明察秋毫」。吳香君5人出庭反駁指出，他們的爆料內容都有錄音錄影佐證，檢方不起訴處分也說他們有憑有據，且勞動部沒對他們爆料內容做任何裁決，根本不像林穎孟說的那回事，他們離職後仍遭林穎孟透過司法追殺不休，造成他們背負很大壓力，在職場難免遭受異樣眼光，他們認為林穎孟應認錯重新出發，必要時會公布證據供大眾檢視。林穎孟委任律師指稱「低能」、「草包」屬於負面用語，吳香君5人反擊指出，林穎孟做政治評論時，也常用「無恥」、「渣男」、「背信渣男」、「跪著要飯」等語，他們身為林女的員工，自然認為這樣的用語是政治評論一般用法，沒有貶低的意思。林穎孟於市議員任內因與助理鬧糾紛等事退出時代力量，去年（2022年）11月的九合一公職選舉以無黨籍身分尋求連任失利，加上吳香君等人爆料，林穎孟被查出與前男友葉曜彰涉用人頭詐領市議員助理補助款26萬餘元，去年8月被依《貪污治罪條例》公務員利用職務機會詐取財物罪嫌起訴，北院日前開庭，林穎孟請假未到。5.附註、心得、想法︰竟然免賠不過留言要小心可以跟助理鬧成這樣鐵定不是好惹的= =有人能還原一下當初的風向嗎？？※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+          <t>昨天大概看了面對面跟凝觀的節目大多都說馬英九過去跪 接機規格矮化然後不敢中華民國什麼的最屌的大概是苗苗說狒狒新聞點比較高大家看昨天的節目都看到什麼了</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[討論] 馬英九當年為什麼會是政治明星啊？</t>
+          <t>[討論] 馬英九會為了中華民國不惜粉身碎骨嗎</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061143.A.0CB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062532.A.143.html</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>我知道他從職業學生當起後來當了蔣經國的秘書然後就一路咚咚咚到了總統不過為什麼啊？他爸也不是多有力的人該不會就真的是一個「帥」字？還是他個人能力真的強？</t>
+          <t>馬英九近來聲勢大增威風八面直接在中國高呼中華民國相信除了部分偏激綠粉大多數的人都對他目前的表現算是滿意那麼馬英九有沒有機會不惜為了中華民國粉身碎骨再度出來參選從馬前總統恢復到馬總統有無相關八卦</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[黑特] 蔡英文有膽跟美國抗議嗎</t>
+          <t>[討論] 浮屍都抓不到?</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061184.A.B79.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062777.A.D0A.html</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>幹 真的北爛以前台灣總統被美國人欺負 大家都忘記了嗎當年李登輝阿扁的回擊真的很屌蔡英文真的是暈船台女我再怎麼討厭蔡英文好歹頭銜也是我們的總統真的沒看過這麼爛的只會養網軍小鬼在國內吹捧自己台美關係史上最好 阿什麼有利條約加入組織都沒有https://collection.news/appledaily/articles/67Y7KL2DGEFG2QD2SHRBTN4SUQ不知道在講什麼的這邊幫覺青屁孩補一下歷史</t>
+          <t>太扯了吧 看到新聞說外海找到八具浮屍黑道越來越大膽了從原本只是丟愛河 現在一次丟整批的浮屍真的抓不到嗎?總會有能辨認身份，能調到監視器的吧還是通通都自殺結案啊現在殺人很容易 連挖洞埋都不用直接丟水裡就好嗎?</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[討論] 台對美關係像炮友暈船嗎？</t>
+          <t>[討論] 狒狒死了有人鞠躬，台灣中南部浮屍有人鞠躬嗎</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061278.A.201.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062814.A.76D.html</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>乳題，這是疑美論看今天美方的聲明EE這趟過境美國，是不是像極了炮友暈船跑去人家門口叫陣，結果被對方裝不熟的樣子莫非蔡總統在下好大一盤棋先講雙重承認，下一步台美建交嗎？據綠粉說，蔡總統的強項是外交政黑粉怎麼看</t>
+          <t>台灣中南部浮屍8具。一個狒狒吵三天，這8具屍體應該吵幾天，什麽新聞規格呢？什麽級別的人去鞠躬呢有請政黑狒本塔綠班開示。</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[討論] 何瑞英最挺的寬恆仔被檢調約談了</t>
+          <t>[黑特] 吹噓台美關係的綠粉 都躲起來了</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056529.A.74E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680062882.A.F8B.html</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>如題柯媽媽何瑞英最疼惜的寬恆仔因為豪宅案 今天跟老婆遭到檢方搜索 約談涉嫌偽造文書 竊佔並以1000萬 500萬交保何瑞英這次還會挺嗎？https://i.imgur.com/962JXYV.jpg</t>
+          <t>塔綠班跪美黨整天跪舔美帝國主義專程去美國對曾經侵略中華民族的白人殖民者下跪結果人家白人根本不領情美國對台灣 還處處設限 肆意打壓訪問層級也是被美國一降再降這時候整天吹噓壯膽  說美台關係好說美軍會來的 塔綠班發現自己被美帝國主義瘋狂打臉現在都躲起來了</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Re: [討論] 原住民都愛開槍嗎？</t>
+          <t>[黑特] 獅子丸：Ptt的藍粉見識淺薄</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056698.A.8E2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059647.A.C82.html</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>※ 引述《Toshi1010 (XINTAIWAN)》之銘言：: 這樣啦: 八卦版在討論狒狒案時: 差不多有一半內容都是: 「原住民就愛開槍啊」，「誰不知道原住民整天拿隻獵槍就想射」，「原住民忍不住開槍: 居然還有臉推給桃園」: 因為我跟原住民不熟啦，八卦版說的都是真的嗎他們殺動物殺上穩了吧其實基於尊重傳統文化的概念我是可以包容他們搞 國中之國儘管在文明進步的現代 已經有畜牧與人道宰殺他們喜歡在自己傳統領域 實行他們祖先屠殺動物的文化習俗我也是眼不見為淨 就當那是他們自己國家好了但是啊 一些獵人跑到平地來接案子 殺動物賺錢(埃及聖鳥殺一隻2000元)結果殺到上穩了 連協助捕抓狒狒 也習慣性的開槍以為殺狒狒會有錢拿? 會被媒體塑造成英雄?這種價值觀已經錯亂的人就該送他進監獄了出獄後請回自己傳統領域玩屠殺就好要整天把尊重傳統掛嘴邊那不要雙標 把出草、吃番膏的傳統也恢復一下好了</t>
+          <t>「千萬不要學Ptt上的人 說什被馬英九圈粉了」「說什麼 馬英九在大陸講了中華民國 講了前總統 令人非常尊敬」「覺得是很大的突破 在那邊嗨 這會讓大陸看笑話 就其器之小哉了」「要很淡定 很自然 那不然呢？」「這根本沒什麼 因為建國有先後 是平起平坐的 平等的 」「中華民國現在在台灣 可是當年建國在大陸」</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Re: [新聞] 對捷克女議長"環抱贈勳"!? 外交專家傻眼</t>
+          <t xml:space="preserve">[新聞] 川普受訪稱 能在一天內結束烏克蘭戰爭 </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056911.A.AB6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059753.A.F8F.html</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>這是1996年以來，台灣政要和歐美政要的最親密距離藍白紅7pupu,就證明我們又做對了美國爸爸在洪都拉斯斷交的時候說，鼓勵世界各國和台灣擴大聯係，中國（大陸）的建交承諾都華而不實，台灣就很實在可信言下之意，台灣對邦交國和非邦交國的付出都是很真誠（錢多到位早，不知誰買單時都是台灣搶買單）所以白皮美女捷克議長心防全卸下，你看被環抱，她笑得多開心XD用你們說風涼話嗎？呸※ 引述《andy199113 (誒嘿嘿嘿)》之銘言：: 1.新聞網址︰ https://bit.ly/3Kd0Ir5: 2.新聞來源︰ 中視: 3.完整新聞標題: 對捷克女議長"環抱贈勳"!? 外交專家傻眼喊:"我的媽啊?!"│中視新聞 20230328: 4.完整新聞內容︰: 中視新聞 | 2023/03/28 18:01:37: 記者張召朋、王志恆 台北採訪報導: https://www.youtube.com/watch?v=mP0cD6jlh04: 捷克眾議院議長艾達莫娃，到立法院接受游錫竃院長的贈勳，不過游錫堃的贈勳方式，讓: 在場所有人嚇一跳，一般國際贈勳是"面對面掛勳章"，游錫堃卻是站在捷克女議長後面，: 用環抱的方式，幫議長掛勳，讓外交專家當場看傻。: #艾達莫娃 #游錫堃 #中視新聞 @中視新聞 收看中視新聞，請鎖定新聞台154。: 訂閱中視新聞24小時直播頻道，最新最快消息不斷線唷~ https://bit.ly/3bF2VwV</t>
+          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230328006075-260408?chdtv2.新聞來源︰ 中時新聞網3.完整新聞標題川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播4.完整新聞內容︰川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播22:43 2023/03/28 中時新聞網 江飛宇美國前總統川普(Donald Trump)在接受福斯電視專訪時，聲稱他可以主導和平談判，並在「24 小時內解決烏克蘭戰爭」，但他拒絕透露具體方法。然而，他可能並非賣關子，而是電視把那一段給刪除了。紐約郵報(NY Port)報導，川普接受福斯新聞主持人漢尼提(Sean Hannity)的採訪提到，如果贏得2024 年總統大選，並且那時候俄烏戰爭還沒有結束，那麼他會主導雙方談判，並在一天之內達成和平協議。公開的1分鐘節目短影片稱，「他本人與烏克蘭總統澤倫斯基，和俄羅斯總統普丁都有認識，所以談判很容易。」「如果戰爭沒有結束，我會在 24 小時內，與澤倫斯基和普丁一起解決，談判很容易進行，但我不能告訴你我會怎麼做，那樣我就無法談判。」川普多次聲稱，他與普丁相處得很好，如果是他在2020年連任，俄羅斯就不會入侵烏克蘭。然而，野獸時報(the daily beast)則披露，川普所說的方式，就是「讓俄羅斯接管烏克蘭的部分地區」，那些主要說俄語的地區。川普在說到如何談判，之後補充說：「在最壞的情況下，我本可以做成一些協議來讓俄國接管一些地方。坦率地說，有些地區本來就是俄語區，但那些地方可以成為停戰協議。」在節目錄製後，漢尼提播出了川普提到「自己本可以停止戰爭」的片段，但奇怪是，省略了川普透露的部分計劃。那一部分出現剪接，在川普說「我本可以主持談判」後，跳過了大約 30 秒的內，然後又回到川普抱怨「中國不再尊重美國」的地方。商業內幕(Insider)詢問福斯，福斯指出，川普的評論是22 分鐘採訪的一部分，該採訪被剪輯成 2 分鐘的片段，內容會有所取捨。5.附註、心得、想法︰有這麼容易嗎？就算不用當美國總統還是可以斡旋談判吧川普怎不當個最強的斡旋談判者，還有機會拿諾貝爾和平獎</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[新聞] 「費芯」停火 初選方式交黨部決定</t>
+          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057104.A.72C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059809.A.B40.html</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://udn.com/news/story/123307/70629862.新聞來源︰ 聯合報3.完整新聞標題「費芯」停火 初選方式交黨部決定4.完整新聞內容︰「費芯」停火 初選方式交黨部決定2023-03-29 00:49 聯合報／ 記者林麗玉／台北報導國民黨立委初選掀起「世代交替」之爭，北市黨部昨協調初選方式，第7選區信義、南松山區廝殺激烈的「費芯大戰」，雙方同意由黨部委員會30日開會決定；第8選區文山、南中正區協調後也交由黨部決定，但挑戰現任立委賴士葆的北市議員徐弘庭則說「如果最後做出黨員投票決議，我會考量到底要不要參加選舉。」北市黨部昨協調初選要採3成黨員7成全民調或採全民調，議員徐巧芯丈夫劉彥澧、立委費鴻泰妻子王怡心代表協調，黨部主委黃呂錦茹與劉彥澧、王怡心會後一同受訪時，劉與王還握手上演大和解戲碼。黃呂錦茹說「這就是我們國民黨，國民黨都是很團結」。黃呂錦茹表示，對於這次的初選，當初大家都很好奇，認為委員與議員有一點摩擦，不過進行中，大家都是都開心，大家都很有共識，尤其現場氣氛非常良好，開會都在講用哪一家民調公司？什麼時段等，大家都很有默契。黃呂說，費鴻泰與徐巧芯代表在協調會中，費希望3成黨員7成全民調，徐希望全民調，每個人都有每個人看法，都很合理，會由台北市黨部委員會開會決定，由3分之2委員出席，2分之1投票通過，民調時間會訂在4月16日至18日民調。至於南中正、文山區初選協調會開了兩個多小時，徐弘庭希望全民調、賴士葆要3成黨員加7成全民調，協調會無共識，預計也由黨部委員開委員會決定。徐弘庭說，協調會討論氛圍還不錯，若按照現行規定，如果有黨員投票的話，會變相擠壓民調執行時間，整個時程會被黨員投票卡住。黨內人士分析，經營黨員組織還是要有資源，包括掌握黨員名單等，對於沒有資源、擅長打空戰的新生代議員相對不利，尤其黨員民調占3成，比例相當高，只要黨員投票差個50、60票，比例就可以被拉開。5.附註、心得、想法︰才吵了幾天就宣稱和解了，難怪不夠刺激鄉民想要看到的是刀刀見骨，不知道啥時才會看到更勁爆的</t>
+          <t>氣氛微妙 美臨時喊停蔡總統過境簡報2023-03-29聯合報 記者張文馨／華盛頓即時報導https://i.imgur.com/LHtMJSw.jpg蔡英文總統準備出訪中美洲並過境美國，就在出發前夕，美國國務院亞太助卿康達臨時延後針對蔡過境的簡報；白宮國安會重申，蔡過境美國並不罕見，這是非官方的過境，此外，美國官員沒有計畫要與蔡碰面。國務卿布林肯（Antony Blinken）28日會晤巴拉圭外長，稱民主國家需要團結一致對抗人權和自由的壓迫者；國務院表示，對於巴拉圭對台灣有原則的承諾，巴拉圭在多邊論壇針對中俄等諸多棘手議題的表態，以及兩國在聯合國人權理事會的優先議題的主張，布林肯表達感謝。在宏都拉斯與中華民國斷交後，外界憂心下一個可能生變的邦交國就是巴拉圭。華府外籍記者俱樂部27日發布簡報會通知，載明主題為「台灣總統過境美國」，簡報人為負責美中台事務的亞太助卿康達（Daniel Kritenbrink）。不過就在簡報舉行前半小時，外籍記者俱樂部分別通知「延期」與「取消」，並說會在準備好的時候宣布新的簡報日期與時間。這可能是中華民國總統在兩國斷交後的歷次過境以來，首次有美國國務院資深官員為過境特別舉行簡報會，最後一刻喊停，備受關注；國務院和外籍記者俱樂部並未說明原因。國務院拒絕評論這項行程變動的原因與安排。白宮和國務院發言人近日分別就蔡總統過境表示，這符合美國長期以來的做法和不變的「一個中國」政策，過境待遇出於對乘客的安全、舒適、便利與尊嚴考量進行。白宮國安會戰略溝通協調官柯比（John Kirby）上周表示，台灣總統過境美國行之有年，北京沒有理由反應過度。媒體詢問美國官員是否會趁著蔡過境時會晤或打電話，柯比28日說，美國政府官員沒有計畫要和她碰面。https://udn.com/news/amp/story/6656/7063382</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[討論] 媒體造謠?馬根本沒說「我也當過這個」</t>
+          <t>[討論] 之前嗆不要挑釁中國的人都死了嗎？</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057133.A.E03.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059810.A.82D.html</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>如題昨天看到新聞，我也跟大家一起笑「馬這個」但今天看影片，才發現馬並沒有說「我也當過這個」https://reurl.cc/3ObGnR逐字稿：～～～～～～孫中山先生比我大九十八歲，他在二…呃…1912年成為中華民國臨時大總統我在這個…呃…這個…（旁邊人提醒：2008）在2008年，也是差了這個…九十六年～～～～～～～他說的三次「呃…這個…」從影片看只是一時記不清楚數字而已（1912、2008、九十六年）結果很多媒體都直接寫馬說「我也當了這個」https://i.imgur.com/vL0SqC5.png其實他根本沒這樣說啊，媒體根本是造謠了吧？如果要罵他不敢在中國說自己當過總統也不合理因為他晚上跟江蘇省領導人對談就直接說當過「台灣總統」了</t>
+          <t>真是奇怪了，板上一群之前嗆不要挑釁中國的人現在去美國沒有被接見又開始有意見所以這一群低能兒到底腦子裝了多少屎還是都死了？</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[討論] 藍白還要造謠沒蛋缺蛋嗎？</t>
+          <t>[討論] 美國官員不見蔡英文是因為給的東西太多</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057283.A.886.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060102.A.F1B.html</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>新聞報導一堆大賣場都在賣蛋了全聯 家樂福還有大潤發明天開始進口蛋也供貨全台四大超市 各大賣場都有賣蛋藍白還要繼續造謠缺蛋嗎？還是藍白住的地方不叫台灣 不認識這些超市看藍白無腦黑 真的也只能笑笑  呵</t>
+          <t>是這樣的新聞說美國官員不見蔡英文引來大家熱議難道只有我覺得可能是因為給的東西太多不好搬上檯面吧怕太刺激中共情緒台灣暗地裡發大財也是好事吧有無相關八卦</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[討論] 習近平控制優達斯拜登控制采狄</t>
+          <t>[討論] 雙英出國 誰勝？</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057294.A.A97.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060111.A.1CF.html</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>我2015年去妙通寺出家前在優達斯工作，張x元是我當時的主管後來出家沒成功沒剃頭回來應徵到一間板橋的采狄裡面有我國中同學呂x正在做主管裡面也全是他大同工學院的同學我同學還在隔壁辦公室當董事長開了家公司御實專門 做娛樂經紀事業的事後來我沒做到半年就離職，離職後一直被下降頭可追溯我前面的文章 https://youptt.cc/BLbnu6後來我媽去大陸參加宗教活動，不知染上什麼病回來每天咳嗽咳到肺快吐出來。。然後我陪她去大林慈濟醫院住五天後，她好起來我被下的降頭也解除很多。。後來我又陪我媽去大陸參加佛教團體雨花齋的活動，結果在那被下毒，肚子痛跑回來。。 武漢肺炎全身長蟲後，我竟然聽到一個聲音說：[starlights 去大林慈濟醫院住時，不但被換血，而且我叫人家用愛滋病的針把她札到得愛滋。這樣她貴族血統驗不出來外，還會變成 愛滋病人。]又聽到其他聲音：[在茂名的時候，我們驗她和她媽是不是親子關係。。結果只有我們知道。。。]我不知道大陸光明會和台灣是不是一伙的？跟歐美哪些政權又是一伙的？但川普下台後沒多久，我的水就髒掉了。。然後，我家的水有時大便味很重，有時尿味很重，有時洗完衣服但衣服卻有怪異的化合物在上面或是有糖水的味道。因為我不太敢用水，所以幾天才洗一次澡。剛我洗小澡時，突然 又聞到水裡的尿騷味，沖過的手也都是這種味道。然後聽到：[張 x元和田露露的尿給你洗！]田露露是蔣方良後代嗎？我想知道給髒水的是誰？習近平？他真的能管到這裡？拜登？我們台灣被美國管要吃髒水？所以他們各代表國民黨和民進黨？昨天我用水時聽到有聲音說：[馬英九常被威脅說不怎樣就要讓妳家髒水，如果不是妳在網路上說hebe的壞話，他就可以幫你搞定！]之前也聽到有聲音說：[張承中跟我家隔壁信主很虔誠的一個鄰居的女兒(她高中跟我一起上學都是讀北一女)交往過。]又說：[張承中最喜歡跟北一女的女生交往。]我只想知道是誰給的髒水？讓給髒水的統治，每天像活在地獄！</t>
+          <t>一個男英去中國當「臭要飯」的一個女英也要去美國當「臭乞丐」兩個人在中美亂竄 規格？一樣半斤八兩的低級那是誰勝？當然是菜陰魂阿怎說？回台時可以「超買」香菸阿不然老馬哥是能買幾百幾千條阿</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[討論] 若馬英九被中共逮捕 台灣風向怎麼吹</t>
+          <t>[討論] 鄭弘儀會去接機嗎</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057357.A.E3A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060200.A.A32.html</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>馬英九如果為了歷史定位在中國失控習近平也發瘋突然把馬英九關進銅雀台這樣台灣風向會怎麼吹？人民2024會投給國民黨看國民黨能不能跪著救出馬英九還是會投給賴清德靠台灣跟西方力量聲討把他救回來風向會怎麼吹？</t>
+          <t>鄭弘儀之前說身體不好卸下主持棒結果卻馬上就飛去美國找老婆兒子老美對蔡英文過境完全無感沒動作比起馬英九的表現 氣勢弱上不少遠在美國的紅姨會帶著滯美台派鋪紅毯列隊歡迎小英過境嗎？</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[討論] 大家都是中國人</t>
+          <t>[討論] 蔡英文訪美，顧立雄監國，那賴副總統呢</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057459.A.EA6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060202.A.823.html</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>馬去大陸喊出了中華民國現在大家開始正視自己國家是中華民國我覺得是不是從現在開始大家也要開始喊我是中國人？畢竟我們的國家是中華民國我們就是中國人台灣,台灣人會讓人家誤會外國人不知道你的台灣,台灣人是指國家還是地區就像大家覺得喊中國人人家不知道你講的是哪個中國所以到底台灣人,台灣是台獨還是地區？我相信大部分人只是認同台灣是地區,不想跟民進黨隨風起舞當然如果覺得中國人目前難改我的建議是中國台灣人這樣慢慢改變感謝馬前總統起了個頭讓大家開始正視中華民國※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>這是趙少康和沈大老很不解的，認為蔡英文破壞行政體制總統蔡英文訪美，國內沒總統，結果是由顧立雄坐鎮國內。可是明明有賴清德副總統，為什麼不是賴清德總統監國坐鎮呢？賀錦麗也曾經代替拜登坐鎮國內當了幾小時的總統塔綠班說說看？https://i.imgur.com/on27Csk.jpg</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[黑特] 幹，美爹又舔共了，不見母豬，可憐</t>
+          <t>Re: [黑特] 獅子丸：Ptt的藍粉見識淺薄</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058089.A.372.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060223.A.188.html</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>綠憤不是罵大陸不派對等官員接見馬英九嗎？現在報應來了，母豬去美國，美爹竟然連官員都不派來接見！可憐哪，抗中保台，當美爹的乖兒子，居然落得如此下場？只能說人賤自有天收，母豬賤只能吃噴了！</t>
+          <t>最殘酷的事實是藍粉的中華民國就是被啊共滅了才會一群人跑來台灣避難獅子丸在那邊氣度也是很好笑打贏仗的對面沒嘲笑你你就真的以為自己才是贏家這什麼鬼東西XDDDDD</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[黑特] 中國戴口罩的時機讓人困惑</t>
+          <t>[新聞] 受訪一度哽咽！馬英九重申</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058424.A.B0A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060252.A.247.html</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>我看新加坡李顯龍訪中接機不戴口罩https://i.imgur.com/VO6MXxG.jpg在廣州參觀電動車跟見中國老闆不戴https://i.imgur.com/ldAaENk.jpghttps://i.imgur.com/rU1OpWI.jpghttps://i.imgur.com/qmPzgIm.jpg跟在華新加坡同胞演講要戴https://i.imgur.com/GPcebpC.jpg隔天繼續在廣州參訪幾乎口罩戴緊緊室內室外都戴https://i.imgur.com/3MBKQ7o.jpghttps://i.imgur.com/YI0o56N.jpghttps://i.imgur.com/DzEIzMp.jpghttps://i.imgur.com/kLq8Cr0.jpghttps://i.imgur.com/DCZ85gL.jpghttps://i.imgur.com/Yx7BB8u.jpghttps://i.imgur.com/GCFOqDa.jpghttps://bit.ly/3JQRMGAhttps://bit.ly/3JVTyGc這戴口罩時機怎麼回事啊？有點讓人搞不懂</t>
+          <t>https://www.ettoday.net/news/20230329/2468974.htm2.新聞來源︰ETtoday新聞雲3.完整新聞標題受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人4.完整新聞內容︰前總統馬英九訪問大陸一行，今（29）日上午9點左右參訪侵華日軍南京大屠殺遇難同胞紀念館，他向遇難同胞獻花、獻花籃致祭並鞠躬致哀，隨後進館參觀，結束時將接受兩岸媒體聯訪。馬英九受訪提到兩岸問題時指出，兩岸都應該避戰、去謀和，避免戰爭的發生，一旦發生戰爭，沒有任何東西可以彌補。馬英九接受媒體採訪時表情沉痛，一度說不出話哽咽。他強調，「身為一個中國人，不管在海峽哪一邊」，對於外面的欺凌，要自立自強，所有中國人都應該得到教訓。馬英九也呼籲，保持仁愛的心，不要去侵略別人。侵華日軍南京大屠殺遇難同胞紀念館位於南京市建鄴區水西門大街418號，通稱江東門紀念館，選址於南京大屠殺江東門集體屠殺遺址及遇難者叢葬地，是中國大陸首批國家一級博物館，首批全國愛國主義教育示範基地，全國重點文物保護單位，首批國家級抗戰紀念設施、遺址名錄，也是國際公認的二戰期間三大慘案紀念館之一。5.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[討論] 民進黨是不是比國民黨會舔共？</t>
+          <t>[討論] 等邊三角形劃得最好的是郭董吧？</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058523.A.67E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060347.A.62E.html</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>馬英九這次去中國自稱台灣總統，也讓民進黨舔共的行為被放大，以下是民進黨賣台的行為：1.執政了還不正名，讓運動員以Chinese Taipei (中國台北)名義出賽。2.去年8月飛彈飛過台灣結果當龜兒子，還要日本爸爸告訴我們。3.黨內有人去中國做生意，文件上竟然寫中國台灣省，還派出來選直轄市長。想問民進黨是不是比國民黨會舔共？</t>
+          <t>先說，我不是郭粉，我也不看好郭董選總統會上，無論他是哪一黨提名我都不看好。但是「商人無祖國」，哪裡有錢賺就往哪裡走。中國、美國誰都不得罪。就算郭董選上總統，同意美國軍售案，中國也不太會有太強烈的反對。難道會大規模軍演給郭董難看？就算郭董當總統跟中國簽和平協議，我也相信美國最多就是重申不改變兩岸現狀的立場而已。商人本性就是左右逢源。郭董當總統，不會增加國防壓力，外交上對美關係也不會惡化，兩岸關係只會比塔綠班更和諧融洽。國民黨真的確定還要徵召侯友宜這個兩岸跟外交都是門外漢參選總統嗎？</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[討論] 雙重承認跟九二共識的差別？</t>
+          <t>[黑特] 塔綠班說不要疑美 結果被美帝重重打臉</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058716.A.B19.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060504.A.858.html</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>我看到有人說民進黨已經轉為雙重承認，可是聽起來怎麼跟九二共識沒啥兩樣啊！不就一個中國，各自表述那一套嗎？講半天原來是蔡英九啊！雙重承認跟九二共識的差別在那邊啊？</t>
+          <t>塔綠班跪美黨專程去美國對白人殖民者下跪結果美帝國主義嘴巴上說的 都很非常好聽什麼台灣是 民主夥伴事實上卻是處處設限肆意刁難台灣這次出訪蔡英文誰都見不到美國還刻意打壓台灣故意降低規格塔綠班說不要疑美自己卻被美國重重的 打了一個大巴掌真是可憐跪美黨跪到被美帝國主義一腳踢開難怪台灣人民不信任塔綠班更不信任美帝國主義</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[討論] 美國開始鋪紅地毯迎接中華民國蔡總統？</t>
+          <t>[黑特] 塔綠斑真的是跟共產黨很類似</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058747.A.ECF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060707.A.AF9.html</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>塔綠班都在笑馬英九卸任「前元首」的規格降低，連鋪紅地毯都沒有，也沒有鳴21禮炮那麼作為現任元首的蔡英文美國白宮拜登總統準備鋪紅地毯，鳴21禮炮，高規格接待中國民國總統蔡英文博士了嗎？</t>
+          <t>為什麼塔綠斑就不肯承認自己是共產主義？自從蔡政府掌權之後，所有自由就在不斷限縮，以前說的可以大聲一點、拍桌子都消失了，甚至過去說過謠言也是一種言論自由，結果現在中天新聞也被關台、社維法更是強力發展，甚至還想強硬通過中介法來對網路箝制，其他利用疫情來施展威權政治的行為也不在話下。反觀以前白色恐怖跟戒嚴的KMT，變成可以隨便罵、隨便砸蛋、丟鞋、丟書的總統，甚至各種抗議，佔領立法院都可以被容忍。我發現小粉紅跟塔綠斑都有幾個共通點：1.從不自我檢討，就算我有錯，他們更爛你怎麼不說？2.中心思想都要樹立一個高大的敵人，中共的敵人是美帝、塔綠斑的敵人是老共，自詡為挑戰威權的人，但其實自己也是威權。3.喊著解放與自由起家，一但掌權了就走回老路，不是反對威權，其實只是反對別人的威權，自己可以。以上，有沒有塔綠斑覺得那裡說的不對的，歡迎指正，歷史證明馬英九比蔡英文好不知道幾個次元。</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[新聞] 傳6月訪美？朱立倫：目前沒有規劃 派</t>
+          <t>Re: [新聞] 受訪一度哽咽！馬英九重申</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058971.A.BF5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060764.A.FA5.html</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.setn.com/News.aspx?NewsID=1272792三立3.完整新聞標題傳6月訪美？朱立倫：目前沒有規劃　派「這2人」率先前進美國4.完整新聞內容︰傳出國民黨黨主席朱立倫將於6月訪問美國，替總統候選人赴美開路。對此，朱立倫今(29日)表示，目前沒有這樣規劃，未來只要配合總統、立委候選人，或黨的需要，他能配合的一定盡量努力；並透露國民黨智庫執行長柯志恩明天出發到美國，副主席夏立言4月也要到美國去。朱立倫今天上午到慈湖謁陵，並接受媒體聯訪表示，目前沒有訪問美國這樣規劃，未來只要配合總統、立委候選人，或黨的需要，他能配合的一定盡量努力，近期黨的重要人士都要到美國訪問，包含柯志恩明天出發到美國，會見老朋友、拜訪智庫，跟僑界見面，夏立言4月也要到美國，主持會議，都會見很多朋友。媒體詢問，柯、夏是否提前到美國拜會，為2024鋪路？朱立倫說，每位出訪都有意義，奠定國民黨獲得國際友人支持跟僑界支持基礎。另外，近日桃園東非狒狒不幸中彈身亡，朱立倫認為，這次讓大家見證一件事情，就是國人對生命教育重視，對於任何動物生命都非常關注，相信桃園市長張善政會透過這事件讓同仁了解生命教育，對生命尊重是國人關切的。5.附註、心得、想法︰這就是為侯友宜訪美鋪路了年輕的綠粉常常有一個迷思美國會較支持民進黨這完全是天大的誤會國民黨和美國的和作比民進黨的時間多太多了美國又不是一定要民進黨風向已經變了民進黨這波大順風差不多到此為止了成也美國 敗也美國</t>
+          <t>: 受訪一度哽咽！馬英九重申「兩岸都應該避戰」：不要去侵略別人: 推 ajemtw: 推，看來對岸也回到和平統一的基調了       125.227.90.115 03/29 11:26哪有那麼快啦普習會剛會完而已習近平講的話也快把大家嚇死了https://www.businesstoday.com.tw/article/category/183027/post/202303210003/普丁習近平會面互相取暖！普丁「有人嫉妒中國」、習「兩國有相似目標」可一起合作實現習近平當著普丁的面當著大家的面對著一個正在打烏克蘭的國家說出 兩國有相似目標這相似目標是甚麼?難道是瘋狂做菜嗎??有這麼和平嗎???所以基本上大家已經快被習近平這番話嚇死了馬英九這幾天動作頻頻直說兩岸都應該避戰蔡英文訪美 美國動作也出來先說沒有安排官員會面想要避免刺激中國都是因為大家發現習近平還真的很想打 不得了了對岸要回到和平統一基調我認為要等習近平下來才有機會台灣換領導人根本沒用要對岸也換才行</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[討論] 我家綠粉又稱讚馬了….天大的奇蹟</t>
+          <t>[討論] 我們跟美國算是一中各表嗎？</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059210.A.FE9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060804.A.BAF.html</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>我家綠粉昨天繼中華民國後今天又稱讚馬講台灣總統雖然中國那一位沒給什麼面子要知道我家綠粉最早因為國民黨什麼三七五跟阿里阿雜的政策和柯文哲一樣最討厭3樣蚊子、蟑螂、國民黨結果今天因為一句台灣總統稱讚說馬狗好樣的看來只有板上綠共還在崩潰惹</t>
+          <t>美國承認只有一個中國就是中華人民共和國對台主張主權未定，非屬中國台灣承認只有一個中國就是中華民國對台主張主權，屬於中國台美對中國的定義對台灣主權的定義跟我們這麼不同明顯跟我們不是站在一個主權對等的立場為什麼我們可以一方面擱置爭議另一方面作足交流比如：進口萊豬萊牛，晶片供應鏈搬遷至美軍購買好買滿，面試台灣總統候選人等等某政府不是一直說一定要主權對等才能談美國認為台灣主權未定，也是主權對等ㄛ？怎麼回事R？</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>綠粉們請進～</t>
+          <t xml:space="preserve">Re: [新聞] 川普受訪稱 能在一天內結束烏克蘭戰爭 </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059218.A.F7E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060906.A.BE1.html</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>很好奇問一下喔馬英九這次7中國祭祖 中華民國前總統講了 台灣總統也講了 你們到底在不爽什麼？小粉紅崩潰不爽正常啊，你們在崩潰不爽什麼可以跟偶說一下嘛？我真的看不懂，馬囧後面連台灣總統也講出來了你們到底在不爽什麼？剛剛美國說蔡英文飛機只是經過連派人要跟她交談的打算直接回復我國「總統」只是路人旅客你們都沒崩潰，馬囧在對岸喊出了中華民國前總統與台灣總統你們卻在崩潰腦中風，我真的看不懂欸，哪位資深綠粉可以解釋一下？</t>
+          <t>※ 引述《lpbrother (LP哥(LP = Love &amp; Peace))》之銘言：: 1.新聞網址︰: https://www.chinatimes.com/realtimenews/20230328006075-260408?chdtv: 2.新聞來源︰ 中時新聞網: 3.完整新聞標題: 川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播: 4.完整新聞內容︰: 川普受訪稱 能在一天內結束烏克蘭戰爭 詳情電視不敢播: 22:43 2023/03/28 中時新聞網 江飛宇: 美國前總統川普(Donald Trump)在接受福斯電視專訪時，聲稱他可以主導和平談判，並在: 「24 小時內解決烏克蘭戰爭」，但他拒絕透露具體方法。然而，他可能並非賣關子，而: 是電視把那一段給刪除了。: 紐約郵報(NY Port)報導，川普接受福斯新聞主持人漢尼提(Sean Hannity)的採訪提到，: 如果贏得2024 年總統大選，並且那時候俄烏戰爭還沒有結束，那麼他會主導雙方談判，: 並在一天之內達成和平協議。: 公開的1分鐘節目短影片稱，「他本人與烏克蘭總統澤倫斯基，和俄羅斯總統普丁都有認: 識，所以談判很容易。」: 「如果戰爭沒有結束，我會在 24 小時內，與澤倫斯基和普丁一起解決，談判很容易進行: ，但我不能告訴你我會怎麼做，那樣我就無法談判。」: 川普多次聲稱，他與普丁相處得很好，如果是他在2020年連任，俄羅斯就不會入侵烏克蘭: 。: 然而，野獸時報(the daily beast)則披露，川普所說的方式，就是「讓俄羅斯接管烏克: 蘭的部分地區」，那些主要說俄語的地區。: 川普在說到如何談判，之後補充說：「在最壞的情況下，我本可以做成一些協議來讓俄國: 接管一些地方。坦率地說，有些地區本來就是俄語區，但那些地方可以成為停戰協議。」: 在節目錄製後，漢尼提播出了川普提到「自己本可以停止戰爭」的片段，但奇怪是，省略: 了川普透露的部分計劃。那一部分出現剪接，在川普說「我本可以主持談判」後，跳過了: 大約 30 秒的內，然後又回到川普抱怨「中國不再尊重美國」的地方。: 商業內幕(Insider)詢問福斯，福斯指出，川普的評論是22 分鐘採訪的一部分，該採訪被: 剪輯成 2 分鐘的片段，內容會有所取捨。: 5.附註、心得、想法︰: 有這麼容易嗎？: 就算不用當美國總統還是可以斡旋談判吧: 川普怎不當個最強的斡旋談判者，: 還有機會拿諾貝爾和平獎其實這邏輯很簡單啊換作是台海本來就對中國有民生必需需求的兩個外島金門地區 割讓給中國兩岸的戰爭也可以直接結束今年的諾貝爾物理獎林北絕對是得主笑死人 幫狒狒舉辦告別式要不要順便立個碑然後寫篇墓誌銘有這種官員還愁被中國統治嗎</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[討論] 中國4個APP攻佔美國前五名 中華民國呢？</t>
+          <t xml:space="preserve">[新聞] 快訊／林穎孟遭助理爆料「假面甜心」　</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059350.A.E2F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680060970.A.C0F.html</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>共產中國有4個APP攻佔美國APP榜前五名反觀中華民國連一個都沒有官僚只會浪費公帑做一堆單一功能、用一次就沒屁用的垃圾APP不可能跨國使用，更不可能攻佔美國、世界APP榜中國真的共產嗎？中華民國真的自由嗎？錯，中華民國最共產獨裁從產業表現就能客觀、理性、公正的證明不是教授打嘴砲就可以偽造的但是教授的專長是洗腦，無憑無據，只要嗆下去，學生就買單、直接影響社會意識形態共產獨裁的中華民國批評中國共產，中國卻表現自由經濟</t>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://is.gd/uw5EhK2.新聞來源︰Ettoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※快訊／林穎孟遭助理爆料「假面甜心」　提告怒索380萬結果出爐4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※記者黃哲民／台北報導連任失利的台北市議會前「甜心議員」林穎孟任內與自己的助理群鬧翻，因而被查出涉用人頭詐領助理補助款並被起訴、仍在審理，林穎孟認為時任她辦公室主任吳香君及另4位助理公然羞辱她「低能」、「草包」等語，告5人求償共380萬元，吳女等人辯稱模仿林女評論政治的用語，沒有貶低人格與名譽的意圖，台北地院審結，今（29日）判決5助理免賠，可上訴。現年39歲的林穎孟出身太陽花學運，曾任立委林昶佐國會助理，時代力量政黨2018年提名她初次參選，即當選台北市第六選區（大安、文山）市議員，因外型亮眼被稱為「甜心議員」。但2020年間，林穎孟跟擔任她辦公室主任的吳香君及林家宇等4位助理發生勞資爭議，被5人公開爆料她表裡不一、對員工苛刻，還要求女助理請生理假要附「憑證」，批林穎孟是「假面甜心」、「慣老闆」等語，雙方鬧翻，林穎孟開除這5位助理並告5人涉犯誹謗、妨害信用、恐嚇危害安全等罪嫌，均不起訴。林穎孟另提本件民事訴訟要求吳香君5人賠償共380萬元，林穎孟認為吳女5人公開說她「低能」、「草包」等語，嚴重貶低她人格與社會評價，但勞動部不當勞動裁決委員會2021年已認定吳女5人爆料不實，她提告希望5人為自己行為負責、向她道歉，也讓大眾知道實情，「請法官明察秋毫」。吳香君5人出庭反駁指出，他們的爆料內容都有錄音錄影佐證，檢方不起訴處分也說他們有憑有據，且勞動部沒對他們爆料內容做任何裁決，根本不像林穎孟說的那回事，他們離職後仍遭林穎孟透過司法追殺不休，造成他們背負很大壓力，在職場難免遭受異樣眼光，他們認為林穎孟應認錯重新出發，必要時會公布證據供大眾檢視。林穎孟委任律師指稱「低能」、「草包」屬於負面用語，吳香君5人反擊指出，林穎孟做政治評論時，也常用「無恥」、「渣男」、「背信渣男」、「跪著要飯」等語，他們身為林女的員工，自然認為這樣的用語是政治評論一般用法，沒有貶低的意思。林穎孟於市議員任內因與助理鬧糾紛等事退出時代力量，去年（2022年）11月的九合一公職選舉以無黨籍身分尋求連任失利，加上吳香君等人爆料，林穎孟被查出與前男友葉曜彰涉用人頭詐領市議員助理補助款26萬餘元，去年8月被依《貪污治罪條例》公務員利用職務機會詐取財物罪嫌起訴，北院日前開庭，林穎孟請假未到。5.附註、心得、想法︰竟然免賠不過留言要小心可以跟助理鬧成這樣鐵定不是好惹的= =有人能還原一下當初的風向嗎？？※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">							(本文已被刪除) [maththink]						</t>
+          <t>[討論] 馬英九當年為什麼會是政治明星啊？</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059628.A.0E3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061143.A.0CB.html</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>這次馬英九自己台灣的總統，小粉紅崩潰說：中華民國1949就滅亡了哪來的國家，綠粉跳針說：馬這個，阿是哪個，想問民進黨和共產黨怎同時反對台灣總統這個稱呼？</t>
+          <t>我知道他從職業學生當起後來當了蔣經國的秘書然後就一路咚咚咚到了總統不過為什麼啊？他爸也不是多有力的人該不會就真的是一個「帥」字？還是他個人能力真的強？</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Fw: [新聞] 雙英出訪 柯文哲:若各幹各的是政治危機</t>
+          <t>[黑特] 蔡英文有膽跟美國抗議嗎</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054271.A.65E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061184.A.B79.html</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>中國時報 周毓翔 李奇叡 林和生3.完整新聞標題:雙英出訪 柯文哲：若各幹各的是政治危機4.完整新聞內文:前總統馬英九開始他的赴陸祭祖之旅，蔡英文總統則在明天啟動「民主共榮夥伴之旅」，出訪中美洲並過境美國。國民黨主席朱立倫27日強調，馬英九一定會堅持中華民國立場；民眾黨主席柯文哲認為，若馬、蔡只是「各幹各的」，這就很麻煩，因為沒有共識就是台灣的政治危機，代表我們是分裂的國家。朱立倫表示，馬前總統去大陸祭祖，也是去做青年交流，國民黨都表示祝福，並希望他行程一切順利，相信他在對岸一定能堅持中華民國立場，符合國人對兩岸關係和平穩定的期待。中廣董事長趙少康認為，馬英九訪陸凸顯兩岸必須對話；而馬此行亦凸顯蔡政府在兩岸政策上的無能與封閉；而在中共看來，真正能代表台灣且有話語權的，早期是連戰，後來是馬英九，目前也沒人能夠取代。他表示，馬英九踏上大陸，除了祭祖及青年交流外，更重要的意義是傳達台灣願意跟中共交流、對話，希望增進彼此了解，紓解兩岸緊張情勢。趙強調，善意是必須累積的，希望馬英九訪陸是個好的開始，讓兩岸能夠步上正確道路。柯文哲也說，有100多萬名台商在大陸，而大陸亦占台灣出口43％，雙方有所來往，需要有人關心，馬英九訪陸沒有問題，在法律層面也合法。他並提及，馬英九訪陸跟蔡總統訪美時程相同絕非巧合。柯文哲認為，若馬英九、蔡英文彼此有所默契，互相配合就還好，但他也擔心2人是「各幹各的」，這就很麻煩，因為最重要的是國內要先有共識，若沒有共識就是台灣的政治危機，代表我們是分裂的國家。不過，宏都拉斯前天才與我國斷交，與中國建交，馬英九此刻出訪對岸，行政院長陳建仁昨在屏東意有所指地說，想建議馬前總統也能多到其他國家參訪，鼓勵我們外交同仁；同時建議馬「少一點脾氣、多一點勇氣」，讓我們的外交能再更加爭一口氣。陳建仁表示，他最近1個月也很密集接見來自包括史瓦帝尼、新加坡、科索沃，還有英國的友人和訪團，他曉得大家都相當認真來跟我們自由民主聯盟的國家一起努力。行政院副院長鄭文燦則說，馬英九訪陸選在這個時機，外界有許多不同的評價，這是馬英九的選擇，而馬擔任過8年總統，對台灣處境應有深切體會，這些抉擇也勢必要接受各界的檢驗，希望能秉持著對等尊嚴的立場。5.完整新聞連結 (或短網址)不可用YAHOO、LINE、MSN等轉載媒體:https://www.chinatimes.com/newspapers/20230328000353-260118?chdtv6.備註:政治危機(X) 來關注我(O)一語成讖柯文哲的焦慮情有可原之前我就講過了[討論] 兩岸議題一拉扯 柯文哲就沒戲唱了吧#1a6jyCts (HatePolitics)兩岸議題一下去可以想見這陣子完全沒有人會理柯文哲沒有人好奇柯文哲會見到誰沒有人想知道三角形怎麼劃※ 轉錄者: KONAMI (220.142.138.116 臺灣), 03/29/2023 09:44:30※ 編輯: KONAMI (220.142.138.116 臺灣), 03/29/2023 09:45:12推 kuninaka: 講屁話  61.227.121.31 03/29 09:45※ 編輯: KONAMI (220.142.138.116 臺灣), 03/29/2023 09:45:37→ kuninaka: 柯文哲的強國等距呢  61.227.121.31 03/29 09:45→ kuninaka: 出訪美國肯定也要去中國吧  61.227.121.31 03/29 09:45→ kuninaka: 不然怎麼等距  61.227.121.31 03/29 09:45→ KONAMI: 沒人在意220.142.138.116 03/29 09:45→ kuninaka: 沒人在意你還發新聞  61.227.121.31 03/29 09:46→ sd09090: 危都危  1.200.249.195 03/29 09:46→ KONAMI: 靠夭你不是民眾黨員嗎220.142.138.116 03/29 09:46噓 starcow: 翻譯 : 趕緊下跪,向支那乞討憐憫   36.239.13.96 03/29 09:46→ nnkj: 既然要團結 那就藍白合 以身作則  118.160.24.72 03/29 09:46噓 Iamidiots: 那你柯文哲會聽蔡英文的話嗎?XD  112.105.47.96 03/29 09:47→ kuninaka: 沒繳錢應該被開除了吧 很久沒  61.227.121.31 03/29 09:47→ kuninaka: 寄給我EMAIL了  61.227.121.31 03/29 09:47推 Tosca: 國民黨民進黨早就有共識了 就是維持現狀111.254.204.176 03/29 09:47→ kuninaka: 國民兩黨的共識不就中華民國台灣嗎  61.227.121.31 03/29 09:47→ milleniue: 因為一定會有一個被比下啊XD  61.219.99.127 03/29 09:47→ Tosca: 所以我一直鼓吹兩黨該直接合併為超級政黨111.254.204.176 03/29 09:47→ kuninaka: 馬英九這次去中國兩個都用到...  61.227.121.31 03/29 09:47→ KONAMI: 那不是開除 那叫失聯黨員220.142.138.116 03/29 09:47→ kuninaka: 蔡英文任內致力消滅台獨  61.227.121.31 03/29 09:47→ kuninaka: 連賴清德都支持中華民國台灣XDD  61.227.121.31 03/29 09:48→ kuninaka: 中華民國在蔡英文掌權的時候  61.227.121.31 03/29 09:48→ kuninaka: 突然變很香 笑死  61.227.121.31 03/29 09:48→ kuninaka: 還是阿扁比較好  61.227.121.31 03/29 09:48→ KONAMI: 自民黨當初其實也是合併來的220.142.138.116 03/29 09:48推 bruce2248: 藍綠現在都一致延續黑金教父的主張了 59.120.177.217 03/29 09:49→ laoabo: 這篇在八卦也沒有柯粉護航 柯柯離開市府 220.136.95.118 03/29 09:49→ laoabo: 後柯粉突然大幅減少 好不習慣 220.136.95.118 03/29 09:50推 Baternest: DPP賴搭配一個KMT的副總統 直接就勝選! 180.217.35.205 03/29 09:50→ laoabo: 還是我政黑藍綠大戰香 220.136.95.118 03/29 09:50噓 ucs1: 全台灣你最會搞分裂     101.10.2.3 03/29 09:51推 icrose: 柯從4%到民調20%左右，明明大增。  171.14.62.132 03/29 09:51推 CyBw: 沒人找你啊北一起去，孤單寂寞覺得冷嗎  1.173.208.101 03/29 09:51推 LeeSeDol: 統獨假議題啊！阿北應該完全不要管中美  1.200.152.108 03/29 09:52→ LeeSeDol: 的想法  1.200.152.108 03/29 09:52→ LeeSeDol: 也不要浪費時間去紐約  1.200.152.108 03/29 09:52推 skullno2: 不但各幹各的 還各扯後腿 互相傷害     39.9.70.10 03/29 09:59噓 lavida: 是不是沒人揪你 ? 220.143.173.50 03/29 10:00→ KONAMI: 我在想柯文哲應該要求一起去才對220.142.138.116 03/29 10:01→ KONAMI: 既然要講三角形220.142.138.116 03/29 10:01推 joeylaix: 柯的存在就是台灣最大的政治危機    42.73.67.73 03/29 10:02→ peterw: 一個國民黨一個民進黨，不各幹各的才奇怪 223.136.81.181 03/29 10:03→ peterw: 吧？難道民眾黨會聽藍綠的嗎？ 223.136.81.181 03/29 10:03→ jixiang: 沒人鳥他 116.89.142.201 03/29 10:04噓 jack8759: ..... 114.36.232.172 03/29 10:09噓 gogoegg: 蚵畜不是很會畫三角形 怎麼在國內  1.200.180.198 03/29 10:10→ gogoegg: 就畫到藍綠分裂的一個國家??  1.200.180.198 03/29 10:11噓 shangjay: 唉！文盲！   101.10.3.165 03/29 10:15推 thbygn98: 不像我不離不棄，朱下柯上  61.230.67.132 03/29 10:40→ notea: 阿北是在工三小  49.216.188.78 03/29 12:14</t>
+          <t>幹 真的北爛以前台灣總統被美國人欺負 大家都忘記了嗎當年李登輝阿扁的回擊真的很屌蔡英文真的是暈船台女我再怎麼討厭蔡英文好歹頭銜也是我們的總統真的沒看過這麼爛的只會養網軍小鬼在國內吹捧自己台美關係史上最好 阿什麼有利條約加入組織都沒有https://collection.news/appledaily/articles/67Y7KL2DGEFG2QD2SHRBTN4SUQ不知道在講什麼的這邊幫覺青屁孩補一下歷史</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[新聞] 涉沙鹿豪宅違建？顏寬恒夫妻遭檢調搜索 0</t>
+          <t>[討論] 台對美關係像炮友暈船嗎？</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054528.A.61E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680061278.A.201.html</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>涉沙鹿豪宅違建？顏寬恒夫妻遭檢調搜索 今1000萬、500萬交保 2023-03-29 09:23https://udn.com/news/story/7321/7063522聯合報／ 記者曾健祐、陳宏睿／台中即時報導顏寬恒去年參加台中第二選區立委補選，扯出沙鹿豪宅違建案，上周顏爭取黨內提名參選，再戰立委，但沒想到檢調昨天帶回顏寬恒、陳麗淩夫妻，依偽造文書等罪嫌偵辦，今天凌晨命二人以1000萬元、500萬元交保候傳，據查，顏寬恒夫妻被檢調帶回的案件，與沙鹿豪宅違建案有關。全案檢方是以竊佔、偽造文書使公務員登載不實等罪嫌偵辦，由主任檢察官黃怡華、檢察官鄭佩琪、黃裕峯等人指揮中機站，航業處搜索。台中地檢署襄閱主任檢察官詹常輝證實有此案，今天凌晨檢察官訊問後，已命涉案人以1000萬、500萬元交保，詳細案情因仍待調查，尚無法對外界說明。____這可以視為中二之爭的前哨戰了嗎？接下來我們就以觀察調查內容會不會在過程之中一點一滴被揭露了</t>
+          <t>乳題，這是疑美論看今天美方的聲明EE這趟過境美國，是不是像極了炮友暈船跑去人家門口叫陣，結果被對方裝不熟的樣子莫非蔡總統在下好大一盤棋先講雙重承認，下一步台美建交嗎？據綠粉說，蔡總統的強項是外交政黑粉怎麼看</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[黑特] 陳吉仲的缺蛋理由根本鬼扯</t>
+          <t>[討論] 何瑞英最挺的寬恆仔被檢調約談了</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054652.A.A3C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056529.A.74E.html</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>我們的農委會主委陳吉仲說因為烏俄戰爭因為武漢肺炎因為禽流感啊不對啊其他雞蛋多到可以出口的國家是活在世界和平的平行時空嗎現在進口蛋還比台灣菜市場的雞屎蛋還便宜到底還有什麼理由啊？？？？</t>
+          <t>如題柯媽媽何瑞英最疼惜的寬恆仔因為豪宅案 今天跟老婆遭到檢方搜索 約談涉嫌偽造文書 竊佔並以1000萬 500萬交保何瑞英這次還會挺嗎？https://i.imgur.com/962JXYV.jpg</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Re: [轉錄] 王定宇：人必自辱而人辱之</t>
+          <t>Re: [討論] 原住民都愛開槍嗎？</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054661.A.AF1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056698.A.8E2.html</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>好好笑!!!那上一次美國前總統柯林頓訪台有沒有類似的規格??你民進黨自己有搞出啥紅地毯高層接機之類的規格嗎?你他X的找不到地方可以罵罵這個?到底要辱啥?我看是你是王定宇在污辱自己吧?※ 引述《kuninaka ()》之銘言：: 1.轉錄網址︰: ※ 網址超過一行 請縮網址 ※: https://reurl.cc/pLKOdd: 2.轉錄來源︰: ※ FB公眾人物、FB粉絲團名稱、其他來源 ※: 王定宇: 3.轉錄內容︰: ※ 請完整轉載原文 請勿修改內文與編排 ※: #人必自辱而人辱之: 中國國民黨馬英九先生罔顧台灣尊嚴堅持赴中，卻遭中共羞辱式安排低層級官員接機…馬: 英九飛抵上海浦東機場，國台辦僅派出低級別副主任接機，連貴賓應有的紅地毯都沒有，: 接待層級低於省長。: 更慘的是…台灣的狒狒新聞比馬的訪中新聞還要受矚目！: 4.附註、心得、想法︰: ※ 40字心得、備註 ※: 馬英九訪中矮化相當嚴重: 沒紅地毯: 對方官員沒有對等等級，至少也來個副總理吧: 我看三立新聞台，狒狒的討論都遠比馬英九多: 笑死</t>
+          <t>※ 引述《Toshi1010 (XINTAIWAN)》之銘言：: 這樣啦: 八卦版在討論狒狒案時: 差不多有一半內容都是: 「原住民就愛開槍啊」，「誰不知道原住民整天拿隻獵槍就想射」，「原住民忍不住開槍: 居然還有臉推給桃園」: 因為我跟原住民不熟啦，八卦版說的都是真的嗎他們殺動物殺上穩了吧其實基於尊重傳統文化的概念我是可以包容他們搞 國中之國儘管在文明進步的現代 已經有畜牧與人道宰殺他們喜歡在自己傳統領域 實行他們祖先屠殺動物的文化習俗我也是眼不見為淨 就當那是他們自己國家好了但是啊 一些獵人跑到平地來接案子 殺動物賺錢(埃及聖鳥殺一隻2000元)結果殺到上穩了 連協助捕抓狒狒 也習慣性的開槍以為殺狒狒會有錢拿? 會被媒體塑造成英雄?這種價值觀已經錯亂的人就該送他進監獄了出獄後請回自己傳統領域玩屠殺就好要整天把尊重傳統掛嘴邊那不要雙標 把出草、吃番膏的傳統也恢復一下好了</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[討論] 粉綠敢去中國喊台灣、中華民國或總統嗎</t>
+          <t>Re: [新聞] 對捷克女議長"環抱贈勳"!? 外交專家傻眼</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054697.A.E5C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056911.A.AB6.html</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>昨天問了俗辣台妹結果粉綠們顧左右而言他事實是一個軍演龜在美食展的咖洨根本不敢去那邊講啦連自己命都龜起來的俗辣還想要別人為她送死的北七而已現在再給小粉綠一個機會好了現在開始訂機票去中國找個古蹟大談台灣、中華民國錄成影片上傳youtube貼上來就好了應該不會小粉綠口中的馬娘娘都敢冒生命危險講的事情小粉綠卻做不到吧就不要求滿嘴幹話的俗辣台妹了小粉綠們自己應該就不會還在那邊推託、幹話一堆吧？</t>
+          <t>這是1996年以來，台灣政要和歐美政要的最親密距離藍白紅7pupu,就證明我們又做對了美國爸爸在洪都拉斯斷交的時候說，鼓勵世界各國和台灣擴大聯係，中國（大陸）的建交承諾都華而不實，台灣就很實在可信言下之意，台灣對邦交國和非邦交國的付出都是很真誠（錢多到位早，不知誰買單時都是台灣搶買單）所以白皮美女捷克議長心防全卸下，你看被環抱，她笑得多開心XD用你們說風涼話嗎？呸※ 引述《andy199113 (誒嘿嘿嘿)》之銘言：: 1.新聞網址︰ https://bit.ly/3Kd0Ir5: 2.新聞來源︰ 中視: 3.完整新聞標題: 對捷克女議長"環抱贈勳"!? 外交專家傻眼喊:"我的媽啊?!"│中視新聞 20230328: 4.完整新聞內容︰: 中視新聞 | 2023/03/28 18:01:37: 記者張召朋、王志恆 台北採訪報導: https://www.youtube.com/watch?v=mP0cD6jlh04: 捷克眾議院議長艾達莫娃，到立法院接受游錫竃院長的贈勳，不過游錫堃的贈勳方式，讓: 在場所有人嚇一跳，一般國際贈勳是"面對面掛勳章"，游錫堃卻是站在捷克女議長後面，: 用環抱的方式，幫議長掛勳，讓外交專家當場看傻。: #艾達莫娃 #游錫堃 #中視新聞 @中視新聞 收看中視新聞，請鎖定新聞台154。: 訂閱中視新聞24小時直播頻道，最新最快消息不斷線唷~ https://bit.ly/3bF2VwV</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[討論] 自由時報造反了 說薪水都沒漲！</t>
+          <t>[新聞] 「費芯」停火 初選方式交黨部決定</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054921.A.C0A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057104.A.72C.html</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>如圖https://i.imgur.com/iF9z5Kk.jpg自由時報小編是不是想離職了怎麼說出薪水沒漲這種話政黑塔綠班最引以為傲的就是小英讓臺灣薪資上漲超多現在是要打小英的臉嗎塔綠班如何自處？雞排100！一片吃不飽可以吃兩片</t>
+          <t>1.新聞網址︰https://udn.com/news/story/123307/70629862.新聞來源︰ 聯合報3.完整新聞標題「費芯」停火 初選方式交黨部決定4.完整新聞內容︰「費芯」停火 初選方式交黨部決定2023-03-29 00:49 聯合報／ 記者林麗玉／台北報導國民黨立委初選掀起「世代交替」之爭，北市黨部昨協調初選方式，第7選區信義、南松山區廝殺激烈的「費芯大戰」，雙方同意由黨部委員會30日開會決定；第8選區文山、南中正區協調後也交由黨部決定，但挑戰現任立委賴士葆的北市議員徐弘庭則說「如果最後做出黨員投票決議，我會考量到底要不要參加選舉。」北市黨部昨協調初選要採3成黨員7成全民調或採全民調，議員徐巧芯丈夫劉彥澧、立委費鴻泰妻子王怡心代表協調，黨部主委黃呂錦茹與劉彥澧、王怡心會後一同受訪時，劉與王還握手上演大和解戲碼。黃呂錦茹說「這就是我們國民黨，國民黨都是很團結」。黃呂錦茹表示，對於這次的初選，當初大家都很好奇，認為委員與議員有一點摩擦，不過進行中，大家都是都開心，大家都很有共識，尤其現場氣氛非常良好，開會都在講用哪一家民調公司？什麼時段等，大家都很有默契。黃呂說，費鴻泰與徐巧芯代表在協調會中，費希望3成黨員7成全民調，徐希望全民調，每個人都有每個人看法，都很合理，會由台北市黨部委員會開會決定，由3分之2委員出席，2分之1投票通過，民調時間會訂在4月16日至18日民調。至於南中正、文山區初選協調會開了兩個多小時，徐弘庭希望全民調、賴士葆要3成黨員加7成全民調，協調會無共識，預計也由黨部委員開委員會決定。徐弘庭說，協調會討論氛圍還不錯，若按照現行規定，如果有黨員投票的話，會變相擠壓民調執行時間，整個時程會被黨員投票卡住。黨內人士分析，經營黨員組織還是要有資源，包括掌握黨員名單等，對於沒有資源、擅長打空戰的新生代議員相對不利，尤其黨員民調占3成，比例相當高，只要黨員投票差個50、60票，比例就可以被拉開。5.附註、心得、想法︰才吵了幾天就宣稱和解了，難怪不夠刺激鄉民想要看到的是刀刀見骨，不知道啥時才會看到更勁爆的</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[討論] 年底大選會有什麼奇葩戲碼出現啊？</t>
+          <t>[討論] 媒體造謠?馬根本沒說「我也當過這個」</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680054958.A.6B2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057133.A.E03.html</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>淡水阿罵用過了會不會換鹿港阿罵？會不會是自己徵召自己的戲？還是會有什麼奇怪的戲碼會上演？</t>
+          <t>如題昨天看到新聞，我也跟大家一起笑「馬這個」但今天看影片，才發現馬並沒有說「我也當過這個」https://reurl.cc/3ObGnR逐字稿：～～～～～～孫中山先生比我大九十八歲，他在二…呃…1912年成為中華民國臨時大總統我在這個…呃…這個…（旁邊人提醒：2008）在2008年，也是差了這個…九十六年～～～～～～～他說的三次「呃…這個…」從影片看只是一時記不清楚數字而已（1912、2008、九十六年）結果很多媒體都直接寫馬說「我也當了這個」https://i.imgur.com/vL0SqC5.png其實他根本沒這樣說啊，媒體根本是造謠了吧？如果要罵他不敢在中國說自己當過總統也不合理因為他晚上跟江蘇省領導人對談就直接說當過「台灣總統」了</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[討論] 馬囧昨天真的有說出總統這兩個字嗎</t>
+          <t>[討論] 藍白還要造謠沒蛋缺蛋嗎？</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055348.A.E60.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057283.A.886.html</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>請問一下據說昨天馬囧在跟江蘇巡撫對談提到了「台灣總統」一詞但是我看了新聞影片幾次我一直聽不太清楚總統這兩個字馬囧平時咬字清晰但是說到總統兩字時卻變成了柯建銘了不看字幕根本聽不出來他在講總統二字而且身為中華民國派的馬囧竟然不自稱自己是「中華民國總統」而改稱自己是台灣XX對中華民國派來說台灣只是中華民國領土的一部分台灣不是主權獨立國家所以只有中華民國總統而沒有台灣總統而且對中國來說 是「中華民國總統」還是「台灣總統」更具統治威脅性？台灣總統頂多代表台灣獨立，中共國繼續存在但是中華民國總統就代表中共國對中國主權的獨佔可以被挑戰了所以昨天馬囧的那個「台灣XX」其實是中共最能接受的說法所以這麼多年來馬囧軟腳的下賤人格一點也沒變呢果然是一路跪來 始終如一嘻嘻</t>
+          <t>新聞報導一堆大賣場都在賣蛋了全聯 家樂福還有大潤發明天開始進口蛋也供貨全台四大超市 各大賣場都有賣蛋藍白還要繼續造謠缺蛋嗎？還是藍白住的地方不叫台灣 不認識這些超市看藍白無腦黑 真的也只能笑笑  呵</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Re: [黑特] 陳吉仲的缺蛋理由根本鬼扯</t>
+          <t>[討論] 習近平控制優達斯拜登控制采狄</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055362.A.FDB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057294.A.A97.html</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>反正風向洗到有人相信就好，至少身邊偏DPP的朋友，都認為這波缺蛋，都是蛋商屯蛋，還有民眾無腦屯蛋害的。不然，根本不會缺蛋危機。看看這兩天新聞，便宜進口蛋， 屯蛋商要便宜賣，現在就是要洗成這樣，只能說真的蠻噁心的。有沒有缺蛋， 生活中明明很明顯，但裝睡的永遠不會醒。</t>
+          <t>我2015年去妙通寺出家前在優達斯工作，張x元是我當時的主管後來出家沒成功沒剃頭回來應徵到一間板橋的采狄裡面有我國中同學呂x正在做主管裡面也全是他大同工學院的同學我同學還在隔壁辦公室當董事長開了家公司御實專門 做娛樂經紀事業的事後來我沒做到半年就離職，離職後一直被下降頭可追溯我前面的文章 https://youptt.cc/BLbnu6後來我媽去大陸參加宗教活動，不知染上什麼病回來每天咳嗽咳到肺快吐出來。。然後我陪她去大林慈濟醫院住五天後，她好起來我被下的降頭也解除很多。。後來我又陪我媽去大陸參加佛教團體雨花齋的活動，結果在那被下毒，肚子痛跑回來。。 武漢肺炎全身長蟲後，我竟然聽到一個聲音說：[starlights 去大林慈濟醫院住時，不但被換血，而且我叫人家用愛滋病的針把她札到得愛滋。這樣她貴族血統驗不出來外，還會變成 愛滋病人。]又聽到其他聲音：[在茂名的時候，我們驗她和她媽是不是親子關係。。結果只有我們知道。。。]我不知道大陸光明會和台灣是不是一伙的？跟歐美哪些政權又是一伙的？但川普下台後沒多久，我的水就髒掉了。。然後，我家的水有時大便味很重，有時尿味很重，有時洗完衣服但衣服卻有怪異的化合物在上面或是有糖水的味道。因為我不太敢用水，所以幾天才洗一次澡。剛我洗小澡時，突然 又聞到水裡的尿騷味，沖過的手也都是這種味道。然後聽到：[張 x元和田露露的尿給你洗！]田露露是蔣方良後代嗎？我想知道給髒水的是誰？習近平？他真的能管到這裡？拜登？我們台灣被美國管要吃髒水？所以他們各代表國民黨和民進黨？昨天我用水時聽到有聲音說：[馬英九常被威脅說不怎樣就要讓妳家髒水，如果不是妳在網路上說hebe的壞話，他就可以幫你搞定！]之前也聽到有聲音說：[張承中跟我家隔壁信主很虔誠的一個鄰居的女兒(她高中跟我一起上學都是讀北一女)交往過。]又說：[張承中最喜歡跟北一女的女生交往。]我只想知道是誰給的髒水？讓給髒水的統治，每天像活在地獄！</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Re: [新聞] 雙英出訪 柯文哲:若各幹各的是政治危機</t>
+          <t>[討論] 若馬英九被中共逮捕 台灣風向怎麼吹</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055366.A.24C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057357.A.E3A.html</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>好奇怪喔我怎覺得雙英對決一個去美國一個去中國這不就是柯CF最想要的強國等距嗎?怎這下又變各幹各的了柯憐哪當藍綠都成為美中代理人的時候這第三勢力只能徹底死去了</t>
+          <t>馬英九如果為了歷史定位在中國失控習近平也發瘋突然把馬英九關進銅雀台這樣台灣風向會怎麼吹？人民2024會投給國民黨看國民黨能不能跪著救出馬英九還是會投給賴清德靠台灣跟西方力量聲討把他救回來風向會怎麼吹？</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[討論] 獨派教授真的會去迎接馬英九嗎？</t>
+          <t>[討論] 大家都是中國人</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055441.A.E39.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680057459.A.EA6.html</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>上圖https://i.imgur.com/iwHpbP1.jpg欸欸欸，這位是那位教授啊？可以告知他是那個時間節目說的話嗎？如果他真的這樣說他是否會去迎接我們偉大的馬Bumbler嗎？哈哈</t>
+          <t>馬去大陸喊出了中華民國現在大家開始正視自己國家是中華民國我覺得是不是從現在開始大家也要開始喊我是中國人？畢竟我們的國家是中華民國我們就是中國人台灣,台灣人會讓人家誤會外國人不知道你的台灣,台灣人是指國家還是地區就像大家覺得喊中國人人家不知道你講的是哪個中國所以到底台灣人,台灣是台獨還是地區？我相信大部分人只是認同台灣是地區,不想跟民進黨隨風起舞當然如果覺得中國人目前難改我的建議是中國台灣人這樣慢慢改變感謝馬前總統起了個頭讓大家開始正視中華民國※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve">							(本文已被刪除) [zzzzzzzzzzzy]						</t>
+          <t>[黑特] 幹，美爹又舔共了，不見母豬，可憐</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055790.A.E9F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058089.A.372.html</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>說得好要不是定語當了月繳8000的好房客還每天有愛心早餐吃我們怎麼可以酸王八千呢人必自辱而後人辱之</t>
+          <t>綠憤不是罵大陸不派對等官員接見馬英九嗎？現在報應來了，母豬去美國，美爹竟然連官員都不派來接見！可憐哪，抗中保台，當美爹的乖兒子，居然落得如此下場？只能說人賤自有天收，母豬賤只能吃噴了！</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Re: [轉錄] 王定宇：人必自辱而人辱之</t>
+          <t>[黑特] 中國戴口罩的時機讓人困惑</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055946.A.DC6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058424.A.B0A.html</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>國內一直講訪美其實也是過境美國而已蔡英文在美國也是視同平民跟馬先生一樣蔡英文會被叫蔡小姐吧我真的不知道綠粉為何要一直講蔡英文訪美如何如何的人家的官員都不見面了更不用期待蔡小姐會講什麼中華民國了高下立判</t>
+          <t>我看新加坡李顯龍訪中接機不戴口罩https://i.imgur.com/VO6MXxG.jpg在廣州參觀電動車跟見中國老闆不戴https://i.imgur.com/ldAaENk.jpghttps://i.imgur.com/rU1OpWI.jpghttps://i.imgur.com/qmPzgIm.jpg跟在華新加坡同胞演講要戴https://i.imgur.com/GPcebpC.jpg隔天繼續在廣州參訪幾乎口罩戴緊緊室內室外都戴https://i.imgur.com/3MBKQ7o.jpghttps://i.imgur.com/YI0o56N.jpghttps://i.imgur.com/DzEIzMp.jpghttps://i.imgur.com/kLq8Cr0.jpghttps://i.imgur.com/DCZ85gL.jpghttps://i.imgur.com/Yx7BB8u.jpghttps://i.imgur.com/GCFOqDa.jpghttps://bit.ly/3JQRMGAhttps://bit.ly/3JVTyGc這戴口罩時機怎麼回事啊？有點讓人搞不懂</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文訪美也是蔡小姐</t>
+          <t>[討論] 民進黨是不是比國民黨會舔共？</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680055957.A.6AA.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058523.A.67E.html</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>我看了政黑版友推文覺得很有道理馬英九這次可是把所有該說的都說完了中華民國台灣總統不用稱讚但如果在中國講到這種程度還要被痛罵那他們都是共產黨一份子都是中國同路人我認為這些人都是要來分化台灣的啦嘰垃圾</t>
+          <t>馬英九這次去中國自稱台灣總統，也讓民進黨舔共的行為被放大，以下是民進黨賣台的行為：1.執政了還不正名，讓運動員以Chinese Taipei (中國台北)名義出賽。2.去年8月飛彈飛過台灣結果當龜兒子，還要日本爸爸告訴我們。3.黨內有人去中國做生意，文件上竟然寫中國台灣省，還派出來選直轄市長。想問民進黨是不是比國民黨會舔共？</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[黑特] 今天開始駡馬的</t>
+          <t>[討論] 雙重承認跟九二共識的差別？</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056098.A.7D4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058716.A.B19.html</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>所以黑龍現在混的不好啊黑龍也不是什麼壞人學經歷背景也算完整了為什麼越混越差呢看他用什麼人就知道人以群分 物以類聚古人誠不欺我</t>
+          <t>我看到有人說民進黨已經轉為雙重承認，可是聽起來怎麼跟九二共識沒啥兩樣啊！不就一個中國，各自表述那一套嗎？講半天原來是蔡英九啊！雙重承認跟九二共識的差別在那邊啊？</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Re: [討論] 林佳龍怎會把卓冠廷、王義川當寶？</t>
+          <t>[討論] 美國開始鋪紅地毯迎接中華民國蔡總統？</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056109.A.363.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058747.A.ECF.html</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>年年禽流感？賣場一盒蛋(10顆)從27漲到29，再漲到32、37到之前的60、62、65、67、68現在甚至看到一盒10顆蛋100多元的真扯一顆蛋能獲得的蛋白質大約7g這樣換算下來，從雞蛋獲取的1g蛋白質是台幣一元或超過一元這樣的蛋白質單位價格不便宜蛋又是其他 糕餅、甜點的製造食材※ 引述《TommyHil (湯米)》之銘言：: 我們的農委會主委陳吉仲說: 因為烏俄戰爭: 因為武漢肺炎: 因為禽流感: 啊不對啊: 其他雞蛋多到可以出口的國家: 是活在世界和平的平行時空嗎: 現在進口蛋還比台灣菜市場的雞屎蛋還便宜: 到底還有什麼理由啊？？？？</t>
+          <t>塔綠班都在笑馬英九卸任「前元首」的規格降低，連鋪紅地毯都沒有，也沒有鳴21禮炮那麼作為現任元首的蔡英文美國白宮拜登總統準備鋪紅地毯，鳴21禮炮，高規格接待中國民國總統蔡英文博士了嗎？</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Re: [黑特] 陳吉仲的缺蛋理由根本鬼扯</t>
+          <t>[新聞] 傳6月訪美？朱立倫：目前沒有規劃 派</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056137.A.E38.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680058971.A.BF5.html</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>顏寬恒投入立委選戰　遭檢調搜索偵訊！夫妻1000萬、500萬交保 2023/03/29 09:41【記者王煌忠／台中報導】前立委顏寬恒去年投入台中第二選區立委補選，爆出沙鹿豪宅違建爭議而敗選，上週顏寬恒才領表登記宣布投入下屆立委選戰，台中地檢署就接獲檢舉，直指顏氏夫妻涉嫌竊占、偽造文書，昨天（28日）前往顏家搜索，並帶走顏寬恒及妻子陳麗凌，訊後分別諭知1000萬、500萬交保候傳。台中地檢署表示，偵辦顏姓被告涉嫌竊佔、偽造文書等罪嫌案件，經指揮本署重案支援中心、調查局中機站、航調處，執行搜索、傳訊，經檢察官訊後，分別諭知顏姓被告、其配偶陳姓被告新臺幣1000萬元、500萬元交保候傳。https://reurl.cc/n7lkL2看來國家機器動得很厲害綠畜又在噁心別人了看到馬英九讓綠畜生氣 就知道是打到痛點幹你媽塔綠班</t>
+          <t>https://www.setn.com/News.aspx?NewsID=1272792三立3.完整新聞標題傳6月訪美？朱立倫：目前沒有規劃　派「這2人」率先前進美國4.完整新聞內容︰傳出國民黨黨主席朱立倫將於6月訪問美國，替總統候選人赴美開路。對此，朱立倫今(29日)表示，目前沒有這樣規劃，未來只要配合總統、立委候選人，或黨的需要，他能配合的一定盡量努力；並透露國民黨智庫執行長柯志恩明天出發到美國，副主席夏立言4月也要到美國去。朱立倫今天上午到慈湖謁陵，並接受媒體聯訪表示，目前沒有訪問美國這樣規劃，未來只要配合總統、立委候選人，或黨的需要，他能配合的一定盡量努力，近期黨的重要人士都要到美國訪問，包含柯志恩明天出發到美國，會見老朋友、拜訪智庫，跟僑界見面，夏立言4月也要到美國，主持會議，都會見很多朋友。媒體詢問，柯、夏是否提前到美國拜會，為2024鋪路？朱立倫說，每位出訪都有意義，奠定國民黨獲得國際友人支持跟僑界支持基礎。另外，近日桃園東非狒狒不幸中彈身亡，朱立倫認為，這次讓大家見證一件事情，就是國人對生命教育重視，對於任何動物生命都非常關注，相信桃園市長張善政會透過這事件讓同仁了解生命教育，對生命尊重是國人關切的。5.附註、心得、想法︰這就是為侯友宜訪美鋪路了年輕的綠粉常常有一個迷思美國會較支持民進黨這完全是天大的誤會國民黨和美國的和作比民進黨的時間多太多了美國又不是一定要民進黨風向已經變了民進黨這波大順風差不多到此為止了成也美國 敗也美國</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>[新聞] 顏寬恒投入立委選戰　遭檢調搜索偵訊！</t>
+          <t>[討論] 我家綠粉又稱讚馬了….天大的奇蹟</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056193.A.EC2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059210.A.FE9.html</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>就會反將一軍，大大的加分馬英九到對岸一沒有紅地毯，二接機規格降低雖然喊了幾聲中華民國，但也很模模糊糊如果蔡英文這次去美國禮遇上高出馬英九一大截，不光可以勝過馬英九還能抵消宏都拉斯斷交的尷尬而且這次時機不錯，馬英九正在對岸，相信對岸不至于對蔡英文去美國有過激的反應</t>
+          <t>我家綠粉昨天繼中華民國後今天又稱讚馬講台灣總統雖然中國那一位沒給什麼面子要知道我家綠粉最早因為國民黨什麼三七五跟阿里阿雜的政策和柯文哲一樣最討厭3樣蚊子、蟑螂、國民黨結果今天因為一句台灣總統稱讚說馬狗好樣的看來只有板上綠共還在崩潰惹</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>綠粉們請進～</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059218.A.F7E.html</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>很好奇問一下喔馬英九這次7中國祭祖 中華民國前總統講了 台灣總統也講了 你們到底在不爽什麼？小粉紅崩潰不爽正常啊，你們在崩潰不爽什麼可以跟偶說一下嘛？我真的看不懂，馬囧後面連台灣總統也講出來了你們到底在不爽什麼？剛剛美國說蔡英文飛機只是經過連派人要跟她交談的打算直接回復我國「總統」只是路人旅客你們都沒崩潰，馬囧在對岸喊出了中華民國前總統與台灣總統你們卻在崩潰腦中風，我真的看不懂欸，哪位資深綠粉可以解釋一下？</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[討論] 中國4個APP攻佔美國前五名 中華民國呢？</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059350.A.E2F.html</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>共產中國有4個APP攻佔美國APP榜前五名反觀中華民國連一個都沒有官僚只會浪費公帑做一堆單一功能、用一次就沒屁用的垃圾APP不可能跨國使用，更不可能攻佔美國、世界APP榜中國真的共產嗎？中華民國真的自由嗎？錯，中華民國最共產獨裁從產業表現就能客觀、理性、公正的證明不是教授打嘴砲就可以偽造的但是教授的專長是洗腦，無憑無據，只要嗆下去，學生就買單、直接影響社會意識形態共產獨裁的中華民國批評中國共產，中國卻表現自由經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>[討論] 如果蔡英文到美國下飛機有紅地毯</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680056434.A.377.html</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>太過分了 真是太過分了 一點都不尊重女性 怎麼可以這樣贈勳？太誇張了吧 搞什麼東西啊https://i.imgur.com/w9mCcFV.jpghttps://i.imgur.com/7nQ4CFc.jpghttps://i.imgur.com/8LRCLdk.jpghttps://i.imgur.com/ys7DxHL.jpg媽的 美國總統怎麼也敢啊 太過分了吧※ 引述《andy199113 (誒嘿嘿嘿)》之銘言：: 1.新聞網址︰ https://bit.ly/3Kd0Ir5: 2.新聞來源︰ 中視: 3.完整新聞標題: 對捷克女議長"環抱贈勳"!? 外交專家傻眼喊:"我的媽啊?!"│中視新聞 20230328: 4.完整新聞內容︰: 中視新聞 | 2023/03/28 18:01:37: 記者張召朋、王志恆 台北採訪報導: https://www.youtube.com/watch?v=mP0cD6jlh04: 捷克眾議院議長艾達莫娃，到立法院接受游錫竃院長的贈勳，不過游錫堃的贈勳方式，讓: 在場所有人嚇一跳，一般國際贈勳是"面對面掛勳章"，游錫堃卻是站在捷克女議長後面，: 用環抱的方式，幫議長掛勳，讓外交專家當場看傻。: #艾達莫娃 #游錫堃 #中視新聞 @中視新聞 收看中視新聞，請鎖定新聞台154。: 訂閱中視新聞24小時直播頻道，最新最快消息不斷線唷~ https://bit.ly/3bF2VwV</t>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">							(本文已被刪除) [maththink]						</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680059628.A.0E3.html</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>這次馬英九自己台灣的總統，小粉紅崩潰說：中華民國1949就滅亡了哪來的國家，綠粉跳針說：馬這個，阿是哪個，想問民進黨和共產黨怎同時反對台灣總統這個稱呼？</t>
         </is>
       </c>
     </row>

--- a/ptt.xlsx
+++ b/ptt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[討論] YOUTUBE越來越多外國人舔台 ?!</t>
+          <t>[黑特] 33怎麼可能不分區第一啦</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086172.A.855.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760929.A.C0C.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DPP蔡陰魂 執政7年YOUTUBE越來越多外國人舔台頻道 日韓一堆 白皮人也一堆根本雨後春筍式的大爆發 連支那配偶的也一堆這幾年 台灣在DPP執政下挺過烏俄戰爭 武漢肺炎 等等重大災難相對其他國家 損失損害真的都被最小化~台灣也越來越成為外國人的避難天堂~反觀馬八年 一個雷曼兄弟就讓馬奶技窮衰敗八年 經濟不振 只能舔跪叩陸客真的很逼哀~~~~~~~~~※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>黃33就一個議員咖當過兩年副市長 選市長又慘敗虹姐當了7年 入閣也才當個參事小智當過市長 搞不好都進不了不分區名單33不分區立委第一名 還不夠資格啦應該是黃國昌第一才對</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[討論] 事實就是只有藍營路線可以保障臺灣</t>
+          <t>[討論] 馬總統有點沒梗了，怎麼辦</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086257.A.216.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761198.A.735.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>臺派現在擺在檯面上的陽謀無非是逼迫兩岸在中共握有絕對優勢前開戰靠戰爭逼迫美日選邊站更重要的是靠戰爭來催生臺灣民族主義讓臺派壓倒現在的主流建制實現階級跳躍自己先腦補中國戰勝駐軍臺灣的可能性不存在然後在此前提之下把臺灣整個打爛也在所不惜反正在他們眼裏臺灣現在的經濟成就也只是主流建制吃到冷戰結構紅利的產物全部推倒重來最好頗有毛澤東當年"房間打掃好了再請客"之遺風but事實證明臺灣主流社會對戰爭販子不感興趣越是渲染用戰爭來催化民族主義的氣氛民意越是會反彈事實證明只有藍營堅守中華民國 與對岸保持最低情感連結的泛民族路線纔是進可攻退可守的最佳解纔是維持臺灣不被中共統治之底線的最優解具體論述不展開講了懂得都懂</t>
+          <t>馬總統一開始新聞比蔡總統多而且馬總統cosplay成1942年的小朋友，用廣播劇的方式大喊「中國萬歲」再由藍營媒體補充解釋那時候的中國是中華民國彎道達成「在中國大喊『中（華民）國萬歲』」的成就此可謂震古鑠今！！！成就力壓歷任總統！！但到今天馬總統好像有點沒梗了除非巧遇習主席不然只剩一天了那該怎麼辦是不是今晚很關鍵今晚馬總統一定要有個爆點才行？</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[討論] 大陸如果打台灣，也會是特別軍事行動</t>
+          <t>[討論] 世界怎麼跟的上台灣？</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086368.A.AC0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761243.A.706.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>兩岸本屬一個中國，只是各自表述，大陸如果開戰台灣，這將會是內戰的延續而不是一場國與國戰爭，中華民國領土還包含大陸，所以開打的話對大陸來說會是特別軍事行動，未來歷史不會稱之為中台戰爭，而是中國內戰再啟。</t>
+          <t>看好了世界台灣只示範一次！一國的總統見不到另一國的總統,還在那裡沾沾自喜！這不是自己降格嗎？https://i.imgur.com/PMPCctG.jpg然後這次花了那麼多錢,有拿到什麼回台灣嗎？ 「爾俸爾祿，民膏民脂，下民易虐，上天難欺。」</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Re: [討論] 蔡英文具體做了什麼事來抗中保台！？</t>
+          <t>[討論] 民國百十二年四月六日</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086601.A.CFD.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761457.A.C6E.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>物價漲電價漲房價高出生少死亡多結婚率創新低人口負成長過去從沒發生過的事缺水、缺電、缺蛋最近一一發生各式農產品被退貨邦交國斷一堆然後現在還是中華台北台灣其實在慢慢走向滅亡中我都懷疑蔡包是不是大齡沒人要所以反社會派來毀滅台灣的</t>
+          <t>前台北市副市長黃珊珊女士正式加入台灣民眾黨 （政黑點）1997年起積極推動民營化政策的中華電信（政黑點）也在這一天公告即將結束「Xuite隨意窩」的服務 並刪除網站全部資料會不會N年後的四月六日PTT也宣布結束營運並刪除全部資料？各位的歲月年華就如過眼雲煙，頭腦風暴的熱議爭執也一筆勾銷…就在工程師的一個rm -f ptt/* 之間消失又是時代的眼淚～大家有什麼想法</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[討論] 費鴻泰當年有去衝謝長廷總部</t>
+          <t>[討論] 柯阿北可否選總統，兼不分區第6位？</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086794.A.073.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761619.A.03D.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>最近講到費鴻泰我突然想到2008年總統大選之前https://news.ltn.com.tw/news/focus/paper/195751費鴻泰以財委會名義突襲謝長廷總部被帶到派出所偵訊演變成後來的四傻事件被國民黨停權一年還發現他在馬英九第一任的時候當過台北市副議長原來年輕時的費鴻泰蠻猛的</t>
+          <t>大家好本肥柯粉剛想了一下，除了33與國昌一定要延攬到我們民眾黨的不分區名單柯阿北也可以身兼兩職當總統候選人，兼不分區第6位如果選上，就當總統；沒選上，以柯阿北的人氣度，民眾黨至少六個不分區沒問題！這樣是不是萬無一失了？柯阿北至少可以進入立法院，好好監督政府大家覺得好不好？？</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[轉錄] 何典：政黑XX9被圍攻防爆</t>
+          <t>[黑特] 哼 蔡英文有辦法在美國國會演講嗎</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680086928.A.ECC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761621.A.7BC.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.轉錄網址︰https://reurl.cc/ykO7eE2.轉錄來源︰何典3.轉錄內容︰PTT政黑板有位xx9網友，發表了一篇他對中國經濟景氣下行的個人心得。當然，這是微觀的心得，讀者可信可不信。沒想到，這篇竟然引來八卦板防爆部隊來狂噓，更竟然讓好些個，在政黑板裝了兩年台灣淺藍選民的ID，也露臉，奮不顧身對作者猛力攻詰，猛力到了PRC身分都露餡的地步。結果是讓台灣鄉民開始覺得這篇應該非常有可信度了。欲蓋彌彰，講的就是這些五毛/自干五吧？這篇文章帶出來的網軍反應實在很有趣，連結我放留言區，推薦大家去看看。4.附註、心得、想法︰哪一位是淺藍選民實際是PRC自干五啊？你知道你露餡了嘛？跟icrose交換一下微信看怎麼學大大方方的揭露自己中國人身分</t>
+          <t>韓國尹老闆4/27要去美國國會演講喔慶祝韓美結盟70年上次韓國總統在美國國會演講是2013了https://bit.ly/3KA3J4Yhttps://bit.ly/3KE4Dx6尹老闆還會趁機抱怨美國的法案影響韓企權益呢你蔡英文辦得到嗎進國會再說</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Re: [新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
+          <t>[討論] 馬總統都去對岸求和 怎麼解放軍還來挑釁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087078.A.C80.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761786.A.047.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>※ 引述 《LeeSeDol》 之銘言：: 徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸的地: 方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司，說: 到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路？擔: 心的是這個。小姐頭城 淡水 本來就有海纜站老美的光纖本來就在那邊光纖是一條條的 實體隔離的你的光纖裡面跑什麼 隔壁是看不見的就跟我在我家打手槍 隔壁不會知道一樣今天老美自己的光纖斷掉AIT的人不能上政黑板看笑話要不要找備援？光纖是一芯一芯的 虧你名字還有個芯其他海纜站還會通的話可以撥幾芯借給老美用或是在交換中心用分光的方式借給他這個要不要先規劃好 是不是要談價錢？跟機密沒關係 是生意辣</t>
+          <t>如提啦 馬前總統去中國求和，讓藍白賤畜這幾天一直高潮不斷。拼命洗文說什麼只有馬總統才能讓維持兩岸和平，綠畜塔綠斑只會挑釁大陸結果昨天中共怎麼馬總統人還在大陸，解放軍就宣布要軍演，還派航母去繞台灣海峽說好的國民黨才能保障和平呢? 有沒有藍白賤畜要說明一下的???</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[黑特] [黑特] 塔綠班用狒狒成功蓋過缺蛋新聞</t>
+          <t>[討論] 藍營人士對蔡麥會的看法</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087080.A.DBE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680761808.A.3A4.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>就在缺蛋缺到民怨沸騰的時候，一隻來路不明的狒狒就這麼橫空出世了。狒狒莫名其妙被殺了，鄉民全都炸鍋了。缺蛋新聞完全被蓋過去了。塔綠班這波是不是神操作？可以當作政治學教學範本了吧？</t>
+          <t>蔡英文會晤麥卡錫　賴士葆諷：見了面就能建交或進入CPTPP？https://www.ettoday.net/news/20230405/2473300.htm綠委稱「蔡麥會」打臉疑美論 葉元之痛批：像藩屬國晉見天朝https://www.chinatimes.com/realtimenews/20230404002385-260407?chdtv蔡英文突破歷史？羅智強起底美國：實際付出是「零」https://www.chinatimes.com/realtimenews/20230405001094-260407?chdtv國民黨繼續這樣自暴自棄就對了李登輝留下來的美、日關係，國民黨棄之如敝屣蔡英文通通接收了侯侯如果去美國，會不會也是逛植物園？</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Re: [討論] 大家都是中國人</t>
+          <t>[討論] 區域立委有民眾黨的戲嗎</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087106.A.280.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762255.A.2E4.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>我個人覺得目前我們國家是「中華民國」，沒錯。 但中華民國是否簡稱中國，這有爭議。 簡稱就是約定成俗。沒有什麼規則。 目前國際間普遍認知中國是中華人民共和國的簡稱！ 這才是很多人有疑慮和難以接受的原因！ 其實重點是「中華民國」，簡稱什麼，我覺得是其次。 若真的很在乎「中國」這個簡稱！我覺得重點是要讓國際上認同！不是一直在國內搞「大內宣」！ 況且日本和韓國的新聞大多寫台灣總統。 我們的護照也寫Taiwan 不是China 。</t>
+          <t>堂堂第三大黨的民眾黨，去年一舉就拿下一席市長。明年大選就要選立委了，區域立委會有民眾黨的戲嗎？市長都拿的下來了，區域立委沒理由不報名吧。不知道新竹市會提誰來對決鄭正鈐，其它縣市還會有黑馬嗎？</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[討論] 震撼，郭台銘親美親日了</t>
+          <t>[討論] 雙英簡評</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087187.A.6DD.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762373.A.E91.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://i.imgur.com/xKvcce2.jpg怎麼辦我們藍粉明燈親美日了不是說好要跟馬英九一起親中仇日反美嗎藍粉現在兩邊舉棋不定混亂了  崩潰了到底要親美還疑美好困擾啊嘻嘻</t>
+          <t>雙英的行程也差不多都結束了來做個簡單的評論就用小笠原所講的台灣人對兩岸的共識為架構1.拒統2.要和大陸交流我再加一個3.避戰這三個共識差不多就是2024的主基調了蔡英文*[40;36;1m1.拒統*[m</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[討論] 講個台灣總統，藍粉高潮幾點的</t>
+          <t xml:space="preserve">[討論] 有點羨慕國民黨這麼多潛在總統候選人 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087349.A.094.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762410.A.B8F.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>高潮到好像是人家承認你獨立一樣根本自己喊自己爽而已對阿共來說根本沒差馬英九最愛還是中華民國對阿共來說中華民國已經掛了喊台灣也沒人承認根本不會少一塊肉在那邊幻想國民黨加分笑死總統候選人先生出來，懂嗎</t>
+          <t>看來看去 目前民進黨篤定就是賴清德了因為全黨只有他去領表登記參選至於民眾黨的話 應該也是只有柯文哲所以目前來看 民進黨、民眾黨 都是只有一人 沒有其他人選反觀國民黨就不一樣了 潛在候選人、或者是有意參選的至少就七組以上例如 侯友宜、郭台銘、朱立倫、韓國瑜、盧秀燕、趙少康、張亞中真的還蠻羨慕國民黨的 竟然有這麼潛在候選人這樣等於是七人小組 勝率應該是大大提升2024國民黨應該是穩了</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[黑特] 欸 沒有缺蛋吧？！</t>
+          <t>[討論] 翁達瑞還沒評論蔡麥會，怎麼辦</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087446.A.D00.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762727.A.B23.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>我剛剛買了一堆台中第二市場長崎蛋糕注意 長崎蛋糕不是蜂蜜蛋糕長崎蛋糕沒有加蜂蜜阪神本舖的長崎蛋糕吃起來鬆鬆軟軟比福砂屋好吃多了完全不缺貨啊哪裡有缺蛋不要騙人了好嗎https://i.imgur.com/6hp8osJ.jpg</t>
+          <t>綠營側翼主流聲量人物、三立政論節目寵兒：翁達瑞到現在還沒吹捧蔡麥會怎麼回事照理說新聞報那麼大（綠粉說法）時奮又是堂堂美國教授對這件事的敏感度應該高於常人是食材太爛燒不出好菜嗎</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[討論] 北連戰中清標</t>
+          <t>[討論] 最新總統民調 賴39% 侯25.5% 柯17.1%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087492.A.ED5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762753.A.6EC.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>台灣北部和中部的兩大家族  連戰和顏清標家族兩個家族的崛起都充滿傳奇 累積財富的能力和速度超乎常人所能想像兩大家族聯手選總統有沒有希望可以統治台灣呢</t>
+          <t>關鍵調查有限公司今年有做南投補選跟其他立委選區的民調3/28-3/30樣本 906份賴清德 39%侯友宜 25.5%柯文哲 17.1%賴清德 38.7%郭台銘 21.8%柯文哲 19%賴清德 40.9%朱立倫 8.1%柯文哲 26.1%</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[黑特] DPP 抗中飽台實績</t>
+          <t>[黑特] 年代向錢看要破百萬訂閱????????????????</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087537.A.BE4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762789.A.60E.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>陸軍:美國國民兵進駐 火山布雷 黑熊 壯闊台灣     購買M1A2超兵器級坦克 兵役延長到1年海軍:國艦國造 大量捕雷艇 護衛艦 海巡艦下水     雄風三型超兵器級飛彈服役     國造潛水艇年底前下水空軍:F16V IDF昇級版 勇鷹教練機     添購AIM120超視距飛彈法律 國安五法 大力整頓國軍內間諜 馬時期大量匪諜被抓(今天鏡周刊)大面積大手筆大視野的跟美國合作指管通勤 民間通訊整合(徐巧芯今天爆的)民間都大加整頓以備戰亂GDP超日韓 633達成 資金人才歸隊台灣人民有錢 抗中飽台以上全無GOOGLE想到的老蘭男柯糞郭糞 反對美國軍購現在又出來哭菜陰魂美搞國防?!是精神錯亂惹?!※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>先等等年代向錢看默默地要破百萬訂閱了耶現在已經99萬4千還記得之前被笑收視率差怎麼訂閱人口那麼多新聞面對面比想像中少好多懷念以前優質台妹拿台幣在那邊甩不過我好愛佩芬姐在那邊DISS國民黨很中肯又好笑</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Re: [討論] 泰國蛋進口 逼出屯蛋的了？</t>
+          <t>[討論] 是不是應該修選罷法</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680087659.A.79F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680762814.A.E99.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>※ 引述《medama ( )》之銘言：: https://i.imgur.com/UYXViuS.jpg: 剛看臉書分享: 有人疑似屯蛋過多拿出來賤賣: 看來泰國蛋進口 成功逼出屯蛋的了？: 農委會這招還不錯啊 蛋荒解除: 滷蛋可以回到一顆10塊了嗎？補充：原FB刪文了仔細想想此則貼文可能是看圖說故事畢竟如果真的1顆蛋三塊錢照理應該會寫個紙牌吸引人注意這</t>
+          <t>看到老阿姨的家人在美國住實在很傻眼是不是應該修改選罷法關於總統的部分幾親等內之親屬不得有雙重國不然這有點像選班長時當選的卻是隔壁班有後路的人會認真當班長嗎</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文執政快8年了，你給她執政幾分？</t>
+          <t>[公告] 政治黑特板板規__20230217</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680088187.A.376.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1676616205.A.AE3.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>蔡英文執政也快8年了，請問各位給她執政幾分？疫情，缺蛋，斷交，雞排快破百，荷包蛋20，電價上漲，下面有幾個分數選項給各位選擇，我個人是給E啦，可以討論討論A.90分以上B.60到90分C.30分到60分D.1分到30分E.0分</t>
+          <t>╭──────╮│第一章  總則│╰──────╯￣￣￣￣￣￣￣￣1.本板接受中華民國政府頒布之法律，教育部學術網路公約，以及PTT站方制定之站規管  轄。2.本板為政治黑特板，主旨在於討論政治/民生/社會現狀等相關議題。3.文章標題、文章內容、發文者簽名檔，皆視同發文本體，其內容應遵守板規。4.各項違規依違規事項所屬章節處置，連續違規者依各章節區分違規及前科數，板主得以  視情節給予處分，並依連續違規條文計算水桶天數。5.違規者（無論本尊/分身）於最新違規發生日之前一年度相對日內　（非水桶日期）再度違規為累犯者，並以該期間該使用者所有帳號違規次數為前科數，　違規次數應採「前科累積加重水桶」。　(板主可依照帳號部歷史公告判定或帳號部公告之簡易認定程序處置）　水桶天數＝判決水桶*(前科數+違規數)6.使用分身/Bug規避板規或水桶，經確認後本尊/分身皆判決原判決*2＋剩餘天數，  違規期間發文全數退文且水桶自新公告起計算。(分身案追溯期限為一年)7.所有水桶/前科紀錄定期歸檔，並將紀錄收錄政檢板精華區以供查詢。8.所有板務應依政黑/政檢規定執行/處分，結果應公開於板面上，並以政檢板文章為準。 （刪除/退文主動處置之違規不在此限，但結果應公開於政黑/政檢板面上）╭────────╮│第二章  文章分類│╰────────╯￣￣￣￣￣￣￣￣￣￣1.本板發文請遵守本板主旨、標題分類與分類格式，違者刪除。2.發表文章須40個繁體中文字以上，外文以單詞計算。作者本人轉錄文章以　轉錄文章字數計數。　(簽名檔、網址、無意義字詞、轉錄他人文章、他方平台及轉錄/發表新聞內容不計入)　禁止手動置底相似文章或發/推文過多簡體字，以上違者刪除。3.本板文章標題分類為『黑特』、『討論』、『創作』、『Live』、『轉錄』 『新聞』、『公告』，其餘分類隨公告而動態增減。4.標題分類使用說明：  a.黑特：心情抒發/幹意發洩等。  b.討論：時事/政治/民生/政問/獨家/政府決策/舊聞等討論。  (舊聞應附上40字備註、心得)　c.創作：延伸創作/空想/惡搞等。　d.Live：政論節目/政府實況/公民轉播等。  e.轉錄：社論/它版文章/其他平台資料等。  f.新聞：張貼付有來源之新聞。  g.公告：板主專用分類。5.「Live」、「新聞」、「轉錄」及轉錄他方內容遵守下列規定。　a.字數認定依板規2-2處置。  b.每日此類文章上限3篇。（任何原因自刪及被板主刪除均計入額度）  c.來源為外站者，須附上連結，過長須縮址      https://reurl.cc/main/tw  d.此分類文章禁止多篇合併發文或使用其他分類偷渡。  e.重複發文已有相同來源或內容文章。  f.「Live」文章限發表節目首播24hr內之政論節目/政府實況/公民轉播等。  g.「新聞」、「轉錄」文章限發表3天內之新聞、社論/它版文章/FB/其他平台資料等。  h.「新聞」、「轉錄」應完整轉錄該文且禁止修改原文。  i.轉錄它板文章應原作者同意，並刪除原文下之推文。  j.原文為外文者，須附上簡易翻譯。  k.轉錄來源為FB，須為公眾人物或牽涉公眾/政治議題。  l.「新聞」標題須為原新聞標題且從頭張貼，內文應張貼完整新聞標題，  轉錄FB標題須為來源名稱。(ex:人名、粉絲團名…etc)　m.轉錄站方公告不受2-2、2-5-h限制，嚴禁修改內文及濫用，並計入2-5每日額度。6.「公告」限板主使用，板主使用公告及轉錄站方公告不受板規第二章限制。7.政黑板嚴禁於板面上發文討論他板板務(公告、修改板規與之內容)，違者刪除。8.張貼公益救助/學術調查/活動宣傳等，應詢問板主並得到任一板主單次同意，違者刪除。9.每日發文/回文上限5篇，禁止手動置底相似文章 違者超貼文章刪除。 （任何原因自刪及被板主刪除均計入額度）10.嚴禁任何方式公開站內信/水球紀錄且未經當事人同意，違者水桶7天並刪除。11.嚴禁修/刪本板板友推文（除板主執行個資保護與板務處理外），   違者水桶7天。12.發表無關板旨文章，板主刪文警告後依然故我者，視為鬧板文章，違者文章退文刪除13.多篇文章下，8小時內重複、若無意義或相同之推噓文達5次以上違規。   (若板主處理板務可不列入)14.單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達5次以上， 　違規一次水桶14天。15.預留空條款16.預留空條款17.預留空條款18.預留空條款19.若違規條文沒有明定水桶天數，則以正常水桶之天數（7天）處之。╭─────────────╮│第三章  言語／漫罵攻擊規範│╰─────────────╯￣￣￣￣￣￣￣￣￣￣￣￣￣￣￣　判決要件:[特定的對象/群體]與[明顯貶抑詞語]，需兩者皆有應視為言語/漫罵攻擊。1.本板不鼓勵言語攻擊，發/推文皆受規範，違反本章規定者水桶35天。2.特定對象/群體定義:　a.PTT使用者，如(1)ID, (2)暱稱/代稱, (3)討論上下文行為等　　　　　　 (1) (2)客觀可確認為針對特定使用者， (3)由板主判定。　b.未明確對象，但回文特定對象之文章/推文，並發表非針對文章／推文之攻擊內容。　c.指定推文樓層並發表非針對推文之攻擊內容3.明顯貶抑詞定義: 經由下述網站判決書/辭意判斷，詞義相同且能證明貶抑之意。  若使用判決書系統，須為有罪判決；只接受妨害名譽/公然侮辱等案由判決書。  裁判書系統：http://goo.gl/BqhOjY  萌典：https://www.moedict.tw允許(1).發語詞以及同義但不同口語間轉換之使用    (2).詞語雖具貶抑但不具攻擊屬性        此部分交由板主判斷4.鼓吹暴力言論/以非法手段嚴重損害特定對象生命財產安全之言論，視同違反本章規定。5.公眾政治人物/政府機關/政治族群/經媒體披露/社會議題相關團體者等，　不受此章保護。6.非政治群體，如攻擊行政區域地緣/宗族/信仰/興趣/性別/性傾向/學歷/職業等，  水桶7天。╭──────╮│第四章  鬧板│╰──────╯￣￣￣￣￣￣￣￣￣￣￣1.禁止非板主者發/回公告文，違者水桶90天並退文刪除。2.廣告/色情血腥/惡意使人驚嚇整人/病毒/竊取個資/在文章以及推文影射或透漏他人個  資等內容或連結，禁止發/推文於本板，違者文章退文刪除水桶90天，  推文刪除水桶180天。(任一板主於接獲檢舉或巡查發現本項違規可直接執行違規處置，唯仍需公告於政黑板。)3.境外IP使用者「發文」內容經IFCN認證之事實查核相關網站查詢為錯誤、誤導或不正  確等訊息，並經由板主群多數決認定，處以退文刪除及水桶180天。  台</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[討論] 為什麼綠粉要囤蛋！？？</t>
+          <t>[公告] 暫行板規</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680088217.A.C47.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677418156.A.5E3.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>如題台灣缺蛋荒結果綠粉跑去囤蛋還拍照上網說你看 我家還有蛋 根本沒缺蛋綠粉是不是很可惡很噁心阿？？</t>
+          <t>暫行板規＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達3次以上，　違規一次水桶35天，板主得主動處理。＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝效期到五月底(5/31)檢舉時標題為： [檢舉] 文章AID碼 ID 暫行板規　　例： [檢舉] #1ZzmEAHX Rrrxddd 暫行板規不正常連噓→即利用BUG等方式 規避CD時間推噓文</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[新聞] 原本都在哪？網驚見「即期蛋」出清 農委</t>
+          <t>[公告] 03/01起 政黑進板圖 徵選開跑</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680088300.A.BF7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677582219.A.6F8.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://reurl.cc/d7pD1g2.新聞來源︰鏡新聞3.完整新聞標題原本都在哪？網驚見「即期蛋」出清 農委會籲：買新鮮的就好4.完整新聞內容︰為解決國內雞蛋短缺問題，農委會啟動專案進口國外雞蛋，今（29日）起陸續上架，每盒10顆售價最低68元，盼緩解民間需求。沒想到，進口蛋上架消息曝光後，網路上竟出現大量「即期蛋」拋售訊息，意外揭露「囤蛋」情況，讓不少民眾相當傻眼。農委會表示，雞蛋是農產品，有保存期限，呼籲消費者還是買新鮮的就好。農委會3月起專案進口雞蛋，3月底前進口約700萬顆雞蛋，並向國內加工業者調度280萬顆，總計近1,000萬顆雞蛋，近期將調度給洗選業者洗選分級及包裝標示後，以超市、超商及量販店等通路供應配送，以牌價販售給消費者，今起先配送至缺蛋最嚴重的區域上架，例如雙北地區，並於4月1日起，擴大到全台主要消費地區，讓消費者都能買得到牌價蛋。除了透過進口補足需求，4月過後天氣回暖，禽流感也逐漸獲得控制，農委會預估在4月下旬雞蛋的供銷就能回穩。事實上，國內雞蛋原本短缺比例約1至2成，但近期在各大通路幾乎難得看到雞蛋的蹤影，就有民眾懷疑是有心人士刻意「囤蛋」。近日進口蛋的消息公布後，陸續有網友在臉書等社群平台上發現不少出清庫存雞蛋的相關貼文，引發熱議。網路紅人四叉貓今在臉書分享，台北內湖路邊有一台廂型車，老闆開車載了整車數十籃的雞蛋，聲稱是「即期」的散裝蛋，每包只賣100元，目測約1顆3元，</t>
+          <t>本次活動期間為2023/03/01 至 2023/05/312023/03/01 ~ 2023/05/22 開始徵圖標題發文　[徵圖] ID + 作品名稱　例：[徵圖] Rrrxddd 藍綠白對決1人限投稿一篇，作品須為原創且符合政治黑特板旨，   確認無爭議後，板主M文且收錄於精華區。   反之，違者刪文並失去活動資格。2023/05/23 統整並發布候選名單2023/05/24 ~ 2023/05/30 開始投票由板友進行投票，選出最適合黑特板板旨的進板圖。視作品數多寡決定，至多一人2票。2023/05/31 公布結果若提前徵滿9篇 將停止徵選待投票結束統計無誤後由站方發放P幣第一名 20000P第二名 15000P第三名 10000P第四名  5000P參加獎x5  2000P x5</t>
         </is>
       </c>
     </row>
@@ -816,1277 +816,3949 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[公告] 政治黑特板板規__20230217</t>
+          <t>[討論] 你各位進來猜 國民黨候選人</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1676616205.A.AE3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679135675.A.D64.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>╭──────╮│第一章  總則│╰──────╯￣￣￣￣￣￣￣￣1.本板接受中華民國政府頒布之法律，教育部學術網路公約，以及PTT站方制定之站規管  轄。2.本板為政治黑特板，主旨在於討論政治/民生/社會現狀等相關議題。3.文章標題、文章內容、發文者簽名檔，皆視同發文本體，其內容應遵守板規。4.各項違規依違規事項所屬章節處置，連續違規者依各章節區分違規及前科數，板主得以  視情節給予處分，並依連續違規條文計算水桶天數。5.違規者（無論本尊/分身）於最新違規發生日之前一年度相對日內　（非水桶日期）再度違規為累犯者，並以該期間該使用者所有帳號違規次數為前科數，　違規次數應採「前科累積加重水桶」。　(板主可依照帳號部歷史公告判定或帳號部公告之簡易認定程序處置）　水桶天數＝判決水桶*(前科數+違規數)6.使用分身/Bug規避板規或水桶，經確認後本尊/分身皆判決原判決*2＋剩餘天數，  違規期間發文全數退文且水桶自新公告起計算。(分身案追溯期限為一年)7.所有水桶/前科紀錄定期歸檔，並將紀錄收錄政檢板精華區以供查詢。8.所有板務應依政黑/政檢規定執行/處分，結果應公開於板面上，並以政檢板文章為準。 （刪除/退文主動處置之違規不在此限，但結果應公開於政黑/政檢板面上）╭────────╮│第二章  文章分類│╰────────╯￣￣￣￣￣￣￣￣￣￣1.本板發文請遵守本板主旨、標題分類與分類格式，違者刪除。2.發表文章須40個繁體中文字以上，外文以單詞計算。作者本人轉錄文章以　轉錄文章字數計數。　(簽名檔、網址、無意義字詞、轉錄他人文章、他方平台及轉錄/發表新聞內容不計入)　禁止手動置底相似文章或發/推文過多簡體字，以上違者刪除。3.本板文章標題分類為『黑特』、『討論』、『創作』、『Live』、『轉錄』 『新聞』、『公告』，其餘分類隨公告而動態增減。4.標題分類使用說明：  a.黑特：心情抒發/幹意發洩等。  b.討論：時事/政治/民生/政問/獨家/政府決策/舊聞等討論。  (舊聞應附上40字備註、心得)　c.創作：延伸創作/空想/惡搞等。　d.Live：政論節目/政府實況/公民轉播等。  e.轉錄：社論/它版文章/其他平台資料等。  f.新聞：張貼付有來源之新聞。  g.公告：板主專用分類。5.「Live」、「新聞」、「轉錄」及轉錄他方內容遵守下列規定。　a.字數認定依板規2-2處置。  b.每日此類文章上限3篇。（任何原因自刪及被板主刪除均計入額度）  c.來源為外站者，須附上</t>
+          <t>餓死抬頭你各位進來猜一下國民黨 總統候選人 是誰感覺時程 很不穩定感覺會變來變去 不好徵文如果跟之前換柱一樣 那也不算猜的時間就到第一波 國民黨自己公布 候選人是誰後來有變數的話 看情況 要不要再猜第一波 猜對的我給 稅前200p==我看誰是通靈大師這樣ok吧</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[公告] 暫行板規</t>
+          <t>[黑特] 幹..我是中華民國國民啦!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677418156.A.5E3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757806.A.C8E.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>暫行板規＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝單篇文章下，重複無意義、不正常連續推噓或相似之推噓文達3次以上，　違規一次水桶35天，板主得主動處理。＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝＝效期到五月底(5/31)檢舉時標題為： [檢舉] 文章AID碼 ID 暫行板規　　例： [檢舉] #1ZzmEAHX Rrrxddd 暫行板規不正常連噓→即利用BUG等方式 規避CD時間推噓文</t>
+          <t>邏輯上我是中華民國國民我是中華民國台灣省的省民，簡稱台灣人所以能稱自己是中華民國人對吧!也就是說當對外說是台灣人時代表的意義就是指自己是中華民國台灣省的省民那問題來了如果上面的邏輯成立那金門縣、連江縣同樣隸屬在中華民國之下的省縣市那請問他們該稱台灣人還是福建人如果以DPP認為中華民國的國民就是台灣人那按前面的推論澎湖縣、金門縣與連江縣是不是都該屬於台灣省的治區呢?所以究竟中華民國的國民該自稱自己是台灣人嗎?還是說中華民國台灣該自稱自己是台灣人，如果是這樣那金門縣與連江縣的縣民算什麼人如果他們也是台灣人，那中華民國福建省是不是該廢掉如果不是那他們算什麼!※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[公告] 03/01起 政黑進板圖 徵選開跑</t>
+          <t>Re: [討論] 塔綠班到底在吹三小，是建交了嗎？</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1677582219.A.6F8.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680758127.A.411.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>本次活動期間為2023/03/01 至 2023/05/312023/03/01 ~ 2023/05/22 開始徵圖標題發文　[徵圖] ID + 作品名稱　例：[徵圖] Rrrxddd 藍綠白對決1人限投稿一篇，作品須為原創且符合政治黑特板旨，   確認無爭議後，板主M文且收錄於精華區。   反之，違者刪文並失去活動資格。2023/05/23 統整並發布候選名單2023/05/24 ~ 2023/05/30 開始投票由板友進行投票，選出最適合黑特板板旨的進板圖。視作品數多寡決定，至多一人2票。2023/05/31 公布結果若提前徵滿9篇 將停止徵選待投票結束統計無誤後由站方發放P幣第一名 20000P第二名 15000P第三名 10000P第四名  5000P參加獎x5  2000P x5</t>
+          <t>※ 引述《hydra3179 (真o跑步哥)》之銘言：TMD說起來，馬也不過在中國領土說了幾次中華民國什麼實質東西都沒有但連我這塔綠班都不吝稱讚馬英九幾句換成藍白粉面對蔡英文馬上就把標準拉高再拉高反正顏色不對，就死都不肯說一句好話這就是藍白粉的德性</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[討論] 你各位進來猜 國民黨候選人</t>
+          <t>[討論] 每次期待中共怎麼後來都沒事？</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679135675.A.D64.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680758155.A.102.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>餓死抬頭你各位進來猜一下國民黨 總統候選人 是誰感覺時程 很不穩定感覺會變來變去 不好徵文如果跟之前換柱一樣 那也不算猜的時間就到第一波 國民黨自己公布 候選人是誰後來有變數的話 看情況 要不要再猜第一波 猜對的我給 稅前200p==我看誰是通靈大師這樣ok吧</t>
+          <t>上次裴洛西來中共恐嚇後來就軍演個幾天就沒了這次蔡英文要見麥卡錫也嗆的很恐怖今天依然順利會面也是沒發生什麼事怎麼每次恐嚇完都爛尾啊？這樣藍白粉會很失望嗎</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[公告] 轉錄文章請注意 不能有斗內捐款資訊</t>
+          <t>Re: [討論] ECFA我方可以片面取消啊</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1679414519.A.704.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680758281.A.635.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>宣導一下這兩天有發現個案，轉錄的文章內容裡面有抖內捐款帳號基本上這種屬於私人營利性質的會被判定為廣告文(四-2)公益性質的也要先跟板主申請才能發(二-8)然而，板規二-5-h規定禁止修改轉錄內容所以把營利部分刪掉的作法，以現行板規來說也是不行的板主群會討論是否有</t>
+          <t>豈止不取消當年引起太陽花的服貿裡面就有要開放零售業結果當年太陽花怎說?會害死台灣的零售業巴拉巴拉的結果咧?要不要去看看現在有多少小米OPPO之類的開的店?餐飲業、貨運等就更不要說了真的笑話!!!※ 引述《kuso2005 (一時想不到)》之銘言：: 一堆人說約都簽了怎能說取消就取消，一直在說馬害台灣，不對啊！塔綠班是失憶嗎？EC: FA是在民進黨執政內續約的捏！既然是毒藥你還續約？還可以怪前朝？？？而且瀨看一下: 條約: ————————————————————————-: 根據ECFA協議文本第16條中止條款：「一方終止本協議應以書面通知另一方。雙方應在終: 止通知發出之日起30日內開始協商。如協商未能達成一致，則本協議自通知一方發出終止: 通知之日起第180日終止」。: ————————————————————————: 也就是說，如果我方認為對岸哪裡做不好的話，我方可以隨時終止，不需要對岸同意捏！: 所以一句話：民進黨超愛ECFA！就這麼簡單！</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[討論] 蔡英文具體做了什麼事來抗中保台！？</t>
+          <t>[黑特] 民進黨執政民不聊生，連代購的死亡啦</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082909.A.33C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680758774.A.2B5.html</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>如題死忠綠屎說蔡英文辣台派執政8年抗中保台那請問一下可不可以具體列一下蔡英文做了哪些事抗中保台？</t>
+          <t>幹，三年多沒回台灣，一回來才發現代購板代購徵求都沒有啦原因是詐騙猖獗幹你民進黨執政根本就不管詐騙然後搞一例一休週日還不送貨這樣要怎麼樣週一帶奶凍捲去上海？真的是爛透</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[新聞] 分析／2024決戰中台灣　顏寬恒豪宅案「外</t>
+          <t>[新聞] 總統家人低調現身僑宴！姊妹6年不見</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083028.A.4A3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680758861.A.A5B.html</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.新聞標題分析／2024決戰中台灣　顏寬恒豪宅案「外溢效應」衝擊藍選情？2.新聞來源ETtoday新聞雲3.新聞網址https://www.ettoday.net/news/20230329/2469518.htm4.新聞內容記者鄭佩玟／台北報導前立委顏寬恒22日完成2024立委大選黨內初選登記，昨晚卻遭檢調以涉犯竊佔公有地、偽造文書罪嫌大舉搜索，並以1千萬元交保。由於過往大選經常「決戰中台灣」，因此外界憂心此案將衝擊2024選情。對此，藍營人士指出，此事固然會勾起部份選民對去年中二補選及顏家黑金的負面印象，但近年選前遭受司法突襲的候選人，也往往獲得同情，正反交互影響之下，選情依舊撲朔迷離。去年甫參戰中二補選的顏寬恒，今年決定再接再厲，於22日完成2024立委大選黨內初選登記。未料，昨晚卻遭台中地檢署兵分多路大舉搜索，並以涉犯竊佔公有地、偽造文書罪嫌逮捕顏寬恒及其妻子陳麗玲，最後分別以1千萬元、5百萬元交保候傳。消息傳出後，顏寬恒發表聲明，澄清他和妻子沒有任何違法，並指檢調偵辦本案的強度和交保的金額，顯然不符比例原則，痛斥「這就是一件政治司法案件！司法豈能為政治操作利用？」面對近在咫尺的2024大選，國民黨要贏就必須「立足北台灣、決戰中台灣、固守南台灣」，因為北台灣是藍營優勢區，南台灣是藍營劣勢區，南北相互抵銷之後，最後決勝關鍵就落在中台灣。如今顏家爆出弊案，其與中台灣藍營最大母雞、台中市長盧秀燕關係匪淺，會否產生連鎖反應，進而衝擊選情，值得深入探究。國民黨黨章第36條規定：「涉犯重大侵佔經法院第一審判處有罪者，應予以先行停止黨權處分，立即喪失參與黨內初選資格」，一位熟知國民黨典章制度的黨務要角指出，竊佔公有地就是侵佔的一種，但顏寬恒的案情是否達到「重大侵佔」程度，尚須具體個案考量；況且目前司法進度還只在偵查階段，日後會否起訴、會否一審定罪，都還在未定之天。國民黨台中市黨部主委顏文正稍早證實，此案不影響立委提名作業，近日就會將名單提報給黨中央。對於顏寬恒自身選情，藍營人士表示，此事固然會勾起部份選民對去年中二補選及顏家黑金的負面印象，他們如果本來想投票給顏寬恒，如今可能望而卻步。但該人士也說，近年人民法治觀念愈加深植，大抵都有「無罪推定」觀念，因此舉凡新竹市長高虹安、宜蘭縣長林姿妙，凡是選前遭受司法突襲的候選人，往往獲得支持者同情，正反交互影響之下，選情依舊撲朔迷離。該人士並擔心，現在是媒體時代，此案可能受到媒體、政論、社群高度關注，預料綠營也會大肆炒作，案情若持續延燒，很可能會傷害國民黨形象，並產生外溢效應，波及總統乃至於立委選情。該人士強調，此案涉及家族豪宅及竊佔國土，這在高房價的今日，容易產生相對剝奪感，恐波及中間、都會、知識、青年選民。至於外溢效應的影響到底有多大，尤其會否延燒到台中市政府。該人士認為，就看後續案情發展而定，而台中市政府去年就已排拆違建，今天他們也重申，原住宅涉及違建部分，若有公安之虞將優先處理。在台中市政府已關注此事的情況下，藍營人士研判，案情應不至於向上延燒到台中市政府以及市長盧秀燕。或許是認為此事影響不大，國民黨文傳會副主委林家興今天於中常會後直接轉述顏寬恒聲明，表達力挺之意相當明確。林家興強調，國民黨都會密切關注，希望台灣司法「不要冤枉好人」，不要用司法來做政治打壓。台中地檢署稍早則發布「嚴正聲明」，強調「法律沒有假期，檢察官偵辦案件絕不考量任何政治因素及立場」，請外界切勿妄加臆測，給予檢察官公正之辦案空間。5.備註依照錢穆的中國歷史研究法所書中國的史觀大多會同情所謂的悲劇英雄其實這個可能也是華人視角的縮影（？The顏被弄成這樣加上他前面兩次敗選說不定外溢效應反而是同情票比較多不過這個交保金額為什麼那麼大？有專業鄉民可以開示嗎？</t>
+          <t>https://www.ettoday.net/news/20230406/2473865.htm總統家人低調現身僑宴！姊妹6年不見 蔡英文見家人也好開心總統蔡英文美西時間5日晚間進行此次出訪最後一個行程，與洛杉磯的僑胞共聚，而蔡的家人也低調現身，2位姊姊蔡鳳嬌、蔡瀛如現身僑宴看著妹妹在台上演講、接受僑胞的歡呼、祝福與鼓舞。蔡鳳嬌受訪說，與妹妹（蔡英文）6年沒見，就職後就沒看過她；她說，蔡英文看到整個Family在這裡，也很高興。被問到看見妹妹有沒有很開心？蔡鳳嬌受訪時說，「對對對，很高興啊，我跟我妹妹有6年沒見面，就是自從她就職以後就沒看過她」；她說，今天她是特別過來的，妹妹跟弟弟都在洛杉磯這裡。她也說，蔡英文看到整個Family在這裡，她也很高興。至於有沒有在下午的時候先私下碰面？蔡鳳嬌說，「沒有，因為完全她的行程很滿，都沒有，因為她很忙，我們就是這樣」；她說，蔡英文與麥卡錫見面，也很替她開心，「是啊，很高興，因為這也是台美之間relationship」。此次洛杉磯僑宴有不少美國政要出席，因此蔡英文開場特別用英文致詞。她提到，很高興能再次於美國洛杉磯過境，台美社群的熱情歡迎讓她十分感動，「感謝代理州長庫拉納奇斯的接待，讓我們享受美麗的加州艷陽」；也感謝美國聯邦眾議員薛爾曼（Brad Sherman）、艾薩（Darrell Issa）、趙美心（Judy Chu）、康納（Ro Khanna）、朴銀珠（Michelle Steel）、加州州眾議員謝德智（Tri Ta）及友人今晚一同與會，謝謝你們的盛情款待，以及對台灣人民展現的友誼。「今天早上，我很榮幸有機會在麥卡錫議長的安排下，在雷根圖書館與跨黨派的國會領袖會面。」蔡英文說，上午的討論非常熱絡，內容攸關台美共同的價值與利益，其中包括印太區域的和平穩定、台美社會的繁榮發展，以及捍衛民主自由。蔡英文表示，她向美國國會議員說明，台灣人民擁有堅強的韌性，堅決捍衛及維護我們現有的生活方式，並持續深化與美國長期堅定的夥伴關係。麥卡錫議長與多位國會領袖跨越政治立場的團結支持讓我深深動容，他們支持台灣的舉動，讓大家知道，在此動盪的地緣政治環境中，台灣人民並不孤單。「今晚在座的諸位</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Re: [討論] 顏家火速籌出1500萬代表臺灣經濟真的很好</t>
+          <t>[討論] 美國最具影響力大使(之一) 就這樣？</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083379.A.451.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759009.A.276.html</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">這就要考大家一個智力測驗了若有人要搭高鐵掉300萬給小冬瓜那要搭幾躺才能籌到1500萬元呢？沒想到好答案之後可以不用來政黑了因為智能不足…^  _  ^※ 引述《TsaoLuka71 (新北吳鎮宇)》之銘言：: 小冬瓜夫婦因為豪宅侵佔國有地，被檢方調查偵訊，然後連夜交保: 一個1000萬、一個500萬: 顏家能在短短幾小時內籌出1500萬真的很屌耶！而且是在晚上，銀行早就下班了還能生出15: 00萬現金，真不愧是土地的主人耶！: 真他媽有錢啊！這1500萬裡面有多少是信徒捐給媽祖的香油錢呢？！: 而且沒記錯顏寬恆現在應該是無業遊民吧？一個無業遊民的家庭都能馬上拿出1500萬，那代: 表臺灣的經濟真的是20年來最好耶！那些哭說沒錢買蛋沒錢旅遊沒錢幹嘛幹嘛的藍白賤畜應: 該多跟我們顏公子學學啊！: 結果國民黨還要提名這種垃圾出來選立委？: </t>
+          <t>乳題套一句幾天前的評論，跟麥卡錫會晤是早就公告的行程，符合預期，是止血明明是朝三暮四的戲碼，結果綠粉士氣大振根據中央社的官方訊息，總結３重點1. 持續對台軍售2. 加強經貿交流3. 支持自由民主的台灣真正務實的只有第1點吧，你沒錢，美國還會說：沒關係，我借錢給你買政黑粉怎麼看？</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[黑特] 費鴻泰會不會是說溜嘴巧芯謊報年齡？</t>
+          <t>[新聞] 談選戰是否耐打 侯友宜：面對挑戰毫無畏</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083823.A.324.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759255.A.BB1.html</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>費鴻泰最近建議巧芯可以去選總統結果被巧芯回「我還沒滿40歲」給打回去了但會不會有一種可能性就是巧芯謊報年齡 其實她實際已經滿40歲而費鴻泰也知道這個資訊 不小心說溜嘴了 說巧芯可以選總統啊 她年齡有到啊（說溜嘴）有沒有這種可能性？巧芯真的才33歲嗎？</t>
+          <t>1.新聞網址︰https://www.cna.com.tw/news/aipl/202304060122.aspx2.新聞來源︰CNA中央通訊社3.完整新聞標題談選戰是否耐打 侯友宜：面對挑戰毫無畏懼4.完整新聞內容︰首頁 / 政治談選戰是否耐打 侯友宜：面對挑戰毫無畏懼2023/4/6 13:13（中央社記者黃旭昇新北6日電）鴻海創辦人郭台銘爭取國民黨提名參選2024年總統，與新北市長侯友宜的角逐受關注，侯友宜今天表示，他一生保家衛國，參與無數槍戰，走過槍林彈雨，面對所有挑戰毫無畏懼。國民黨內總統選舉提名人選，郭侯之爭引起矚目，侯友宜今天上午視察中和區泰安抽水站瓦磘溝整治工程成果，會後接受聯訪。媒體報導，國民黨提名人選除民調外，還要評估客觀情勢，人選本身有無爭議、禁不禁得起檢驗及「耐不耐打」；媒體詢問侯友宜對此的看法，「你耐打嗎？」他說，一生為了保家衛國，參與無數槍戰，走過槍林彈雨，面對所有的挑戰毫無畏懼。媒體追問，是否擔心民進黨營造「郭侯爭」或「類初選」的情形，郭台銘與侯友宜誰比較耐打。侯友宜說，目前面對國內與國際有許多挑戰，每個人都要記得，國家與人民是一生的懸念，因此，需超越黨派團結一致守護台灣這塊土地。大家都想為國家做事，大家都會同心齊力。傾聽人民聲音，瞭解人民的問題，解決人民的痛苦，是為政者最重要的事情。媒體詢問，未來是否會與郭台銘合作，是否擔心會變成「割侯戰」，擔不擔心國民黨立委傅崐萁幫助郭台銘聯手打侯。侯友宜說，郭台銘在經濟的表現深受人民肯定，只要為國為民做事都是好事。任何事只有團結，好好為國家守護台灣這塊土地，這也是他守護台灣的信念。（編輯：李錫璋）11204065.附註、心得、想法︰真不愧是侯友宜市長說出的話都能夠如次積極正向並且還能將自己當警察的經歷引用到話語當中讓人真的感到他的強硬※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Re: [討論] 中華民國到底是不是中國？</t>
+          <t>[新聞] 蔡麥會/侯友宜：讓世界看到台灣追求民主自由 這是每個人該做</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680083845.A.E81.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759352.A.539.html</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>※ 引述《CuLiZn5566 (同理心5566)》之銘言：: 人家馬冏跑去中國去說中華民國: 結果兩岸都有人不爽: 一個是說中華民國就是台獨: 一個是說宣揚中華民國兩岸統一沒有台灣價值: 所以中華民國跟中國到底一不一樣啊      ~~~~~~~~  ~~~~      A語詞     B語詞: 本56以前學的憲法你回去多唸點書，這跟語意（學）有關，跟憲法（學）關係小。也就是A語詞是否語意是B語詞。: 國家似乎就叫做中華民國: 目的也是為了要兩岸統一: 現在國家名稱好像沒變: 憲法也沒有改啊: 所以中華民國跟中國到底一不一樣啊？？？？？不一樣。中華民國是我國國名全稱、正式國號，台灣多數人沒有人反對這個事實。然而我國國名（被台灣多數人公認）簡稱、俗稱是台灣。也就是（全稱）中華民國＝（簡稱）台灣的同一個國家。所以馬英九說自己是（前）中華民國總統、（前）台灣總統，在不同場合都講過。講一中各表的馬英九，也從沒說過自己是（前）「『中國』總統」。不服的人舉例啊？我知道你（與某些人）的疑問。中華民國不是（在你們自己悶著頭想，與台灣多數民意的認知脫節）該等於（簡稱）中國嗎？答：在今時今刻台灣社會多數人所認知的語意中，（簡稱）中國不是（全稱）中華民國。（簡稱）中國是（全稱）中華人民共和國那個外國。所以，就台灣多數人的認知而言，在此告訴那些不懂台灣民意的人（這些人就別拗了，這是台灣多數人心裡想什麼的事實），答案是：台灣＝中華民國≠中國。約定俗成。約定俗成。聽過這成語沒？連馬英九也不知不覺地遵照這個答案，如上述</t>
+          <t>蔡麥會／侯友宜：讓世界看到台灣追求民主自由 這是每個人該做的事https://www.rti.org.tw/news/view/id/2164108時間：2023-04-06 11:15新聞引據：採訪撰稿編輯：王韋婷    蔡英文總統在過境洛杉磯期間與美國眾議院議長麥卡錫(Kevin McCarthy)會面。    對於蔡麥會，新北市長侯友宜今天(6日)表示，中華民國樂於和全世界的國際友人交朋友，讓全世界看到台灣追求民主自由、愛好和平，是每個人都該做的事。    蔡英文總統「民主夥伴共榮之旅」回程過境美國洛杉磯時，於美西時間5日在雷根圖書館與美國眾議院議長麥卡錫會晤，舉行閉門會談，會後並共同發表談話。    對於蔡麥會，新北市長侯友宜6日視察瓦磘溝整治成果受訪時表示，中華民國樂於跟全世界的國際友人交朋友，讓全世界看到台灣追求民主自由、愛好和平，是每個人都應該做的事情。    侯友宜說：『(原音)在彼此之間的良善、尊重互動下，讓全世界看到中華民國是一個民主自由和平愛好的追求價值跟精神，讓這樣的精神，讓全世界看到台灣，這是每個人都</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Re: [新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
+          <t>Re: [新聞] 蛋、豬缺到價格飆漲 李彥秀10字怒轟農委</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084199.A.924.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759466.A.572.html</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>推文幻想，開戰時封鎖台灣那同步必然封鎖中國各港第一島鏈封鎖中國各港！南海各國唯獨中國，預防中國獨大開戰時，中國沿海精華區一律封鎖作廢這樣經濟損失是多少啊窮俄帝沒啥經濟損失，牆國，跳脫開發中國家。沿海精華區全面封鎖這經濟損失巨大，恐怕無法估計台灣餓2300萬人，中共要餓14億人真殘忍。※ 引述《Tosca ( )》之銘言：: : 「所以不管基礎設施、光纖網路、通訊設備，美國通通都要管！」徐巧芯提到，美方?: : ，要逐一去檢查風險，民進黨抗中保台在美國眼裡，似乎是玩假的，所以人家就要把?: : 主導權拿過來，逐一去檢視。資訊交換是美國跟台灣互換嗎？還是名為交換，其實是?: : 雙手奉上我們的機密資訊？我們只有換到他們顧問給我們的一些意見。: : 徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸?: : 方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司?: : 到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路?: : 心的是這個。: 看到非常無言: 中國準備攻打台灣: 可能從頭城到淡水之間登陸: 你應該去呼籲中國不要想不開就打仗: 有話大家好好說 兩岸大家都中華民族: 有甚麼話不能說一定要用打得??: 結果呢: 美國好心幫台灣檢查看基礎設施ok不ok: 可能有哪些問題: 快點一起來解決問題: 然後你講得一副美國 居心叵測的樣子: 有沒有搞錯~~: 今天是美國要來打台灣嗎????????: 不過喔                                                                        : 美國動作這麼多: 看來可能是預估2027: 是真的很有可能會打了: 今年已經 2023了: 剩下四年而已: 我們大家 大部分人: 只剩下四年可以活了o.O: 之後 不是被炸彈炸死 就是沒食物吃餓死 上戰場戰死: 或是通訊全斷 沒辦法上網上批踢踢 無聊到死: 太慘了 真的太慘了: 所以我勸大家: 好好珍惜這 生命中 最後的四年: 有甚麼想吃的 就快點吃: 有甚麼想做的 就快點做: 有甚麼想買的 就快點買: https://i.imgur.com/LtYVdEo.jpg: 像是 愛玉: 這台灣特有的: 以後如果統一了: 愛玉搞不好被中國列為 台獨食品: 大家不准吃愛玉: 一吃就代表你有台獨思想 不純淨                                                 : 所以大家快點趁現在 好好吃愛玉吧: 珍惜還吃的到愛玉的日子o.O</t>
+          <t>還不就幾年前政府說要避免非洲豬瘟影響台灣，禁止用廚餘養豬，小型養豬業者就放棄養豬政府以為這些小型業者的養豬量不會影響啥，結果隨著進口飼料價格上漲，就漸漸反應出來。鄉民會說不是開放萊豬補足這些缺口了嗎？問題是萊豬跟大部分的進口豬肉一樣，都是用來做熱狗，培根等加工食品，鄉民常吃的排骨飯，排骨酥，豬心湯等還是台灣養的現宰豬肉為主。鄉民現在才知道所謂的政策，就跟蝴蝶效應一樣，會慢慢產生副作用，慘啊: 缺蛋問題從過年前至今未能妥善解決，近日連豬肉價格都開始飆漲，每斤甚至漲破百元，: 國民黨台北市議員李彥秀怒批，農委會對於農產品價格飆漲只會一直找藉口，成為「跳票: 委員會、藉口製造機」，若把找藉口的時間拿來解決問題，恐怕早就沒有缺蛋問題，民眾: 也能吃到價格合理的豬肉。: 李彥秀今（6）日在臉書表示，2021年7月時，毛豬批發價格達到每公斤86元，當時創下歷: 史新高，農委會稱是因民眾在家防疫的關係讓需求大增，加上夏天豬隻吃的較少不易養大: ，導致量少價揚；同年8月，毛豬價格續創新高，農委會主委陳吉仲又說因走私肉品驗出: 非洲豬瘟病毒，加上中秋節烤肉需求量增加，才會造成肉品價格續漲。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[討論] 徐巧芯有想過自己如今被網路邊緣化嗎？</t>
+          <t>[討論] 如何讓虹安 2032 年, 成為台灣總統~</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084277.A.9B9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759496.A.45C.html</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>徐巧芯自己有在中山區開過公關公司（公開的新聞資料）喜歡在網路上霸凌別人（這句話是許淑華說的）https://i.imgur.com/4zOeGle.jpg但是現在在年輕人的眼裡種種政客行為非常臭不受歡迎不管在八卦版或政黑版都非常惹年輕人嫌惡剛剛八卦版文章也沒人想看大家討厭蔡英文但更討厭徐巧芯徐巧芯罵蔡英文大家就幫蔡英文說話講什麼大家都已經以人廢言的程度水能載舟 亦能煮粥徐巧芯有想過自己落得今天在年輕人這麼不受歡迎嗎？</t>
+          <t>各黨現在都只在看 2024 的選舉.但真的要放眼未來的話.如何 讓虹安 在 ２０３２ 年, 成為台灣總統 ~才是真正應該關心的項目.虹安如果可以的話, 最好就今年結婚. 加明年生小孩.這樣的時程. 會比較順.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[新聞] 農委會進口泰國雞蛋 國民黨立委質疑有人</t>
+          <t>[黑特] 侯友宜最大的問題 就是不會回答問題</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084435.A.819.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680759837.A.4AF.html</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.chinatimes.com/realtimenews/20230329002739-2604072.新聞來源︰中時3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※農委會進口泰國雞蛋 國民黨立委質疑有人賺價差4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※為了因應蛋荒，農委會將引進泰國雞蛋，價格訂在每盒68元，每人限購兩盒。國民黨立委馬文君比較泰國本地及這批賣到台灣的蛋價，質疑兩者中間有3塊多的差價，被誰賺走了？農委會應該交代清楚。馬文君指出，根據新聞報導，有民眾在泰國超市買蛋，一顆零售價不過台幣3元多，農委會大量向泰國進口，一顆成本就算以零售價3元計算，再加上海運進口到台灣，一櫃費用約4.5萬元左右，每顆成本大概再加0.13元，約3.13元，再加上30％關稅，與5％預收的營業稅，最終成本可能會落在4.22元。馬文君質疑，農委會說，運費與關稅將由政府吸收，但是一盒10顆卻賣給民眾68元，平均每顆價格來6.8元，這中間3塊多的差價，被誰賺走了？農委會應該交代清楚。馬文君批評，民進黨政府總愛成立「國家隊」時，但總是會有差價「貓膩」，像是過去成立「快篩國家隊」時，國外快篩價格每隻20至30元之間，結果民進黨政府定價，五隻500元，至今也沒交代，差價進了誰口袋。蛋荒，苦的是百姓，若是還有人中飽私囊，一定要嚴查嚴辦，他要求農委會說清楚，國家隊出手，進口的蛋價合理的價格應該是多少？5.附註、心得、想法︰對欸明明運費關稅都農委會付錢一盒應該42-43元為什麼到市場上一盒68元中間又是誰賺走？該不會大家忘記殷實商人了吧..不過民眾一盒68的雞蛋也買的很開心就是※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+          <t>侯友宜最大的問題 就是不會回答問題1.記者問侯友宜會不會訪美對此，侯友宜今（1日）表示，在每一個地方不管你人在何處，永遠要心繫中華民國，不管是在國內、在國外，我們都守著中華民國，也為國家、為人民做出最大的貢獻。聽眾:靠么 你回答會跟不會  有這麼難嗎?2.郭台銘要選  結果侯友宜侯友宜上午受訪回應，他這一生最重要是的守護中華民國，讓台灣人民平安， 這是他不變的初心，所以面對每一個人，「我們大家要團結在一起」，努力照顧國家、台灣這塊土地 ，讓這塊土地越來越好，相信是每一個人的心願。聽眾:靠么 你回答要不要選  有這麼難嗎?</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[討論] gogen請進 關於你的小英抗中保台</t>
+          <t>[新聞] 籌錢打仗 俄羅斯準備發行債券叫友好國家</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084577.A.D2D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760111.A.771.html</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://i.imgur.com/LSnLxfb.jpg1. 這樣現在有幾艘？2. 現在有幾架？3. 現在有幾艘？4. 多花就代表有抗中保台？那斷交一堆國家 外交預算花更多這樣也是外交成功？5. 實施時 她還是總統？社宅20萬戶 綠電取代核電連個蛋價都維持不好打房結果房價歷史新高是什麼讓你相信你那幾個小英真的做得到呀？XDDD.</t>
+          <t>1.新聞網址︰shttps://reurl.cc/Rv8xle2.新聞來源︰new talk3.完整新聞標題籌錢打仗 俄羅斯準備發行債券叫友好國家買4.完整新聞內容︰[Newtalk新聞] 俄羅斯侵略烏克蘭已406日，每一天槍砲彈藥、人事、運輸、醫療都燒掉鉅款。賴以為生的石油又遭到西方國家標定價格上限。英國國防部掌握到的情報顯示，俄羅斯準備找「友好國家」購買其主權國債。英國國防部稍早在推特上公佈1則情報，指出俄羅斯總理米舒斯京（ Mikhail Mishustin）曾於3月28日表示，當局正準備發行以外幣計價的主權債券。英國情報顯示，一旦這些債券開始發行，來自其他國家的投資者將能夠購買俄羅斯的主權債務，從而為俄羅斯未來的一些預算缺口提供資金，間接資助俄羅斯入侵烏克蘭。俄羅斯本國的銀最近幾個月行一直是購買俄羅斯國債的主力。 然而，這些俄國銀行不太可能有能力，為在可預期的未來出現的預算赤字提供充分資金。英國國防部指出，俄羅斯官員面對烏克蘭局勢發展成長期戰爭，可能將發行外債視為填補俄羅斯財政缺口的一種方式。 能否成功，則有待觀察。5.附註、心得、想法︰s萬惡的美帝讓俄爹苦戰還好現在對烏克蘭一路高歌挺進在烏冬進行2萬5千里長征烏克蘭被打的四處竄逃各位反美的同盟們俄爹國債買起來</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Re: [討論] 中華民國到底是不是中國？</t>
+          <t>[討論] 徐巧芯信義區黨員票應該穩了</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084799.A.316.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760143.A.D47.html</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>: 不一樣。: 中華民國是我國國名全稱、正式國號，台灣多數人沒有人反對這個事實。: 然而我國國名（被台灣多數人公認）簡稱、俗稱是台灣。遼國 當年不是中國因為大宋 擁有包含河南省陝西省全境的中原國土所以當年的中國 是宋朝不過當時沒有中國的概念等到遼國佔領華北 就逐漸擁有中國的概念了外國叫他契丹 中國華中與華南 是南宋的國土 漸漸無法代表中國蒙古在還未進入中原時 不叫做中國而在元朝時 就正式自稱且被稱做中國此時的元朝 擁有華北地區 因此有中國代表權當時的南宋 則延續著遼國時期的狀態失去中國代表權各朝代都會有這樣的概念我們可以知道擁有中原 才能代表中國尤其是擁有華北地區才能有中國代表權否則 就算你擁有西藏 擁有蒙古 擁有兩廣 四川 或東北都沒有任何稱做中國的資格這就是中國史的正統邏輯中國代表權 擁有華北地區的政府 就能有資格其他則要視情況不論你的國名叫做什麼"中國"這兩個字 就像"皇上" 一樣是必須在天子體系 被各國公認 取得共主地位尤其是必須征服華北地區因此有另外一個說法 中國地區不是日本的那個中國地區而是以河南為中心 輻射出兩千公里半徑的圓周這範圍都是中國區古中國 一個中原內 同時有兩個天子 兩個皇帝 一直都是很難被容忍的概念天子 上天欽定之人 本就只能有一個就像是"中國"這個詞中央 只能有一個 就像圓形只有一個圓心兩個中國 很難被民眾接受其實就只是一個意識型態的觀念問題觀念影響到認知 進而扭曲了事實</t>
+          <t>小弟是KMT信義區黨員因為年紀跟巧芯姐姐差不多基本上是支持年輕又有戰力的巧芯姐姐之前聽黃揚明等人根據最近一份民調分析(70%全民調(又分成15%的同黨互比+85%跟DPP對手的對比)+30%黨員投票)巧芯姐姐黨員票不能輸超過3%才會在初選勝出連假前聽到姐姐在節目上說費委員跟黨部熟 提早拿到黨員名冊姐姐自己還沒拿到名冊姐姐就很擔心黨員這塊因為黨員的投票率會比一般民眾高很多剛剛很高興收到姐姐陣營的簡訊了(表示黨部終於給名冊了)https://i.imgur.com/Lxa7P19.jpghttps://i.imgur.com/AN7J6sM.jpg之前姐姐比較擔心的黨員票在拿到名單後依姐姐的戰力絕對能一位一位拜訪或是至少親自打電話拉票不要輸超過3%就能擊敗費委員姐姐過初選進而當選立委的機會應該很大吧？</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>Re: [討論] 民進黨最失敗的是兩岸牌 已經沒招</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084803.A.2E7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760156.A.99D.html</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>我就是受ROC教育長大的到現在仍是ROC支持者對於共匪搞陸獨竊佔中華民國領土成立中華人民共和國這件事感到不爽所以如果真有自稱ROC統派的去跪舔共匪我會覺得悲哀因為站在務實角度中華人民共和國根本不可能接受被我們ROC统一他們在各種國際場合講得很清楚是他們要吃掉我們ROC而且絕口不承認ROC仍存在所以現在如果還有真ROC支持者就像我根本不會支持所謂統一了因為現在再支持統一就等於支持被中華人民共和國統一了我是務實的ROC支持者ROC就是領土包括台澎金馬的民主國家簡稱台灣(這裡的台灣不是單指台灣本島)跟中華人民共和國(簡稱中國)互不隸屬一邊一國</t>
+          <t xml:space="preserve">綠共黨的兩岸牌講白了就是「抹紅其他人」因為綠共黨清楚自己那套白日夢就是直接被對岸打臉，對外不可能有任何空間，既然如此他們唯一的招就是各種造謠抹黑，想要塑造出「大家都一樣爛」，這樣他們只講空話就不會被發現所以你看任何跟對岸成功維持名目上對等交流的事情都是被綠共網軍抹紅鬥臭，不論國民黨的九二共識或柯文哲的兩岸一家親都是要比喻就是一個0分死當仔看到人家考70分80分，就開始造謠說人家是作弊是跟老師私下攀關係才能及格，一直講一直講鬼島就有白癡同學信了，結果成功轉移了0分仔自己最爛最廢最腦殘的事實馬囧這次去意思就是你綠共造謠說他作弊，那他就現場重寫考卷給你看，用現實打爆綠共多少年來的各種謊言造謠洗腦當然效果多強難說，畢竟我們都知道鬼島有817萬腦殘，連抗中保台這種芒果乾都吃得不亦樂乎的智障看到事實也不見得會醒※ 引述《Manzini (Manzini)》之銘言：: 大概四年前疫情還沒爆發之前還有搞頭: 現在兩岸牌民進黨是直接放棄: 馬英九一個人全部收了: 如果如果: 接下來拜登因為美債的事情想跟中國和談: 靠腰: 民進黨立馬被晾在陽台上: 所以民進黨的命運不是台灣人可以決定的: 拜登的一念之間: 民進黨重壓美國的態度 但是美國這個國家很大他會追求自己的最大利益: 美國跟重新跟國民黨郭董變成盟友 說真的大概2025就可以看到了: 台灣反而會變成中美雙方的潤滑劑: 民進黨只有一招 抗中保台就沒了: </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[討論] 泰國蛋進口 逼出屯蛋的了？</t>
+          <t>[新聞]力挺侯友宜參選2024 張彥彤:郭台銘不是黨</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084812.A.41C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760429.A.7E4.html</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://i.imgur.com/UYXViuS.jpg剛看臉書分享有人疑似屯蛋過多拿出來賤賣看來泰國蛋進口 成功逼出屯蛋的了？農委會這招還不錯啊 蛋荒解除滷蛋可以回到一顆10塊了嗎？</t>
+          <t>1.新聞網址:https://news.ltn.com.tw/news/politics/breakingnews/42619992.新聞來源︰自由時報3.新聞標題︰力挺侯友宜參選2024 張彥彤:郭台銘不是黨員憑什麼被徵召?4.新聞內容︰〔記者蘇金鳳／台中報導〕發起呼籲國民黨中央應儘速徵召新北市長侯友宜參選總統的中市議員張彥彤表示，黨中央總統選舉提名應有一個制度，而非因人設事，鴻海集團創辦人郭台銘雖為當年因初選失利而負氣退出國民黨而道歉，但他還是看不到郭台銘的誠意，並強調「郭台銘不是國民黨員憑什麼被徵召？」。鴻海集團創辦人郭台銘昨天從美返國即召開記者會，宣佈要爭取國民黨提名參選總統，也對4年前初選失利就退出國民黨向黨員敬了90度鞠躬達8秒，但很多黨員都難以解氣，國民黨中市議員張彥彤就發起呼籲黨中央儘速徵召侯友宜參選總統的聯合新聞稿。張彥彤表示，黨中央遲遲未徵召侯友宜，但是民進黨及民眾黨都已定於一尊，對國民黨不利。他不滿指出，國民黨既說要徵召，郭台銘卻宣佈要爭取國民黨提名總統，郭又不是國民黨員，根本沒有資格接受徵召，因此他與同黨市議員羅廷瑋討論後，決定號召有共同想法的黨籍市議員向中央提出呼籲。對於郭台銘已向黨員道歉，張彥彤表示，他感受不到郭台銘的誠意，只覺得薄弱，他強調，他不是討厭郭台銘，只是覺得黨應有黨的提名制度，不能因人設事，郭台銘在國民黨最艱困的時候退出國民黨，不能說要選，黨就要為其設計提名辦法。若未來郭台銘在黨內內部民調勝過侯友宜，是否會支持郭台銘？張彥彤表示，那黨中央要說服黨員們，郭台銘有什麼值得支持的地方。張彥彤強調，任何公職選舉，黨本來就應該提名黨員，他自己在2022年就深受其害，某位無黨籍利用國民黨資源讓他選得備感壓力，因此黨本來就應該提名國民黨籍的候選人，目前檯面上要選總統就是侯友宜，黨當然要徵召侯友宜。此外，國民黨籍的台中市議長張清照、副議長顏莉敏都表示，支持黨提名的總統候選人。張清照就表示，針對國民黨提名的總統人選，黨內有很多不同意見，但他一貫立場，就是支持黨提名的候選人，「提名誰，我就支持誰！」副議長顏莉敏也表示，國民黨當然會推出最有勝選的候選人，她只支持國民黨提名的總統候選人。5.附註、心得、想法︰對啊郭台銘現在還不是黨員啊，他已經退出國民黨了。只剩下修改國民黨的內部規定這條路了，郭台銘才能夠參選啊。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[討論] 塔綠班是不是一種應該被消滅的現象？</t>
+          <t>[討論] 怎麼大家好像都往蔡英文路線靠了</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680084837.A.681.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760433.A.755.html</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>我們現在很習慣用「小粉紅」來稱呼那些死忠的網路中共支持者，其中很大一部分是青少年至青年族群，他們經常發表強烈的民族主義，更日漸嚴重的發展成愛國（黨）主義。多數時候我更相信他們是經由中國共產黨的刻意縱容甚至是授意而行動（從中共官媒多次表揚也能看出來這點）；甚至很多中國內部的知識份子都認為這類群體根本是「現代紅衛兵」。以上資訊查查維基百科就能找到。這樣的現象顯然是不合理的，一個人當然可以愛國，也有可能發展成極端的愛國主義；但發瘋一樣的支持一個政黨、並無條件相信該政黨與它的政權所做的任何行動，這個本質上就不是正常社會該有的現象，我更願意稱這群人是被中共給洗腦了，因而聽之任之。我們都知道這種現象應該被消滅——言論自由固然可貴，但無條件信奉一個政黨並誓死捍衛它，人民應該擺脫這樣被操控意識的狀態。那麼我們回頭看看台灣現在的網路風氣：「塔綠班」已然成為一個龐大的網路族群（也許這個稱呼似乎過於貶義，但既然大家現在習慣這麼使用，那我也就隨俗了），而他們是否與「小粉紅」們有著異曲同工之妙？我認為是的。「抗中保台」之於「愛國主義」，成為政黨洗腦年輕人的工具，使得這群塔綠班無條件護航民進黨推出的所有政策，並出言攻擊與他們意見相左的人……他們的存在已經在各種層面上造成台灣社會的對立，且這種對立是民進黨放任（或有意）為之的，以言論自由之名，壓抑反對者的聲音，行反言論自由之實；這種情況無助於台灣社會的發展與進步，一個社會的前進永遠仰賴有效且正常的溝通，塔綠班無底線的縱容執政黨只會養成一個巨嬰政府，社會將永遠在爭吵聲中停滯。這種情況必須停止，希望執政黨能意識到這樣做對台灣社會產生的割裂與一眾負面影響，停止對網路支持者的洗腦，還台灣一個正常的輿論環境。</t>
+          <t>以往今天這種大場面蔡英文不是被嘲笑被酸不然就是開噴惹怒中國但觀察台灣其他政黨人物柯 侯 盧都講的非常很保守可見蔡英文路線就是正確的選擇</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[黑特] 不唬爛 國民黨沒有側翼!沒有網軍!</t>
+          <t>Re: [討論] 蔡英文: 邱臣遠是哪個黨? 柯P那個黨嗎?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085274.A.AAB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760515.A.2FE.html</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>不知道各位反國民黨的有沒有曾經有過這種錯覺就是這些藍叫整天喊 網軍 側翼時怎好像用在國民黨時卻感覺這套子不合大小的感覺我靈光乍現得出了答案就是台灣根本沒有國民黨,只有中國共產黨的側翼國民黨也沒有網軍,因為其實他們就是在台的共產黨網軍大多時候這些藍叫就是打壓台灣 吹捧中國ww能說是國民黨有側翼嗎?能說國民黨有網軍嗎?能說跟國民黨有關係嗎?我們中壢李姓側翼 開支付寶 微信支付怎了?顯然國民黨跟中華民國只是鐵線蟲跟螳螂的關係柯韓粉食屎啦</t>
+          <t>總統不知道是扯了點好歹人家是黨團總召不過阿北的立委知名度真的不高認識的只有壁爐 塔綠安 新光小公主還有學姐議員剩下的真的不知道</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Re: [新聞] 農委會進口泰國雞蛋 國民黨立委質疑有人</t>
+          <t>[討論] 蔡英文讓世界看到”習近平 操你媽”</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085521.A.2D0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760677.A.B75.html</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>進口落地台灣就算成產地價的概念產地價跟批發價有落差批發價跟零售價有落差這不是基本常識嗎這個台灣車輛運輸成本，分裝成本，賣場營運成本。雖少但也是錢要政府出那就是圖利財團喔還是要財團免費提供?※ 引述《DDDDRR (QQ)》之銘言：: 1.新聞網址︰: ※ 網址超過一行 請縮網址 ※: https://www.chinatimes.com/realtimenews/20230329002739-260407: 2.新聞來源︰: 中時: 3.完整新聞標題: ※ 請完整轉載標題 請勿修改與編排 ※: 農委會進口泰國雞蛋 國民黨立委質疑有人賺價差: 4.完整新聞內容︰: ※ 請完整轉載原文 請勿修改內文與編排 ※: 為了因應蛋荒，農委會將引進泰國雞蛋，價格訂在每盒68元，每人限購兩盒。國民黨立委: 文君比較泰國本地及這批賣到台灣的蛋價，質疑兩者中間有3塊多的差價，被誰賺走了？?: 委會應該交代清楚。: 馬文君指出，根據新聞報導，有民眾在泰國超市買蛋，一顆零售價不過台幣3元多，農委?: 大量向泰國進口，一顆成本就算以零售價3元計算，再加上海運進口到台灣，一櫃費用約4: 萬元左右，每顆成本大概再加0.13元，約3.13元，再加上30％關稅，與5％預收的營業稅?: 最終成本可能會落在4.22元。: 馬文君質疑，農委會說，運費與關稅將由政府吸收，但是一盒10顆卻賣給民眾68元，平均: 顆價格來6.8元，這中間3塊多的差價，被誰賺走了？農委會應該交代清楚。: 馬文君批評，民進黨政府總愛成立「國家隊」時，但總是會有差價「貓膩」，像是過去成: 「快篩國家隊」時，國外快篩價格每隻20至30元之間，結果民進黨政府定價，五隻500元?: 至今也沒交代，差價進了誰口袋。蛋荒，苦的是百姓，若是還有人中飽私囊，一定要嚴查: 辦，他要求農委會說清楚，國家隊出手，進口的蛋價合理的價格應該是多少？: 5.附註、心得、想法︰: 對欸: 明明運費關稅都農委會付錢: 一盒應該42-43元: 為什麼到市場上一盒68元: 中間又是誰賺走？: 該不會大家忘記殷實商人了吧..: 不過民眾一盒68的雞蛋也買的很開心就是: ※ 40字心得、備註 ※: ※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，:    自刪與板主刪除，同樣計入額度 ※</t>
+          <t>https://i.imgur.com/QdErmBU.jpg蔡總統到達雷根圖書館後，現場出現兩派抗議人士其中Fox記者後方驚見「習近平 操你媽」(靠北，還簡體字），估計是滯美中國同胞(?)在那邊亂，原本還以為是網友P圖XD報導連結：Protesters clash outside Reagan Library as Taiwan president meets with McCarthyhttps://reurl.cc/8qzQj7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Re: [討論] 徐巧芯有想過自己如今被網路邊緣化嗎？</t>
+          <t>[討論] 為什麼蔡英文執政的台灣 家人也不想住?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085616.A.5BC.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680760835.A.7DF.html</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>※ 引述 《pennyone (California boy)》 之銘言：: 但是現在在年輕人的眼裡種種政客行為非常臭不受歡迎: 　: 不管在八卦版或政黑版: 都非常惹年輕人嫌惡: 剛剛八卦版文章也沒人想看年輕人？PTT哪來的年輕人？這年頭D卡現在都不一定敢說自己代表年輕人了，連Meteor都過氣了好嗎一堆三四十歲的乖乖當韭菜就好，不要想著自己是選票重點客群</t>
+          <t>蔡英文當總統 20年來經濟最好 還有社會安全網為什麼她家人不住在台灣好好享受蔡英文的政績呢台灣人同島一命 如果哪天開戰了 蔡英文的家人會回來支援嗎?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[討論] 中華民國體育都說教練帶頭打人</t>
+          <t>[黑特] 綠共喪事喜辦能力頂天啦</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085622.A.EE8.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755444.A.653.html</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://youtu.be/WSGCIo7I8ig常常有很多比賽，輸了以後就由裁判帶頭打人本次還沒打，但是投手三振贏球後振臂激勵，輸方教練卻上場幹絞贏方投手，笑死有沒有這麼輸不起，大谷翔平三振神樽也是振臂歡呼，還把手套丟掉咧這個學生投手只是自己激勵而已就被中華民國的教練罵，要怎麼發展體育啊？</t>
+          <t>母豬蔡竄訪美國被美國冷處理說只是過客去到瓜地馬拉被尼哥狠狠打臉true China只能躲在圖書館大外宣台獨丟人現眼讓全球華人看笑話這樣還能吹成台美關係大突破綠共喪事喜辦能力是否頂天啦？</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[討論] 徐巧芯的真實民調怎麼看起來沒什麼戰力？</t>
+          <t>[討論] 四任民選總統留下的政治資產</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085685.A.66F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755641.A.1E6.html</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>徐巧芯之前吹噓說她自己看了好幾份民調都領先費鴻泰後來新聞陸續公布了根本不是像她吹的那樣她跟費鴻泰頂多打成平手甚至徐巧芯如果出來許淑華還可以拿到更多票就連今天東森新聞做的士林區單挑民調謝龍介從台南來台北都可以贏民進黨了徐巧芯只是台北跨區居然輸給民進黨為什麼徐巧芯真實民調跟她自己吹出來的差這麼多？https://i.imgur.com/6VXZcQr.jpghttps://i.imgur.com/AXI5Gyw.jpghttps://i.imgur.com/1py7qFW.jpg</t>
+          <t>剛好看到臉書有人轉貼葛萊儀對蔡英文這次跟麥卡錫會面的評論："不論下一任總統是誰，蔡英文已經留給他強健的台美關係作為政治資產(翻譯)"蔡剩下一年任期，好像也可以開始討論她兩任所留下的政治資產台灣四任民選總統都有留下各自的政治資產李登輝：民主化、本土化、軍隊國家化、對日關係陳水扁：教育本土化、軍隊國家化、公務人員改革(始於台北市長任內)、晶片護照馬英九：三通、ECFA、免簽蔡英文：軍公教年改、提升國軍地位、台美關係阿扁的本土化，到了蔡英文選舉時都變現成了她的選票，蔡英文任內台美關係的改善，也會變現成下一位親美總統的政治資源跟選票李登輝原本要留給國民黨的政治資產，國民黨自己拋棄繼承後被民進黨撿走是造成現在國民黨只能揮霍祖產跟垂涎中國資源的主要原因之一我認為現在的國民黨如果想要重返執政，應該是要思考自己能留給未來的國民黨甚麼資產，而不是急著去跟中共討資源是說我在討論政治資產，怎麼推文全部都想討論政治負債</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[討論] 尚市長是不是先知？太厲害了吧</t>
+          <t>[討論] 郭粉的信心是哪來的?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085701.A.D96.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755698.A.5D1.html</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>不到十天前，尚市長發了這篇講了他覺得政府該怎麼解決缺蛋問題。※ 引述《jeanvanjohn (尚市長)》之銘言：: 蛋價飆高現在已經很明顯，是有人在中間哄抬炒作，: 這時候就應該不惜代價大量進口雞蛋，把這些奸商打到垮為止。: 打垮這些中間剝削的奸商，台灣的雞農和養雞業才有救昨天新聞開始，大量的進口雞蛋一船一船開進來。不再是「便宜的雞蛋在海上」在全聯 在美廉社 在家樂福 在大潤發，在你我日常身邊的超市與賣場。囤蛋仔慌了，開始拋售。http://i.imgur.com/KKcvJHc.jpghttp://i.imgur.com/C5CMZR9.jpg尚市長完全看透了問題的本質。不只是生產，而是中間有人在上下其手，囤蛋牟利。今天政府祭出鐵腕手段，可以看看誰會開始抨擊政府進口雞蛋。套句教父柯里昂的話「誰叫你和談，誰就是內鬼」。罵政府不該進口雞蛋的，就是囤蛋仔同路人。</t>
+          <t>依照目前民調郭台銘不管是三角督 或是單挑都是輸得比侯友宜多民調是科學的 完全看不到他有一戰的實力耶只是開個記者會為什麼郭粉吹上天了?他民調還輸過柯文哲耶</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[黑特] 蔡英文幹嘛要出訪友邦？</t>
+          <t>[討論] 慟!二大黨報聯合、中時都不支持郭台銘</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680085777.A.4A5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755710.A.675.html</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>如題政黑的七成綠色台共網軍好我很好奇，既然邦交國斷交就能省錢的話那請問哪個邦交國沒跟台灣要錢的?全部拿出來檢視一下如果斷交就等於省錢的話那蔡英文今天幹嘛要出訪友邦?為什麼要浪費錢拚外交？斷交還可以省下大筆金錢蔡英文為何不立刻返國，宣布跟剩下所有有金援外交的邦交國全面斷交?為何不跟瓜地馬拉、巴拉圭斷交、省錢?為何不取消出訪，省錢?請問蔡英文是白癡嗎?請問蔡英文是智障嗎？</t>
+          <t>昨天郭台銘訪美回來後 立刻召開記者會直接表態宣布參選總統 並希望代表國民黨參選於是 今天二大指標黨報 聯合報、中國時報都表示反對意見https://i.imgur.com/SYfqnX5.jpg尤其是中國時報 還直接以社論來寫 表示強烈反對希望國民黨要尊重藍營支持者的心情因為很多長輩一早起來 第一件事就是去超商買中國時報現在中國時報已經表態立場了 這些藍營支持者看完中國時報後 也不會支持郭台銘</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[黑特] 蔡EE 過境美國見民代，中國有啥好森氣的</t>
+          <t>[討論] 不能參選同意書在哪啊？</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079297.A.826.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755711.A.421.html</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>如題，蔡EE訪友邦過境美國見民代麥卡錫跟共和黨民代代表，並受邀到不具官方色彩的地點演講。不就跟馬這個一樣嗎？馬這個還有見地方的書記蔡EE只有見民代，高下立判，中共是在森氣氣啥？看不懂</t>
+          <t>欸欸之前洗的震天響說什麼要買疫苗就不能參選...還有信誓旦旦說親眼看到的...啊，現在又跑出來選了...不參選同意書該拿出來了吧？？？給大家看一下好嗎？？？</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[討論] 內閣為何不能採政黨比例制?</t>
+          <t>[討論] ECFA我方可以片面取消啊</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079395.A.215.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755767.A.598.html</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>既然不分區立委可採政黨比例制那內閣也可以採政黨比例制這樣是否會更好呢?不管國際上是否有前例台灣需要創意可以廣納人才 不分黨派</t>
+          <t>一堆人說約都簽了怎能說取消就取消，一直在說馬害台灣，不對啊！塔綠班是失憶嗎？ECFA是在民進黨執政內續約的捏！既然是毒藥你還續約？還可以怪前朝？？？而且瀨看一下條約————————————————————————-根據ECFA協議文本第16條中止條款：「一方終止本協議應以書面通知另一方。雙方應在終止通知發出之日起30日內開始協商。如協商未能達成一致，則本協議自通知一方發出終止通知之日起第180日終止」。————————————————————————也就是說，如果我方認為對岸哪裡做不好的話，我方可以隨時終止，不需要對岸同意捏！所以一句話：民進黨超愛ECFA！就這麼簡單！</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
+          <t>[新聞] 蛋、豬缺到價格飆漲 李彥秀10字怒轟農委</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079592.A.7C3.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755945.A.251.html</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>我是美國政府我也喊停，不過跟支那沒啥關係，美國有外星科技軍武，根本不在意支那。為什麼要喊停？首先，現在國際大環境/大風向是什麼？是同意台灣是個獨立國家，傳統支持台灣的美國/日本不用多講，現在連捷克/立陶宛這些過去覺得跟我們台灣沒啥關係的國家都來了。可見台灣的地位已經在國際越來越彰顯。所以，美國內心深處希望蔡總統用什麼形式拜訪美國？當然是&lt;台灣總統&gt;且正式訪問美國啊！有了上面認識後，我們再看看這次蔡總統實際上是用什麼形式拜訪美國？過境。我是美國政府，我一定想：過境？原來我大美國只是妳過境歇歇的地方？！然後再一看，目的地是中(華民)國友邦，我是美國我氣啊！！都暗示妳這樣明顯了，妳是代表台灣，不是代表中(華民)國！就算要過境，也拜託妳目的地是台灣友邦，比如加拿大好不好～～～所以這次美國突然喊停，意思就是告訴蔡總統，告訴我們台灣人，要想清楚為什麼來美國呀～應該是用台灣國總統的身分來美國呀～我知道，藍白豬腦這時要無能狂吼：那為什麼美國不直接跟台灣建交？唉，真的是一群豬！美國是民主國家啊！怎麼能直接告訴台灣：你給我正名！這是干涉內政好不好～　只能用這種暗示的方式。美國是在等我們正名制憲，堂堂正正以台灣國的身分，獨立於地球上，到時美國肯定搶第一個來建交。該醒醒了，美國老大哥給暗示了，不要過境，不要用中(華民)國總統身分，請正式拜訪，用台灣國總統身分！天佑台灣！！！</t>
+          <t>蛋、豬缺到價格飆漲 李彥秀10字怒轟農委會https://i.imgur.com/EqtZrdA.jpghttps://reurl.cc/5MV696中時記者，黃朝郁2023年4月6日 09:56缺蛋問題從過年前至今未能妥善解決，近日連豬肉價格都開始飆漲，每斤甚至漲破百元，國民黨台北市議員李彥秀怒批，農委會對於農產品價格飆漲只會一直找藉口，成為「跳票委員會、藉口製造機」，若把找藉口的時間拿來解決問題，恐怕早就沒有缺蛋問題，民眾也能吃到價格合理的豬肉。李彥秀今（6）日在臉書表示，2021年7月時，毛豬批發價格達到每公斤86元，當時創下歷史新高，農委會稱是因民眾在家防疫的關係讓需求大增，加上夏天豬隻吃的較少不易養大，導致量少價揚；同年8月，毛豬價格續創新高，農委會主委陳吉仲又說因走私肉品驗出非洲豬瘟病毒，加上中秋節烤肉需求量增加，才會造成肉品價格續漲。李彥秀指出，到今年3月時，毛豬價格飆破每公斤90元大關，陳吉仲稱「我家就是養豬的，先前疫病造成豬隻損失，加上飼料成本上漲，導致價格波動」；如今到了4月，毛豬批發價創歷史新高達到每公斤99.3元，各地市場價每公斤甚至飆破百元，農委會則稱是因畜牧場配合豬舍改建，加上小豬下痢、藍耳病等疫病、清明祭祀拜拜需求量增，還遇上市場休市三天，價格才會飆升。「怪疫情、怪豬瘟、怪烤肉、怪飼料、怪清明、怪休市、怪豬舍改建，就是不怪自己豬腦袋！」李彥秀提到，雞蛋國家隊已成立2年，豬肉價格同樣在2021年就已開始飆漲，但農委會卻始終沒有辦法提出解方，成為跳票委員會、藉口製造機，「如果民進黨政府把『找藉口、想理由』的時間拿來解決問題，恐怕早就不缺蛋、早就吃到合理價格的豬肉了！」「人民可以少吃雞蛋，但是陳吉仲知道，臺灣人每餐不能沒有豬肉嗎？」李彥秀質疑，陳吉仲3月接受專訪時，自稱「有做到正面的貢獻跟建設」，才讓他能夠繼續支撐在該位置上，但除了令人瞠目結舌的「陳吉仲奮鬥史」外，究竟還有什麼正面貢獻？李彥秀怒批，是要有多無能，才能讓雞蛋與豬肉問題延燒兩年？是要有多無知，兩年後的今天，才想到八國聯軍救蛋荒？「有一種好，叫『陳吉仲覺得自己很好！』」</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
+          <t>[討論] 深藍粉感覺越來越焦慮絕望了</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080208.A.B1E.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756020.A.6F4.html</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230328005983-2604072.新聞來源︰中時3.完整新聞標題蔡政府將機密雙手奉上給美國？徐巧芯踢爆國安會會議內幕4.完整新聞內容︰行政院長陳建仁日前喊「不要在那邊講疑美論」，引發朝野攻防。國民黨台北市議員徐巧芯28日在《張雅婷辣晚報》爆料指出，國安會1月16日召開一個機密會議，發現美國跟台灣在辦兵棋推演時，裡面有所謂資訊交換的要求，包括基礎設施、光纖網路、通訊設備，美國都要管。她質疑蔡政府雙手奉上我方機密資訊？還讓美國擁有光纖電纜通訊的訪問權，是否表示有權限掌握台灣的網路？這樣中華民國還有主權的獨立嗎？徐巧芯表示，要公開請教國安會祕書長顧立雄，有沒有在1月16日國安會召開一個機密會議，這些文件也要封存10年？希望有立委可以看到這件事情，知道有多重要，把這個議題帶到立法院裡去。台美關係好歸好，但不能把主導權交給美國吧？台灣不管基礎設施或光纖網路，所有內容應該要掌握在我們手上，但發現美國跟台灣在辦兵棋推演時，裡面有所謂資訊交換的要求，因為美國好像覺得台灣基礎設施很差，若開戰的話一下就崩壞了。「所以不管基礎設施、光纖網路、通訊設備，美國通通都要管！」徐巧芯提到，美方要求，要逐一去檢查風險，民進黨抗中保台在美國眼裡，似乎是玩假的，所以人家就要把你的主導權拿過來，逐一去檢視。資訊交換是美國跟台灣互換嗎？還是名為交換，其實是我們雙手奉上我們的機密資訊？我們只有換到他們顧問給我們的一些意見。徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸的地方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司，說到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路？擔心的是這個。「顧立雄應該好好來說明。」徐巧芯強調，因為其中還提到協調美國要來參訪軍事作戰中心，再配上先前的美國學人訪問計畫，立委高金素梅曾在立院質詢，就是美國官員可以來我們中華民國的政府部門裡工作。再加上《全動法》他們一直希望去推動，把這幾件事加在一起看會發現，「台灣目前真的，中華民國還有主權的獨立嗎？」還是凡事都要聽美國的，凡事都要給美國監管？徐巧芯直言，真的像美國爸爸一樣，我們要每天交作業給美國，讓美國人幫我們打勾？當然基礎設施要做好，但當資訊交換、軍事作戰中心、光纖電纜的登入站，如果這三樣東西都讓美國人來擁有存取訪問權限的話，那是不是台灣人的隱私跟個資有外流的可能性？所以請民進黨不要再講說疑美論有什麼問題，如果真的有這樣的機密會議的話，台灣人難道沒有懷疑美國的資格嗎？資訊交換換到什麼？為什麼政府不告訴我們？5.附註、心得、想法︰台北市議員徐巧芯，手上掌握到國安會年初的一場機密會議的情資。這個訊息讓她強烈質疑國安會祕書長顧立雄辱國喪權，我們的政府竟然把國家的重要資料外流給美國爸爸。從目前的表現來看，巧芯確實能夠勝任立法委員的位置。</t>
+          <t>國民黨侯選人難產馬這個訪中 完全不甩國民黨的選情中間選民冷眼看馬這個和老共聯合演出深藍粉除了馬這個講中華民國那天 爽到開趴之後看國民黨持續內鬥 又陷入愁雲慘霧之中而過去寄生的柯文哲老神在在 穩穩的維持20%水準感覺深藍仔真的絕望了只能無理性謾罵民進黨 來得到一點小小的慰藉更多的是寄望老共好好修理民進黨 幫國民黨出一口惡氣</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[討論] 這次畢業旅行會超買多少菸？</t>
+          <t>[討論] 中天開啟24小時打郭模式!!!!!!!!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080341.A.69A.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756126.A.5E8.html</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>這次是EE的畢業旅行，一定要買些紀念品紀念一下。依照我黨愛買菸的傳統，一定要超買菸紀念一下。所以這次畢業旅行會超買多少菸？</t>
+          <t>除了打郭三組 結巴董 揮文 謝寒冰中天開始訪問挺侯國民黨人士李永萍 鄭麗文 等開始24小時不間斷打郭力道之凶狠 內容之毒辣超越三立 自由 民視上次打郭把郭打掉10幾%  侯友宜也掉下去7%中天不信邪在演一次就對了中天到底有沒有拿民進黨的錢啦??????????</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[討論] 未來台中市長顏寬恆</t>
+          <t>[討論] 民進黨最失敗的是兩岸牌 已經沒招</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080379.A.FA5.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756174.A.D86.html</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>如果造這個情況繼續下去台中的主人顏寬恆應該是台中市長以後要佔多少國有地都輕輕鬆鬆國民黨還在裝死嗎？還是台中人覺得黑道治國好藍粉說看看啊</t>
+          <t>大概四年前疫情還沒爆發之前還有搞頭現在兩岸牌民進黨是直接放棄馬英九一個人全部收了如果如果接下來拜登因為美債的事情想跟中國和談靠腰民進黨立馬被晾在陽台上所以民進黨的命運不是台灣人可以決定的拜登的一念之間民進黨重壓美國的態度 但是美國這個國家很大他會追求自己的最大利益美國跟重新跟國民黨郭董變成盟友 說真的大概2025就可以看到了台灣反而會變成中美雙方的潤滑劑民進黨只有一招 抗中保台就沒了</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[黑特] 加入國民黨民進黨光明會死後去的地方！</t>
+          <t>Re: [討論] 侯友宜的英文能力</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680080693.A.0A4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756566.A.245.html</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>你們知道加入國民黨民進黨光明會死後會去哪裡嗎？會去撒旦統治的世界。。。。在那個世界會跨越陰陽兩界。。變成羅剎夜叉或小鬼被撒旦役使。。。等待跟這些撒旦光明教徒簽契約（抓交替）。。一但契約得手，就可漸漸把這些撒旦教徒的身體和行為控制住。。接著撒旦會視簽約者是否有福報，來決定他們的死活，如果有福報就會讓你做很惡毒很壞的事來達到祂控制世界的目的！等到沒有福報就會直接把你身體搶走使用你在世間的財產和力量吃喝玩樂和試圖控制人類生活和政權，讓你死掉變成羅剎夜叉抓交替(惡性循環)，最重要是不管你是死是活，只要被控制住，撒旦要你吃大便，你就要吃大便，要你殺人，你就要殺人，要你用有錢人的身體跟各式各樣的女生上床，你就要一直上床，等壞事做盡連當羅剎夜叉的福報都沒有，就直接下地獄！就算有修行人想幫你忙都很難很難。。。因為就像白雪公主的巫婆後母和糖果屋吃人肉的羅剎婆婆一樣僧人想幫忙超度是很難很難的事弄不好連僧人都會下地獄！為什麼我知道？因為我有親人原來是國民黨的託夢給我！我怎麼迴向都沒有用！</t>
+          <t xml:space="preserve">※ 引述《iamthebest08 ()》之銘言：: 號稱說要新北市要作大市: 我只是好奇: 如果今天在美國的是侯友宜: 給他一樣的講稿: 他能正確發音 唸出那些字句嗎: 英文能力不知道如何: 我知道他要保衛中華民國: 但我想知道他的英文如何？: </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Re: [新聞] 氣氛微妙 美臨時喊停蔡總統過境簡報</t>
+          <t>[討論] 有沒有政客故意被黨紀處份的？</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081054.A.132.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756853.A.5CC.html</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>美國當然不在意中國但是台灣正在玩火馬英九去中國喊出了中華民國馬英九去中國喊出了台灣總統美國情報局掌握到現在過半的台灣地區人民心情振奮激動意思就是馬英九在中國的中華民國論讓台灣地區人民誤以為中共已經接受中華民國這是非常危險玩火的舉動如果這時候美國又見蔡英文總統那就是火上加油會讓全台灣地區的人民誤以為中美兩國已經接受中華民國到時候台灣地區人民認為中美兩國已經認同中華民國做出了錯誤的政治決策到時候察槍走火這不是美國想見到的畢竟現在烏俄戰爭還沒結束美國不想同時應付兩條戰線而且台積電到目前為止還沒完全轉移到美國貿然開戰美國也會受傷我敢說等台積電完全轉移到美國那天就是中華民國或台灣總統正式進入美國國會的那天※ 引述《moslaa (良心台派+正義DPP支持者)》之銘言：: 我是美國政府我也喊停，: 不過跟支那沒啥關係，美國有外星科技軍武，根本不在意支那。: 為什麼要喊停？: 美國是在等我們正名制憲，堂堂正正以台灣國的身分，獨立於地球上，: 到時美國肯定搶第一個來建交。: 該醒醒了，美國老大哥給暗示了，: 不要過境，不要用中(華民)國總統身分，: 請正式拜訪，用台灣國總統身分！: 天佑台灣！！！</t>
+          <t>政黑點寫在前面：有沒有政客故意被黨紀處份，來躲過爭議的？看到台南民進黨議長邱莉莉時我不覺得，但轉頭一看政黑板覺得怪怪的。亮子，又稱政黑阿北、政黑李文亮，tosca。前陣子在政黑板因為超貼被水桶。#1a94Z95u (HatePolitics)當時我就覺得不對，這時間抓太好了吧，他三月底要出國耶。結果他3.31~4.5就飛日本，在東京迪士尼爽玩了好幾天。https://www.pttweb.cc/bbs/Japan_Travel/M.1680694192.A.B72https://www.pttweb.cc/bbs/Japan_Travel/M.1680743585.A.C3A日旅文也就算了連攝影板都看到他分享迪士尼照片https://www.pttweb.cc/bbs/DSLR/M.1680748748.A.ACE3.29被政黑板水桶3.31~4.5東京迪士尼4.6回來政黑板閒聊亮子你真的不是故意的嗎？我4.18要飛，考慮參考一下你的作法了。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[討論] 藍營初選 綠營焦慮到爆</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081191.A.558.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756857.A.356.html</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Me too上禮拜剛從昆山出差回來平日晚上或週末放假 去逛商城 人潮是真的明顯減少工廠作業員人力減少 不是找不到人 是不給招人現在也不給報加班 local RD五點一到全部準時下班有跟他們聊一下 縮編持續進行中聽說RD被派去產線打螺絲逼退的也有 不知道什麼時候會整廠搬走物價體感沒比台灣便宜 手機支付超級方便昆山市容屌打台灣所有城市房子漂亮 路大條整齊 規劃好 人行道寬駕駛素質倒是不怎麼樣 喇叭按不停而且騎車的大概一半沒戴安全帽 很有南部feel健康碼只有出入境要填 自己給你選選項核酸說是要做 但不管台灣做還是昆山做 出入境根本沒人檢查做做樣子而已</t>
+          <t>近期版面佔比較大的兩場初選：1. 芯費大戰2. 郭侯之爭綠粉看到這對戰組合，真的是焦慮到發抖、晚上睡不著，「到底要支持誰啊？」2020共識就是非韓不投。但2024這局，至今綠粉還沒有共識要捧誰。太焦慮了吧，第一場民調勝不到兩週就開始。藍營可以自豪了，自豪自家初選候選人讓敵營嚇到發抖。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[討論] 如果2020正副總統候選人互換 人民少苦4年</t>
+          <t>[黑特] 韓粉最討厭誰？侯郭朱三選一</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081212.A.B5B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680756904.A.2F4.html</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>韓國瑜很會講，但後來被發現說的和做的有點落差但是理工男張善政，默默做卻表現出強大能力市長滿意度調查，只有10%不滿意如果扣掉一些偏激的人，幾乎可以算是零負評2020若是主打總統張善政副手韓國瑜用他的口才幫張善政宣傳現在就是張韓配執政，人民少苦4年不用等到2024才解脫.</t>
+          <t>韓粉只要韓討厭侯友宜討厭朱立倫討厭郭台銘當中的仇恨度怎麼排侯友宜齁齁，輔選不出力，氣死朱立倫決策過程爛，不把我們含總放眼裡，爛郭台銘被最愛看的中天瘋狂修理，也不是好貨韓粉三個裡面最討厭誰啊我看最討厭 朱，再來侯，再來郭</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[新聞] 桃園到高雄16具「半裸浮屍」！有5具台灣</t>
+          <t>Re: [討論] ECFA我方可以片面取消啊</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081402.A.7BE.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757002.A.A8C.html</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://news.tvbs.com.tw/local/20822492.新聞來源︰TVBS3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※桃園到高雄16具「半裸浮屍」！有5具台灣人　這縣市數量最多4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※https://imgur.com/hpGI7js.jpg台灣沿海連續發現浮屍！原本3月初先在台中港離岸風電高台上發現一具男屍；怎料，事隔2週，海巡隊在台中往南到高雄沿海，發現7具半裸男女浮屍；怎料，最新進度，從桃園到高沿海，一共發現16具浮屍，其中5具疑似是台灣人，有中華民國證件，「這縣市」浮屍數量最多！https://imgur.com/g6XxymE.jpg台中地檢署今針對此案說明，本月4日至17日期間，海巡署從桃園到高雄沿海撈獲11具男女無屍。此外，台中港離岸風電高台上還有一具男屍；換句話說，這短短半個月已找到12具無名屍。https://imgur.com/AJh0WbZ.jpg沒想到，再找到4具浮屍，累計至今共16具無名屍。海洋委員會海巡署今日透露，3月迄今，已在海上岸際線發現16具大體，其中有2具男屍卻定為越南籍身分，5具遺體身上有台灣籍證件。https://imgur.com/TVlgNMC.jpg根據統計，無名屍地點分別在，4日桃園市新屋溪北岸；5日台南市七股區網仔寮沙洲；6日雲林縣湖口鄉外海、台南市青山漁港港嘴海面；7日台中外海、彰化縣王功西方海域、雲林縣麥寮西方海域、台南市將軍西方海域。另外，10日雲林縣外傘頂洲、高雄市茄萣區沙灘；14日新竹圳頭西方海域；17日台南市七股區網仔寮沙洲等處，都有發現浮屍，全台一共有16具。https://imgur.com/F5ZkMxR.jpg從桃園、新竹沿海一路到高雄，浮屍遍布7個縣市；根據統計，台南市一共有4具，浮屍數量最多，雲林縣3具，其餘桃園、新竹、彰化、台中、高雄都有浮屍。由於屍體數量過多，相關單位初估懷疑是越南偷渡犯人蛇集團丟包。https://news.tvbs.com.tw/local/20822495.附註、心得、想法︰※ 40字心得、備註 ※抓一隻狒狒媒體報了18天狒聞 狒狒死了繼續報然後這篇新聞說近半個月找到12具無名屍所以這12名浮屍都沒比一隻自由的狒狒還重要就是了是台灣媒體在蓋新聞 還是政府都不在乎人命</t>
+          <t>你知道為什麼民進黨不取消嗎？因為選票民進黨的選票族群中其實有很多高喊我是中國人賺中國人的錢的人民進黨如果不想要這些選票那就取消至於為何這些人要票投民進黨我稍微解釋一下民進黨執政對他們最有利為何？因為中共為了拉攏台灣人民只會給更多利多以民進黨執政這幾年來看台灣對中的貿易是成長的正因為民進黨抗中所以中共只能用更多錢來收買人心台灣人沒人真心想當中國人只想賺中國人的錢利用中共愛台的心刻意票投民進黨讓中共增加購買量※ 引述《kuso2005 (一時想不到)》之銘言：: 一堆人說約都簽了怎能說取消就取消，一直在說馬害台灣，不對啊！塔綠班是失憶嗎？EC: FA是在民進黨執政內續約的捏！既然是毒藥你還續約？還可以怪前朝？？？而且瀨看一下: 條約: ————————————————————————-: 根據ECFA協議文本第16條中止條款：「一方終止本協議應以書面通知另一方。雙方應在終: 止通知發出之日起30日內開始協商。如協商未能達成一致，則本協議自通知一方發出終止: 通知之日起第180日終止」。: ————————————————————————: 也就是說，如果我方認為對岸哪裡做不好的話，我方可以隨時終止，不需要對岸同意捏！: 所以一句話：民進黨超愛ECFA！就這麼簡單！</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[討論] 小孩不認識孫中山很正常</t>
+          <t>Re: [討論] ECFA我方可以片面取消啊</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081494.A.BD6.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757023.A.33E.html</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>針對前面原汁說他朋友的兒子以為國父是鄭成功那篇，因為不知道為什麼一直不能回文，所以我直接發一篇文認真回：我姪子現在讀小學五年級，他們社會課現在學的是「臺灣歷史」，前陣子剛上完「明鄭時期」，所以他們現在熟悉的歷史人物是鄭成功、鄭經、陳永華，所以原汁的朋友的小孩直覺講出鄭成功很正常，因為那是他現在熟悉的歷史人物，他還在學習然後他們最近正進入清領時期，正要接觸劉銘傳、中法戰爭、沈葆禎、牡丹社事件，然後再來甲午戰爭割讓臺灣所以根本還沒學到「中國」歷史跟朝代，也還沒接觸到清朝末年，就算接觸到也是臺灣歷史這邊的清末人事物，所以不認識孫中山很正常好嗎？教學是講究循序漸進的，中國歷史是國中才會教，孩子還沒學到推翻滿清你就直接跟他說我們的國父是孫中山喔！他們只會一臉你在供三小的表情看著你，想說孫中山是誰啊？！藍白賤畜能不能先關心一下自己的小孩現在學習進度到哪裡再來靠北</t>
+          <t>你們藍白整天就是一直在攻擊這點我快笑死跟你說，等賴清德上台後才能真正的正名「臺灣」，建國創憲（實現純三權分立）看守「經濟」，退出ECFA、加入CPTPP維護「主權」，向捷克採購軍用貨卡咱臺灣郎一定艾挺咱臺灣朗！https://i.imgur.com/Ly70Vig.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[討論] 中華民國的網域是什麼？</t>
+          <t>Re: [討論] 民進黨是怎麼走到這一步的?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081787.A.FD4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757616.A.9C6.html</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>中華人民共和國是 .cn中華民國的網域是 .tw為什麼網域不是 .roc.tw 是什麼喪權辱國的網域為什麼國民黨當初沒有抗議居然用區域名稱當網域是把自己當成 .hk 嗎中華民國派馬英九們上中華民國網站跟 .gov尾巴是打 .cn .tw 還是 .roc國旗裝生物怎麼還不上街抗議</t>
+          <t>簡單來說就是路線正確踩住親美抗中的道路 中間因為各種國際情勢起起伏伏然而大方向正確 怎麼都不會太慘KMT就是方向錯誤 逐漸走下坡新政黨TMD試圖修正KMT的這條路線改成等距三角形 騙到一些對KMT不滿的人其原因也很簡單 因為親美抗中路線已經被DPP佔住了回過頭來看台灣就一條路：親美其他都是邪魔歪道 遲早要消失</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[新聞] 黃珊珊「社會賢達」入列！民眾黨選決會名</t>
+          <t>Re: [新聞] 蔡英文會晤麥卡錫！　侯友宜：讓全世界</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680081887.A.65C.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757666.A.653.html</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>黃珊珊「社會賢達」入列！民眾黨選決會名單出爐　4／3討論立委提名https://www.ettoday.net/news/20230329/2469515.htm記者袁茵／台北報導民眾黨29日召開中央委員會，並於會中通過「選舉決策委員會」成員名單，除了黨主席柯文哲、秘書長周台竹2位當然委員以外，指定委員包括新竹市長高虹安、民眾黨立法院黨團總召邱臣遠，而仍具有親民黨籍的前台北市副市長黃珊珊則以「社會賢達」入列，預計4月3日召開首次會議，討論總統、立委提名人選與時程。民眾黨29日表示，今於中央委員會會中通過「選舉決策委員會」成員名單，選決會將主責總統、立委提名人選與時程等相關作業，預計4月3日將召開首次會議；會中也通過「黨公職赴大陸地區準則」，針對黨公職人員未來「以黨名義」赴中國大陸制定條款，並於即日起實施。民眾黨提及，「黨公職人員赴大陸地區準則」規範一級主管以上黨務人員（含副主任）、直屬委員會主委，及擔任黨公職及縣市首長之黨員，以黨名義赴大陸地區，必須一週前向黨中央提出申請及報准，核准即可前往；未報准者，黨職人員赴陸不得「以黨名義」及職銜，依違反黨紀處分及相關規定辦理。民眾黨選舉決策委員會名單，2名當然委員為柯文哲、周台竹，8名指定委員為高虹安、邱臣遠、指定中央委員林富男、台大醫院乳房醫學中心主治醫師張金堅、宜蘭縣黨部主委李偉華、民眾黨黨代表張清俊，以及用「社會賢達」身份加入的黃珊珊、柯文哲辦公室特聘顧問林有志。關於民眾黨首次選決會討論重點，據了解，將討論到5名現任不分區立委邱臣遠、賴香伶、張其祿、吳欣盈、陳琬惠，以及前立委蔡壁如要投入的區域選區，不過讓6人投入區域立委選舉僅為柯文哲個人意願，4月3日選決會能否定案，仍有待討論。</t>
+          <t>侯神這次路線是對的藍營裡面就有親美跟親中派的在紛爭親中派檯面上看起來就一堆拐瓜劣棗朱學恆 郭正亮 董智森 謝寒冰 陳揮文唐湘龍 陳鳳馨藍營的朋友真的要看清楚國民黨選舉想贏請遠離中天系統不要像巧芯一樣為了曝光出賣自己的BNT之血中天已經搞砸兩次總統選舉了禿子漢子燕子前面兩個已經被自己中天搞掛了這次更扯2024想捧盧秀燕提早送頭</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[討論] 敵對政權用紅地毯接待的意義？</t>
+          <t>[新聞] 緊接蔡麥會 美眾院外委會主席率團抵台</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082095.A.139.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757747.A.9BA.html</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>是這樣啦我國有些人啊，不知道是不是智能不足還是怎樣，希望敵對政權用紅地毯接待，不然就是有損國格先不說敵對政權，把他當成是同等地位的國家好了，這也是某黨最喜歡的論調幹你媽的，你跟中國建交了喔？肏，紅地毯接待前元首咧阿輝去日本有沒有紅地毯21響禮炮外加外藏省官員列席？沒有是不是該把阿輝抓起來鞭一下？講回來現實情況幹他媽現在ROC跟PRC內戰是結束了嗎？憲法都在互指說對方是不合法政權了，用元首級接待敵對政權前元首？馬能過去嗆聲大家就要拍拍手了，民進黨誰他媽敢過去中國嗆聲的？李明哲過去玩都被關好幾年，我笑你民進黨沒人比李明哲有種啦不信叫那個沒公職沒黨職賣襪子的去中國玩一下啊還是叫那個當記者然後八千塊把人家裡裡外外都玩透的那個去中國啊不敢啊？不要說林北不辦台胞證，不削過去啦辦了你也不敢過去啦笑死</t>
+          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42620112.新聞來源︰自由3.完整新聞標題緊接蔡麥會 美眾院外委會主席率團抵台4.完整新聞內容︰2023/04/06 11:22〔記者呂伊萱／台北報導〕緊接在總統蔡英文過境美國會晤美國聯邦眾議長麥卡錫之後，美國眾議院外委會5日晚間（台灣時間6日）宣布，外委會主席麥考爾（Michael McCaul）率領7位跨黨派眾議員訪台，討論如何強化美台經濟和國防關係。訪團已經抵達台北。眾院外交委員會說明，訪團成員包括眾議院外交委員會新任印太小組主席金映玉（YoungKim）和印太小組委員會資深眾議員貝拉（Ami Bera），以及眾議員希爾（French Hill）、眾議員狄恩（Madeleine Dean）、眾議員瑞森紹爾（Guy Reschenthaler）、眾議員勞勒（Michael Lawler）和眾議員莫蘭（Nathaniel Moran）。眾院外委會表示，訪團將與台灣商界領袖以及台灣行政和立法部門的高層會面，討論美國在該區域日益增長的威脅下，如何加強美國與台灣的經濟和國防關係。本報日前報導，蔡總統將於7日（週五）返抵國門，麥考爾一行應會在8日（週六）晉見蔡總統，然後離開台灣。5.附註、心得、想法︰眾議院回訪 這應該算是美國爸爸的善液了吧不知道支那軍機又要來幾台藍白粉：阿是要建交了沒?</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[黑特] 珊珊入黨，代表柯宋即將合流</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082281.A.3C4.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680757751.A.9EE.html</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>這個狀況很久了。一樣是自身經歷，我三年前還在越南當台幹，採買布料的。有一次出差到江蘇盛澤。好慘。那時是中美貿易戰被加關稅。2019年10月。去染廠，五台機器染布機只開一台。事後聽說那天原本沒要排生產。聽說產的布其實業務沒客人。只是為了讓機器運作硬開的，不然工廠停止運作，銀行會抽銀根。下午三四點時，經過紡織大街，整條街五六十公尺，只有兩家有發財車裝貨。廠商跟我說以前下午三四點是最熱鬧的。現在完全沒人。另外同場加映，這個節目的來賓是去年年中逃回來的東莞台商，雖然他沒說，但字裡行間應該是本來就在苦撐，到上海封城他就覺得這個國家的經濟不會再起來了。於是潤回來退休。依他的分享，去年年中以前，東莞厚街的招租也是一半租不出去。跟我上面講的2019盛澤、原PO分享的狀況都差不多。可以互相呼應。https://youtu.be/MHtF2x_stMA</t>
+          <t>黃珊珊女士昨天申請加入台灣民眾黨，消息一出綠共側翼崩潰，塔綠班如喪考妣齊聲大罵，還在那邊假好心問老宋怎麼辦外行看熱鬧，內行看門道，我就問黃珊珊現在有退出親民黨嗎？既然沒有，那麼加入民眾黨就算不是宋省長授意，至少也是知情的老宋手下最大戰將進了民眾黨，很可能柯宋也即將合流一邊是國會第三大黨黨魁，一邊多次在總統大選取得第二第三高票，現在柯宋合了，強強聯手，我看2024這場選戰還有得打</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Re: [討論] 未來台中市長顏寬恆</t>
+          <t>[創作] 國民黨把路走寬闊的方法</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082281.A.5CF.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753712.A.7B3.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>※ 引述《closer0616 (closer0616)》之銘言：: 如果造這個情況繼續下去: 台中的主人顏寬恆應該是台中市長: 以後要佔多少國有地都輕輕鬆鬆: 國民黨還在裝死嗎？: 還是台中人覺得黑道治國好: 藍粉說看看啊台中市長歷來都是要高學歷的前面幾任至少中一中畢業起跳  建中也還行  去日本念大學  台大算標配或著當醫師牙醫律師盧秀燕不是台中人但也是基隆女中  政大畢業顏寬恒這種洗學歷的  抱歉  絕對拿不到市區票  這是台中人的堅持沒有市區票乖乖留在海線當議員就是顏家的路.</t>
+          <t>寡人不才，繼昨天發表一篇"2024總統大選局勢分析"，今日又有其他想法，望各位大大不吝指教。這幾年為什麼民進黨如此得人心，就是因為他的台獨主張。台獨讓年輕人更加有土地歸屬感。越來越多人支持台獨。反觀國民黨，他內部分裂，支持統一的有，維持現狀的有。以主權維護的立場而言，這部分民進黨大勝。根本原因就出在國民黨，早在蔣經國時代，便推出一個本土化的政策，大家都知道，國民黨是國共戰爭退守台灣的一群年輕士兵，簡言之，最早期的國民黨是內地各省分的年輕人，跟隨蔣經國來到台灣，而台灣被日本殖民以後，又被所謂的外省人殖民。國民黨的二岸策略，之所以走不出康莊大道，原因就在於，本土化的在地人才取得觀念；他可以適用於小蔣時代，當時人口數少，要建立社會，要維持運作，擴增人口，讓社會居民變多；必須讓原有的居民也參與融合，這個方法是可行的；可是到了現代，人口數維持在2300萬人，而且外省也已經繁衍出二代、三代。我認為他已經喪失了主張的觀念，越年輕的一代慢慢認同獨立才是王道最當初的"反攻大陸"，中華民國土地是全中國，根本就消失了。是的，國民黨是有修正，他修正成和平統一，但沒有廢除本土化，會讓人認為"你就是為了自己謀權大位"，自己執政有決定性的利益而已。所以，他越走越小，在此，我提出廢除本土化，回歸初衷，讓大陸內地各省分有志參與公眾事務的年輕人，前來台灣接受國民黨的培育，進而改變本土化的思維，國民黨應該將此守則歸納在黨綱，讓更多內地有志青年來台，只是方式不再是透過戰爭，而是透過更有人性的方式達成，例如台灣國民黨黨綱，甚至憲法中就有提到這項原則，否則，國民黨的套路越走越像民進黨，阿就你們想爭權做大官而以，但是又沒有台獨主張當作依靠，隨著時間演化，後代根本搞不出名堂。原因就是 "沒有外省人來執政"以上寡人看法大家討論看看</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Re: [新聞] 蔡政府將機密雙手奉上給美國？徐巧芯踢</t>
+          <t>[黑特] 中國派去歡迎馬鷹狗的都是走路工啦！</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082346.A.050.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753848.A.332.html</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>: 「所以不管基礎設施、光纖網路、通訊設備，美國通通都要管！」徐巧芯提到，美方要求: ，要逐一去檢查風險，民進黨抗中保台在美國眼裡，似乎是玩假的，所以人家就要把你的: 主導權拿過來，逐一去檢視。資訊交換是美國跟台灣互換嗎？還是名為交換，其實是我們: 雙手奉上我們的機密資訊？我們只有換到他們顧問給我們的一些意見。: 徐巧芯指出，從宜蘭頭城到淡水，這是美方認為兩岸如果一旦開戰，可能會率先上岸的地: 方。所以針對那些地方，他們去找了中華電信，新世紀資通、遠傳等好幾家電信公司，說: 到時候要讓美國來擁有光纖電纜通訊的訪問權，是不是就表示有權限掌握台灣的網路？擔: 心的是這個。看到非常無言中國準備攻打台灣可能從頭城到淡水之間登陸你應該去呼籲中國不要想不開就打仗有話大家好好說 兩岸大家都中華民族有甚麼話不能說一定要用打得??結果呢美國好心幫台灣檢查看基礎設施ok不ok可能有哪些問題快點一起來解決問題然後你講得一副美國 居心叵測的樣子有沒有搞錯~~今天是美國要來打台灣嗎????????不過喔美國動作這麼多看來可能是預估2027是真的很有可能會打了今年已經 2023了剩下四年而已我們大家 大部分人只剩下四年可以活了o.O之後 不是被炸彈炸死 就是沒食物吃餓死 上戰場戰死或是通訊全斷 沒辦法上網上批踢踢 無聊到死太慘了 真的太慘了所以我勸大家好好珍惜這 生命中 最後的四年有甚麼想吃的 就快點吃有甚麼想做的 就快點做有甚麼想買的 就快點買https://i.imgur.com/LtYVdEo.jpg像是 愛玉這台灣特有的以後如果統一了愛玉搞不好被中國列為 台獨食品大家不准吃愛玉一吃就代表你有台獨思想 不純淨所以大家快點趁現在 好好吃愛玉吧珍惜還吃的到愛玉的日子o.O</t>
+          <t>馬鷹狗就喜歡夾道歡迎這一套。8年遺毒時期，有次馬鷹狗的車隊要經過我家巷子口，里長通知家裡長輩要去歡迎。聽說大家七早八早就過去等，等老半天，結果馬狗的車隊就真的只是經過而已，完全沒有停留。垃圾馬鷹狗，排場比古時候皇帝還大。</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Re: [新聞] 西部沿海共「16具遺體」海巡署：2越南</t>
+          <t>[新聞] 蔡英文會眾院民主黨領袖傑福瑞斯 總統</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082369.A.84B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753897.A.422.html</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>: 奇怪: 為什麼民進黨完全執政後: 會有這麼多台灣人成為浮屍？: 然後都查不出來？: https://i.imgur.com/Tb3IL5Z.jpg: https://i.imgur.com/4Mazs4R.jpg: 民進黨政客為了一隻進口狒狒: 可以悲傷到作詩寫賦: https://i.imgur.com/jLGWNSf.jpg: 但這麼多台灣人成為浮屍: 也沒看到這些綠圾政客寫賦弔念dpp的黨性就是進攻型 已經攻擊慣了 但偏偏又是過半執政黨必須壓抑住進攻慾望... 當其他黨只要出一點小事就會造成全黨高潮，所以dpp還是回去當在野黨好了 不然看到他們一直壓抑不能大鳴大放看了也痛苦...</t>
+          <t>https://news.ltn.com.tw/news/politics/breakingnews/4261152自由3.完整新聞標題蔡英文會眾院民主黨領袖傑福瑞斯 總統府證實傳達4訊息4.完整新聞內容︰〔特派記者陳昀／隨行採訪報導〕蔡總統「民主夥伴共榮之旅」美東時間3月29日至31日過境紐約，目前已結束中美洲友邦瓜地馬拉、貝里斯訪問並抵達洛杉磯。總統府副秘書長張惇涵證實，蔡總統日前過境紐約曾與眾議院民主黨領袖傑福瑞斯（Hakeem Jeffries）會晤，並與參議院跨黨派議員蘇利文、恩斯特、凱利「早餐會」，會中總統感謝美國對台灣的支持，促進理念相近國家共同關注台海及印太的和平穩定，也期盼台美在共同關注的安全議題上繼續合作。張惇涵在總統專機飛抵洛杉磯前接受媒體訪問，並首度證實蔡總統過境紐約期間曾與眾議院民主黨領袖傑福瑞斯（Hakeem Jeffries）會晤。基於台美雙方的信任與默契，時隔數日才對外透露，蔡英文總統3月31日離開紐約前，曾與美國參議院跨黨派參議員蘇利文（Dan Sullivan）、恩斯特（Joni Ernst）、凱利（Mark Kelly）早餐會。張惇涵指出，蔡總統在相關會面中主要提到4個訊息。首先，這趟是在疫情過後首度出訪及過境美國，感謝美方在她過境期間提供的協助與安排；其次，除了感謝美國總統拜登上任後不斷以具體行動表達對台灣的支持外，也很感謝橫跨美國參眾兩院及跨黨派議員對台灣不遺餘力的支持，讓台美雙方共同克服許多挑戰。第三，蔡總統認為，美國各界對台灣的支持，促進許多理念相近國家共同關注台海及印太的和平穩定，除了感謝美方對台海及區域和平穩定的高度關注外，也期盼台美之間能持續在共同關注的安全議題上繼續合作，台灣也會持續扮演負責任的夥伴的角色，與理念相近國家共同維護區域和平穩定。最後，蔡總統強調，台灣會持續作為關鍵且可靠的經貿夥伴，與理念相近國家共同致力打造更具韌性的全球民主供應鏈，為全球役後經濟復甦貢獻正面力量。會談過程中，蔡總統再次感謝蘇利文在2021年6月台灣面臨新一波疫情挑戰時，來台宣布美國將援助台灣疫苗的訊息，讓台灣人感受到，在全球抗疫的道路上，台灣並不是孤軍奮戰。5.附註、心得、想法︰這應該比較接近美國現在的立場也就是執政黨民主黨的立場蔡英文過境紐約都多久了為什麼今天消息才出來?誰能阻止蔡英文發新聞稿昭告天下?綠粉可以學會思考一下嗎?</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fw: [新聞] 高市消保官查蛋商 未發現違法囤積</t>
+          <t>Re: [討論] 珊珊是不是不下呂布？</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680082576.A.9A1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753947.A.E3A.html</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">※ [本文轉錄自 Gossiping 看板 #1a8_zsiq ]作者: CrazySept (九月) 看板: Gossiping標題: [新聞] 高市消保官查蛋商 未發現違法囤積時間: Wed Mar 29 17:05:56 2023備註請放最後面 違者新聞文章刪除1.媒體來源:※ 例如蘋果日報、自由時報（請參考版規下方的核准媒體名單）※ Yahoo、MSN、LINE等非直接官方新聞連結不被允許自由時報2.記者署名:※ 若新聞沒有記者名字或編輯名字，請勿張貼，否則會被水桶14天※ 外電至少要有來源或編輯 如:法新社葛祐豪、王榮祥3.完整新聞標題:※ 標題沒有完整寫出來 </t>
+          <t>既然你誠心誠意的發問了！大部分的人換過好幾家公司!羅志強提到，當時蔡英文年紀輕輕就當上公平會委員，是國民黨極力栽培的明日之星我阿公的阿公的阿公竟然是荷蘭人！然後姓鄭的來了,我阿公的阿公的阿公又變成明朝人！之後康熙來了！我阿公的阿公的阿公又變成清朝人！接下來日本人來了！我阿公的阿公的又變成日本人？姓蔣的接著來了！我阿公的阿公的又變成華國人！所以我家是三姓家奴嗎？都不為國拿掃把戰到一個都不剩,我好羞恥！</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[新聞] 【48退將捲共諜】點名吸收呂秀蓮　羅志</t>
+          <t>[討論] 蔡總統發揮功能應予以鼓勵</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075064.A.D70.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754092.A.855.html</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>鏡周刊【48退將捲共諜】點名吸收呂秀蓮　羅志明共諜案延燒48退將文｜林俊宏    攝影｜王漢順 林煒凱台聯前立委羅志明涉在台發展共諜組織遭起訴，從而揭露中共對台滲透升級與更多不同的手法！檢調查出對岸曾企圖透過羅志明，慫恿前副總統呂秀蓮赴中，以及引介曾任國防部次長、副參謀總長、陸軍司令、大直衡山指揮所主任等48名高階退役將領，至湖北或廣東珠海等地參加球敘聯誼等活動，並穿插祭祖及參拜炎黃二帝，藉此大肆宣傳黃埔精神、促進祖國統一及一國兩制，有系統地對我方退將進行統戰滲透。知情人士告訴本刊，對岸透過廣東太普樂生技董事長李鷹，暗中滲透我軍退將至少已經10年，表面上李鷹是位商人，他的父親是中共退役空軍將領，李鷹更是中共情治系統人員，長期循著羅志明這條管道，煽動我方中將以上14人、少將30人、上校3人、中校1人，至少共48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月，也就是馬英九第二任總統期間。後來蔡英文就任總統，大幅強化國軍的國安意識，退將赴中人數驟減，羅志明這條管道開始失靈，李鷹2016年12月與2018年8月籌劃的退將赴中行程，分別只有3名及5名退將成行，到最後連退役中校都被找來參加，與馬政府時代每次動輒近20名退將出團的「滿天星」陣容相比，簡直如天壤之別。由於邀約退將赴中出現瓶頸，加上羅志明幾乎把能邀的退將都找了，對岸於是決定把滲透的層級拉高，將目標轉向政治人物。檢調監控發現，2020年12月24日，李鷹透過微信向羅志明提及：「我知道呂大姐退休10年了，是可以過來玩的。」雖然對話中並沒有講明「呂大姊」是誰，但羅志明早已知悉李鷹所說的正是前副總統呂秀蓮，因為李對台研析工作做得相當透澈，連2004年扁呂配尋求連任正副總統過程一波三折，羅志明以台聯立委身分力挺呂秀蓮的往事都瞭若指掌，於是想如法炮製，透過羅找呂秀蓮赴中，並且言明只要呂大姐點頭同意，即可包裝各種理由安排中國之旅。檢調掌握這段對話過程，偵訊時問羅志明，呂大姐指的是誰？羅始終不願說明，不過，在回覆李鷹的催促時，羅志明說：「不行，她仍有國安人員保護中。」專案小組於是挑明訊問，有國安人員保護的呂姓女子，符合條件的僅有呂秀蓮一人，至此，羅眼見紙包不住火，才坦承2人對話中提及的呂大姐，確實是呂秀蓮沒錯。由於呂曾任兩屆副總統，任職期間接觸許多國家機密，李鷹希望透過羅志明邀她前往中國訪問，但羅認為呂仍有國安人員保護，吸收成功的機率太低，李鷹知道難處後隨即回覆：「收到，明白了。」才使對岸企圖滲透呂秀蓮的目的未能得逞。https://www.mirrormedia.mg/story/20230328inv001/48名退將，以各種名目赴中國參訪，時間多集中在2013年11月至2016年6月===========================================================馬英狗任期 軍備國防大幅衰減役男4個月笑破美國人 反觀同時期對岸百艘神盾下水甚至想吸收呂副 軍中高達48位高官被滲透突防根本戰力盡失~~馬英狗賣台還有人想為他辯解?!幸好台灣2016選上DPP 整個撥亂反正.......各項法律通過 軍備疫期加強馬政府真是台灣最不堪回首的八年.....</t>
+          <t>我柯粉撇開意氣用事情緒謾罵蔡總統過境美國，仍與麥卡錫見面談話增進中華民國與美國交流應予肯定鼓勵至少蔡總統發揮功能了，內政不行外交有出力，有做到身為國人就應該支持一下</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[討論] 兩岸的共產黨終於口徑一致了!!!</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075410.A.38D.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754145.A.7D4.html</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>※ 引述《XX9》之銘言: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 也隨機認識了些朋友, 聽一下他們的故事: 先說結論吧: 經濟崩盤是真,消費不振是真.: 在台灣聽這些消息時, 事不關己 ,會比較冷漠.: 但當自己真實認識當地人民後: 不論是底層或曾經的中產,或知識份子: 都可以側面窺見整個社會氛圍: 和數年前的氣氛有很大的落差: 前幾年的大陸那種狂與浮躁感非常誇張: 普遍對未來感到有正面預期: 但這次則完全沒有,取而代之的是迷茫與煩惱: 我認識的有: 疫情下中產商界人士 破產倒閉賣房欠債 只求生存: 原來真有這樣的人 還真不少: 目前這樣的人 只是低調地在各城市流動: 由於並非農民工 還能住得起房: 預計會更接近日本的網咖難民: 其他朋友是一般普通上班族 大型上市製造業公司: 我正好聽見對方公司宣布下個月獎金停發 可能會有新一波裁撤: 獎金停發大概會導致這位仁兄一半的收入消失: 至於住橋洞和車站的 自媒體上有影片: 我自己行程原因 也不會特地去跑一趟 太麻煩了: 農民工階級我預計會死很多人: 你說GDP崩20%, 從街道人流去看並不會覺得太誇張: 核心商業區當然依舊有正常消費人口: 但比較偏的商業街 傍晚幾乎沒顧客: 我說的是二線城市以上規模: 要說正面的進步也是有啦: 比如手機支付的應用更普及了 乘車碼 奶茶店更普遍了: 大概就這些吧: 每個人背後都是一個家庭: 未來十年會死很多人: 也會有更多悲劇傳出 可能耳聞時只是一條新聞: 不過真實去接觸人 會有同理心和同情心氾濫出現: 不知道該說什麼: 希望不要死太多人: 當然這些死人的消息 很卑微 也傳不到我耳裡: 這都是台灣不曾出現的情景 台灣很穩: 喔對了 Realtw我有去廣西: 是蠻像越南的 房價又便宜 機車也多 發展得不錯啊: 不過我應該是不會想去工作生活啦: 恭喜你找到一個自己熱愛的土地: 只是不適合我: 也讓我更珍惜臺灣了 感動啊: 我去觀光也幫你們創造GDP了: 不用下跪啦 我沒那麼偉大: 其實也沒花多少錢: 如果能間接讓你多活五秒 也算是功德一件啦: 你以後不要再吹噓了唷: 如果需要照片當證明的話,我可以晚點放連結到推文這次當然是真的川普那次還很多外商想說花錢消災，中國供應鏈太完整了，跑去國外並沒有比較好。疫情後是，美國國策轉向，高階要封死中國，中低階的你現在不跑，哪天不準中國貨進美國是遲早的大老闆轉出中國，打工的不跑才怪中國跟日本/亞洲四小龍一樣，都是靠美國供應鏈起來的你現在跟大老闆幹，大老闆也出台一堆政策要幹死你神經病才會留中國當然，要做中國內需的可以待中國其他的全部ㄉ要跑不然哪天訂單就沒了大家都跟著錢走中國沒得撈了不走等死中國只會越來越慘只能靠內需循環感謝總加速師赴死</t>
+          <t>麥卡錫真的還好美國游錫坤  也不是政府官員第三把交椅又如何  美國正副總統同時掛掉機率太小又輪不到他對岸共產黨好像嚴正抗議中台灣的藍白共也在政黑抗議中沒想到有這一天QQ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Re: [討論] 事實證明民進黨根本不會談判</t>
+          <t>Re: [討論] 民進黨是怎麼走到這一步的?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075536.A.423.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754271.A.EDC.html</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>民進黨不必要「真的」會談判，他們只要「會吹牛」跟「選贏」就夠了像中共同路人的賴功德，有人能夠細數他在國代、立委、市長、院長任內的「政績」嗎？賴有哪項政績跟柯文哲比是贏的？還債？社宅完工與興建中戶數？行人死亡率？不然就比當醫生的成就，柯文哲是台灣葉克膜之父，賴是肝膽腸胃內科權威嗎？結果一個沒政績，沒成就的被吹什麼賴神，我看叫賴皮鬼還差不多，這貨也能選總統？這牛皮真的吹大了不服歡迎來打臉</t>
+          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:    老實說以阿叔的年紀成長過程中，以前國民黨才是國際外交兩岸跟拚經濟的高手政黨:    民進黨當年還在搞一堆文字遊戲台獨入聯修憲正名台灣之類的小遊戲，逢中就必反:    當年的民進黨一堆老屁孩光嘴砲(就跟目前TMD發展進度差不多)只靠嘴砲:    然後老K現在也只剩下92文字遊戲 不勝唏噓.....:    是怎麼樣走到了，經濟上屌打國民黨、外交上也屌打國民黨(連親美都放棄了只舔中):    就是國防發展也屌過國民黨阿扁跟蔡英文買到的或是自製的軍武也強過國民黨太多:    今天這種台美陣仗，如果是民進黨當年那些老屁孩的話還真的撐不起來:    更別提目前老K也沒幾個等級能撐起這種大場面的了吧 侯友宜放在這種場面連英文都:    不行..是要怎麼搞(但是還是建議你各位塔綠要拱侯呵呵):    民進黨是怎麼會突然跳到這麼高階的?  感覺老K越來越適合在野黨了..我簡單分析一下原因就是中國。2004年，連爺爺帶領KMT，從反共變舔共中國，如果富裕、民主、自由，且兩國人民願意，是有機會統一的，但是前面的每個條件都難如登天。中國不是公平公正的國家，經濟磁吸，掏空台灣、南韓。舔共的KMT，毀滅自己的人才庫，用捧懶五毛取代。DPP則是執政後，知道共產黨威脅大，就捨棄那些講幹話、扯後腿的廢物，提升團隊水平。一個中國，造成弱化KMT，強化DPP的結果</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[黑特] 母豬出國搭China Airline，綠憤吞了</t>
+          <t>Re: [新聞] 柯文哲延攬成功！黃珊珊昨晚申請</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075648.A.DC9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754293.A.302.html</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>可憐哪，母豬出國搭China Airline！沒想到綠憤們都裝死裝瞎硬吞下去！連罵都不敢罵？母豬果然是中共同路人，一下子說自己是中國人，讀中國書長大，這下又搭China Airline出國！然後綠憤們還是硬挺瞎挺？甚至喪事喜辦地說，美爹沒派官員接機是好事？好林老木啦，被無視，連噴都討不到一碗叫好事？到時又被斷叫又是好事？綠憤是不是只會諱敗為勝，喪事喜辦？中國母豬好棒棒？</t>
+          <t>幫民眾黨哭哭看民眾黨幾天前有在抱怨大家都想當不分區看起來就是在指珊珊了如果要選議員或立委 應該沒有必要入黨看起來要帶著飛 所以先卡一位幫民眾黨員QQ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Re: [黑特] 原來馬英九是去祭祀滅亡的中華民國</t>
+          <t>[討論] 姍姍加入民眾黨是對的</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075650.A.3D7.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754355.A.102.html</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>KMT 支共 同推的孫文1866年11月12日孫文在廣東省廣州府香山縣翠亨村誕生乳名帝象，上村塾讀書時取名文，成親時取字德明</t>
+          <t>整個政黑版罵翻了，那就對了。什麼珊姓家奴，楚瑜怎麼辦，恩，隨便。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[討論] 政黑板板主每天挑釁板友對嗎？</t>
+          <t>Re: [討論] 民進黨是怎麼走到這一步的?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680075711.A.99B.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754497.A.75B.html</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>這幾天不知道怎麼一回事政黑板板主，政黑宋楚瑜的文章都一直在挑釁板友然後就吵到無以復加，害某個政黑板友陪他浪費五小時，還是好幾個五小時。有必要這樣嗎？好運姐被你們趕走又到處蒐集全站水桶，還不夠嗎？一定要趕盡殺絕才善罷甘休嗎？收手吧。以和為貴不是很好嗎？政黑點：常看到有人說民進黨政府挑釁中國，政黑板板主是不是在模仿一樣的事？</t>
+          <t>藍營就是把台灣教父，男塾塾長，阿輝伯逼走以後自己的路線就走死了，買辦文化開始進行內部路線被統派把持新人沒身家沒背景出不了頭最後內部各個派系也喬不攏費芯大戰就類似這種老派有背景跟新人想奪權的內部鬥爭浮上檯面現在又被統派教父馬邦伯確認黨的路線偏偏藍營也不想去否認，只剩一些年輕人會嘴一下馬邦伯當漢奸怎麼會有好下場※ 引述《lazycat5 (phoenix)》之銘言：: ※ 引述《Mazda6680 (SEALs)》之銘言：: :    老實說以阿叔的年紀成長過程中，以前國民黨才是國際外交兩岸跟拚經濟的高手政黨: :    民進黨當年還在搞一堆文字遊戲台獨入聯修憲正名台灣之類的小遊戲，逢中就必反: :    當年的民進黨一堆老屁孩光嘴砲(就跟目前TMD發展進度差不多)只靠嘴砲: :    然後老K現在也只剩下92文字遊戲 不勝唏噓.....: :    是怎麼樣走到了，經濟上屌打國民黨、外交上也屌打國民黨(連親美都放棄了只舔中): :    就是國防發展也屌過國民黨阿扁跟蔡英文買到的或是自製的軍武也強過國民黨太多: :    今天這種台美陣仗，如果是民進黨當年那些老屁孩的話還真的撐不起來: :    更別提目前老K也沒幾個等級能撐起這種大場面的了吧 侯友宜放在這種場面連英文都: :    不行..是要怎麼搞(但是還是建議你各位塔綠要拱侯呵呵): :    民進黨是怎麼會突然跳到這麼高階的?  感覺老K越來越適合在野黨了..: 我簡單分析一下: 原因就是中國。: 2004年，連爺爺帶領KMT，從反共變舔共: 中國，如果富裕、民主、自由，且兩國人民願意，是有機會統一的，但是前面的每個條件都難如登天。: 中國不是公平公正的國家，: 經濟磁吸，掏空台灣、南韓。: 舔共的KMT，毀滅自己的人才庫，用捧懶五毛取代。: DPP則是執政後，知道共產黨威脅大，就捨棄那些講幹話、扯後腿的廢物，提升團隊水平。: 一個中國，造成弱化KMT，強化DPP的結果</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[討論] 一人舉一個綠狗政權捍衛台灣主權的例子</t>
+          <t>[討論] 2024 總統選舉複製2022台北市長得票率</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076078.A.1D0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754571.A.D53.html</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>如題。大家都說投綠狗就是愛台灣，投藍白等於賣台，我智商只有20所以我深深相信大家跟我說的，剛剛我隔壁的鄰居問我為什麼投綠狗等於捍衛台灣主權，我想一想還真舉不出什麼例子，有綠狗糞要幫忙舉例一下嗎？謝謝※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+          <t>本來柯文哲出來選沒什麼亮點的票數頂多落在15%左右但是黃珊珊加入就不一樣了整體的戰鬥力形象至少可以達到23 %賴的得票數%會比陳時鐘略高一點因為台灣還是有一大堆南部人但是不會高到哪裡去很大一部分是本來要投給賴的現在會投給柯 我講的是中間選民深綠的不要對號入座賴和柯有大概20 %的選票是互相流動 這些人打死不投給國民黨然後郭董出來 穩拿43%柯 經過棄保各種發酵之後之後 20%賴 37%很多人都看不出來綠色的票慢慢地往柯文哲那裡走</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[黑特] 朱凱翔：侯 答非所問到一個極致</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076395.A.71F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754631.A.80E.html</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川普關稅制裁中國無效當然是有原因的現在的世界生活就是綁在一起套句黨說的話是中國需要台灣反過來說台灣也需要中國美國要制裁中國但是美國也需要中國所有國家就是這麼的互相需求中國經濟不好一點都不奇怪美國經濟也不好台灣今年經濟也很不好科技製造業從去年10月出口就開始衰退民生內需產業到過年前還不明顯過完年後到現在門市,百貨,餐飲,網購營業額隨便都是20~30%衰退對比去年估計至少會一路黑到9月外商在台灣也開始裁員了護國神山比較不怕景氣起伏有人笑美國印鈔票印到銀行爆炸有人笑中國爛尾樓一片韭菜死滿地現實就是經濟好就是全世界一起好美國或中國經濟不好也是全世界一起壞今年就是大家一起過苦日子希望年底就可以回暖</t>
+          <t>記者問他郭台銘宣布參選的問題「前面的問題 後面的話 如何接在一起？」接著 （葉元之跟朱凱翔 捧腹大笑）「這是侯友宜回應產生器產生的文字」（葉元之幫唸侯友宜的回應 朱凱翔一直大笑...笑到流淚... ）「他基本上已經是答非所問的極限......」「即便回應的內容也是前言不對後語」（然後兩個人又一直笑）（然後趕快換下一個題目了）溫馨</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Re: [討論] 世界上只剩ROC統派還在治權主權自慰了吧</t>
+          <t>[新聞] 騎機車「飲料」從口袋掉出 他遭舉發罰900</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076750.A.EB0.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754699.A.802.html</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>※ 引述《Mazda6680 (SEALs)》之銘言：:   人家篡位者? 更好笑~~現實中國共兩黨當初都在ROC架構之下沒錯:   但是人家贏了中國大陸的領土，人家1949年獨立於ROC之外了也是世界都承認的事情阿Q的是你吧我都講2758號決議(1971)了你還要回這種東西被打臉PRC1949成立後承認的沒幾國喔至少在主要大國中沒幾國承認我舉主要的就好與中華人民共和國建交日期日本      1972年9月29日南韓      1992年8月24日馬來西亞  1974年5月31日菲律賓    1975年6月9日新加坡    1990年10月3日印度      1950年4月1日土耳其    1971年8月4日沙特      1990年7月21日埃及      1956年5月30日南非      1998年1月1日俄羅斯    1949年10月2日(當時是蘇聯 第一個承認PRC的國家)法國      1964年1月27日英國      1972年3月13日德國      1972年10月11日西班牙    1973年3月9日古巴      1960年9月28日加拿大    1970年10月13日美國      1979年1月1日巴西      1974年8月15日澳大利亞  1972年12月21日新西蘭    1972年12月22日來源 https://reurl.cc/b7dknX可以看見2758號決議是一個中國到底是誰的決定性事件中華民國在國際上的地位還是撐了很長一段時間而不是你講的世界一開始就承認PRC這種拉扯也多少印證我前一篇講的東西至少印證了國際局勢不一定有其必然性所以中華民國更應該宣示有大陸主權另外身為一個疑美仔我必須說美國在這件事情還算有情有義了你看看一直講台日友好的日本跑的比南韓快多了</t>
+          <t>1.新聞網址︰https://www.chinatimes.com/realtimenews/20230405003754-260402?chdtv2.新聞來源︰ 中時新聞網3.完整新聞標題騎機車「飲料」從口袋掉出 他遭舉發罰9000元傻眼了4.完整新聞內容︰騎機車「飲料」從口袋掉出 他遭舉發罰9000元傻眼了23:202023/04/05 中時新聞網 李啟箖鈔票掉出來，說法情境就又不同了！有男子2月份騎車行經桃園市龜山區萬壽路一段上，因外套口袋內的寶特瓶不慎掉到路面，遭到後方騎士拍下並舉發，他近日收到罰單，一看到罰款金額9千元嚇傻了，上網抱怨「政府你會不會太扯了，飲料放口袋掉出來，你給我開9000..」；對此，網友也表示「9000著實離譜」、「第一次聽到一瓶飲料也叫貨物！笑到流眼淚」。一名男子在臉書社團「樹林人」發文，並上傳罰單照片，他表示「政府你會不會太扯了，飲料放口袋掉出來，你給我開9000(元)...」；從原PO上傳的罰單畫面可見，疑似寶特瓶的物品，從騎士左邊外套的口袋掉出，正好被左後方的騎士拍到並檢舉，另外，從罰單的內容可見，違規時間在今年2月23日，違規地點於桃園市龜山區萬壽路一段上，其違規事實是「所載貨物掉落(一般道路)」，並依道路交通管理處罰條例第30條1項02款005，對車主開罰9千元。貼文一出，網友紛紛留言表示「申述看看，順便看看哪個人檢舉的，分享一下」、「重點是別人檢舉，審查警員也誇張，這樣單也開出來」、「同理而論皮夾，手機掉了也是9000，因為後車壓到也會跌倒。笑到冰軌」、「9000著實離譜」、「第一次聽到一瓶飲料也叫貨物！笑到流眼淚」、「滿街都是檢舉人真的受不了」、「鈔票掉出來，說法情境就又不同了」。5.附註、心得、想法︰騎車從口袋掉出東西可以罰9000元，但是過斑馬線不禮讓行人罰不了這麼貴難怪鄉民不是很重視行人地獄，鄉民騎車的時候小心了</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Re: [新聞] 葉元之驚爆友人兒以為「這人」才是國父</t>
+          <t>[黑特] 台灣總統不用台灣話會談？</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076892.A.FA1.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680754770.A.F35.html</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>※ 引述《ericliu007 (彥)》之銘言：: 1.新聞網址︰: ※ 網址超過一行 請縮網址 ※: https://www.chinatimes.com/realtimenews/20230329002818-260407: 2.新聞來源︰: 中時: 3.完整新聞標題: ※ 請完整轉載標題 請勿修改與編排 ※: 葉元之驚爆友人兒以為「這人」才是國父：教改太可怕了: 4.完整新聞內容︰: ※ 請完整轉載原文 請勿修改內文與編排 ※: 12:32 2023/03/29: 中時新聞網 黃朝郁: 前總統馬英九出訪大陸展開祭祖之旅，昨（28）日率先前往中山陵、孫中山先生紀念館等地: 。國民黨新北市議員葉元之透露，友人的兒子竟然以為鄭成功才是中華民國國父，感嘆道「: 由此可知，馬總統昨天去中山陵謁陵有多重要！」: 馬英九昨日前往中山陵，題字「和平奮鬥，振興中華」8個大字，而落款時除寫下西元的202: 3年外，同時也寫下了民國的112年（百十二），還提及前總統這幾字，得到網友的大力讚聲: 。: 不過葉元之今日在臉書表示，友人傳訊給他，告知兒子居然詢問「我們有國父嗎？國父是誰: ？」而當友人解釋是孫中山先生時，他兒子居然追問「那鄭成功呢？」讓該友人差點暈倒，: 驚呼「我們的教育到底發生什麼事？中華民國國父成了鄭成功？」: 其他網友看到後也忍不住說「因為歷史已經被改的不是歷史了」、「真的，我小孩歷史課背: 一堆日本人名」、「不意外，篡改歷史是民進黨的認知作戰」、「我是補教文科老師，有不: 少國小生認為國父是蔣渭水」、「幾年之後是史明或是辜寬敏，悲哀的歷史課本」、「不要: 小看教改的影響力，很～可～怕～」。: 5.附註、心得、想法︰: ※ 40字心得、備註 ※: 葉元之從朋友兒子經歷，感嘆現在的教育怎麼了？孩子竟然認為中華民國的國父是鄭成功。: 網友也認為這就是民進黨的教改，用篡改歷史來認知作戰，還有補習班老師回覆，竟有小孩: 認為國父是蔣渭水，有網友擔心之後國父改成史明和辜寬敏。https://imgur.com/9Y7P3cO.jpg其實中華民國國父應該是他吧?https://image.peoplemedia.tw/collection/1580971835.jpg中華民國國旗這旗幟是1912年南北議和後，南北議員共同認定通過的，而孫文匪旗，沒有任何合法性。五色旗，五族共和的意思 這才是中華民國真正的國旗https://imgur.com/WvO7Y7f.jpg國民黨匪旗孫文其實是中華民國政府第一個認證的國賊https://i.imgur.com/yKcmNZN.jpg1915年6月，中日“21條”事件後，針對日本政府利用流亡日本的孫中山和中華革命黨，從事顛覆分裂中國的行動。中華民國政府於1915年6月16日頒布《懲辦國賊條例》，並發行《國賊孫文》一書，揭露孫中山勾結日本，顛覆中國政權的種種劣跡。1915年第35期《司法公報》第62頁，刊載《懲辦國賊條例》全文。國父袁世凱在面對日本人屈辱的21條時，盡力爭取中華民國權益在內有國賊孫文攪和，外有日本人威脅出兵下簽訂對中華民國政府最小損失條約因為當時孫文提出的賣國條件更為優厚不過最後還是沒讓孫文得逞https://imgur.com/TiOI182.jpg國父袁世凱深感運輸建設對國家之重要中國要強，基礎建設就要健全國賊孫文也看到了撈錢機會孫文這輩子專門幹三件事搞女人搞錢搞賣國不幸國父袁世凱失察讓這嘴砲滿嘴跑火車撈了高官厚祿一個月薪水三萬元，三萬個袁大頭這筆錢後來就是他拿來分裂國土搞內亂的本錢之一</t>
+          <t>身為主權獨立的國家元首代表國家出訪 是全民的大事一般國際正式會談場合用的自己國家的語言才不管你元首會不會英文呢！蔡英文用英文直接對談就是汙辱了台灣話汙辱了國家！</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[新聞] 賴清德將授旗 「信賴台灣願景協會」台南</t>
+          <t>[討論] 侯友宜的英文能力</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076926.A.E4F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755078.A.8F1.html</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42549142.新聞來源︰自由時報3.完整新聞標題賴清德將授旗 「信賴台灣願景協會」台南扛頭旗4/15成立首個分會4.完整新聞內容︰2023/03/29 13:58〔記者洪瑞琴／台南報導〕民進黨主席暨副總統賴清德將代表民進黨角逐2024總統大選，民間力量號召成立「信賴台灣願景協會」，由台南扛頭旗成立全國第1個分會，將於明（29）日開籌備會，敲定4月15日在桂田酒店舉行正式成立大會，由賴清德授旗首發，帶動挺賴力量遍地開花。協助台南分會籌備事宜的親賴友人表示， 台南是賴清德從政發跡「本命區」，第1個分會從台南出發別具意義，希望打響踏穩第一步，帶動全國挺賴士氣與信心，而且「信賴台灣願景協會」的使命責任，與一般後援會競選臨時任務不同，協會將朝登記立案社團發展，各地設分會，成為挺台灣民主堅定向前的力量。親賴友人表示，4月12日賴清德正式獲得民進黨黨內提名總統人選後，4月15日在台南成立信賴台灣願景協會第1個分會，集結社會各界、企業、醫界等民間力量，明天將開會討論台南分會會長人選與籌備事宜，目前敲定在桂田酒店國際廳舉行分會成立大會，估計至少5、6百人參加。參與台南分會籌備的賴清德台南醫療大聯盟後援會總召陳相國表示，大聯盟後援會有27個分會，以及6師後援會（會計師、律師、建築師、醫師、牙醫師、中醫師） 動員相挺，台南對賴清德競選總統之路很重要，因此信賴台灣願景協會第1個成立的分會，賴清德與後援會有共識，一定要留給台南。另有挺賴人士表示，回顧2019年民進黨總統初選，當時賴清德挑戰現任總統蔡英文，激發黨團結士氣，不畏黨內壓力與外界輿論，選得十分艱辛，甚至黨內同志敏感到「不敢靠近」表態支持，但賴清德仍讓大家看見他的沉著堅定，如今參選2024總統定於一尊，帶動團結勝選信心， 一定更是不可同日而語。5.附註、心得、想法︰2019年賴功德院長逼宮蔡英文總統，初選之前非常堅毅，初選之後顯得十分悲情。https://i.imgur.com/DlTNO7q.jpghttps://i.imgur.com/re5AOlA.jpg2019年賴神逼宮蔡英文，賴神的好麻吉邱莉莉議長堅定的和功德院長站同一陣線。https://i.imgur.com/ac0v73d.jpghttps://i.imgur.com/eEK4O2i.jpghttps://i.imgur.com/S5ASPMe.jpg「信賴台灣願景協會」舉行正式成立大會，由賴清德授旗首發，該由邱莉莉代表。</t>
+          <t>號稱說要新北市要作大市我只是好奇如果今天在美國的是侯友宜給他一樣的講稿他能正確發音 唸出那些字句嗎英文能力不知道如何我知道他要保衛中華民國但我想知道他的英文如何？</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">							(本文已被刪除) [minjindon]						</t>
+          <t>[討論] 為何習近平能見拜登，蔡英文只能見老三?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076945.A.4A9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755104.A.8C5.html</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>: 最近想驗證一下自媒體上的消息真實性: 所以跑了趟大陸旅行: 如果需要照片當證明的話,我可以晚點放連結到推文已經放到原文的推文中 作證明https://imgur.com/7aUZygH另外這位朋友的問題somehog: 推肉身田野調查，請問現在進出中國仍是      49.216.26.57 03/29 15:39→ somehog: 持台胞卡免簽嗎？目前是免簽沒錯但你需要帶手機 做健康碼申報印象中每個口岸 通關 都要你在排隊通關的過程就會有 https://imgur.com/0bOFHEP跨境一定會有這個從台灣過去的話 你需要先做PCR或醫院快篩 否則進不去中國大陸不用管我挺不挺小英 愛台灣就是要用行動證明唷愛台不需要反中中國人加油吧</t>
+          <t xml:space="preserve"> 安安政黑七成收錢的英系網軍大家好 大家今天拼命喪事喜辦辛苦了 我有一件事情想問 為何習近平能見拜登，而蔡英文只能見老三? 中美關係不好，台灣是美國最堅強的盟友 但習近平卻能見拜登 而蔡英文卻只能見老三!? 這邏輯上是不是哪裡怪怪的? 英系網軍總是說台美關係史上最好的時候 那到底為什麼蔡英文只能見老三啊?  ====================================================== https://www.storm.mg/lifestyle/4452875?page=1 艾森豪親自出訪台灣，歷任美國總統中唯一一位 </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Re: [討論] 剛飛中國回來心得</t>
+          <t>[黑特] 好了啦  有簽甚麼協定回來嗎?不然在爽啥?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680076964.A.9B9.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755262.A.CB6.html</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>馬英九去南京大屠殺紀念館哽咽，想到當初國民黨不論在中國或是台灣，都殺了為數眾多的共產黨員，覺得甚是諷刺國民黨要被共產黨打敗多少次呢？前天去威秀看悲情城市修復版，聽到過世的陳松勇說出「咱本島人最可憐，一下日本人，一下中國人，眾人吃、眾人騎，沒人疼。」想到現在的台灣，也是一樣吧。各個政黨用意識形態玩選舉，中國台灣關係永遠是政客不處理正事的搪塞藉口，反正關著喊喊，中華民國還是台灣，出了小島都跟啞巴一樣看中共噁心也是啦，桃園官員擺拍都可以把狒狒弄死，更不用討論台灣行人地獄問題、電力能源供給、人口老化議題，大家繼續吵中華台北^^台灣這塊土地自然環境明明這麼美、擁有多元的野生物種（雲豹滅絕，但還有石虎、穿山甲等）被弄到這麼醜惡，有些人忙著去中國祭祖、更有人忙著用祭祖議題掩蓋施政效能低落，台灣是否真的是座悲情城市？</t>
+          <t>笑死不就大拜拜  拍個照爽成這樣那麼喜歡做表面功夫  我就問到底簽了甚麼貿易協定回來嗎?萊豬都吃了  美國牛肉都不知道吃多久了  結果還在那邊爽我說居住正義呢? 物價這麼高人民怎麼活?整天只會大外宣  說阿是又斗內多少才換合照的R笑死</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[討論] 台灣是悲情城市嗎？</t>
+          <t>[討論] 2024民眾黨齊力同心 送郭台銘去當總統</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077564.A.00F.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755326.A.DAE.html</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>疑越南人蛇集團海上丟包16具遺體5台籍2越籍9人待查https://bit.ly/3G1yFIJ自由 邱俊福針對本月台中往南到高雄沿海地區陸續發現多具男女浮屍，疑似有越南人蛇集團涉嫌海上丟包事件，海巡署表示，海巡人員本月至今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，根據身上的證件5具為台籍、2具為越南籍，其餘9具身分尚待查證，至於有無涉及偷渡情事，已會同相關單位深入調查中。海巡署表示，3月迄今執行海上救生救難死亡案件，於海上岸際發現的遺體計16具，均由署或轄區警察單位報請地檢署辦理相驗事宜，其中僅2具男浮屍確認為越南籍身分。另清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐台北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。海巡署表示，海岸海域執法工作，為嚴防偷渡案件，近年除積極掌握轄內偷渡集團動態，加強對轄內可疑人、船活動的注偵查察外，亦持續強化轄區巡查及執檢力度，確保我周邊海域安全。</t>
+          <t>今年的選戰主軸就是政黨輪替民進黨執政這七年來讓多少817失望愛有多大、失落就有多大缺蛋缺電缺疫苗缺快篩塔綠班還能夠洗白黑金、一手遮天很多人是看不下去了不過無奈啊國民黨疲弱的狀態讓年輕人投不下去推侯或朱 能不能穩住基本盤都不知道白的呢？再怎麼吸中間選票大家心知肚明 單打獨鬥不會上的這樣下去就是爽到賴金孫而已郭台銘若確定以國民黨出線整個泛藍會團結起來郭台銘只打會贏的選戰同時也要努力穩住民眾黨的立委席次不要再放任藍綠兩黨一直鬥爭搞爛台灣什麼意識形態鬥爭都先放一邊既然光譜的兩端目前還是有無法融合的空間那就先整合有共識的部分為了台灣的安全和和平搞定經濟 搞定民生為重2024民眾黨齊力同心送郭去當總統經濟、科技用四年的時間去衝刺才能在更下一個四年挺住備戰的關鍵時刻</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[新聞] 疑越南人蛇集團海上丟包16具遺體 5台籍</t>
+          <t>[討論] 33為何要入黨?柯珊配還是要選立委?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680077714.A.167.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755337.A.94D.html</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>※ 引述《LeeSeDol (嘖嘖...)》之銘言: 蔡英文現任總統，在美國不敢說自己是中華民國總統，: 反觀馬英九卸任了，還敢在中國高官面前講自己是台灣總統，: 高下立判！LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，LeeSeDol：馬英九卸任了，還敢在中國高官面前講自己是台灣總統，不是，你現在是不是高潮了，因為馬英九在中共說他是"台灣"總統，而蔡英文在美國連自己是台灣總統都不敢講，但是，醒醒啊，他是國民黨馬英九1.0，不是馬英九2.0的蔡英文，不要認錯人亂誇獎啊，馬的，就說綠粉真的沒有下限欸，中華民國國父是蔣渭水你也能接受，像個台灣人好嗎...呃，怕死愛錢蕭當官</t>
+          <t>33為何要拖到今天才要入黨?那去年選台北市長不入黨都是演出來的?33這時候入黨是想要柯珊配還是想選立委?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Re: [新聞] 「蔡英文你什麼身分訪美」？　朱立倫怒</t>
+          <t>[新聞] 蔡英文會晤麥卡錫！　侯友宜：讓全世界</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078110.A.EA2.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680755390.A.BD8.html</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>西部沿海共「16具遺體」　海巡署：2越南、5台灣人https://news.tvbs.com.tw/local/2082193TVBS李昱菫 報導從這個月初開始，台灣西半部沿海地帶，陸續出現多具浮屍，疑似遭到人蛇集團丟包海上。據海巡署統計，3月在海上岸際發現的遺體，總計多達16具，已經由海巡署或轄區警察單位報請地檢署辦理相驗事宜，其中2具確認身分為越南籍男性，另外5具遺體上有台灣籍證件，其餘還在辨識中。據海巡署資料顯示，從3月4日在桃園市新屋溪北岸、3月5日台南市七股區網仔寮沙洲、3月6日台南市青山漁港港嘴海面、3月6日雲林縣湖口鄉外海、3月7日台南市將軍西方海域、3月7日彰化縣王功西方海域、3月7日雲林縣麥寮西方海域、3月7日台中外海、3月10日雲林縣外傘頂洲、3月10日高雄市茄萣區沙灘、3月14日新竹圳頭西方海域、3月17日台南市七股區網仔寮沙洲，都有發現屍體。據了解，遺體疑似因為在海上漂浮多日，已經嚴重腐爛，初步難以辨識身分，目前16具屍體中，2具確認為越南籍男子，另外有5具遺體上有台灣籍證件，其餘還在辨識身分中。由於浮屍出現時間相當密集，且人數眾多，遭人質疑可能是遭到人蛇集團丟包。對此海巡署表示，為了調查有無涉及偷渡情事，已會同相關單位深入查證中。另外清查相關海域雷情資料，均未現可疑活動船舶，相關單位已透過駐臺北越南經濟文化辦事處，協請越方協助相關分析鑑定事宜，並適時報請轄屬地檢署指揮。</t>
+          <t>1.新聞網址︰https://www.ettoday.net/news/20230406/2473805.htm2.新聞來源︰ETToday3.完整新聞標題蔡英文會晤麥卡錫！　侯友宜：讓全世界看到台灣是該做的事4.完整新聞內容︰總統蔡英文於美國時間5日上午和美國眾議院議長麥卡錫、跨黨派眾議員會晤，引起全球關注。對此，新北市長侯友宜今（6）日受訪時表示，中華民國樂於跟全世界友人交朋友，用民主、自由、和平的價值精神，讓全世界看到台灣，這是每個人該做的事。蔡英文美國時間5日上午和麥卡錫會晤，整個活動在中午12點時結束；會後蔡英文在麥卡錫的陪同下，兩人共同發表聲明。蔡英文說，台灣致力成為世界的可靠夥伴以及良善的力量，並引用論語「德不孤，必有鄰」，強調在台灣努力捍衛現有生活方式的同時，非常感謝美國的支持。侯友宜上午赴泰安抽水站視察瓦磘溝整治成果，針對蔡麥會，他回應，中華民國樂於跟全世界友人交朋友，在彼此之間良善尊重互動底下，讓全世界看到中華民國愛好追求民主、自由、和平的價值精神，用這樣的精神讓全世界看到台灣，這是每個人該做的事。5.附註、心得、想法︰好了啦，侯市長去美國當個嘉賓演演戲大內宣有什麼好誇的？綠骨藍皮的人，還想代表國民黨競選總統啊？決定改支持郭台銘了。</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[新聞] 西部沿海共「16具遺體」海巡署：2越南</t>
+          <t>[新聞] 馬英九提「台灣、大陸同屬一中」柯文哲：</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078372.A.CCA.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751474.A.7DE.html</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.ettoday.net/news/20230329/2469078.htm2.新聞來源︰ETtoday3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九赴陸自稱「前總統」　鄭文燦：有義務幫國家加分4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※https://cdn2.ettoday.net/images/6869/d6869825.jpg▲行政院副院長鄭文燦。（資料照／記者林敬旻攝）記者呂晏慈／台北報導前總統馬英九展開訪陸「和平祭祖之旅」，首站拜謁中山陵，題字「和平奮鬥，振興中華」致贈，落款以民國紀年寫下「百十二（112）」，受訪是更自稱前總統，並再喊出「民國」，引發網路熱議。行政院副院長鄭文燦29日受訪表示，馬英九有義務幫國家加分，中華民國在台灣是一個事實，也是兩岸互動的出發點。鄭文燦今天上午出席「第一屆ESG物流永續獎」頒獎典禮，媒體會前聯訪時關注，馬英九公開稱自己是「前總統」，這算捍衛中華民國嗎？鄭表示，馬英九作為前總統，自然有義務要幫國家來加分，「中華民國不只是歷史上的存在，中華民國在台灣已經是74年了，我想，這是一個事實，這個事實也是兩岸將來互動對等、尊嚴的出發點」。此外，針對報載警政署將下設「保八總隊」，專責於保護電廠、油庫、水庫、機場等國家重要基礎設施一事，鄭文燦說明，關鍵基礎設施的防護，必須要提升等級，包括人員、場域、設備，也包括像水電、通訊及網路，整體提升計畫都在討論與進行中，具體的部分會等拍板以後，再跟大家說明。馬英九昨天在國父孫中山陵寢獻花圈致敬，並發表「民國112年3月28日馬英九前總統率馬英九基金會同仁與同學敬謁南京中山陵致詞」，內容談到孫中山推翻滿清、終結中國4000多年的君主專政、建立亞洲第一個民主共和國─中華民國，至今已112年。5.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※鄭文燦 欸 你怎麼下車了 不要這樣幫他講話啊王定宇：洗勒考喔 我才發文要大家一起罵欸卸仁的有義務那順便請現任的去中國講幾句話</t>
+          <t>馬英九提「台灣、大陸同屬一中」柯文哲：政治上不可能！記者袁茵 台北報導民眾黨主席柯文哲備戰2024總統大選，預計4月8日啟程訪美長達20天；柯文哲接受外媒訪問時，針對前總統馬英九說「兩岸同屬一個中國」等言論，柯文哲認為，複雜的問題不能簡單回應，經濟上可考慮如何相通，但在政治上「很抱歉，不可能ONE CHINA（一個中國）。」柯文哲於4日接受《日本經濟新聞》訪問，並於5日對外刊登；當被問到他與幾個可能對手比較時，柯文哲表示，民進黨「pro war（好戰、偏向戰爭）」，國民黨太畏戰，民眾黨則是不求戰、備戰、能戰，以達到不畏戰，堅持捍衛台灣的主體性與民主DNA，但和平不到最後關頭，也絕對不輕言放棄和平，應該開啟對話管道、化解敵意。至於怎麼看馬英九訪中時，說出「兩岸同屬一個中國」？柯文哲認為，複雜的問題不能簡單回應，這個問題本身應該更明確，台灣跟中國使用相同的語言，有相近的歷史、文化、傳統上都過農曆年，雙邊在文化上的確有共通之處，經濟上可以考慮如何相通，「但在政治上，只能說很抱歉，政治上是不可能ONE CHINA（一個中國）。」新聞連結：ETtodyhttps://reurl.cc/OVzO6X心得：馬囧：兩岸同屬一個中國柯文哲：政治上是不可能ONE CHINA並稱民進黨好戰、偏向戰爭，而國民黨太畏戰。民眾黨最棒不求戰、備戰、能戰，以達到不畏戰堅持捍衛台灣的主體性與民主DNA。柯文哲是不是又要精神錯亂了“不求戰、備戰達到不畏戰、民主DNA”民進黨不就一直這樣做？朱立倫去美國 國民黨支持者崩潰柯文哲看馬爽爽 打臉馬英九沒有一個中國柯粉 你家柯文哲是不是怪怪的？騙票？</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[新聞] 馬英九赴陸自稱「前總統」　鄭文燦：有義</t>
+          <t>[討論] 川普跟前威州州長在想什麼？</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680078887.A.CDB.html</t>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751531.A.F1A.html</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>小冬瓜夫婦因為豪宅侵佔國有地，被檢方調查偵訊，然後連夜交保一個1000萬、一個500萬顏家能在短短幾小時內籌出1500萬真的很屌耶！而且是在晚上，銀行早就下班了還能生出1500萬現金，真不愧是土地的主人耶！真他媽有錢啊！這1500萬裡面有多少是信徒捐給媽祖的香油錢呢？！而且沒記錯顏寬恆現在應該是無業遊民吧？一個無業遊民的家庭都能馬上拿出1500萬，那代表臺灣的經濟真的是20年來最好耶！那些哭說沒錢買蛋沒錢旅遊沒錢幹嘛幹嘛的藍白賤畜應該多跟我們顏公子學學啊！結果國民黨還要提名這種垃圾出來選立委？</t>
+          <t>有人拿郭台銘跟川普合照來炫耀可是威州廠蓋到幾%進度了？2020威州選舉人票是拜登拿走的喔共和黨威州州長連任失利現在如果拿郭川合照出來現是不是蠻丟臉的？</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[黑特] 塔綠班還在嘴硬母豬蔡沒挑釁</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751548.A.C26.html</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>母豬蔡竄訪美國打算舔美國爸爸舔個過癮在美國領土宣揚台獨以為美國土地大陸管不到就可以隨便鬼扯早上大陸直接派軍機過來秀拳頭讓台毒狗知道台毒就是死路一條整天大外宣大內宣台獨靠掏空台灣出賣台灣企業換取美國圖書館的講台然後說母豬蔡沒挑釁台海和平可悲啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[討論] 宏都拉斯是對！？</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751730.A.A02.html</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>雖然有點過時了！只有我認為宏都拉斯是對的嗎？一個正常的國家當然會利用外交來為自己的國家人民取得最大利益！只有一個不正常的政黨不為自己的國家人民考慮！反而把錢給別人！人民又得不到什麼！有什麼國家是這樣的嗎？爾俸爾祿，民膏民脂，下民易虐，上天難欺。莫忘世上苦人多！阿彌陀佛！</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Re: [討論] 裴洛西讚揚麥卡錫與蔡英文</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752063.A.3CF.html</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">: 這次麥卡錫議長與蔡英文的歷史性會面: 裴洛西也發表聲明讚揚: 重點如下: 1、麥卡錫的領導力促成此次會面: 2、兩黨的共同參與: 3、會面地點有其歷史性意義: 還在講麥卡錫只是在野黨的: 可以停止: 美國兩大黨目前的「抗中共識」已經來到歷史高點正常啊 到現在還看不懂美國兩黨準備聯合抗中的，不是蠢就是壞不過這可能不包含美國民間商務人士首富馬斯克跟上星期訪華的蘋果老總庫克表示：「你政客要抗中是你家的事～～～」: 等於美國要傾全國國力來搞中國了中國表示：好害怕～～～: 而且地點就選在「雷根總統圖書館」舉辦: 當年把蘇聯整個搞垮的辣個男人: 美國的目的很明顯: 「這次要把你中國大卸八塊了」用人民幣把中國大卸八塊???嘻嘻，看一下德、法、東盟（新、馬）、阿拉伯諸國、非盟跟拉美的風向先基本上這幾年中南美跟台灣斷交幾國，大概就知道中南美選邊站哪兒了啦美國傳統後花園都被中國勢力隨意進出了，兩黨還在睡？美國現在要做的事情是好好專心叫荷蘭盯緊ASML，還有出兵教訓其他不乖乖使用美元的民主國家尤其是教訓荷蘭，別動不動就讓他們的老總像前幾週那樣跑去訪問中國，會讓晶片聯盟人心不安啊，誰知道你去中國是不是有暗通款曲還是幹嘛!?: </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[討論] 蕭美琴是不是很懂玩</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752163.A.D87.html</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>上次邀請函事件就玩過一次這次如法炮製再玩一次智障藍白粉還是會再上鉤一次套句他們家柯P說的，比變形蟲還不如蕭美琴一直這樣玩弄藍白粉，是不是食髓知味了如果她下次再放餌，藍白粉還會咬嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752249.A.0E3.html</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>我覺得最大盲點就在你們這些綠畜心態就是「民進黨再爛也比國民黨好」拜託你們綠畜用這種心態當然會看不懂八卦反執政黨因為你們永遠不能理解為何有人挺國民黨不過也不指望你們看懂反正直接二分法把國民黨打成邪惡民進黨正義最無腦簡單</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[討論] 政黑的綠粉的眼界、格局都太小了吧</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752386.A.164.html</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>我傻眼政黑還是有不少容易滿足的綠粉覺得滿足的點不外乎幾項1.讓中國五毛氣噗噗 崩潰就夠了2.蔡英文被CNN叫台灣總統了3.蔡英文訪美有跟美國官員一起用餐4.蔡英文跟美國官員聊到天、拍到照了如果你這樣就滿足了其實還滿可悲的 眼界格局不在一個檔次上尤其台灣現在應該很多人已經轉為務實主義精神、心靈層面是有錢人在追求的總統出訪說長不長、說短也不短要特別安排一躺行程肯定有單方面或雙方面的利益交換像貝里斯和瓜地馬拉跟我們是盟國但此行美國出訪完全沒有換取到實質上的好處然後人家還是在野黨 不是執政黨可以請這些人務實點好嗎當初還在肖想非核家園、綠能發電難怪最後搞到電費大漲</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文: 邱臣遠是哪個黨? 柯P那個黨嗎?</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752477.A.59E.html</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>我們先不論邱臣遠是那個民什麼黨的看到下面有綠粉問邱臣遠出席僑宴幹嘛我到想問你們腦殼是都裝什麼東西邱臣遠世界臺灣商會聯合總會青商會會長（2010年－）僑務委員會僑務促進委員（越南代表）（2018年－）世界臺灣商會聯合總會秘書長（2019年－）人家從政之前就是台商出席僑宴超級正常 講人家來蹭的先google一下免得搞得像自己來蹭雖然蔡英文記不得邱臣遠是那個民什麼黨的但也不是隨便一個nobody就可以碰瓷ㄦ※ 引述《miler22020 (小凱處理一下)》之銘言: 靠邀: 太沒禮貌了吧: 應該是故意的?: 在僑宴大庭廣眾下  問大家邱臣遠是哪個黨的?: 真的滿無言的: 柯P等等會不會77777?</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[討論] 珊珊是不是不下呂布？</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752568.A.E55.html</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>珊珊是不是不下呂布？別誤會，我指實力實力強的人，就可以挑老闆、換老闆，而且可能經常換你看看呂布呂姓父親 ＞ 丁原 ＞ 董卓再看看珊珊新黨（1998～2001）＞ 親民黨 （2002～？） ＞ 民眾黨 （2023～？）珊珊是不是相當於台灣呂布？</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[新聞] 蔡麥歷史會晤 蔡英文感謝美支持</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752808.A.D5E.html</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>蔡麥歷史會晤 蔡英文感謝美支持、麥卡錫稱台美友誼是和平關鍵https://bit.ly/3ZMXPloCNA總統蔡英文美西時間5日上午在雷根圖書館會晤美國眾議院議長麥卡錫，會後共同發表談話，創下台灣總統首次在美國本土與美國政壇第3號人物會面紀錄，被視為台美外交重大突破。值此同時，中共海軍山東號航艦編隊穿越巴士海峽，航經台灣東南海域，國軍全程監控動向。這場會晤，是台灣總統首次在美國本土與美國政壇第3號人物會面，也是台美1979年斷交以來，第3度美國眾議院議長與台灣總統會談，舉世關注，會談現場雷根圖書館擠進近200家各國媒體。美國有線電視新聞網（CNN）指出，這場備受矚目的事件，標誌著民主的團結，並且對抗中國的威脅。包括麥卡錫本人在內，與會的共和與民主兩黨跨黨派眾議員共計18位。麥卡錫在館外親自歡迎蔡總統，雙方握手致意後隨即進入館內，與台灣訪團成員總統府秘書長林佳龍、外交部長吳釗燮，以及駐美代表蕭美琴等人，進行閉門會談。蔡總統與麥卡錫會後共同在「空軍一號館」發表談話指出，國會議員的參與及堅定支持讓台灣人民了解到沒有被孤立，也並不孤單。提到在雷根紀念館舉行會談別具意義，蔡總統說，雷根任內1982年的「六項保證」，以及國會通過的重要法案「台灣關係法」，為這段已逾40年歷史的強健特殊夥伴關係奠定基礎，維護和平、促進繁榮，並見證台灣民主蓬勃發展。她說，在當下這個民主受到威脅的世界中，讓自由的燈塔永存不滅，可以說是當務之急。台灣致力成為世界的可靠夥伴，區域內穩定的基石，以及良善的力量。論語有言「德不孤，必有鄰」，在台灣努力捍衛現有生活方式的同時，非常感謝美國的支持；在面對這個世代獨特的挑戰時，要謹記奠定台美堅實關係的原則，不忘雷根傳承的意志與教訓。麥卡錫指出，當前台美關係是他此生中最強健的時刻，而蔡總統是重要推手。他談到今天這場會談有民主黨、共和黨的跨黨派國會議員出席，「有蔡總統的參與，台美關係只會更加堅強」。他提到，台灣是成功的民主、繁榮的經濟，以及在全球衛生及科學領域享有領導地位。台美之間的合作持續在對話及交流中拓展。他認為，台美人民的友誼對自由世界至關重要，也是維持經濟自由、和平及區域穩定的關鍵。這是蔡總統在約8個月之內第2次會見美國眾議院議長，上一次是去年8月3日於總統府接見時任眾議院議長裴洛西。這也是台美在1979年斷交以來，第3度有美國眾議院議長與台灣總統會談。第1次是在1997年4月2日，當時是由李登輝接見眾議院議長金瑞契所率領的訪問團。在蔡總統會見麥卡錫前，中共動作頻頻。國防部公布照片指出，掌握中共解放軍海軍航空母艦山東艦編隊已穿越巴士海峽，經台灣東南海域，展開首次西太平洋航訓；航行過程中，國軍海、空兵力及陸基雷達系統全程掌握動向、嚴密監控。美國國務卿布林肯則重申，台灣總統都曾過境美國，行之有年。總統舉行的會議與活動也都符合先例，北京不應以此為由加劇緊張局勢。（編輯：郭無患）</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[討論] 垃圾檳榔確定跟美國大使見面</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680752996.A.3FC.html</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4月11日下午2時，柯文哲將參訪皇后區植物園，了解植物園的公共建設及規畫情況、以及從2014年持續至今的品牌活動「台灣蘭花展」，活動免費，名額有限，有意參與的民眾可在4月5日(周三)前，致電皇后區法拉盛市立植物園大使黃百齡(516)815-7330報名。垃圾檳榔確定4/11將與紐約皇后區法拉盛市立植物園大使見面這將是歷史性的會面政黑如果剛好有人4/11人在紐約記得去共襄盛舉，見證歷史的一刻！</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[討論] TVBS的總統大選民調怎麼突然變慢了？</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753011.A.A3E.html</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>之前TVBS都很準時每個月5號、6號左右出民調這次怎麼這麼慢呢？還在看侯友宜 郭台銘誰比較有優勢嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[討論] 處魚現在在想什麼</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753108.A.8D7.html</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>選了好幾次總統的處魚今天中午天氣不錯中午現在應該也在吃飯心情誒應該不錯他現在正在想什麼還要再選嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[討論] 民進黨是怎麼走到這一步的?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753158.A.51D.html</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   老實說以阿叔的年紀成長過程中，以前國民黨才是國際外交兩岸跟拚經濟的高手政黨   民進黨當年還在搞一堆文字遊戲台獨入聯修憲正名台灣之類的小遊戲，逢中就必反   當年的民進黨一堆老屁孩光嘴砲(就跟目前TMD發展進度差不多)只靠嘴砲   然後老K現在也只剩下92文字遊戲 不勝唏噓.....   是怎麼樣走到了，經濟上屌打國民黨、外交上也屌打國民黨(連親美都放棄了只舔中)   就是國防發展也屌過國民黨阿扁跟蔡英文買到的或是自製的軍武也強過國民黨太多   今天這種台美陣仗，如果是民進黨當年那些老屁孩的話還真的撐不起來   更別提目前老K也沒幾個等級能撐起這種大場面的了吧 侯友宜放在這種場面連英文都   不行..是要怎麼搞(但是還是建議你各位塔綠要拱侯呵呵)   民進黨是怎麼會突然跳到這麼高階的?  感覺老K越來越適合在野黨了..</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[黑特] 侯侯不要連任市長.現在就可以侯侯做逮擠~</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753581.A.580.html</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>國民黨真的很沒遠見喔.如果去年   侯侯不要去連選得連任市長.現在就可以 光明正大侯侯做逮擠~到底是怎麼規劃的呀~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[討論] 唐湘龍：蔡英文見麥肯錫要擔心飛機怎麼回</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753606.A.210.html</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>唐湘龍憤怒表示蔡英文見完麥肯錫要擔心飛機怎麼回來解放軍如果不讓蔡英文落地那就尷尬了而且還是一場大風暴誰要保駕護航美國戰機要升空嗎？ 日本戰機要升空嗎？美國航母要來保駕護航嗎？http://i.imgur.com/fUvo9cf.jpghttp://i.imgur.com/cz0sCnl.jpghttp://i.imgur.com/qC3JgTN.jpghttp://i.imgur.com/JL3W5vh.jpghttp://i.imgur.com/dZb6pBS.jpghttp://i.imgur.com/CGiUjyh.jpghttp://i.imgur.com/wURMXZz.jpghttp://i.imgur.com/ioM5urw.jpghttp://i.imgur.com/eVL1HjB.jpghttp://i.imgur.com/JFVsYAF.jpghttp://i.imgur.com/TpKwGbS.jpg中國網友留言：主持人到時候尷尬的是你把飛機打爆我這輩子不碰女人別騙我通宵你是來蹭流量的吧這次我沒那麼傻落地就尷尬了http://i.imgur.com/n5JXAxC.jpghttp://i.imgur.com/wOImmeY.jpghttp://i.imgur.com/hgyAd2u.jpg有沒有孝子龍被中國網友嘴的八卦？</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[討論] 徐巧芯的10台遊覽車準備好了沒？</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753629.A.293.html</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>笑死現在馬英九訪問中國在中國樂不思蜀剛好被拿來當成麥卡錫和民進黨台美關係最好的對照組巧芯的十台遊覽車接待馬英九回國準備好了嗎？年輕人就是想看這種大場面啦一邊是中國一邊是美國看你要支持誰呵呵</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>[討論] 顏家火速籌出1500萬代表臺灣經濟真的很好</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680079275.A.B80.html</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>套句當年溫家寶的話中國如果不快點進行政治改革會連經濟改革的成果都保不住https://www.youtube.com/watch?v=X51d6nO4yM8習大大疫情三年的表現讓所有資本家都有了紅色賭盤沈棟寫下的體悟:在中國，沒有權力，錢就是個屁主席一句話，阿里巴巴跟騰訊就要各上繳100億主席一句話，教育行業全滅，新東方 CEO 俞敏洪得去直播帶貨當你賺的資本無法保障時，資本家的唯一選擇只能外逃恭喜習大大總加速師讓所有在中國的資本家都有了深刻的體悟</t>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 柯文哲延攬成功！黃珊珊昨晚申請</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753687.A.B53.html</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>: 快訊／柯文哲延攬成功！黃珊珊昨晚申請「加入民眾黨」　今早秒通關  老實說珊珊滿優秀的，我看好TMD下一任黨主席就會是她了...  以政治上的經驗歷練來說她真的就缺一個大型縣市首長的經驗，在2024柯文哲落選之後  我頗看好黃珊珊後續發展  畢竟每個黨都需要一個希望  柯目前就還有個2024能撐點聲量，選後就差不多了  希望黃珊珊能是不分區第一別搞黃國昌那套~~有夠北七的!!!!  TMD如果後來換成黃珊珊是黨主席的話，又是一個優秀的女政治家  真心不騙  TMD目前的老屁孩嘴砲模式真的不是個很好的發展方向</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[討論] 塔綠班到底在吹三小，是建交了嗎？</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680753711.A.D1B.html</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>每次甚麼美國國會議員、前議員來台或是在美國跟ㄘㄨㄚˋ英文見面塔綠班都在那高潮阿不就美國的一位立委、民代而已美台還是沒有建交在那吹三小重大突破國民黨執政時期還跟美國建交過咧奉勸塔綠班不要在那蜀犬吠日等台美建交了再來吹不然永遠比不是國民黨執政時期懂嗎？都還沒跟你們算七年斷交九國整天在那吹、在那高潮笑死人</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[新聞] 徐巧芯開吉　赴北檢告發陳吉仲涉嫌圖利</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747767.A.EA7.html</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://www.ettoday.net/news/20230406/2473679.htm※ 網址超過一行 請縮網址 ※2.新聞來源︰ETtoday政治新聞3.完整新聞標題徐巧芯開吉　赴北檢告發陳吉仲涉嫌圖利※ 請完整轉載標題 請勿修改與編排 ※4.完整新聞內容︰記者皮心瑀／台北報導https://cdn2.ettoday.net/images/6942/d6942432.jpg為補足國內短期雞蛋缺口，農委會從外國進口雞蛋解蛋荒，但卻並非每個量販超市都能夠買到雞蛋，對此，國民黨台北市議員徐巧芯6日到台北地檢署告發農委會主委陳吉仲涉嫌圖利。農委會從澳洲、美國等9個國家進口雞蛋解蛋荒，首批從澳洲進口的雞蛋，在各通路量販店上架，，1盒10顆賣65元，價差由農委會吸收，但僅有部分量販超市能夠買到雞蛋， 且價格不一。徐巧芯表示，農委會購買雞蛋的經費原本就來自於納稅人的稅金，買到蛋以後又並非給所有的超市、店家，等於特定商家可以藉由農委會的政策取得比較便宜的蛋販售牟利，且吸引顧客前往賣場購買其他商品。徐巧芯認為，這對於其餘小型或未受到農委會選擇的店家顯然是不公平待遇，農委會也形同圖利了特定的量販超市業者，所以她今天到台北地檢署告發陳吉仲，而根據中華民國刑法第 131 條，「公務員對於主管或監督之事務，明知違背法令，直接 或間接圖自己或其他私人不法利益，因而獲得利益者，處一年以上七年以下有 期徒刑，得併科一百萬元以下罰金。」※ 請完整轉載原文 請勿修改內文與編排 ※5.附註、心得、想法︰巧芯開吉!  吉的是陳吉仲不過看完內容好像怪怪的 是不是在亂槍打鳥阿巧芯沒梗也不要亂開槍阿  寧願你去打狒狒耶※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[轉錄] 蔡總統這場非常棒！！</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747885.A.134.html</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.轉錄網址︰※ 網址超過一行 請縮網址 ※https://reurl.cc/2WNqOr2.轉錄來源︰※ FB公眾人物、FB粉絲團名稱、其他來源 ※周奕成3.轉錄內容︰※ 請完整轉載原文 請勿修改內文與編排 ※蔡英文總統此次出訪，國際媒體和評論家很多都說低調，但就整體結果看來，會是台灣中華民國歷史上最耀眼且留下實際成果的元首出訪。部分行程的低調，其實是為了保留燈光照在最重要的場景，這是正確的策略。台灣總統和美國眾院議長站在一起對全世界致詞，這是最高調的國際新聞焦點了。選擇雷根圖書館，當然是最佳舞台。雷根圖書館在加州，是McCarthy議長的主場，更是美國共和黨及外交強硬派的聖地。雷根圖書館有絡繹不絕的各國政治人物參訪，外交家發表戰略思想論述，在雷根圖書館是極具象徵意義的。那當然是因為雷根總統是美國外交強硬派的真正hero，後來的戰略思想者不一定真的和雷根想法相同，但依託在雷根的形象之下，能夠具體標榜一種美國理念。這也是為什麼有些戰略家被稱為Reaganites 雷根主義者。前國務卿Pompeo發表重要的戰略論述，也是在雷根圖書館。蔡英文總統這次的講詞，相當精準且適當。談到雷根總統對台灣的支持，表達台美人民之間共同利益與價值，但不需要談雷根總統對共產國家的強烈態度，因為那是美國人才適合去談的，不是台灣總統應該說的。美國人可以說雷根總統當年對前蘇聯如何強硬，可以說美國政府現在應該如何制衡中國，但台灣總統不適合公開對外國政府做評論或要求，只要說我們價值相同、利益一致就好。這是國家領袖外交發言的manner。至於提到「論語說，德不孤，必有鄰」，那顯然是給中國人聽的。意思是鼓勵他們要有德，大家好好做鄰居。而且別忘了台灣有「德」了。蔡總統這場非常棒。鼓掌。#獨特國家#民主同盟4.附註、心得、想法︰※ 40字心得、備註 ※內政方面也許有鄉親不滿意但外交真的很強蔡總統這場表現得非常好展現國際高度幫助台美關係達到新高點讓台灣跟民主國家們更緊密守護台灣的價值觀※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[討論] 國民黨的總統初選機制</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680748124.A.23B.html</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>沒記錯的話，果凍前陣子好像說過關公跟媽祖都支持他選。既然這樣，眾所皆知國民黨的總統擬參選人，除了一線的果凍、HoHoGPT，二線的金童跟校長，還有一個勉強算二點五線的朱保護。乾脆也不要民調了，五個人一起到玉皇大帝、媽祖、關公面前，輪流擲筊，看誰先連續擲出五個聖盃，算取得一勝，三位神明擲完若有勝場相同者，則相同勝場的侯選人進入PK賽，再重覆一次上述流程。這樣誕生出來的侯選人，不但黃袍加身，還聖光護體，建議國民黨可以參考一下。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[討論] 國民黨不團結，穩輸！除非..</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680748318.A.B1B.html</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>之前安倍首相過世賴副直接去到家裡致意，被當成最高等級貴賓這種事情蔡總統就不會想要自己包甚至直接讓自己曾經的強勁對手去發揮雖然競爭過但一棒接一棒蔡交棒給賴，就是穩穩的反觀國民黨上樑不正下樑歪幾個頭人爭成一團底下還有假摔事件難看嘛你民進黨這麼團結國民黨感覺輸定了除非韓總能出來當桶箍....讓國民黨再見青天白日的光芒...</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[討論] 為什麼中國這麼喜歡打臉藍白賤畜?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680748576.A.FD0.html</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>藍白賤畜們不都口口聲聲說蔡英文見的只是一個小咖一個議員一個  不重要的人但你們家主子反應卻不是這樣耶中共中央台辦中國外交部中國國防部全國人大外事委員會四個單位一起發聲明抗議看來在藍白賤畜的主子眼中  麥卡錫好像真的很重要耶有沒有中國愛把藍白賤畜的頭給打飛的八卦啊?</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[討論] 台灣政府的監督單位是誰？</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680748650.A.5A5.html</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>說真的每天都只能期待政黨輪替沒有第三方公正單位來監督政府你不覺得很怪嗎！？監察院長爭議一大堆司法院內部重要職位都有親戚關係你說真的沒問題嗎！？說說幾個例子全世界唯一一位號稱學術界奇蹟的學者蔡英文擁有1.5個博士 還不用公開正本論文 正本證書封存學位 假博士通緝真博士 會不會太扯另外高端疫苗合約不能公開！連價格都不能公布有爭議的事公部門不用公布被質疑的資料幹 那這樣黑錢不就跟喝水一樣簡單！對了喝水 現在缺水 和都喝不到說到缺水民進黨自己在水庫清淤也有弊案！！轉包給下游廠商 自己賺價差 賺上億你說你不覺得可笑嗎！？監察院......當機中....新聞媒體....收買中....五星市長都是豪洨的！！就別說雙碩雙飛對吧！？塔綠班怎麼看！？</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 馬英九見上海書記談ECFA：兩岸在生活上</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680749158.A.71B.html</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>※ 引述《chirex (不含銅鋰鋅)》之銘言：: 讓我欣慰的是，我此行訪問大陸，臺灣的民意絕大多數都是正面的反應，支持的比例接近: 八成。我們來大陸已有10天，臺灣媒體廣泛報導，高度肯定，因為維繫兩岸關係和平穩定: 發展方向，是臺灣社會的普遍主流看法，這也是我盼望大陸朋友能夠注意到的現象。: 謝謝大家。等等，好像哪裡怪怪的馬前總統不是去祭祖的嗎，怎麼變成去訪問大陸了？所以，他是假祭祖真訪問？還是假訪問真祭祖？你各位返鄉祭祖不都是祭完就回家了嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Re: [討論] 柯文哲還確定訪美21天嗎？</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680749210.A.425.html</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>不用納悶啦現實面就是你主子完全執政可以進萊豬，可以買飛機，可以送台GG可以買軍火，可以賣很多政治利益跟沒權勢的人比，當然被受禮遇不然你主子沒稿子唸就變智障的蠢樣你跟我鬼扯三小政治外行？就真的只是單純有權勢而己別再自慰了※ 引述《benothing (禹楓)》之銘言：: ※ 引述《tenfu (富哥)》之銘言：: : 柯文哲看到蔡英文訪美這樣: : 應該和藍白心目中所想的不一樣: : 確定還要訪美21天嗎？: : 別去了吧: : 馬先生在中國也算另類風光: : 柯的三角形要怎畫: : 會不會比郭董還慘？: 這真的是個苦差事，: 我也很納悶這次21天到底可以談到什麼。: 不誇張的說，如果連植物園參訪都可以拿出來講，: 這次大概真的沒有甚麼搞頭了。: 沒辦法吸到民進黨的奶水，: 加上過分親中，: 還有去年那個跟美國要疫苗的嘴臉，: FAPA應該是不會提供協助。: https://i.imgur.com/HDeOtj0.jpg: 民眾黨說什麼會給總統參選人等同規格，: 真想要看看柯文哲在美國機場國內線轉機時候，: 會給什麼樣的待遇。: 前幾天的丹佛機場：: https://i.imgur.com/smCykpC.jpg: 在安檢那邊就等了快半個小時。: 物價也真的頗高的，: 我早上uber eat 叫一個漢堡飲料就拿了我九百多台幣，: 加顆蛋跟我拿3塊美金真的是快要罵出髒話：: https://i.imgur.com/mLGJzCI.jpg: 柯文哲的那一套話術在美國是行不通的，: 因為台式英語根本沒辦法把話術的精髓給表現出來，: 再來是外行話是騙選民的，: 跟政治圈的行家講外行話只會被當成白癡。: 不意外的話，: 柯文哲此行最大的收穫應該是巧遇植物園的松鼠。: 這是美豬示意圖，無法完食：: https://i.imgur.com/BhoKFMC.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[討論] 這隻狗太狠 遊說美國通過法案！！</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680749295.A.B6E.html</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>台灣人愛台灣土生土長的本土台灣人說土生土長的本土台灣話可是呀http://i.imgur.com/c1DAe5c.jpg這隻狗狗呀一言不發就成功遊說美國通過禁止食狗貓法案不知道 是使用什麼談判手法又動用多了機密外交預算咧？</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[討論] 蔡英文: 邱臣遠是哪個黨? 柯P那個黨嗎?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680749895.A.192.html</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>靠邀太沒禮貌了吧應該是故意的?在僑宴大庭廣眾下  問大家邱臣遠是哪個黨的?真的滿無言的柯P等等會不會77777?</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[轉錄] 【「中正紀念堂」改為「歷任總統圖書館」</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750353.A.0EA.html</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.轉錄網址︰※ 網址超過一行 請縮網址 ※https://is.gd/4b6FwK2.轉錄來源︰※ FB公眾人物、FB粉絲團名稱、其他來源 ※魏聰洲fb3.轉錄內容︰※ 請完整轉載原文 請勿修改內文與編排 ※【「中正紀念堂」改為「歷任總統圖書館」可能不是好方案】從2020年起，陸續有知名人士倡議將國史館的總統史料文物部門發展為「歷任總統圖書館」，以此更新「中正紀念堂」名稱與內部功能，今年二二八前夕甚至出現九位社會賢達連署背書，這些人皆認定這個替代方案有益於轉型正義，甚至有助於國族融合。容我分享一些相反意見。.為民主時代總統普遍設立圖書館，全世界大約僅發生在美韓兩國。韓國數個皆私人機構，國家無涉，僅在成立過程給予補助；美國則是由私人成立，後期十多個由官方接受捐贈後納入國家文獻系統營運。兩國都沒有立法由國家主動成立總統圖書館，畢竟國家有責管理總統檔案、文件與文物，但總統圖書館的功能超過了這個公共責任，它是一種有紀念、追思、政治宣傳意義的機構。.致力於研究總統圖書館的美國學者Benjamin Hufbauer將之定性為「政治宣傳寺廟」，他表示：「基本上，這些圖書館就像是一位總統的最後一次競選，試圖在大歷史中為自己打造一個更佳的位置。」紐約大學歷史學教授Jonathan Zimmerman則比喻：「就像法老所做的一樣，總統自己去建造自己的紀念堂。」韓國知道不能由國家負擔每位總統的慈湖式心願，那是違反民主原則的公私不分；美國則容許國家經營個人崇拜事業，背後有其英雄主義文化及健全民主制度在支持，並且國家每次在接受圖書館捐贈之前，會由國會先聽取報告。.一棟「歷任總統圖書館」不能視同為總統圖書館的歷屆累加，因為這個累加讓繫於特定人物之上的起心動念，質變為繫於特定職位上。台灣並沒有美國的文化及政治條件，卻意圖在完成個人崇拜之餘，還順便完成職位崇拜；從事個人崇拜還得向信眾遊說功績，職位崇拜則不論功過、人人皆可慈湖，國會無權把關；我們能說這項舉世創發存在明確的進步性嗎？.即使不名為總統圖書館，以國史館總統檔案為基礎成立的超大型展覽教育機構仍是令人心存顧忌的。公文檔案是一種國家系統生產的記憶模式，由它所出發的展覽與教育活動經常是在鼓勵打造偏坦於權力者一方的記憶。以國史館所欲仿效的韓國世宗市的大統領紀錄館為例，觀眾在這裏被迫學習以總統的視角來看待國家的歷史，其中「見證大統領的領導」、「見證大統領的熱情」都是其常設展子題，真實存在過的社會批判消失不見。相信對於討論「由下而上」歷史視角多年的台灣博物館界，很難從中看出這樣的展覽之於民主會有什麼明顯助益。.即使以上之言全屬多慮，我們還是見到「歷任總統圖書館」之議存在以下缺陷：思考現代國家體制進入東亞後此島領導人這項職位的演進時，自然會排列出總督、全體主義期間總統、過渡與民選總統三個階段，而檔案本身是一種馴化工具，將人們框限於體制內思考，以致於規畫出一種只限後二者的圖書館，不知不覺地鼓吹一種具排他性的記憶工程，這將加強台灣內部的泛華主義，不利於國族凝聚。.同理，也是因為檔案的馴化，我們便輕易地將後兩個時期混為一談，而突生一項反歷史教育的風險：「歷任總統圖書館」讓國民誤解島上總統是一個性質穩定的職位，事實上這兩類總統所代表的國族想像與權力內容都差距甚大，這個混淆將讓轉型正義更為困難。.如果從以上比較，我們發現「歷任總統圖書館」有著諸多反民主印記，那最為瓜田李下的「中正紀念堂」的空間不正是應該能避就避？怎麼反成了地點首選？在此同時，全體主義建築這樣蓋、那樣蓋都原有其意義，其硬體蘊含著大量的象徵暴力，而「歷任總統圖書館」此提案將讓這些暴力的消減從此難以下手，畢竟歷任中就有五任屬於那位大銅像。總之，就轉型正義的角度，結合「中正紀念堂」與「歷任總統圖書館」對彼此的轉型可能都是最傷害的方案。.由於「中正紀念堂」地點之敏感、人潮之洶湧、量體之顯目、被供奉者之爭議，任何軟硬體的變動都極具象徵意義，不可不慎；在一間大陰廟陸陸續續找民選總統來陪祀的過程中，未來只要出現一位有骨氣的總統公開反對自己被強送作堆，他就</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[轉錄] 直視中華民族主義</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750511.A.9DD.html</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.轉錄網址︰※ 網址超過一行 請縮網址 ※https://is.gd/lFgKs02.轉錄來源︰※ FB公眾人物、FB粉絲團名稱、其他來源 ※陳弱水fb3.轉錄內容︰※ 請完整轉載原文 請勿修改內文與編排 ※直視中華民族主義馬前總統正在中國訪問，從他的行程看來，這次旅行主要是中華民族主義的展演，祭祖和追懷黨國還是其次的。中華民族主義是巨大的力量，張灝（1936-2022）曾對此有精要的說明，以下引出，讓大家正視這個深刻影響我們命運的力量。對於中華民族主義的性質，張先生歸納出四個要點：「一、民族主義是中國近現代歷史的產物。更具體的說，它是中國人在1895年以後對當時形成的政治與文化危機的一種回應。二、民族主義雖然不是中國傳統的產物，但它的形成仍然受到傳統積澱的影響，尤其是傳統漢族的族群中心意識。三、中國現代民族主義有其複雜性，表面上它是多元族群的凝聚，但實質上它是以漢人族群中心意識為主體，同時它表現的形式可以是政治的激進主義，也可以是文化的保守主義。四、中國的民族主義也與現代世界其他地區的民族主義一樣，有其不穩定的危險性，特別是隱藏其中的漢族文化霸權意識、華夏情結與大我心態。它在政治與文化上可能引發的偏執與激情，仍然是中國在21世紀的前途的一大隱憂。」*這是20年前一篇文章的結語，文字算是相當清楚，但有需要做幾點解釋。首先，引文中說，中國現代的民族主義表面上是多元族群的凝聚，指的就是「中華民族」，這是說，中國民族主義有中華民族的面貌，實際上是大漢族主義。其次，張先生根據學界已有的學說，將民族主義區分為自發的或公民的民族主義（voluntary or civic nationalism）以及有機的或族群性的民族主義（organic orethnic nationalism），中國民族主義近乎族群民族主義，不穩定性尤其高，而且常與民主化及現代化有抵牾。再者，中國民族主義隱藏著「大我心態」是指，由於種種因素，中國民族主義與個人結合，往往表現為個人的「大我」——也就是個人聯結至集體的精神核心，容易造成深刻的執念。在歷史上，中國民族主義有建設性也有破壞性。建設的一面，是為中國在19世紀末之後面臨帝國主義的侵奪和壓力時，提供了強韌的精神武裝，但張先生認為，中國民族主義的破壞性更是巨大和令人擔憂。他特別指出，二十世紀初期以後，中國知識階層對很多問題都有自省和反思，獨獨對民族主義缺乏深刻的反思和自我批判。言下之意，民族主義在中國有如脫韁之馬。現在，台灣正處於中華民族主義的鋒刃邊緣，它不但是外在的威脅，也是內在的憂患。外部的狀況我們無從著力，至於內部，則是大家必須好好思考並努力化解的。*張灝，〈關於中國近代史上民族主義的幾點省思〉，收在其著《時代的探索》（中央研究院、聯經，2004），頁90-91。4.附註、心得、想法︰※ 40字心得、備註 ※只要中華民族主義還在的一天世界就不得安寧只能不斷禍害世界最終必須要確裡中國或中華只是一個地理名詞或一個古文明不再有一個叫中國的國而是無盡分裂很多國※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[討論] 王婉諭被酸了~^^</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750658.A.D52.html</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>不去貝里斯跟瓜地馬拉，跑去紐約參加什麼民主峰會，結果這次蔡麥會連邱臣遠都去了，就她一個缺席...這種人喔，實在是很不知道該怎麼形容，早就說很虛假了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[討論] 笑死 綠畜等蔡英文跟拜登合照再來吹好嗎</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750743.A.6C4.html</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>笑死 跟一個在野黨議長合照是在爽三小啊跟拜登合照再來吹好嗎 綠畜塔綠班真的不要笑死人了好歹也跟郭台銘一樣見得到美國總統再吹吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[轉錄] 聿文視界：馬英九訪陸，北京的兩重目的</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750762.A.70E.html</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.轉錄網址︰※ 網址超過一行 請縮網址 ※shorturl.at/hkADW2.轉錄來源︰※ FB公眾人物、FB粉絲團名稱、其他來源 ※美國之音3.轉錄內容︰※ 請完整轉載原文 請勿修改內文與編排 ※編者按：這是鄧聿文為美國之音撰寫的評論文章。這篇特約評論不代表美國之音的觀點。轉載者請註明來自美國之音或者VOA。馬英九卸任七年後的首次大陸行，外界更多從台灣內部的政治去觀察，從中國大陸的角度看，馬這次訪陸，大陸要達到兩個目的，一是降低兩岸軍事衝突的風險，向台灣民眾和國際社會展示中國是個愛好和平的國家，為中國經濟的發展創造一個好的地緣環境；二是試圖影響台灣2024年初的總統選舉，讓國民黨能夠重新執政。從馬大陸行的時間和行程安排看，可以把它定位祭祖之旅，中華民國尋根之旅，以及兩岸青年和學生的交流之旅。既回大陸祭祖，時間一般都會安排在清明前後。就此而言，馬此次行程，至少去年底即已作規劃，換言之，它不是為沖淡蔡英文過境美國的新聞效應才臨時安排的。不過，雙英外訪的時間既然剛好巧合，北京也確實會拿此事來降低蔡英文過境訪美對中國大陸內部民意的刺激力度，並減少國際輿論對蔡訪美的過度關注，將注意力聚焦於馬的訪陸。馬英九訪陸是政治之旅馬這次去了上海、南京、武漢、湖南、重慶，未去北京和西安，這個安排是避免外界對此行程做過度政治化的解讀，尤其不讓讓綠營逮著把柄打成中共同路人。綠營在馬出行前，對他進行了鋪天蓋地的批評，更有綠營學者指責他是去中國舔跪。儘管馬精心挑選訪陸地點，但以他中華民國前總統的身份，還帶著一幫學生，這趟行程注定不可能是私人性的，而具有政治性，是一次政治訪問。北京也是把它作為一次政治之旅來規劃的，出於對台統戰之需要，所以才會允許馬同大陸地方官員會談以及同學生交流時，講出中華民國，做過民國總統這樣的話。台灣問題被北京視為中國國家利益核心中的核心，外交的重中之重。習近平當然想要在他任內統一台灣，他也明白，和統雖然並非完全不可能，可非常困難，所以這些年建軍備戰，為武力統一做好準備。不管台海緊張的根源來自何方，兩岸的備戰和美國的介入已將台海變成了火藥桶，升高了軍事衝突的風險，台灣被國際輿論看作世界上最危險的地區之一。除非習有意要在未來一、兩年內引爆台海戰爭，否則兩岸之間這種長時間的劍拔弩張必然不利於他在20大提出的中國式現代化目標的推進，尤其在經濟衰退異常嚴峻，以致不得不重又把經濟作為頭號任務來抓的情況下。北京目的之一：經濟從經濟工作會議到兩會，再到日前中共高層在發展論壇和博鰲亞洲論壇密集發出的信號來看，拼經濟不但是李強新政府今年的工作重點，也會是本屆政府任期的施政中心。而要拼經濟，就需營造一個好的發展環境，內安民企和資本，提振企業家和民眾的信心；外安外資，讓外資對投資中國放心。台海烏云密布顯然不利於這個中心工作和目標任務的。危邦不入，亂邦不居，是一句中國的古訓，倘若台海局勢的緊張弄得內資躺平或出走，外資不敢進，無論官員有多大的熱情去拼經濟，還是拼不起的。因此，習在安頓內政、開始善待民企的同時，也必須降低兩岸的對峙程度。故外界看到，今年以來，北京對台灣改採某種程度的懷柔立場，重新開放兩岸三通以及放行台灣農產品到大陸，不像去年只是一味硬，今年政策的主基調是和緩。馬英九的訪陸就是在這個背景下成行的，是大陸整體對台政策的一部分。北京對烏克蘭危機的政治解決都提出了12點和平主張，調停了沙伊復交，還想對俄烏勸和促談，如果它對同自身切實利益相關的台海反而要升高危機情形，對世人是很難交代的。從這一點來看，習也要緩和兩岸的緊張態勢。中國國台辦主任宋</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[討論] 當初說蔡去美國沒人理的跑哪去了？</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680750779.A.64E.html</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>蔡出發前一直看到文章取笑說什麼郭台銘見了大咖蔡英文台美史上關係最好結果沒人想見過境美國連安排好的演講都取消只得悻悻然的飛走見友邦吃了萊豬（其實沒有買了武器（保家衛國換到一個美國不理不睬結果民進黨跟美國最會的就是回馬槍歷史回顧：事件一 蕭美琴與邀請函之謎在當天之前一直封鎖消息沒人知道她到底有沒有拿到邀請函結果柵欄仔篤定美國沒給嗨了一個月當晚準備開趴的時候全部人臉上都被揍了一拳狡辯關鍵字： 邀請函假的、進不去、在外面拍照事件二 裴洛西訪台到底來不來她就一直不宣布 真的很愛捉弄柵欄仔直接導致柵欄仔又一次羞羞臉10% 機率訪台先笑你台灣美國根本不理你30%機率訪台笑美國連來不來都不敢說50%機率訪台繼續凹路線不對 不順 不可能來80%機率訪台開始說是不是只會靠美國 美國只是把你當工具人抵台完！全！消！失！Disappeared!Gone!狡辯關鍵字：因為太丟臉所以無法上線事件三 蔡英文過境美國其實到這裡就看得出來柵欄仔操作手法都一樣前面先笑你沒人理中間再質疑美國賣掉台灣後面再說民進黨跟著賣台 美國小孬孬不敢違抗中國狡辯關鍵字：美國沒有邀請這次還剛好遇到馬英九去中國吹得跟救世主一樣台灣的和平就靠國民黨啦！結果馬人還在中國中國就宣布要在台海開遊艇趴耶穌說 當你的左臉被麥卡錫打之後要把你的右臉也給中國打柵欄仔的事蹟從2019開始就一直出現不斷的被打臉 還是不斷的洗文章不斷的出征其他看板搞得八卦變成全站最討厭的看板跟全球最討厭的中國有不可思議的同步率上線人數不滿一萬的時間也越來越長那個充滿抱負的板主說要讓八卦改頭換面他真的辦到了！人氣沒了文章不有趣了專業文章不發了打臉別人變被人打臉最好笑的是逛八卦還要被稱作柵欄仔https://i.imgur.com/ebjzddm.jpghttps://i.imgur.com/q56NfKp.jpghttps://i.imgur.com/Q37GzXm.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">							(本文已被刪除) [bobby94507]						</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751251.A.3AB.html</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>幹入台灣民眾黨了我還以為她不會咧柯文哲這人這麼爛，哪一天又出賣她就慘了在他旁邊看這麼久都不會怕嗎替33祈禱</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[討論] 黃33入黨啦</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751358.A.636.html</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://www.ettoday.net/news/20230406/2473530.htm※ 網址超過一行 請縮網址 ※2.新聞來源︰ETtoday新聞雲3.完整新聞標題快訊／柯文哲延攬成功！黃珊珊昨晚申請「加入民眾黨」　今早秒通關※ 請完整轉載標題 請勿修改與編排 ※4.完整新聞內容︰記者袁茵／台北報導https://cdn2.ettoday.net/images/6714/d6714619.jpg2024總統、立委選舉將於2024年1月13日舉行，民眾黨主席柯文哲參選總統態度明確，4月8日啟程訪美，近期私下詢問親民黨籍前台北市副市長黃珊珊入黨意願；據了解，黃珊珊於5日晚間透過網路遞出入黨申請，民眾黨也於稍早審核通過，意味著黃珊珊正式加入民眾黨，但是否已同步退出親民黨，待黃珊珊對外說明。本站4日掌握，柯文哲在民眾黨內部會議中，已有多次當面詢問黃珊珊加入民眾黨的意願，過去黃珊珊並未正面回應，但近幾天開始態度鬆動，說出「反正只要市長（柯文哲）有需要，我都會全力幫忙」言論。黃珊珊本來就打算在4月8日與柯文哲一同訪美前入黨，民眾黨入黨僅需透過網路線上申請，但因黃珊珊資料準備、民眾黨須有人審核資料的緣故，使黃珊珊最快送件且審核通過的時間點落在4月6日，也就是清明連假過後。據了解，黃珊珊於5日晚間透過網路線上申請，遞送加入民眾黨的資料，由於時間太晚，因此6日上午才獲民眾黨通過，黃珊珊稍早確定成為民眾黨一員，也象徵柯文哲再從親民黨主席宋楚瑜手中挖角成功；而黃珊珊原有的親民黨籍該如何處理，以及與宋楚瑜之間的互動，待黃珊珊對外說明。而黃珊珊也於稍早在臉書證實，「今天我已正式加入台灣民眾黨，與希望台灣能夠擺脫統獨意識形態對立、擺脫藍綠在地方與黑金共治的好朋友們，共同承擔改變政治文化的重責大任！」※ 請完整轉載原文 請勿修改內文與編排 ※5.附註、心得、想法︰來了  終究還是來了晚了大半年以為能選上市長但還是過不了三姓XX 姍姍來遲了~國昌老師 阿北還在等一個人耶※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[新聞] 柯文哲延攬成功！黃珊珊昨晚申請</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680751439.A.9AF.html</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://www.setn.com/News.aspx?NewsID=12762082.新聞來源︰三立新聞網3.完整新聞標題賴清德曝蔡麥會大合照：我們正以最堅實的國力，讓世界看到台灣的重要4.完整新聞內容︰2023/04/06 09:45:00記者李鴻典／台北報導美國眾議院議長麥卡錫今天率領跨黨派國會議員會晤台灣總統蔡英文，副總統賴清德表示，我們正以最堅實的國力，讓世界看到台灣的重要。賴清德在臉書貼照發文寫道「要維護和平，必須先強大自己！」這句來自美國前總統雷根的名言，今天蔡英文總統在與美國眾議院議長麥卡錫會面時，明確地表達了出來。賴清德說，這幾年，在蔡總統的領導與台灣人民幾年來的共同努力下，我們正以最堅實的國力，讓世界看到台灣的重要。賴清德指出，蔡英文總統在任內努力開拓台灣的外交空間，提升台美關係，麥卡錫議長今天在會後公開表示：「當前台美關係是此生中最強健的時刻，而蔡總統無疑是這段強健關係的重要推手。」當然我們也要感謝美國國會跨黨派議員的支持，近年通過的《台灣旅行法》、《台北法案》、《亞洲再倡議保證法》、《2019國防授權法》等友台法案，就是台美關係提升的成果。賴清德還表示，麥卡錫議長長期為台灣發聲，支持台灣參與國際組織以及美國對台軍售，一直都是台灣的好朋友。麥卡錫議長今天也提到：「我們將會信守義務，並且重申對雙方共享價值的承諾，而這些價值是團結美國人民的基礎。」賴清德強調，感謝麥卡錫議長與美國各界的支持，未來我們會持續深化台美關係，在各領域與世界民主陣營的夥伴緊密合作，為印太區域的穩定做出貢獻，達成守護民主、和平與繁榮的新世代使命。5.附註、心得、想法︰最大的英粉又在臉書吹捧蔡英文了，賴神當年逼宮蔡英文失敗，轉頭變成蔡英文粉絲。蔡英文和麥卡錫的閉門會議，目的的就要力求低調不刺激中共，賴神又來敲鑼打鼓了。賴神是出來跑龍套的，是嘛？</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Re: [討論] 柯 要怎樣扳回一城?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745720.A.780.html</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>現在情勢很清楚中共就是馬英九國民黨美國就蔡英文民進黨三角形完全沒發揮餘地柯文哲在聲量考量下可以訪美並且痛罵美國這柯有初步經驗 可以加強力道</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[討論] 塔綠斑為什麼?</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745782.A.3C1.html</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>為什麼塔綠斑要靠向美國?給美國那麼多錢?污起來給自己用不好嗎？美國可以影響人民的投票方向嗎?有人可以告訴我嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[討論] 一切都是立倫的算計</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745816.A.DBE.html</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>步驟一：沒收初選 擋住張亞中與趙少康，也確保其他柱柱不會再現步驟二：樂見郭董 侯侯氣勢太強了，需要郭董來抑制步驟三：讓侯侯知難而退 侯侯你好好做事情就好，不要出來亂，我們有郭董就夠了步驟四：讓郭董回不了國民黨 侯侯棄選之後，依照制度規章郭董在總統大選之前回不來的，請勿破壞制度步驟五：主席御駕親征 黨內無人可選，主席只好勉為其難代為出戰</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Re: [討論] 柯文哲還確定訪美21天嗎？</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745873.A.436.html</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>※ 引述《tenfu (富哥)》之銘言：: 柯文哲看到蔡英文訪美這樣: 應該和藍白心目中所想的不一樣: 確定還要訪美21天嗎？: 別去了吧: 馬先生在中國也算另類風光: 柯的三角形要怎畫: 會不會比郭董還慘？這真的是個苦差事，我也很納悶這次21天到底可以談到什麼。不誇張的說，如果連植物園參訪都可以拿出來講，這次大概真的沒有甚麼搞頭了。沒辦法吸到民進黨的奶水，加上過分親中，還有去年那個跟美國要疫苗的嘴臉，FAPA應該是不會提供協助。https://i.imgur.com/HDeOtj0.jpg民眾黨說什麼會給總統參選人等同規格，真想要看看柯文哲在美國機場國內線轉機時候，會給什麼樣的待遇。前幾天的丹佛機場：https://i.imgur.com/smCykpC.jpg在安檢那邊就等了快半個小時。物價也真的頗高的，我早上uber eat 叫一個漢堡飲料就拿了我九百多台幣，加顆蛋跟我拿3塊美金真的是快要罵出髒話：https://i.imgur.com/mLGJzCI.jpg柯文哲的那一套話術在美國是行不通的，因為台式英語根本沒辦法把話術的精髓給表現出來，再來是外行話是騙選民的，跟政治圈的行家講外行話只會被當成白癡。不意外的話，柯文哲此行最大的收穫應該是巧遇植物園的松鼠。這是美豬示意圖，無法完食：https://i.imgur.com/BhoKFMC.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[新聞] 賴惠員以海外黑名單比「波波牙醫」 吳欣1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746294.A.377.html</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>賴惠員以海外黑名單比「波波牙醫」 吳欣岱：氣死本土派支持者？2.新聞來源自由3.新聞網址https://news.ltn.com.tw/news/politics/breakingnews/42613484.新聞內容〔即時新聞／綜合報導〕民進黨立委賴惠員昨日在臉書PO文以白色恐怖事件「海外黑名單」類比國外學歷的牙醫系學生，對此台灣基進台北市黨部主委吳欣岱表示，國外學歷的牙醫系學生有受到政府迫害了嗎，這樣硬凹是要氣死本土派支持者嗎？吳欣岱在臉書PO文表示，劈頭痛批這種人是民進黨立委？你真的要確定欸！現在是有國外學歷的牙醫系學生有受到政府迫害了嗎？不能回台灣了嗎？有生命危險嗎？家人有被監控嗎？吳欣岱指出為了維護民眾的就醫品質，土牙醫師、本土牙醫系共同出來要求嚴格管控實習名單，乖乖排隊還是有通過的可能，也不是出國前不知道的事，拜託不要硬凹好嗎？用海外黑名單比喻是要氣死本土派支持者嗎？不會有人因為這樣就覺得隨便開放落日條款是OK的好嗎？去年台北市長選舉這個議題吃的虧，還沒學乖嗎？吳欣岱在文末直言「不要忘了，初選過了還要面對選區民眾的檢視欸，陰德值不是這樣燒的好嗎？」5.備註波波牙醫大戰本土牙醫在台灣萬中無一的牙醫們跟花大錢喝洋墨水的波波牙醫們對不起 我應該還是選國貨啦賴惠員還是下去吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[討論] 猴痘隔離擬放寬</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746438.A.81C.html</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>是這樣啦…今天上雅虎新聞發現COVID-19 幾乎要從新聞上絕跡了想說來搜尋個「猴痘」結果發現不得了https://i.imgur.com/J5ih2bR.jpghttps://i.imgur.com/WvxO8EG.jpg然後查到衛福部的「猴痘防治工作手冊」又寫說https://i.imgur.com/vHhUQXl.jpghttps://i.imgur.com/OgSJuO3.jpg也有其他報導寫說 長時間面對面也有飛沫傳染的風險 致死率在1～10%之間https://www.setn.com/m/ampnews.aspx?NewsID=1275736這個疾病對一般民眾到底危不危險呀？窩沒打過天花疫苗呀～</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文在會面後的致詞</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746579.A.BF4.html</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>※ 引述《KONAMI (konami)》之銘言：: ※ 引述《Aidrux (保境安民)》之銘言：: : 如題: : 消息來源臉書: : https://reurl.cc/Q4mAXO: : 內文同時有蔡的致詞的中譯及麥卡錫議長的致詞的全文: : 摘錄蔡的致詞幾點討論如下: : 1、選在「雷根總統圖書館」會談是故意的，大概是在暗示新一波冷戰要來了，而且美國會再: : 度勝利: : 2、重申六項保證及台灣關係法，這是台灣這40年繁榮的唯一因素: : 3、中國打算威脅民主體制: : 4、重申和平維持現狀的立場，但會持續強大台灣: : 5、美國挺台灣，美台兩國在印太區域有共同的利益: : 與馬英九的「兩岸同屬一中」的論調完全是相反的方向: : 蔡的觀點是台灣與美國站在一起: : 而且視中國為威脅: : 很明顯的馬就是打算把台海衝突「內戰化」: : 蔡則是站在國與國的立場看待中國的威脅: 你不是故意的就是看的太少不用動不動就說人家甚麼故意或看得太少，重點是有沒有看清局勢。這幾年的國際情勢已經很明顯了:美中競爭、民主陣營受到威脅、新冷戰格局慢慢形成: 我昨天就講了: https://i.imgur.com/xYzDXIH.jpg: #1aBHcmIZ (HatePolitics)這不意外阿，國際各國交往本來就是看自身最大利益，但你要看美國目前做了甚麼，未來他想做甚麼!就國際政治而言，國際權力平衡，一直是重要課題。但由於民主在冷戰結束後成為國際政治主流，國際政治，主要劃分已經漸次由地緣政治，轉變成也考量民主與獨裁體制與否，越來越壁壘分明。以台美關係來看，中國現任外交部長秦剛，駐美任內就時常抱怨，抱怨他在美國見到美國官員次數和層級，怕沒有蕭美琴來得多和高。以例行性台美會談為例，川普任內國安顧問波頓曾在行政大樓接見我國國安會秘書長李大維，今年二月底在華盛噸的台美會談，則是美國副國務卿雪蔓親自出席。美國副國務卿是什麼層級的官員，是甚麼角色，應該不用我多談了。: 是吧~: 100%完全命中: 這也不是什麼神預測: 美國人就是這樣: 下禮拜可能又換一套說詞: 綠粉還妄想美國人的承諾會堅定不移?照你邏輯白癡才會相信美國人的承諾會堅定不移，所以也包括一中政策，不是嗎?美國的一中政策，依時代不同有不一樣的解釋與做法，但基本上仍未跳脫中美三聯合公報、六項保證、臺灣關係法的範疇。但是，美國的一中政策與中國的一中原則，有很大的不同，而且解釋權在美方。: 相反的: 馬英九這次的訪中不能說中方完全沒有介入: 但他的論述把兩岸的問題拉回了某種基調: 這部分對台灣是有利的: 和平就是兩岸的最大公約數是和平為最大公約數，還是被中共和平統一????馬英九的論述，就是把中華民國又拉回了國共內戰格局，所謂92共識，除了國號不一樣外，幾乎完全與中國的一中原則相同。最悲哀的是人家完全不理你92共識，也沒有各自表述了。很多藍營的人沾沾自喜馬英九去中國不斷提出中華民國挑戰，某方面是值得肯定，但你在中國說人家第一根本不鳥你，第三在它們國內說，所有媒體就全封鎖了拉，有用嗎?中華民國想要繼續生存下去，就是要把台海問題國際化，而不是內戰化，這才是對台灣最有利的。馬英九的立場，只是會慢慢葬送台灣，慢慢讓中華民國走向滅亡而已。: 反觀美國這邊: 麥卡錫這些東西完全沒有新意: 更不用說實質的幫助了: 看看就好不知道到底是哪個黑布遮蔽了您的眼睛，讓您看不清國際局勢這幾年美國的大動作，已經看出他想要幹嘛了:美中貿易戰、晶片法案、南海問題國際化、增加亞太軍隊部署、印太戰略等(還有很多網友可以補充)光從美國與台灣的交流來看，趨勢更加明顯:1、川普與蔡英文直接通話、副總統賴清德訪美進入白宮國安會、參加祈禱早餐會，都是  斷交以來破天荒。2、台美交流層級拉高且頻率次數越來越多、對台相關法案不斷出爐。3、美國國務次卿基思·克拉奇2020年訪台，斷交以來行政官員層級最高。2021年國務院取消台美交往限制等....4、美國賣的武器越來越好5、在台軍事人員逐步增加。6、對美軍在台海問題上的戰略角色，越來越清晰7、美國眾議院議長訪台，斷交以來第二次(第一次</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[討論] 阿北要拜訪強盜了 該帶鍾東錦防身吧</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746619.A.570.html</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>阿北後天要啟程去跟美利堅強盜集團談判21天聽起來就超危險…..阿北會帶武將鍾東錦防身嗎很擔心阿北的安全…</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文和麥卡錫合照出爐</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746632.A.FE5.html</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>想想也是可憐自備紅地毯 被當空氣超過一周 沒官員迎接現在拼命運作終於蹭到一個咖肯"接見"中華民國總統出去真的是很卑微更可悲的是這種情況還有人敢沾沾自喜不愧是斷交大國 自慰能力還是必備的= =舔美論者，你們的神主牌就這點本事？</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[新聞]天主教媒體：中國毀梵中協議 不甩教宗自</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746732.A.A97.html</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://www.cna.com.tw/news/acn/202304040233.aspx2.新聞來源︰中央社3.完整新聞標題天主教媒體：中國毀梵中協議 不甩教宗自封上海主教4.完整新聞內容︰天主教媒體：中國毀梵中協議 不甩教宗自封上海主教2023/4/4 21:47（4/5 09:57 更新）（中央社記者黃雅詩台北4日電）天主教權威媒體亞洲新聞報導，中國天主教主教團主席沈斌今天接任上海教區主教，這項任命未獲教宗同意，中國官方此項「單方面」行動，形同公然撕毀2018年梵中簽署的主教任命協議。中國再次違反協議 傳教廷看新聞才知道上海主教上任梵蒂岡目前尚未對此次任命案，做出公開評論或回應。亞洲新聞（AsiaNews）今天報導，兼任中國政協常委的沈斌今天自封為上海教區主教，他的任命函來自他本身率領的中國天主教主教團，而非如羅馬天主教教義所規定，主教任命的授權必須來自教宗。亞洲新聞表示，梵蒂岡消息指出，這項任命案是中國單方面行動，沒有獲得教宗同意，且上海天主教社群也對這個缺乏教宗授權的任命案，感到震驚痛心。報導指出，中國天主教主教團是不受教廷承認的組織，且完全附屬於中國共產黨之下。梵中2018年簽署主教任命協議，內容雖未公開，但教宗與教廷高層曾多次透露，中國政府同意讓教宗對中國主教任命有「最後決定權」。多數天主教媒體曾分析指出，中國是盼藉梵中協議牽制教廷，避免教宗在新疆、香港等迫害人權議題上批判中國。中國已非首次無視梵中主教任命協議。去年11月26日，梵蒂岡曾大動作發出聲明，對於中國任命彭衛照為江西教區輔理主教表達「意外及遺憾」，並稱「江西教區未獲聖座承認」，且中方單方面任命主教的行為「沒有按照梵蒂岡與中國雙方現有的對話精神，以及在2018年簽署的主教任命臨時協議」。亞洲新聞報導，教廷與中國長期未對上海教區主教人選達成共識，上海教區自前主教金魯賢主教2013年逝世後，迄今已懸缺十年，教廷原屬意由金魯賢的輔理主教邢文之接任，但邢文之因曾拒絕參與中共官方愛國教會的典禮，被迫辭職。報導指出，另一位獲得教宗任命的上海輔理主教馬達欽，因為在祝聖典禮上辭去中共愛國會的職務，從2012年以來一直被軟禁在佘山修院，即使後來回到愛國教會，仍無法恢復主教職務。根據報導，沈斌在就職時絕口未提教宗，反強調將堅決貫徹共產黨指示，堅持宗教獨立自主原則，推動天主教「中國化」。（編輯：林克倫）1120404#中國#沈斌#天主教延伸閱讀5.附註、心得、想法︰歷史文件嘛！說來好笑，這種惡質行徑發生之時，正好就是天主教徒馬英九訪問中國的時間。我這輩子都不會相信共產黨會遵守任何約定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 賴惠員以海外黑名單比「波波牙醫」 吳欣1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746904.A.B4B.html</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>亂比喻會打壓、醜化被害者，以及國民對反對政治迫害、支持轉型正義的支持度很多人，包含國民黨、統派都會亂比喻白色恐怖但是這些毫無悔意的人卻不說白色恐怖就是他們搞出來的，卻還無恥的拿來比喻連民進黨都亂比喻，把波波牙醫類比海外黑名單那國民就會以為，原來海外黑名單就是這樣而已喔！那就會覺得迫害也沒甚麼了嘛黨國體系的人不斷的醜化被害者，洗白自己加害者假如連本土正當自己都在幹這種事，那你到底想改革甚麼呢？※ 引述《Rostislav (接線生)》之銘言：: 賴惠員以海外黑名單比「波波牙醫」 吳欣岱：氣死本土派支持者？: 自由: https://news.ltn.com.tw/news/politics/breakingnews/4261348: 波波牙醫大戰本土牙醫: 在台灣萬中無一的牙醫們: 跟花大錢喝洋墨水的波波牙醫們: 對不起 我應該還是選國貨啦: 賴惠員還是下去吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Re: [討論] 柯文哲還確定訪美21天嗎？</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680746988.A.F79.html</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>其實你看國旗帽這次去，頂多就見幾個商界的大咖，美國政界根本不鳥他，有眼睛的都看穿他在威州的那些空話，國旗帽此行幾乎是空手而回，才迫不得已低頭跟他最痛恨的迂腐分贓的政黨認錯。一個說過民主不能當飯吃，現在卻搶著要當人民的公僕，我很難相信腦子正常的人會相信這種鬼話。話說回來，如果柯文哲能做到國旗帽辦不到的事，有機會與美國政界幾個大老會面，那麼他就有底氣跟賴清德還有國民黨叫板，若非如此，還是把人民稅金給他的政黨補助款好好花在立委選舉上吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[新聞] 馬英九見上海書記談ECFA：兩岸在生活上</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747076.A.E4B.html</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://www.setn.com/News.aspx?NewsID=12760512.新聞來源︰三立新聞3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※馬英九見上海書記談ECFA：兩岸在生活上相互依賴「政治也切不開」4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※2023/04/05 19:29:00前總統馬英九訪中之旅來到尾聲，今（5）日他抵達上海與上海市委書記陳吉寧談話。馬英九表示，在他任內兩岸簽署了23個協議，尤其是ECFA至今仍然有效運作。也因為有ECFA，台灣的經濟表現才能維持一定的成績，就知道兩岸人民在經貿上、在生活上相互依賴的實際需要，是政治也切不開的。馬英九與上海市委書記陳吉寧談話全文：這次來訪大陸的12天行程已經來到尾聲，首先，我要感謝陳書記與上海的朋友，在我的行程中給予的協助與接待。這次的行程一共是十二天，我們此行最後站，來到上海—新時代文明的據點。我們今天抵達上海後，參觀了洋山港與浦東新區城市綜合管理中心，洋山港是全大陸最大的貨櫃港口，整體讓我非常驚艷，也更深入體會，大陸在進出口貿易的巨大優勢。陳書記過去豐富的主政經驗，以及環境科學專業背景，都讓各界對於上海的各方面發展，具有高度的期待，對於台商、台企來說會是前來發展的一大誘因，也是兩岸交流的重要根基，放眼上海的環境，將會吸引大量台商、台企落腳，未來與臺灣將有更多合作的可能。此外，我也注意到先前陳書記對於大陸環境問題、能源政策付出過相當多的心力，在擔任北京市長期間，治理空氣污染等「大城市病」，有效改善了艱鉅的霧霾問題。我深信，上海目前在陳書記的帶領下，無論是現代化的建設，或是高品質的發展，都會是相當大的驅力。此行我除了返鄉祭祖，還有一個重點，就是讓兩岸青年學子能夠面對面，坐下來交流。2016年我卸任後，在東吳大學擔任講座教授，許多陸生與台生一起上課，讓我更深入體認，兩岸青年交流的效果與重要性。兩岸年輕人在年輕的時候，能夠彼此交流，相互了解，比起任何方式都還要重要，我這次來帶著青年學生，與大陸學生進行交流，就是著眼於此。在前兩次的校園交流，我很高興看到學生們有相當多的互動，因此我也相當期待，我們的第三場校園交流，有江南第一學府之稱的復旦大學，相信會有更多的收穫。陳書記曾經留學英國多年，也擔任清華大學校長，對校園年輕人的交流，也有許多經驗，我也很期盼能就此與陳書記交換意見。兩岸之間，存在歷史遺留下錯綜複雜的關係，也有交流往來所衍生的事務性問題，這些事情的解決無法一蹴可幾，需要雙方在交流協商過程中，面對現實、累積經驗、培養互信。在我任內，兩岸因為在1992年就「一中原則」建立了共同政治基礎「九二共識」，擁有互信，擱置爭議，共創雙贏，實現三通直航，兩岸交流暢通，讓兩岸人民都受惠。我任內兩岸簽署了23個協議，尤其是ECFA，至今仍然有效運作，即使是民進黨抗議，也不敢貿然廢止，因為有ECFA，台灣的經濟表現才能維持一定的成績，就知道兩岸人民在經貿上、在生活上相互依賴的實際需要，是政治也切不開的。讓我欣慰的是，我此行訪問大陸，臺灣的民意絕大多數都是正面的反應，支持的比例接近八成。我們來大陸已有10天，臺灣媒體廣泛報導，高度肯定，因為維繫兩岸關係和平穩定發展方向，是臺灣社會的普遍主流看法，這也是我盼望大陸朋友能夠注意到的現象。謝謝大家。5.附註、心得、想法︰※ 40字心得、備註 ※馬英九是在那叫什麼？真的當DPP不敢廢ECFA嗎？只是現在太危險，下星期五啦~那次不是下星期五??https://i.imgur.com/3eZePMJ.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 芒果鳳梨品種疑流入中國大陸 農委會推修</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747085.A.EA6.html</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>→ indium111: https://bit.ly/3nOoGQJ125.231.138.157 04/06 08:06→ indium111: 我請連家幫你回答這個問題125.231.138.157 04/06 08:06→ indium111: 當時馬英九除了總統，也身兼國民黨主125.231.138.157 04/06 08:07→ indium111: 席，這下你知道為什麼要馬英九負責了125.231.138.157 04/06 08:07→ indium111: 吧125.231.138.157 04/06 08:07這個好笑!!原來兼黨主席就可以啥都要負責?可是我記得去年11.26左右蔡英文才辭去黨主席這種農業技術的流出你indium111要說這是這3~4個月就搞定的嗎?喔!對了蔡英文當總統兼黨主席時負責過啥??連受訪都不敢耶大哥※ 引述《goetze (異教神)》之銘言：: 1.新聞網址︰: https://0rz.tw/tUi2e: 2.新聞來源︰: 雅虎新聞網: 3.完整新聞標題: 芒果鳳梨品種疑流入中國大陸 農委會推修法課刑責圍堵: 4.完整新聞內容︰: 繼金鑽鳳梨後，芒果鳳梨也出現在中國大陸栽種。農委會副主委陳駿季今天說，有冠芽就: 能種，難查為何流出，已確保外銷日本商機，並提案修法，違法輸出種苗處3年以下有期: 徒刑等刑責，盼速通過。: 「台農23號-芒果鳳梨」果實呈短圓筒形，果肉黃色、帶有芒果香氣且肉質柔軟，少有纖: 維、糖酸度均高且耐儲藏。（資料照／農委會農業試驗所提供）: 台灣作物品種持續發生流入中國大陸栽種、產銷，損及台灣出口商機事件。過去綠金毛豆: 亦是，險因此奪去台灣出口日本商機，農委會持續研發新品種、強化產銷管理而守住日本: 市場市占率，確保有綠金美名的毛豆商機。鳳梨方面，繼金鑽鳳梨（台農17號）後，如今: 推廣栽種的新品種芒果鳳梨（台農23號）也發生相同事件。: 陳駿季今天接受電訪時指出，農委會上週掌握中國大陸一個媒體相關報導，不過難以要求: 官方提出授權品種的文件證明，文中聲稱由台灣引進種植、由農委會農試所培育，「也不: 怕你知道」，真的是「土匪」，且鳳梨跟蘭花很像，有芽就能栽種，很難查怎麼流出。: 他說明，鳳梨台農23號於民國107年取得國內植物品種權，108年審議通過採非專屬授權，: 期限5年，109年迄今已授權4家種苗業者及3家農戶，但未授權境外生產，目前國內推廣栽: 種約20公頃。: 他強調，為保障外銷商機，在日本有申請品種權，而品種權為屬地主義，中國大陸未來不: 能輸銷日本，只能在中國大陸境內自己種、自己賣，藉此圍堵；不過目前也無法解決去輸: 銷中國大陸的問題，只是客觀角度來說，台灣鳳梨目前也不能輸入中國大陸，而農委會當: 然仍希望相關議題能推進符合國際規範，開放、恢復貿易。: 陳駿季指出，農委會也根據國貿局相關稅則號列規範，發布禁止輸出品項累計15項，其中: 110年修正發布「植物種苗出口同意文件核發要點」第2點新增9項，包含鳳梨在內，要輸: 出這些作物的植物種苗，必須取得農委會同意文件，否則會被以走私、挾帶等案件處理。: 其他8項為番荔枝、鳳梨釋迦、紅龍果、芒果、蓮霧、楊桃、荔枝、棗。: 陳駿季表示，為了防止品種外流，行政院今年3月16日通過「植物品種及種苗法」第53條: 之1修法並送立法院審議，將原行政罰改為刑責入法，增訂農委會得公告禁止輸出入種苗: 、種苗的收穫物或其直接加工物，違者處3年以下有期徒刑、拘役，科或併科新台幣60萬: 元以上、300萬元以下罰金，違法之物沒收、所屬法人連帶課以罰金；盼立法院儘速三讀: 通過。: 另外，農委會110年5月26日也修正發布「科學技術研究發展成果歸屬及運用辦法」第23條: ，撤銷違規計畫主持人執行中計畫補助，追回已撥付補助款；停止計畫主持人及其相關人: 員申請及執行農委會或所屬機關（構）計畫1到10年；情節重大者終身停止申請及執行計: 畫，藉此強化防止品種外流。: 5.附註、心得、想法︰: 奇怪了: 當年國民黨執政時農業品種外流: 就總統要負責: 現在民進黨執政下農業品種外流: 那總統該不該"難道不用負責嗎?": 以後塔綠班還有啥臉說這種事?</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[新聞] 蔡總統會見麥卡錫 北京四機構發聲明反擊</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747110.A.891.html</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/3UcXebm2.新聞來源︰中央社3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※蔡總統會見麥卡錫 北京四機構發聲明反擊4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中央社記者呂佳蓉上海6日電）針對總統蔡英文與美國眾議院議長麥卡錫會面，中共中央台辦、中國外交部與國防部、全國人大外事委員會今天皆發表聲明譴責。中共中央台辦發言人的聲明表示，這是「民進黨當局」推動台美勾連、「倚美謀獨」的又一「挑釁」行徑，「我們予以強烈譴責」，將採取堅決措施懲戒「台獨」分裂勢力及其行徑，堅決維護國家主權和領土完整。中國外交部以未署名的發言人表示，此舉嚴重違反「一個中國原則」和中美三個聯合公報規定，嚴重損害中方主權和領土完整，向「台獨」分裂勢力發出嚴重錯誤信號。中方對此堅決反對，強烈譴責。聲明並重申「台灣問題是中國核心利益中的核心，是中美關係第一條不可跨越的紅線」。中國國防部以未署名的發言人表示，敦促美方停止粗暴干涉「中國內政」，停止美台官方往來和升級美台實質關係，停止虛化、掏空「一個中國原則」。中國人民解放軍堅守職責使命，時刻保持高度戒備，堅決捍衛國家主權和領土完整，堅決維護台海和平穩定。全國人大外事委員會的聲明則聲稱，全國人民代表大會制定實施的「反分裂國家法」對堅持一個中國原則、遏制「台獨」分裂、反對外部勢力干涉台灣問題等重大問題作出明確規定。「任何搞『以台制華』、支持縱容『台獨』分裂勢力的圖謀終將失敗，任何搞『挾洋謀獨』、破壞祖國統一的行徑終將受到法律的制裁。」蔡總統當地時間5日上午在雷根圖書館麥卡錫，兩人會後共同發表談話。蔡總統感謝美方堅定支持，讓台灣人民不孤單。她數次提及雷根，強調在面對這世代獨特的挑戰時，要謹記奠定台美堅實關係的原則，不忘雷根傳承的意志與教訓。（編輯：張淑伶）11204065.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※國台辦，外交部，中國人大外交小組跟中國國防部齊聲嗆聲耶ww從外交，內政跟軍事都在嗆這個會面，不過看這些部門有些怪怪的，到底他們對台灣的定義啥？又內政又國外的。對了，最近中美都沒有對話，不排除這招是激將法</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[討論] 獨派明天是喜迎馬英九還是去鬧場？</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747180.A.B51.html</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/iwHpbP1.jpghttps://i.imgur.com/iXkfF5c.jpghttps://i.imgur.com/CEc4gpU.jpg獨派高知識份子「許維智」教授伊細金醬a臺灣查撲仔，有Guts如果有台中北屯區的朋友可考慮下屆投許維智一票，突破2.21％維智維智維智～加油加油加油～明天終於是4月7日了獨派會喜迎馬英九呢？還是拿蛋扔馬英九呢？希望明天可以和平共處的喜迎馬英九回國讚讚https://i.imgur.com/mnKeYle.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[討論] 唯一支持郭台銘；拋棄侯友宜</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747184.A.2B6.html</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>我唯一支持郭台銘，徹底拋棄侯友宜台灣過去三任總統都是法律人，需要換一個商人總統，台灣需要一個有國際觀的總統唯有郭台銘能為台灣帶來新氣象侯友宜已經被馬英九認證是草包，侯還是乖乖回去做新北市長就好了!</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[黑特] 連在美國作秀的都能拿400美金</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747304.A.673.html</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>結果支那國內已經慘到有時薪9塊人民幣這種鬼數字出來了對了，這是愛支病最愛的旺中集團的報紙報的，別再崩潰狂吠了https://i.imgur.com/oUXsZnh.jpg看來慶豐帝真的一點都不在乎人礦的死活欸，寧願把錢拿去花在這種沒意義的事情上</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[討論] 准APEC特使朱立倫！！</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747394.A.E58.html</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>看垃圾國民黨這一陣子的騷操作，20年不用想再執政了啦猴猴只會跳針當NPC果凍不是黨員又沒人和趙金童、張校長、王聖人又太廢選不上至於憨導？還是洗洗睡吧不用想了，憨導如果真的出來選，賴神應該會爽到笑到內傷這個馬英狗也不用想了，出來絕對慘敗廢物柯屁也只有4%的票看來看去2024應該就是輸綠倫出來然後送頭賴神了輸綠倫的計謀應該就是選輸然後自願當賴的「APEC特使」代表賴神出席APEC峰會跟世界各國領袖握手交流、寒暄、喊芭樂拳搞不好朱還暗爽在心裡：「哼！只有老子握得到拜登布丁習維尼馬克宏金小胖的手，你蔡英文、賴清德還沒有這樣的機會呢！」APEC朱特使 是不是可以跟朱家後代子孫吹噓一輩子了？！</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 基隆試辦「70處騎樓合法停機車」！市長謝</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680747745.A.BD8.html</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>→  julianscorpi : 現在不就是妥協嗎，照你的觀點你不喜歡妥協嘛對，我不喜歡妥協...不喜歡也是得接受，那就是妥協然後現狀不代表妥協，因為根本沒有做什麼，我認為如果馬路真的小到不適合車輛通行，就不要開放車輛通行，例如有些市場，早上8-13是禁止車輛進入，只開放機車跟民眾走路，又或者在夜市及人潮區外圍建造停車場，進去請步行，這種才叫妥協，不去規劃則叫做擺爛。最後，試辦問題多，希望能越來越好，看到最後才知道新市長廢不廢（政黑點</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 中方出動小飛機盤旋「蔡麥會」上空 布條</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743036.A.0C3.html</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://i.imgur.com/8peAfvg.jpg這招54年前台獨份子就玩過了1969年威廉波特少棒冠軍賽台獨聯盟就雇用飛機把台灣獨立萬歲的字樣用飛機盤旋在球場上方導致台灣轉播單位瞬間沒有畫面可悲的是 台獨聯盟用簡體字</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[新聞] 藍營質疑為郭再開特例 恐重演悲劇  </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743104.A.792.html</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://bit.ly/40M2fKD2.新聞來源︰中國時報3.完整新聞標題藍營質疑為郭再開特例 恐重演悲劇4.完整新聞內容︰記者/周毓翔 、 張薷 、 黃敬文鴻海創辦人郭台銘5日宣布爭取列入國民黨2024總統徵召民調，且鞠躬8秒向過去辱罵國民黨「分贓腐朽」道歉，稱若民調輸新北市長侯友宜就會支持侯。對此，國民黨副祕書長謝衣?表示，郭想與侯保持友善關係共同合作，但郭不是黨員，列入徵召民調會有問題；有國民黨立委認為，若黨中央為郭開特例，恐有因人設事之嫌。謝衣?指出，徵召民調納入郭的第一個問題就是，若基於「郭台銘在黨內有支持者」，同樣在黨內有大批支持者的前高雄市長韓國瑜要不要一併納入？第二、若以「非綠陣營盟友」考量，前台北市長柯文哲是不是也要納入？這些都考驗黨中央及提名小組智慧。謝衣?認為，目前黨內最強母雞是侯友宜，從綠營整天炮火對準侯就知道，他們最怕的就是侯友宜出來選。國民黨立委林為洲也坦言，自己還是會支持侯友宜，因為侯具備穩定務實的特質，是能在2024大選中完成政黨輪替最有可能的人選。有藍委更私下直言，郭過去話講得那麼難聽，退黨時更口出惡言罵黨中央，這些都不是靠年輕氣盛、鞠躬道歉就可化解，且郭台銘過去從沒有參選過，有多少未爆彈無從得知。前國民黨祕書長李乾龍也說，郭既非黨員，又要黨主席徵召，等於是給朱立倫出難題，質疑「難道要透過中常會頒一個榮譽黨員給他嗎？再玩一次這樣的把戲」，即便國民黨吞下這口氣，也會被民進黨當笑話看。至於是否希望侯友宜盡快表態？國民黨立委李德維強調，黨中央接下來會和侯友宜見面，侯先前也數度間接表態，這問題不大，且絕大多數國民黨立委或是黨內人士，也都認為侯友宜是最強母雞。另郭台銘稱民調輸將會支持侯友宜，但國民黨從未公開對外宣稱要以民調方式決定2024總統徵召人選，郭卻搶先為自己的民調拉票，也引發質疑。據了解，國民黨近日會進行內參民調，最晚5月中下旬完成，但國民黨發言人林家興強調，目前黨內沒有對內參民調的討論。新北市議員葉元之則提醒郭台銘，勿重蹈4年前願賭不服輸所丟下的爛攤子，還要求郭既然說出輸了民調後會全力支持侯友宜，就要說到做到。國民黨表示，未來黨中央將竭盡所能團結全民，凝聚所有支持中華民國、支持台灣安全繁榮、支持區域和平的力量，創造台灣遠離戰爭的美好未來。5.附註、心得、想法︰這篇大概是中時紙本版最明顯的暗示了連記者也是中時的專業政治線記者看到KMT這樣不知道賴清德跟柯文哲現在在想什麼</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Re: [討論] 郭董出線 柯粉最氣</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743311.A.909.html</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>原po是真不懂啊柯文哲是很特別的存在，特別是他的支持者很難移轉給其他人，不論是民眾黨候選人，甚至是黃珊珊都沒辦法全吃柯文哲的票源就更不用說國董了郭選不選根本不是柯文哲還是民眾黨煩惱的問題，那根本是國民黨的問題民眾黨跟柯文哲本來就不可能把手中的總統參選資格禮讓給郭董，郭願意協助（就像2020）最好，不願意也真的不太影響大局郭執意要選，煩惱的是國民黨跟侯侯作歹誌。黨籍問題怎麼解決？民調怎麼做？怎麼處理徵召？這中間太多可以操控的貓膩之處，而侯、郭、朱，甚至深藍、韓粉之間，有這麼大的互信嗎？總之，郭昨天這一手，基本就把原本快速徵召侯侯作歹誌的門檻又升高了，基本上回到之前混沌的狀態</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[討論] 臺灣總統蔡英文vs馬這個先生</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743372.A.899.html</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>一個是CNN認證的「臺灣總統」在美國見到國會議長 aka.總統第二順位繼承人執政6年多施政滿意度超過50%633達標、股市上萬點、基本工資屢屢調升 反觀馬英狗22K、633跳票、差點讓武警駐台一個便當吃不夠可以吃兩個失業率屢創新高全世界獨創的「無薪假」執政8年滿意度剩9.2%最近去對岸跪舔當奴才堂堂前總統被矮化變成「馬先生」還沾沾自喜前總統變成「這個」那個舔得那麼用力還只見到國台辦的二狗子，還不是最大的狗，馬狗就卑躬屈膝只差沒舔腳趾頭 還對放毒的敵人道歉說抱歉我們的政府造成你們的困擾中媒說兩岸統一是你最大的心願結果你一個屁也不敢放 孰優孰劣  高下立判！我幹你娘廢物垃圾賣國賊馬英狗！廢物垃圾國民黨！還有比廢物垃圾還不如的民眾黨跟柯狗哲！一起包一包滾出臺灣啦！</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[討論] 蔡總統與麥卡錫共同談話內容</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743427.A.CB9.html</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://reurl.cc/gZxAGL【「民主夥伴共榮之旅」#蔡英文總統 發表公開聲明】英文致詞中譯文內容如下很高興有機會再次造訪雷根總統圖書館，與麥卡錫議長及各位國會議員見面。我要感謝麥卡錫議長的盛情接待，也感謝他邀請跨黨派的國會領袖今天在百忙之中撥冗與會。各位的參與及堅定支持讓台灣人民了解到，我們沒有被孤立，也並不孤單。這裡可以說是我們最佳的會面地點，給我們機會向這位備受尊敬的美國總統與世界領袖致敬。在外交領域經歷重大變動的年代，雷根總統扮演關鍵角色，與美國國會通力合作，保護並鞏固台美關係。雷根總統1982年的六項保證，以及國會通過的重要法案《台灣關係法》為這段已逾四十年歷史的強健特殊夥伴關係奠定基礎。在此期間，我們維護和平，促進繁榮，並見證台灣民主蓬勃發展。然而現在，我們所有人都明白，我們先前所維護的和平及努力打造的民主正遭遇前所未有的挑戰。在當下這個民主受到威脅的世界中，讓自由的燈塔永存不滅，可以說是當務之急。雷根總統就曾說過「自由並不是代代相傳的，每個世代都必須不斷捍衛及爭取自由。」今早與國會領袖會面時，我重申台灣維護和平現狀的決心，讓台灣的人民繼續在自由開放的社會中生活。會議中，我也提及雷根總統的信念，那就是「要維護和平，必須先強大自己」。而且，只要我們團結一心，必定更強大。我也代表台灣人民向美國國會跨黨派的議員致謝，感謝他們提出讓台灣及台美關係更加堅強的各項法案。這些法案協助強化台灣自我防衛的能力、建立台美之間強健的經貿連結，並支持台灣有意義的國際參與，均有助在印太區域捍衛我們的共同利益、和平及繁榮。台灣致力成為世界的可靠夥伴，區域內穩定的基石，以及良善的力量。論語有言「德不孤，必有鄰」。在台灣努力捍衛現有生活方式的同時，我們非常感謝美國的支持。在面對這個世代獨特的挑戰時，我們要謹記奠定台美堅實關係的原則，不忘雷根總統傳承的意志與教訓。再次感謝麥卡錫議長的溫暖接待及友誼。謝謝所有美國國會的友人一直和台灣站在一起。【#麥卡錫議長 公開講話】英文逐字及中譯文內容如下今天我很榮幸與蔡總統在過境美國的時候會面，雙方在雷根總統圖書館會面尤其再適合不過的場所。Today, I am honored to meet with Taiwan President Tsai Ing-wen as she transits the United States. Fittingly, our discussion took place here at the Ronald Reagan Presidential Library.在雷根總統圖書館，有無數的展品記錄著雷根總統的愛國情操、對民主的信仰，以及對和平及自由價值的堅定承諾。Here at his library, there are countless exhibits that capture President Reagan’s patriotic spirit, his belief in democracy, and commitment to the ideas of peace and freedom.雷根總統奉行的這些價值，長久以來就是美國與台灣人民維持友誼的基石，而這些價值在當前的重要性更甚以往。Those values have always served as the bedrock of our friendship with the people of Taiwan. And they are more important now than ever before.我相信當前台美關係是我此生中最強健的時刻，而蔡總統無疑是這段強健關係的重要推手。I believe our bond is stronger now than at any time of point in my lifetime. And of course, President Tsai is a great champion of that bond.台灣是成功的民主、繁榮的經濟，以及在全球衛生及科學領域享有領導地位。無論是台美間深厚的商務往來、強勁的</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[討論] 藍白仔今天是不是很憂鬱？</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743527.A.192.html</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>五天連假結束要繼續當社畜了本以為美國冷落蔡英文 上週還嬉皮笑臉嘲諷結果今天麥卡錫議長親自接待還稱呼Taiwan president臉被打成豬頭氣到發抖會不會剛收假就很憂鬱啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[討論] 果凍怎麼每次選總統都低聲下氣</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743530.A.5BC.html</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>果凍近兩屆都想掛KMT選總統，而且都很低聲下氣，2019哀兵政策跪求憨導，就算郭大哥拜託你了2023鞠躬道歉，承認當年的任性，跪求黨內徵招難道果凍在公司也都對跑步哥們鞠躬，跪求他們好好工作？難道果凍在富士康工廠，也客客氣氣跪求員工好好作業？怎麼果凍每次選總統都對國民黨這麼低聲下氣啊？o’_’o</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[黑特] 挺郭董啦</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743588.A.622.html</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[討論] 裴洛西讚揚麥卡錫與蔡英文</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680743796.A.194.html</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>如題消息來源推特https://reurl.cc/pLoN9Q裴洛西阿嬤高齡80多歲了才剛卸任眾議院議長但仍然是議員這次麥卡錫議長與蔡英文的歷史性會面裴洛西也發表聲明讚揚重點如下1、麥卡錫的領導力促成此次會面2、兩黨的共同參與3、會面地點有其歷史性意義還在講麥卡錫只是在野黨的可以停止了美國兩大黨目前的「抗中共識」已經來到歷史高點等於美國要傾全國國力來搞中國了而且地點就選在「雷根總統圖書館」舉辦當年把蘇聯整個搞垮的辣個男人美國的目的很明顯「這次要把你中國大卸八塊了」嘻</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[討論] 這次訪美內容堪比「侯侯奏歹誌」</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744035.A.0F8.html</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>特定挑三立、自由兩家的報導來看先說結論沒有談妥任何經貿合作內容就是感謝、民主、團結靠北這不就侯侯奏歹誌翻版然後也沒開放記者發問我也是看總統府發言人講空話才知道這次的訪美內容期待越大 失望越大</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744367.A.737.html</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>很多八卦板的極端政治文章結果最後都被證明是塔綠班畜生反串引戰耶如果真的是支那畜生的文章其實文字脈絡就看得出來</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Re: [討論] 這次訪美內容堪比「侯侯奏歹誌」</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744385.A.99C.html</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>這次沒被順便賣菜就是賺了吧白嫖了議員照片又噁心了中國一把平常幹這種事沒賣你個幾億武器外加牛肉哪可能這麼輕易放你走?還是其實有沒講出來的?※ 引述《gve50714 (星黑氣噗噗)》之銘言：: 特定挑三立、自由兩家的報導來看: 先說結論: 沒有談妥任何經貿合作: 內容就是感謝、民主、團結: 靠北: 這不就侯侯奏歹誌翻版: 然後也沒開放記者發問: 我也是看總統府發言人講空話才知道這次的訪美內容: 期待越大 失望越大:</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[討論] 藍綠夾殺下 白拿不出東西</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744547.A.E66.html</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>出乎意料蔡英文這趟沒烙賽還跟美國官員共進早餐美國在稱謂上也是很大方的給尊重綠營太有面子了而馬英九的華獨言論就用說了泛藍基本上都同意畢竟憲法目前就是這個樣子看得出來 藍綠都有展現強勁底氣可惜民眾黨在這方面很弱沒有執政過 根本沒有任何外交管道阿北！！完蛋啦！怎辦？</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Re: [討論] 低卡時事版風向</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744792.A.3E7.html</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>低卡時事版不就是四趴的大本營嗎？他們反民進黨早就反到失智的程度就連韓國挺台的言論也會被他們出征啊之所以特別提南韓是因為國民黨基本上是不會反南韓的那既然國民黨不太可能對南韓那麼失禮看來看去誰在搞事不是很明顯了嗎？蠻特別的啦我本來以為國民黨已經夠讓人討厭了可是實際上接觸下來反而四趴黨的人更沒品反美、反日、就連南韓也要鬥爭呵呵呵※ 引述《mr62207 (just)》之銘言：: 不知道是不是刻意為之，低卡的時事版一面倒反美，認為我們現任總統訪美是跪舔，卸任: 統在中共宣揚一中是宣示主權。: 重點是新聞比例完全不同，馬訪陸的新聞評論一堆，蔡訪美的幾乎沒有。: 中性報導幾乎沒有，看到都覺得是不是低卡被特定政黨網軍攻陷了….: 真的很特別，卸任總統聲量比現任高。: 唯一支持馬英九搭配韓國瑜參選下任總統，光復大陸，統一中國</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[討論] 柯 要怎樣扳回一城?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680744854.A.0C4.html</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>國、民兩党最近動作頻頻柯的聲量完全被壓過去如果不是會上ptt或是自己去關注柯動向的一般人基本上都快忘記柯了柯一直抱有一絲希望柯郭配就是等國民党內卷郭被卡出局或許柯郭配不無可能誰知道郭召開了記者會先表態要代表國民党參選總統而且還說如果党內初選輸給猴猴作待誌就會全力支持猴這聲明基本上可以終結柯郭配的可能了如今柯在沒有聲量被兩大党孤立下 該如何才能扳回一城?柯還能跟誰配?跟peggy配可以拉點婦女票嗎?那畫面很美我很期待☺</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[黑特] 藍白：只是個議員 在那叫什麼</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745232.A.C86.html</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>可是藍白我今天看外媒報導紐約時報華爾街日報都稱麥卡錫是斷交以來台灣總統在美國見到的最高層級人物耶紐約時報還順便提了一下他的接班序位怎麼跟你們說的只是個不重要的咖接班序位只是台灣自己自創在自嗨的美國沒人鳥都不一樣呢？我們該聽你們這些整天上網的還是看外媒的的報導啊？嘻嘻</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[討論] 郭台銘藍營定海神針，改革藍營、改革台灣</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745256.A.531.html</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>目前國民黨內盤根交錯、分裂不止沒有人敢先開口的情況下，昨天郭董公開表態後目前藍營初選應該就侯、郭、朱了沒有韓草包，只有韓粉在那邊起癲照韓國瑜以往作風，真要選有可能到現在還沒有聲音嗎朱從換柱事件之後，聲望一覺不振朱出來選那年得票率31.04%，慘到爆不是宋伯伯出來選，所以被分票的問題馬連任時，宋伯也有出來選，但馬得票率51.6%妥妥連任泛藍討厭很多討厭朱，決策力不夠當初要出來選又GGYY不肯跳出來一定要假戲真作才換柱，陣前易將，兵家大忌太傷了20年後來又要跳出來，結果風向跑去韓導那邊前面搞了侯友宜、又搞了選策會一波被深藍粉ㄍㄧㄠˇ爆結論就是朱，沒戲。侯始終不表態，期待黃袍加身，被民意拱上去結果哭啊民調一直掉，在各論壇被罵爆就算這樣也只能不斷的喊團結喊侯侯做代誌因為新北市長任期還有三年半現在表態喊下去的話，就等於直接用「專心市政」「為國為民」狠狠打臉自己絕不表態的如意算盤：國民黨沒人，大家都拜託我出來選，我只好勉為其難地上了，我不是「自願」落跑的，是黨需要我，我要團結那南投補選怎麼不團結？挺韓的時候怎麼不團結？因為這隻角色本身的被動是風向雞侯只會在對他有利的「黨需要我」的時候，才會團結郭這次來勢洶洶用幾十年證明他做得到國際溝通，訪美也見得到蔡英文見不到的人在全世界都在扭扭捏捏，一再拖延藍粉動搖火速回台灣不只直接表態，還展現大格局誠意道歉國民黨哪個人會道歉？永遠都是別人的陰謀此舉不只圈回很多藍粉，定海神針的人設也就此成真在年輕人面對：民進黨執政萬物齊漲、民不聊生，黑金不斷發生，只能用打台灣牌持續苦撐國民黨都一群不知變通，永遠都那幾個的臭老人在排列組合，新一代年輕人根本上不了位郭直接把藍綠抗爭放一邊連深藍最愛打的疑美論都放下不管這些鬥爭或意識形態，把格局拉高到整個台灣需要的是經濟與未來沒有經濟怎麼會有人才？沒有人才怎麼會有未來？不能讓台灣一直處於被動，我們要自己有實力才有籌碼談判有別於一直吵鬧藍綠的兩黨，郭董果斷道歉、霸氣提出策略要來改革台灣有別於一直派系老人政治的國民黨，郭提倡培養年輕人才、更鼓勵創業，這根本改革過去國民黨的保守老人思維，才有機會達到世代交替吧！郭的出現不只成為藍營的定海神針，不再是那幾個立委/市長/主席輪替上去，更代表國民黨籍將被改革、台灣有機會得救！</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[討論] 最後還是要靠韓總</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745292.A.117.html</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>賴副民調：目前最高美國：應該支持黨內：已經改革兩岸：務實的台獨工作者，重點是務實不是台獨，支持ROC反觀侯侯：沒料，只會廢話郭董：事業被老共把持、鴻海威斯康辛州計畫囧掉，得罪美國人柯Ｐ：出來亂的，不分區能多上幾個就偷笑了盧媽：感覺這次來不及，下次有點機會朱主席：民調一成不變其他：亞中校長、少康哥之類，市場太窄最後，還是要靠韓..........</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[討論] 怎麼大家好像覺得郭董穩了</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745679.A.B0B.html</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>欸不是阿郭董不是道歉而已嗎？道歉應該只是表明說我還是國民黨的怎麼變成就表示郭董要出來選了？就算郭董願意出來國民黨願意讓郭董出來嗎？弄得好像是已經出線了一樣是有人在推波助瀾嗎不然看放出來的訊息就很平常啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[討論] 沈富雄：因國民黨操作侯友宜勝算下降</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680745684.A.101.html</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>智商超過柯文哲的洗腎權威沈富雄今天上黃暐瀚廣播，他對原本對侯友宜勝選很有信心，但看了國民黨最近這一波的操作之後，也覺得侯友宜勝率下修了。郭台銘參選、道歉、喊唯一支持都會稀釋掉侯友宜的民調支持度。（這段不是廢話嗎？）https://www.youtube.com/live/eSuq-RH-wz8?feature=share</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[新聞] 台美關係強 麥卡錫讚蔡英文是推手</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680738426.A.43A.html</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/40I9LGr2.新聞來源︰今日新聞3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※台美關係強 麥卡錫讚蔡英文是推手4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※總統蔡英文美西時間5日上午10時赴洛杉磯雷根圖書館，與美國眾議院議長麥卡錫進行閉門會談，雙方於會談結束後，於12時一同發表公開談話。麥卡錫表示，現今的台美關係是他此生最強健的時刻，而蔡英文是這段關係的重要推手；台美人民的友誼對自由世界至關重要，美國將會信守義務，並且重申對雙方共享價值的承諾，有蔡英文的參與，台美關係只會更加堅</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[討論] 低卡時事版風向</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680738593.A.DF3.html</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>不知道是不是刻意為之，低卡的時事版一面倒反美，認為我們現任總統訪美是跪舔，卸任總統在中共宣揚一中是宣示主權。重點是新聞比例完全不同，馬訪陸的新聞評論一堆，蔡訪美的幾乎沒有。中性報導幾乎沒有，看到都覺得是不是低卡被特定政黨網軍攻陷了….真的很特別，卸任總統聲量比現任高。唯一支持馬英九搭配韓國瑜參選下任總統，光復大陸，統一中國</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[新聞] 5縣市鳳梨採收撞期 果農叫苦、高雄7成棄</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680738620.A.91E.html</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://0rz.tw/bXpa32.新聞來源︰聯合新聞網3.完整新聞標題5縣市鳳梨採收撞期 果農叫苦、高雄7成棄收4.完整新聞內容︰清明節過後進入鳳梨盛產季，不過原本應該由屏東開始向北採收的鳳梨季，卻因天候影響，部分鳳梨早熟、裂果，再加上部分農友提早催花，高屏、台南、雲嘉鳳梨採收全撞在一起，鳳梨量多價跌，外銷也不如預期，高雄農民抱怨，雇工採收不敷成本，約七成棄收；屏東農民則哀嘆「十個鳳梨農九個虧」。屏東縣鳳梨產量占全台三成，是第一大產區，果農卻多面露愁容。果農說，大陸前年二月底禁止台灣鳳梨輸入後，外銷產地價多在每台斤十元的成本價區間徘徊，官方說要協助開拓大陸以外的國外市場，但集中在日本，日本對規格限制要求高，銷日鳳梨七至八成被退轉內銷，造成市場量大價跌的惡性循環，加上和高雄、台南產區產季撞期，果農咬牙苦撐，沒人笑得出來。潮州鎮陳姓果農說，之前輸陸只要一天，現在輸日要七天，兩國對鳳梨規格要求和運輸成本不同，扣掉包裝、運費，產地去年就已跌破成本價。實際上，過去因鳳梨銷陸的門檻相對低，一年出口到大陸的外銷量逼近五萬公噸，不過根據農委會統計，今年二月鳳梨外銷起跑至四月五日止，鳳梨出口量僅八○四一公噸，相較去年同期減少一九八二公噸，其中日本占九成，顯示今年日本消費市場上，交易並不熱絡。「少了大陸市場，其他外銷市場根本吃不下」，台南關廟鳳梨大盤商吳忠哲今裝櫃約一萬二千台斤鳳梨銷往香港。做這行廿多年的他苦笑說，這是今年外銷第一櫃，每台斤批發價約十元，對比大陸「禁台令」前，每台斤約十六、十七元的行情，「這恐怕是近十年最辛苦的一年」。高雄大樹區是鳳梨重要產地，果農尤竣批，鳳梨價格雪崩式下挫，關鍵是台南以北等產地提早催花，口感偏酸欠佳打壞市場，價格回不去，市場極亂，加上裂果率至少三成，外銷不出去，估算今年產季頂多只能回收兩成成本。果農林益說，「只有找到外銷出路，才能救鳳梨」。農糧署表示，已與全聯、家樂福、大潤發、統一超商、全家便利超商、大苑子、台北希望廣場、農良直賣所及企業團購平台等九大通路合作，推出國產鳳梨促銷，方便消費者選購。5.附註、心得、想法︰因天候的關係產期撞在一起我可以理解但之前農委會吹得震天價響的鳳梨銷往日本倍增的新聞看來又是一個大內宣看看史上最爛農委會主委又要出啥招如果又是國軍吃這招真的招式太老了</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[討論] 侯友宜到底在講什麼啦？</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680738857.A.DB1.html</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>侯友宜ㄧ直到昨天我還沒聽懂他要講什麼人家問他郭台銘宣布參選他回侯受訪時表示，自己這一生最重要的是守護中華民國，愛台灣人民，讓大家都能平安，這是他不變的初心，所以面對每一個人，都用大家團結在一起，努力的顧國家、顧台灣這塊土地，讓這塊土地越來越好，認為這也是每一個人的心願。幹你娘還是一樣在寫國小作文真跟發大財ㄧ個樣真的打算把大家當智障耍嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[新聞] 芒果鳳梨品種疑流入中國大陸 農委會推修</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739281.A.522.html</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://0rz.tw/tUi2e2.新聞來源︰雅虎新聞網3.完整新聞標題芒果鳳梨品種疑流入中國大陸 農委會推修法課刑責圍堵4.完整新聞內容︰繼金鑽鳳梨後，芒果鳳梨也出現在中國大陸栽種。農委會副主委陳駿季今天說，有冠芽就能種，難查為何流出，已確保外銷日本商機，並提案修法，違法輸出種苗處3年以下有期徒刑等刑責，盼速通過。「台農23號-芒果鳳梨」果實呈短圓筒形，果肉黃色、帶有芒果香氣且肉質柔軟，少有纖維、糖酸度均高且耐儲藏。（資料照／農委會農業試驗所提供）台灣作物品種持續發生流入中國大陸栽種、產銷，損及台灣出口商機事件。過去綠金毛豆亦是，險因此奪去台灣出口日本商機，農委會持續研發新品種、強化產銷管理而守住日本市場市占率，確保有綠金美名的毛豆商機。鳳梨方面，繼金鑽鳳梨（台農17號）後，如今推廣栽種的新品種芒果鳳梨（台農23號）也發生相同事件。陳駿季今天接受電訪時指出，農委會上週掌握中國大陸一個媒體相關報導，不過難以要求官方提出授權品種的文件證明，文中聲稱由台灣引進種植、由農委會農試所培育，「也不怕你知道」，真的是「土匪」，且鳳梨跟蘭花很像，有芽就能栽種，很難查怎麼流出。他說明，鳳梨台農23號於民國107年取得國內植物品種權，108年審議通過採非專屬授權，期限5年，109年迄今已授權4家種苗業者及3家農戶，但未授權境外生產，目前國內推廣栽種約20公頃。他強調，為保障外銷商機，在日本有申請品種權，而品種權為屬地主義，中國大陸未來不能輸銷日本，只能在中國大陸境內自己種、自己賣，藉此圍堵；不過目前也無法解決去輸銷中國大陸的問題，只是客觀角度來說，台灣鳳梨目前也不能輸入中國大陸，而農委會當然仍希望相關議題能推進符合國際規範，開放、恢復貿易。陳駿季指出，農委會也根據國貿局相關稅則號列規範，發布禁止輸出品項累計15項，其中110年修正發布「植物種苗出口同意文件核發要點」第2點新增9項，包含鳳梨在內，要輸出這些作物的植物種苗，必須取得農委會同意文件，否則會被以走私、挾帶等案件處理。其他8項為番荔枝、鳳梨釋迦、紅龍果、芒果、蓮霧、楊桃、荔枝、棗。陳駿季表示，為了防止品種外流，行政院今年3月16日通過「植物品種及種苗法」第53條之1修法並送立法院審議，將原行政罰改為刑責入法，增訂農委會得公告禁止輸出入種苗、種苗的收穫物或其直接加工物，違者處3年以下有期徒刑、拘役，科或併科新台幣60萬元以上、300萬元以下罰金，違法之物沒收、所屬法人連帶課以罰金；盼立法院儘速三讀通過。另外，農委會110年5月26日也修正發布「科學技術研究發展成果歸屬及運用辦法」第23條，撤銷違規計畫主持人執行中計畫補助，追回已撥付補助款；停止計畫主持人及其相關人員申請及執行農委會或所屬機關（構）計畫1到10年；情節重大者終身停止申請及執行計畫，藉此強化防止品種外流。5.附註、心得、想法︰奇怪了當年國民黨執政時農業品種外流就總統要負責現在民進黨執政下農業品種外流那總統該不該"難道不用負責嗎?"以後塔綠班還有啥臉說這種事?</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[討論] 柯文哲還確定訪美21天嗎？</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739562.A.1D3.html</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>柯文哲看到蔡英文訪美這樣應該和藍白心目中所想的不一樣確定還要訪美21天嗎？別去了吧馬先生在中國也算另類風光柯的三角形要怎畫會不會比郭董還慘？</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Re: [討論] 幫大家複習一下馬英九的外交成績</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739578.A.BDC.html</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>※ 引述 《s142857 (s142857)》 之銘言：換我來幫你復習一下哪些是馬英九的成績: 幫大家複習一下馬英九的外交成績：: 　: 1。兩岸ECFA+兩岸很多條協議是馬的功勞，框架早收清單通過，但主力的服貿貨貿現在躺在立法院，為什麼去翻下太陽花歷史: 2。台美免簽證是馬的功勞，談了2年: 3。台美連續3年的tifa會議這個從1994年就簽訂開始了不定期會議，為什麼到2016年會斷？不就美國在陳水扁任內就被逼開放美牛豬，結果只開放一些，馬英九也被逼本來要全開，結果朝野兩黨共同杯葛，最後也只妥協開放美牛，美國就在2016年終止會議，接下來繼續逼蔡英文: 4。美國對台軍售創新高斷交後對台軍售最高是川普任內11次共183.3億，遠超過歐巴馬時代，川普在任時台灣總統叫蔡英文，還沒算拜登現在進行式…: 5。美國國會支持台灣加入國際民航組織、國際刑警組織，歐巴馬簽署你說的是歐巴馬國會1151號決議案對吧，結果最後中國出手，變成只是主席的特邀貴賓，而不是觀察員，這事當時台灣整個媒體就在轟馬英九變成中國貴賓狗了，參見：https://bit.ly/3K6w0hShttps://bit.ly/3Uh5zL9: 6。台日投資協議馬的功勞無誤，談了1年，中國沒擋: 7。台日漁業協議這個從1996年就開始談了，談了17年一直沒簽成就是因為釣魚台的主權爭議，2008年還發生海釣船事件，馬政府強烈宣示主權，可是在2013年可以簽台日漁業協議，想也知道做出了讓步……: 8。台星fta: 9。台紐fta這兩個也是2009年跟中國啟動ECFA後，老共沒擋給的禮物，那看看其他總統在中國壓力下簽了哪些……扁：巴拿馬、瓜地馬拉、薩爾瓦多、宏都拉斯蔡：貝里斯、馬紹爾群島、史瓦帝尼、巴拉圭(正在談的有美國倡議、印度FTA、跟CPTPP)好吧，你可以酸都是邦交國小國家，但也不是完全沒進度: 10。連續8年的wha同上第5條，被批中國的貴賓狗: 11。加入國際民航組織同上5，被批中國的貴賓狗，好笑的是在馬任內最後二年，ICAO停止了對台灣的邀請: 12。加入聯合國氣候高峰會不是馬的政績，這個從1995年開始，台灣就以NGO的名義參加到現在: 13。任內僅斷交一國宏都拉斯不是自爆了，在馬英九任內就要斷交，是中國回絕，理由是馬英九很親中，不想給他困擾: 14。免簽增加110國溫習一下當初馬辦發言人李正皓被ptt鄉民洗臉的事件https://bit.ly/3zzkg2z　其他我就不評論了，畢竟馬英九這次去中國，敢講出中華民國、台灣總統，我就已經覺得他很勇敢勒虎鬚了，算是大加分</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739709.A.1F5.html</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>八卦版有一次我覺得最驚訝的事情是有一次有個德國跟猶太人的新聞我居然在下面推文看到有人說猶太人二戰被屠殺是因為他們一戰後欺負德國人的關係所以活該而且還沒有人噓這推文雖然不是主流意見，但類似的推文有好幾則我想平常中國欺負台灣八卦版說因為台灣不乖乖聽話被打活該，我算了八卦版說烏克蘭被俄羅斯進攻是因為烏克蘭不乖乖聽話被打活該，我算了但不論猶太人曾經做過什麼，一般人都不太可能會去認同納粹屠殺猶太人這件事，至少在民主國家是如此但也因為這則新聞讓我可以確定八卦版真的有中國網軍潛伏在裡面，因為只有在中國的論壇、YouTube 留言、yahoo留言裡面才會出現這種言論</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 馬英九：民進黨即使抗議 也不敢貿然廢ECF</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739758.A.7FF.html</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>: 推 indium111: 兩國簽訂的合約，台灣是要怎麼片面毀   125.231.138.157 04/06 07:05: → indium111: 約？ 太陽花要即時擋下馬英九繼續搞服  125.231.138.157 04/06 07:05: → indium111: 貿不是沒有道理的                     125.231.138.157 04/06 07:05: → mirroshadow: 愛講不終止了，因為他們的思維就跟中 122.118.124.155 04/06 07:12: → mirroshadow: 國主子一樣嘛                       122.118.124.155 04/06 07:12: 推 cfetan: ECFA認為不能單方提出終止，板上是在裝呆     39.10.41.169 04/06 07:13: → cfetan: ，還是跟憨                                 39.10.41.169 04/06 07:13根據 ECFA官方網站的資料https://www.ecfa.org.tw/ShowFAQ.aspx?id=92&amp;strtype=-1&amp;nid=35一、 根據ECFA協議文本第16條終止條款載明：「一方終止本協議應以書面通知另一方。雙方應在終止通知發出之日起30日內開始協商。如協商未能達成一致，則本協議自通知一方發出終止通知之日起第180日終止」，意即終止可以書面的方式通知，而被通知方要求協商，通知方不得拒絕。惟通知方倘決意終止協議，即便協商未獲共識，發出終止通知之日起180天，協議即失效。二、 故未來倘中國大陸未善意履行兩岸經濟協議，經政府評估後覺得有必要，即可以主動終止，不須對方同意，此與國際上相關協議「終止條款」規定之精神一致。然該文卻以因須先行協商而不能任意終止，指稱終止條款出現變數，實不瞭解國際經貿規範，旨在意圖誤導讀者，有失新聞專業。當初ECFA協議就有終止條款,台灣要主動終止是可以辦到的就發個書面聲明說我們想終止就好啊如果阿共不想終止 要跟你協商 也可以 看他們想讓利多少維持這個協議但協商不成 只能拖延180天 只要台灣不想續約 180天後就ECFA失效了DPP政府不是宣稱是阿共比較需要這個協議嗎?那好啊 就發個書面通知說我們想終止看阿共會不會急著跟你協商,拜託你不要終止啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[新聞] 壹蘋民調｜7成網友挺郭董代表藍軍選總統　「侯侯做代誌」僅</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680739871.A.C06.html</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://tw.nextapple.com/politics/20230405/02757296343A6ACC74D361415362B8692.新聞來源︰壹蘋3.完整新聞標題壹蘋民調｜7成網友挺郭董代表藍軍選總統　「侯侯做代誌」僅獲2成支持4.完整新聞內容︰【綜合報導】2024大選民進黨已確定派副總統賴清德角逐總統大位，但國民黨目前人選未定，被視為藍營最強母雞的侯友宜則遲未表態，且民調不斷下滑。鴻海創辦人郭台銘今結束美國「科技經濟開拓之旅」，返台在機場正式表態爭取國民黨2024總統人選提名，希望能和賴清德來場君子之爭，但他也強調，若新北市長侯友宜的民調高過他，國民黨決定徵召侯，他也願全力支持侯友宜，助國民黨全力勝選；侯友宜則回應，這一生最重要的是守護中華民國，同樣熱愛著台灣人民，大家都能平安，是他不變的初心。https://i.imgur.com/hdPC4Yq.jpg《壹蘋新聞網》舉辦線上投票，請問你支持郭台銘還是侯友宜代表國民黨參選總統？投票結果如下：總投票人數：1187郭台銘：859(72.4%)侯友宜：242(20.4%)沒意見：86(7.2)5.附註、心得、想法︰雖然個人認為郭跟侯 郭比較適合選  與蘋果的民調結果一樣但蘋果的讀者偏綠從這結果可以解讀出來 綠營選民還是覺得郭比較好打昨天尚義夫也有同樣結論朱最好打 郭次之 侯最難打不過沒一個可以跟賴打</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[黑特] 今天這個場合若換成KMT總統</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680740112.A.935.html</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>今天這種到美國跟政壇大咖會面後的記者會全程說英語算是基本假設未來國民黨真的執政了朱主席：感覺最有總統樣，講英文也不成問題，可以順順的過去郭董：霸氣大老闆，雖然不知道郭董英文說得怎樣，不過常常在跟外國客戶接觸，應該不會太差？侯市長：真的完全不能想像他能出席這種場合，沒有扮相，還有語言溝通的障礙，如果是他的話，大概只能講中文，旁邊再安排一個翻譯人員了</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[黑特] 九二共識不就是當年辜汪會談一個中國嗎?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680740664.A.FEB.html</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>【笑一堆噓的只能狗嘯天月只有還在就二共識和、被習近平怎樣，  笑DPP到對岸就是墊墊不敢講的咖!】不是幫馬講話!但一個中國各自表述!原本就是一個中國框架!九二共識不就是當初辜汪會談後的維持現狀後搞出來的東西嗎?現在DPP狂打九二共識說馬中了統戰說出對岸想要的一個中國概念現在就是在玩偷換概念嗎?辜汪會談、九二共識不就是當年最後搞出來的【一個中國】嗎?現在是怎樣! 大玩偷換概念當別人都不讀書喔!最好笑的是【國統綱領】還掛在那邊沒動!中華民國憲法也明文寫在那!結果高喊華獨或獨派擁護中華民國台灣還吃著中華民國憲法和國統綱領的框架!然還痴痴地笑人家被統戰!高喊華獨和台獨的不解決【中華民國憲法】和【國統綱領】的問題難道你們實際是擁護這兩個東西的?※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[新聞] 郭台銘爭取國民黨總統提名 賴系子弟兵：</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680741162.A.767.html</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://news.ltn.com.tw/news/politics/breakingnews/42616222.新聞來源︰自由時報3.完整新聞標題郭台銘爭取國民黨總統提名 賴系子弟兵：郭不是藍營最大公約數4.完整新聞內容︰2023/04/05 20:20〔記者洪瑞琴／台南報導〕鴻海集團創辦人郭台銘今（5）日表態爭取國民黨總統提名；對此，「信賴台灣」連線成員的台南市議會民進黨團幹事長蔡筱薇強調，端看國民黨的民調玩法，就知道郭台銘依舊不是國民黨的「最大公約數」。蔡筱薇表示，國民黨的中常會通過採行徵召的同時，就算已經確定徵召辦法，雖然表面上是採用民調數據決定最強人選，但至於要採用哪幾家民調數據，何時進行民調作業，以及民調題目等具體遊戲規則內容，外界卻不得而知，未來更不會再提報中常會通過徵召辦法與作業時程。蔡筱薇分析，國民黨的聲明非常簡單明瞭，就是「民調純屬內部參考，並不會公開 」，因為國民黨的總統候選人是要藍營大老們喬出來的，並非民調所產出的。蔡筱薇表示，大約1個月前，柯文哲面對是否與郭台銘合作的議題，曾講出會團結一切可團結力量，如今柯已確定會參選2024總統大選，而郭台銘今天的舉動也宣告「藍白合作」正式破局。蔡筱薇說，「頭都洗落去矣，無剃袂使得（台語）」（頭都洗了，非剃不可，意即難再半途後悔），不禁要佩服郭台銘，面對可能內定的民調結果，依舊有勇氣踩進這個圈子，只可惜郭台銘低估國民黨的保守風氣，因為國民黨的聲明已經正式宣告郭台銘不是國民黨的「最大公約數」。蔡筱薇表示，站在客觀的立場，作為商人，「郭董」的生意頭腦絕對是台灣數一數二，然而作為政治人物，「郭台銘」的政治手腕或許真的還差一點。5.附註、心得、想法︰https://i.imgur.com/FmluOWb.jpghttps://i.imgur.com/drvRs8l.jpghttps://i.imgur.com/sW1VKID.jpg黨主席賴神龜起來不說話，立委林俊憲也不出來說話，而是派出台南市市議員出面評論。這次的攻擊主力，應該都是信賴功德會的成員出聲，英系成員去旁邊負責吃瓜看戲就好。高嘉瑜、何志偉和王世堅三位戰將，何時會代替賴神黨主席到第一線出擊呢？</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[討論] 國際談判專家跟麥卡錫談了什麼實質進展</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680741238.A.78F.html</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>號稱外交最強 國際談判專家剛榮獲全球領導人獎的蔡英文1.5個博士今天跟美國眾議院議長麥卡錫不是在國會，而是在圖書館舉行閉門會談 然後沒看到紅地毯請問國際談判專家蔡英文取得了什麼驚人的外交收穫呢？加入CPTPP？ 台美FTA？https://i.imgur.com/u0AKC5w.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Re: [討論] 馬英九再選總統有什麼困難？</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680741241.A.479.html</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>※ 引述《ben28 (ben)》之銘言：: 馬英九在對岸人氣這麼旺: 口才學識目前國民黨內一樣無人能比: 美國拜登這麼老都能當總統了: 馬英九再選總統有什麼困難的沒啊，再選總統不困難啊。他要選可能表個態，黨內喬一下就徵召了，畢竟國民黨最講輩分了。要選上比較困難就是了。因為他出來選，就算最會裝瞎的藍白仔也不得不把馬八年跟蔡八年拿來比較。</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Re: [討論] CNN: 台灣總統蔡英文</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680741305.A.E06.html</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>※ 引述《bightv42257 (Anderson)》之銘言：: 蔡英文果然跟美國的國會議長見面了。除了正式的新聞稿稱她為台灣總統之外，馬路新聞: 體 CNN 也直接稱她為台灣總統，也說她在一年之類連續跟兩位議長見面，這次尤其是在?: 國本土，算是創下紀錄。: 中國一直不想讓麥卡錫訪問台灣，沒想到卻讓蔡英文在美國本土跟他會面，應該是中國的: 策吧！: 台灣這幾年的外交蠻厲害的，低調，可是又完成了許多跟歐美國家的實質往來。難怪藍營: 吳釗燮越來越不爽，哈～～～: https://reurl.cc/Rv8Gzx滿好奇你說的實質往來，是有什麼實際可見的經濟或戰略優點嗎？想來想去，大概就軍售台灣，美國發大財，這一點有可能達成，其他呢？台積電，最終結局是美國一直把人才挖往美國，把台積電一點一點帶走，這樣算有實質益處？其他歐美國家我想不太到有啥實質利益是立陶宛紅酒、巧克力這類農產品？還是立陶宛產雞蛋？反觀中國的外交，大概都有明確的戰略目標目前最主要的就是打通中國跟俄國、中東、南美之間的油氣資源，目標是培養天然資源的國際計價方式多元化至少中國可以直接用人民幣跟他們做生意，以避免美元匯率造成的風險目前委內瑞拉、巴西、伊拉克、伊朗、阿聯酋、沙特、法國，都有跟中國用人民幣做油、氣的交易，未來基本不太需要看美元的臉色，這一點算是有達成實質的外交戰略利益我是不知道台灣未來跟印尼、澳洲會不會麻吉到真的穩固煤炭、天然氣進口貨源，但以目前的先得罪俄國的前提來看，大概以後只有越來越貴的油氣美國目前只能叫叫而已，自己的以色列兒子都快不聽他話了，也已經失去對中南美的控制。今年底之前台灣再多斷兩個中南美國家，都在正常偏差範圍內可以請問，除了台灣韭菜錢終於可以拿去買美國軍火，至少比浪費在蓋棒球場造型的垃圾掩埋場好一些之外，有什麼實質的跟歐美往來的商務或戰略利益嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Re: [黑特] 蔡英文把台語當選舉工具，台文覺青噤聲？</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680742030.A.1F2.html</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">※ 引述《serenitymice (海口健太郎)》之銘言：: 如題啦: 先說我有自學台文: 但也知道這圈子裏不少偏激覺青: 常常盯著別人的言行: 動不動就往語言歧視做文章: 像之前3Q硬要對外省出身的官員講台語: 一堆台文仔叫好: 還說覺得不妥的都是華語霸權的幫兇: 更有甚者: 還很愛罵國民黨候選人: 只會在選舉時講台語: 把台語當選舉工具，消費台語: 之前蔣萬安就被這麼說過: 這次蔡英文說離選舉太久，忘記台灣話了: 妥妥地把台語當成選舉工具: 如果名字遮起來: 都能想像台語覺青怎麼噴了：: 「華語至上的心態，覺得自己高高在上不屑講台語，只有選舉時為了騙票才紆尊降貴講一: 下台語。」: 結果呢: 這次的失言: 臉書幾個台文社團一片噤聲: 尤其是那個「對囡仔講台語」的臉書社團: 平常一堆愛講政治的覺青: 這次真的一個屁都不敢放: 笑死: </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[討論] 國民黨不開除巧芯，就別再說團結了。</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680742108.A.E94.html</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>之前顏清標出來說注意了 民進黨 你現在面對的是團結的國民黨結果是什麼？侯友宜民調爆炸巧芯 三天兩頭 跳樑小丑 背刺同黨立委要初選可以 走流程很好整天帶風向 搞霸凌好意思說團結？ 國民黨你他媽不動 巧芯誰來民調都爆炸啦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 馬英九：民進黨即使抗議 也不敢貿然廢ECF</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680742183.A.85F.html</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>與其在那嘴民進黨，怎麼不去廢ECFA，還不如罵當初CPTPP，沒早一些申請加入。ECFA也只有台灣和中國自己在玩，CPTPP已經有11個會員成員國了，中國還早台灣幾天，申請加入。如果美國爸爸，回心轉意回來CPTPP，這一次就有十幾國簽貿議協定了。我是沒看過所謂的知識藍啦，要罵民進黨也抓不到重點，多的比較是槍丟給民進黨，或開槍射自己的腳。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[黑特] 美國確定挺民進黨了吧</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680742890.A.305.html</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>美國不甩中國抗議 接見蔡英文代表中國國民黨正式宣告出局接下來是中國助選員表演的時間柯文哲是nobody連ChatGPT 都不認識他賴清德已經可以自行宣布當選了他一定可以帶領台灣打贏這場民主的聖戰</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[討論] 美國為什麼不跟共匪斷交？</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680726451.A.F47.html</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>美國這麼討厭中國一直對抗中國常常把中國妖魔化嗎幹嘛跟魔鬼建交當朋友？美國這麼喜歡台灣一直稱讚台灣常常說台灣多好多讚夭壽讚為什麼不跟台灣建交當朋友？嗚嗚我看不懂啊有人懂嗎？唯一可以解釋的就是美國在演戲而已吧</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680727467.A.725.html</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>※ 引述《hTCU11 (Squeeze)》之銘言：: ※ 引述《unclec40 (肥宅人森)》之銘言：: : 逛八卦版好幾年了: : 我的立場一直沒有變過: 立場沒有變過?: 這個帳號的使用者有沒有換過?: 《ＩＤ暱稱》unclec40 (肥宅人森)         《經濟狀況》普通: 《登入次數》1496 次 (同天內只計一次)    《有效文章》107 篇 (退:0): 《目前動態》不在站上                    《私人信箱》最近無新信件: 《上次上站》04/05/2023 23:51:36 Wed     《上次故鄉》223.136.80.71: https://i.imgur.com/0XSDCpM.png: 登入不到1500次: 2015年已在八卦推文: 四年多前unclec40在八卦版是這樣: https://i.imgur.com/dowGXC5.png: https://i.imgur.com/7pdosqA.png: 好了: 結果這帳號現在跑來政黑第一次發文: 開始罵被柯粉佔據的八卦版(這政黑綠粉說的): 我看了一下這帳號2016.02~2020.10還蠻常在八卦推文的: 不知道2020.11以後發生了什麼事 在八卦推文頻率明顯下降很多: 立場稱不上一致: 風格也不太像: : 在我的認知裡面: : 所謂的92共識就是蘇起杜撰的莫須有名詞: : 更別說所謂的共識: : 就是海峽兩岸彼此互相認為對方領土是自己的: : 我和你的看法不同，你和我的看法不同，剛好兩邊看法不同所形成的沒有共識的共識（: 幹到: : 底是在講三小）: : 當年八卦版對92共識嗤之以鼻: : 如今卻把92共識奉為瑰寶: : 我真的越看越不懂了: : 立場的轉變也太可怕: : 撇開小英不談: : 把老馬捧成這樣: : 這真的是八卦板嗎所以現在網軍再買帳號之前都沒在看之前帳號的發言就買了嗎？現在帳號有這麼難買喔不是都開放帳號申請了？買帳號之前先看看帳號的發文再買就不會這麼搞笑了吧？</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[公告] 每天一桶 iowarain 二-2 7天</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680727587.A.EF2.html</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680728344.A.554.html</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>奇怪 政黑選前不也一堆網軍嗎一個根本不重要的新竹洗5000篇請問哪邊的網軍操作更猛烈呢不要這麼雙標每天躲在政黑罵八卦先看看政黑這裡有多少民進黨的網軍吧最愛網軍的是民進黨啦幹你老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[討論] 馬英九 用三民主義統一中國</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680729728.A.424.html</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>看到新聞馬英九訪陸受到大陸民眾熱烈歡迎馬英九這樣子算不算是完成了蔣總統的遺願用三民主義統一了中國馬英九可以變成中華民國的偉人了?反觀小英真的反差太大了2024台灣人投票時一定要好好制裁小英的黨太可惡了</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[新聞] 馬英九獲大陸超高評價「功在民族」 傳這</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680730675.A.22F.html</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://reurl.cc/3ORE1L2.新聞來源︰yahoo!新聞 中天新聞網3.完整新聞標題：馬英九獲大陸超高評價「功在民族」 傳這件事挑戰侯友宜4.完整新聞內容︰中天新聞網 2023年4月5日 週三 下午4:31李奕緯／綜合報導前總統馬英九訪問大陸表現備受好評，藍營人士向媒體分析，馬英九代表的「九二共識、一中各表」路線，長期被國民黨主席朱立倫、新北市長侯友宜淡化，但馬英九被北京肯定「功在民族」，重新站回國民黨兩岸路線制高點。https://reurl.cc/Rv8Gdz馬英九（圖／翻攝馬英九臉書）根據《風傳媒》報導，熟悉兩岸事務的藍營人士分析，國台辦主任宋濤3月30日與馬英九會面，談話中以「利在兩岸、功在民族」8個字肯定馬英九，代表了北京高層討論過後對於如何看待馬英九的正式定調，超高評價算是藍營第一位，因此馬英九在大陸土地頻講中華民國、總統、憲法獲得容忍。報導指出，馬英九是「九二共識、一中各表」路線的捍衛者，但此路線在這幾年的國民黨主席江啟臣、朱立倫掙扎考量下，盡量淡化、少談成為主流觀點，包括侯友宜等2024熱門人選都迴避「九二共識」，而等到馬英九返台後，朱立倫或侯友宜在兩岸路線上恐怕都不能無視馬英九的意見。報導再指出，上月週刊爆料馬英九「借將」兩岸智囊給侯友宜「補課」，但週刊點名的國安會秘書長蘇起、淡江大學教授趙春山，事實上並沒有聽命於馬英九，而侯友宜很不喜歡別人在他背後下指導棋，可見有心人在刻意操作，侯友宜的核心理念簡單明瞭，「中華民國是我的國家，台灣是咱的厝」，講法很容易讓基層民眾理解。5.附註、心得、想法︰好了啦，那個不會去卡習皇的麥卡錫，偷偷摸摸的在大半夜給小菸竄訪，塔綠斑不知道在高潮哪個點的，吾天威皇朝根本不看在眼裡也懶得嘴，被美帝在野黨小小咖議員接見，竟也興奮的噴汁，簡直丟盡全球中國人的臉。對比之下，帥氣的中國人馬這個，堅挺一忠原則，久餓共食，功在民族，利在兩岸，為偉大的中華民族復興做出實質的貢獻，將引領中國國民黨重新回到正確的道路上，藍營第一共主的地位穩如泰山，中國大媽直呼帥，中國大爺高喊牛逼，是兩岸中國的定海神針啊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[新聞] 中國海巡06號台海巡航3天 將檢查兩岸直</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680731575.A.ABC.html</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/3zzZU9A2.新聞來源︰中央社3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※中國海巡06號台海巡航3天 將檢查兩岸直航貨船4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※中央社台北5日電）中國福建海事局晚間通報，其大型巡航救助船「海巡06」輪編隊今天開啟「台灣海峽中北部聯合巡航巡查專項行動」，為期3天，期間將對兩岸直航貨船、施工作業船實施現場檢查。福建海事局5日早上宣布啟動「台灣海峽中北部聯合巡航巡查專項行動」，由「海巡06」輪領銜海事執法船艇編隊。時值總統蔡英文過境美國會晤美國聯邦眾議院議長麥卡錫前夕，引發國際關注與諸多解讀。福建海事局微信公眾號5日晚間7時許再通報這次專項行動的重點目標與範圍，並附上一段49秒的短影音，顯示「海巡06」輪早上駛離基地展開行動。福建海事局稱，4月5日上午9時，由台灣海峽大型巡航救助船「海巡06」輪領銜的海事執法船艇編隊，駛離福建海事局平潭海事監管基地，開啟台灣海峽中北部聯合巡航巡查專項行動。福建海事局表示，本次專項行動為期3天，福建海事局出動「海巡06」輪編隊和海事執法人員，會同東海救助局、東海航海保障中心等相關力量，將對平潭對台直航集裝箱航線、「小三通」客運航線、台灣海峽船舶習慣航路、商漁船通航密集區以及非法採砂活動多發區等水域展開巡航巡查。福建海事局並表示，行動期間，海事執法人員對兩岸直航貨船、施工作業船實施現場檢查，確保船舶航行安全，保障水上重點工程作業安全有序。通報稱，未來兩天，「海巡06」輪編隊將持續在台灣海峽中北部展開巡航巡查行動。至截稿，中國官方媒體報導今天展開的台海聯合巡防巡查專項行動，均未提及明天凌晨將在美國洛杉磯登場的「蔡麥會」。（編輯：楊昇儒/邱國強）11204055.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※結果就只有加強審查運往中國的貨輪而已嗎？我還以為要管制每個經過台灣的船咧。中國就是這樣，平常為了目的讓利讓步，發現達不到目的就直接公事公辦，讓平常方便慣的人跑去對自己的政府施壓對中國道歉被</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[新聞] 馬英九：民進黨即使抗議 也不敢貿然廢ECF</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680732231.A.711.html</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰https://www.chinatimes.com/newspapers/20230406000322-260118?chdtv2.新聞來源︰中國時報 藍孝威 上海3.完整新聞標題馬英九：民進黨即使抗議 也不敢貿然廢ECFA4.完整新聞內容︰前總統馬英九昨日傍晚會見上海市委書記陳吉寧。馬英九用閩南語發音介紹ECFA「會再發」，稱自己任內兩岸簽署23個協議，尤其是海峽兩岸經濟合作架構協議ECFA，至今仍然有效運作，即使是民進黨抗議，也不敢貿然廢止。馬英九5日上午從重慶飛抵上海，下午參觀洋山港四期無人化碼頭和浦東新區城市綜合運行管理中心，傍晚至蘇州河畔「城市會客廳」會晤陳吉寧。馬英九表示，在他任內，兩岸因為在1992年就「一中原則」建立共同政治基礎「九二共識」，擁有互信，擱置爭議，共創雙贏，實現三通直航，兩岸交流暢通，讓兩岸人民都受惠。他說：「我任內兩岸簽署23個協議，尤其是ECFA，至今仍然有效運作，即使是民進黨抗議，也不敢貿然廢止，因為有ECFA，台灣經濟表現才能維持一定成績，就知道兩岸人民在經貿上、在生活上相互依賴的實際需要，是政治也切不開的。」馬英九還脫稿發揮「馬氏幽默」，說ECFA閩南語發音是「會再發」，會再度發達的意思。陳吉寧則主動提到2015年在新加坡舉行的「馬習會」，「您一直積極推動兩岸交流，8年前習近平總書記與您舉行歷史性的會晤，翻開兩岸關係歷史性的一頁，也成為兩岸關係發展進程中，最有里程碑意義的大事。」他強調，「當前和平發展、交流合作是兩岸同胞共同的心聲，我們就是要秉持兩一家親的理念，在推動兩岸交流方面，積極努力地不斷的增進兩岸同胞的情誼和扶持。」這場會見，陸方陪同出席的主要官員包括：國台辦副主任陳元豐，上海市委常委、統戰部長陳通，上海市委常委、市委祕書長張為，上海副市長華源，國台辦聯絡局長孫升亮，國台辦新聞局長馬曉光，國台辦交流局長黃文濤，上海市副祕書長顧洪輝，上海市台辦主任鍾曉敏。此外，針對大陸啟動台海中北部聯合巡查行動。馬英九基金會執行長蕭旭岑表示，兩岸和平需要各方來推動，民間努力做民間能做到的，期許兩岸主事者要以兩岸人民為念。5.附註、心得、想法︰當初喊很大聲說ECFA是糖衣毒藥，罵得很兇，結果自己上台卻沒有廢除，當時的大型上街遊行到底有多少人被利用，很多人都是真的相信是糖衣毒藥。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[討論] 有人想跟蔡英文結婚嗎?</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680733992.A.8FA.html</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>蔡英文2024過後就變成平民了60多歲的單身未婚黃金單身女有同樣單身未婚的黃金單身漢想要跟蔡英文結婚嗎?依照現在醫學科技60多歲的蔡英文還可以生小孩喔有人會跟蔡英文結婚生小孩成為前總統的丈夫嗎??在這邊做個民意調查再寄到總統府給蔡英文開心一下</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Re: [新聞] 馬英九：民進黨即使抗議 也不敢貿然廢ECF</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680735680.A.547.html</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>為啥馬這個料定資進黨不敢單方面撤掉ECFA 啊？馬這個是不是知道ECFA 裡埋了啥陷阱啊？還是説像歐美最近對中共搞晶片制裁，反被阿共去類似WTO 的組織申訴歐美的差異對待那樣@@</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[黑特] 今天預計滿滿蔡麥會新聞 藍柯畜怎麼崩?!</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680736243.A.1C7.html</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>我國台灣總統~菜陰魂與美帝國大統領第三順位繼承人~麥卡錫終於在加州雷根圖書館 完成世紀見面會談今天預計佔領各大版面 新聞頭條蘭畜柯糞小粉紅 會怎麼崩潰阿?!台美關係邁入20年最好美國繼續貿易晶片戰 幫助台灣資金人才回流另外加強台灣國防支那國粉絲~老藍南柯糞 痛心疾首欲哭無淚 會不會崩潰失常?!※ 每日發文數上限為5篇，自刪與板主刪除，同樣計入額度 ※※ 發文 內文請滿40字 ※</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[討論] 蔡英文在會面後的致詞</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680736302.A.A65.html</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>如題消息來源臉書https://reurl.cc/Q4mAXO內文同時有蔡的致詞的中譯及麥卡錫議長的致詞的全文摘錄蔡的致詞幾點討論如下1、選在「雷根總統圖書館」會談是故意的，大概是在暗示新一波冷戰要來了，而且美國會再度勝利2、重申六項保證及台灣關係法，這是台灣這40年繁榮的唯一因素3、中國打算威脅民主體制4、重申和平維持現狀的立場，但會持續強大台灣5、美國挺台灣，美台兩國在印太區域有共同的利益與馬英九的「兩岸同屬一中」的論調完全是相反的方向蔡的觀點是台灣與美國站在一起而且視中國為威脅很明顯的馬就是打算把台海衝突「內戰化」蔡則是站在國與國的立場看待中國的威脅蔡的發言與「一國兩制」或者「九二共識」都毫無關係</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[討論] CNN: 台灣總統蔡英文</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680736609.A.C6B.html</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>蔡英文果然跟美國的國會議長見面了。除了正式的新聞稿稱她為台灣總統之外，馬路新聞媒體 CNN 也直接稱她為台灣總統，也說她在一年之類連續跟兩位議長見面，這次尤其是在美國本土，算是創下紀錄。中國一直不想讓麥卡錫訪問台灣，沒想到卻讓蔡英文在美國本土跟他會面，應該是中國的失策吧！台灣這幾年的外交蠻厲害的，低調，可是又完成了許多跟歐美國家的實質往來。難怪藍營看吳釗燮越來越不爽，哈～～～https://reurl.cc/Rv8Gzx</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[討論] 蔡英文的居住正義進度還是原地踏步..</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680736897.A.992.html</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>欸塔綠班能說明一下蔡英文的居住正義到底適什麼正義！？轉型正義就這麼有效率居住正義就是屁？是嗎！？塔綠班可以解釋一下嗎！？都快八年了還在虛坪制你真的覺得賴功德會有居住正義！？難道你要投民進黨！？</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[新聞] 中方出動小飛機盤旋「蔡麥會」上空 布條</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680737279.A.67C.html</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.新聞網址︰※ 網址超過一行 請縮網址 ※https://bit.ly/3zxVIai2.新聞來源︰自由3.完整新聞標題※ 請完整轉載標題 請勿修改與編排 ※中方出動小飛機盤旋「蔡麥會」上空 布條示威「台灣是中國的」4.完整新聞內容︰※ 請完整轉載原文 請勿修改內文與編排 ※特派記者陳昀／隨行採訪報導〕蔡英文總統抵達美國加州雷根總統圖書館，將與美國眾議院議長麥卡錫及多位議員會晤。中方在場外高喊「一個中國」、「反制台獨」，還出動小型飛機拖著「一個中國！台灣是中國一部分！」布條，在會場上空不斷盤旋。先前台美情資顯示，中國將動員騷擾蔡總統與麥卡錫這場會面，陳抗的中國僑民在蔡總統到場前約10分鐘才抵達，高舉五星旗大喊「一個中國」、「反制台獨」。此外，中方也大手筆出動小型民航機，拖著「ONE CHINA! TAIWAN IS PART OF CHINA!」布條，持續在雷根圖書館上方盤旋。5.附註、心得、想法︰※ 40字心得、備註 ※※ 「Live」、「新聞」、「轉錄」此類文章每日發文數總上限為3篇，   自刪與板主刪除，同樣計入額度 ※這就是自由國家的方便，即使政治立場不同依舊可以發聲。但阿共都把方便當工具，拿來繞過各個限制去干涉他國決策。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[討論] 搞不懂身旁支持綠營朋友的心態</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680737318.A.13F.html</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>前幾天新聞報私菸案，2.3位高層都升官反而基層出來坦，看了新聞轉貼給支持綠營的朋友看朋友回覆我一個奸笑的臉，然後跟我說加油2024靠你這一票下架民進黨後面又講一些有的沒的但是給我的感覺就是一副怎麼樣能奈我何不對啊，明明就是不對的事情為什麼到他們眼中就好像是合理？然後一副你也沒辦法對我怎麼樣支持綠營的朋友真的都只看顏色不看事情對錯嗎？</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文在會面後的致詞</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680737452.A.268.html</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>※ 引述《Aidrux (保境安民)》之銘言：: 如題: 消息來源臉書: https://reurl.cc/Q4mAXO: 內文同時有蔡的致詞的中譯及麥卡錫議長的致詞的全文: 摘錄蔡的致詞幾點討論如下: 1、選在「雷根總統圖書館」會談是故意的，大概是在暗示新一波冷戰要來了，而且美國會再: 度勝利: 2、重申六項保證及台灣關係法，這是台灣這40年繁榮的唯一因素: 3、中國打算威脅民主體制: 4、重申和平維持現狀的立場，但會持續強大台灣: 5、美國挺台灣，美台兩國在印太區域有共同的利益: 與馬英九的「兩岸同屬一中」的論調完全是相反的方向: 蔡的觀點是台灣與美國站在一起: 而且視中國為威脅: 很明顯的馬就是打算把台海衝突「內戰化」: 蔡則是站在國與國的立場看待中國的威脅你不是故意的就是看的太少我昨天就講了https://i.imgur.com/xYzDXIH.jpg#1aBHcmIZ (HatePolitics)是吧~100%完全命中這也不是什麼神預測美國人就是這樣下禮拜可能又換一套說詞綠粉還妄想美國人的承諾會堅定不移?相反的馬英九這次的訪中不能說中方完全沒有介入但他的論述把兩岸的問題拉回了某種基調這部分對台灣是有利的和平就是兩岸的最大公約數反觀美國這邊麥卡錫這些東西完全沒有新意更不用說實質的幫助了看看就好</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[討論] 這就是自由民主 美中對比</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680737551.A.70E.html</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>蔡總統歷史性會面在雷根總統圖書館空軍一號前被稱呼台灣蔡總統還開放在美中國人士耍小丑抗議寄威脅信反觀中共稱呼馬先生 且不敢開放國際人士抗議</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680737896.A.C80.html</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>基本上，八卦版大部份是反執政黨的而且有的時候，反是反到那種沒有腦袋的程度只要執政黨做的事情，都有辦法可以罵就算暫時想不到東西可以罵還有之前的內容可以跳針、之前貼的圖可以重貼也就因為可以反到沒有腦袋所以那邊的風向可以比這邊還要好帶但是這並不代表政黑好到哪裡去只是因為政黑人沒那麼多沒有像八卦那麼歡樂而已※ 引述《unclec40 (肥宅人森)》之銘言：: 逛八卦版好幾年了: 我的立場一直沒有變過: 在我的認知裡面: 所謂的92共識就是蘇起杜撰的莫須有名詞: 更別說所謂的共識: 就是海峽兩岸彼此互相認為對方領土是自己的: 我和你的看法不同，你和我的看法不同，剛好兩邊看法不同所形成的沒有共識的共識（幹到: 底是在講三小）: 當年八卦版對92共識嗤之以鼻: 如今卻把92共識奉為瑰寶: 我真的越看越不懂了: 立場的轉變也太可怕: 撇開小英不談: 把老馬捧成這樣: 這真的是八卦板嗎</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文在會面後的致詞</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680738260.A.D6A.html</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>※ 引述《Aidrux (保境安民)》之銘言：: 標題: [討論] 蔡英文在會面後的致詞: 時間: Thu Apr  6 07:11:40 2023:: → MBAR: 美國的一中原則現在還是有文盲看不懂啦，不      1.200.28.43 04/06 07:27: → MBAR: 用跟他們解釋                                  1.200.28.43 04/06 07:27: 推 KONAMI: 美國是一中政策吧                        220.142.143.152 04/06 07:31: → MBAR: 可憐哪，policy跟principle都分不清             1.200.28.43 04/06 07:33: 推 KONAMI: 呵呵 綠粉就是這樣 不看大架構的          220.142.143.152 04/06 07:35: → KONAMI: 就抓幾個字眼來高潮                      220.142.143.152 04/06 07:35: 推 Sinful: 有人連兩個英文單字都看不懂還在大架構        1.160.198.8 04/06 07:37公視蔡英文出訪過境美國 美國務院強調符一中政策https://news.pts.org.tw/article/629468宏都拉斯斷交 美重申一中政策鼓勵全球擴大與台灣往來https://udn.com/news/story/6811/7057124白宮：一中政策不變 不支持台灣獨立https://www.chinatimes.com/newspapers/20230309000444-260118?chdtv這都是近期的新聞快笑死綠粉完全就是這個德性一個見面就在高潮美國人的兩面手法那麼明顯還要裝瞎??美國把兩岸問題模糊化當然對他們有利這不是很清楚的事嗎?還在那邊堅若磐石的人不是笨就是蠢</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">							(本文已被刪除) [popo123456]						</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680716804.A.534.html</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>※ 引述《joe255118 (酷比)》之銘言：: 每天都有人問館長要不要辦反黑大遊行: 館長昨天說自己辦不起來惹: 因為國昌說他現在對辦遊行沒興趣了: 恩...: 館長你還太嫩了: 不是人家沒興趣了: 是人家對你沒興趣了: 黃國昌是投機政客: 你現在聲望差成這樣還想帶頭辦反黑大遊行: 別開玩笑了黃國昌應該都聞到味道了: 不好意思跟你講明白而已: 不過國昌老師自己也是夠蠢: 全台灣這麼多人更適合辦反黑大遊行: 茫茫人海卻只可以找到館長ㄟ不是啊，你汁汗又不是怯戰神的小弟，憑什麼怯戰神一怯戰不辦遊行，你大汁汗就辦不起來？憑你澄汁汗三個字，a.k.a.猴猴&amp;阿北的聯名小弟，登高一呼，汗粉+猴粉+阿北粉，沒有兩百萬人上街都算失常了，憑什麼沒有怯戰神，你就不能辦遊行了？</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Re: [討論] 館長:黃國昌現在對上街沒興趣了</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680717094.A.436.html</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>真是太可笑了美國不過叫一個議員出來跟台灣見面綠畜就高潮了人家要台灣當美中角力的犧牲品要讓我們人民犧牲性命來成就美國霸業這些是昭然若揭的事實然而代價是什麼呢美國只要讓一個議員出面跟台灣總統見面沒錯這就是讓我們台灣人犧牲性命的代價</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>[討論] 太可笑了!不過見一個議員，綠畜就高潮了</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680717442.A.27E.html</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>我靠 見一個議長就是大突破喔？FTA要簽了嗎？CPTPP要加入了嗎？台美安保條約有談嗎？台美什麼時候要建交？我幹什麼都沒談 什麼都沒簽邦交國一直斷 飛彈一直飛然後美國坐視不管這就是外交大突破？</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>[討論] 台美外交大突破？</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680717654.A.54E.html</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>馬去是起到了平衡的作用因為蔡馬是前後任元首一個去美國 一個去中國讓中國這邊可以對內交代所以中國動作小了一點從這樣安排可以推測美國現在還不打算跟中國真的翻臉所以要用這種模式緩和一下中國但應該是已經在預熱了蔡這次其實沒有太多的實質進展  (因為眾院議長其實已經見過了)真正的起手式應該放在2024年大選之後到時候賴清德若當選那蔡在最後的幾個月要交棒前(2-5月)真的是無敵狀態那時候蔡還可以再去一趟美國這次很可能就不一樣了見國務卿布林肯與在國會演講都是可能的然後就剩下最後一步也就是賴清德跟美國總統見面而走這一步就是美國準備完畢要跟中國翻臉的時候了戰爭緊接著就會到來</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Re: [討論] 新聞面對面討論老馬去中國是加分還減分</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680718014.A.CEC.html</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>看了一下被推爆那篇不就是典型綠能你不能沒錯八卦反中但是你民進黨又做了什麼不廢ECFA中華台北沒有矮化華航正名永遠等不到的禮拜五現在太危險不能刪國家統一前…族繁不及備載這七年民進黨讓大家看到的是當婊子又要立牌坊嘴巴喊台獨結果實際根本另外一回事當你從這個角度去看那會推爆馬一點都不意外了民進黨就是狗屎雙標爛黨</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Re: [討論] 越來越看不懂現在的八卦板</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680718048.A.67F.html</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  要下架DPP一定要去KMT?  郭柯配真的不錯，還不用放下身段去求KMT，  侯友宜就只是在等議期結束就要黃袍加身了，  KMT連要不要給你入黨都還在討論中，  再過幾個月是不是又要當初只是年輕氣盛一次。</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>[討論] 郭董為什不去TMD選總統?</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680718250.A.3B9.html</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>[討論] 郭董出線 柯粉最氣</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680719512.A.B3A.html</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>※ 引述《waakye (</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">							(本文已被刪除) [zzzzzzzzzzzy]						</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680719714.A.1BC.html</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>台灣人愛台灣土生土長的本土台灣人說土生土長的本土台灣話是這樣子啦有隻狗狗代表全世界的狗狗會見麥肯錫這是不是史上最佳人狗關係狗狗們要狂嗨一陣子了咧？？？http://i.imgur.com/myc0iMy.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Re: [討論] 郭董出線 柯粉最氣</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680720340.A.084.html</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>如圖蔡英文 和 美國第三大的麥卡錫合照出爐https://i.imgur.com/k4LEsXY.jpg出處 蔡英文推特兩人閉門會議應該結束了所以拍照紀念接下來應該會有公開談話吧=====================補充麥卡錫推特：https://i.imgur.com/MgknN4p.jpg直接寫蔡英文總統反觀那個馬先生...</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>[討論] 會見麥肯錫 史上最佳人狗關係</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680720864.A.ED5.html</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>※ 引述《proprome (月光寶盒)》之銘言：: 如圖: 蔡英文 和 美國第三大的麥卡錫合照出爐: https://i.imgur.com/k4LEsXY.jpg: 出處 蔡英文推特: 兩人閉門會議應該結束了: 所以拍照紀念: 接下來應該會有公開談話吧身體語言不會說謊蔡英文身子微微前傾，正襟危坐一副就是卑躬屈膝模樣相反對方一個議員自然大方的樣子彷彿根本不在乎對面那人可悲可嘆可憐啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[討論] 蔡英文和麥卡錫合照出爐</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680721076.A.D10.html</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>※ 引述《takizawa5566 (看三小沒匿名喇)》之銘言：: ※ 引述《takizawa5566 (看三小沒匿名喇)》之銘言：: : 這個狀況其實很簡單，就是跟柯文哲談不攏，所以趕快把頭轉回國民黨，不然你要說對: 不: : 起，這四年來很多機會，偏偏這時才說？: : 我只能說郭台銘還是比較適合當商人，不適合當政治人物，因為他完全沒有一點政治敏: 銳: : 度==: : 他現在這個舉動就是註定扣分，你民調很高就算了，問題你民調還比侯友宜低，實在看: 不: : 懂這什麼操作…: : 我認為接下來柯文哲要非常注意高虹安，因為說到底高虹安本來就是郭的人，她對柯文: 哲: : 的忠誠度是遠低於郭台銘的，搞不好郭台銘會叫高虹安退出民眾黨也不一定，商人性格: 嘛: : ，既然跟柯文哲談不攏正副手，那他也沒必要把他的人繼續留在民眾黨: : 等著看吧，看我說的準不準: 沒想到我今天才剛說完而已，馬上傳出黃珊珊即將在4/6加入民眾黨，證實了我的猜想是: 真的！: 柯文哲開始在把友柯勢力往民眾黨中心拉了，目的就是要制衡郭台銘在民眾黨的勢力，也: 就是高虹安: 所以整個劇本應該就是這樣: 郭台銘有跟柯文哲談過2024大選的事，因為郭台銘商人性格認為當初有投資人才在民眾黨: （高虹安）所以希望可以當正的，但是柯文哲不願意當副的，談不攏，於是郭台銘掉頭回: 去找國民黨並且上演道歉戲碼希望能代表國民黨參選總統，另一方面柯文哲也怕郭台銘會: 翻臉把高虹安從民眾黨內拔走或者利用高虹安這個暗樁控制民眾黨，所以把黃珊珊延攬入: 黨，讓自己的勢力在黨內能跟郭勢力制衡: 那接下來下一步我大概可以猜到劇本會怎麼走下去了，就是柯文哲直接把黃珊珊排在不分: 區第一名，這是最有利的決定！: 2024真的精彩，讓我們繼續看下去高虹安不敢跑啦她跑了政治路就此結束不但沒有下一任還會面臨罷免雖然藍藍們一直帶風向她是靠藍營棄保才贏但事實上在藍營棄保前高的民調就已經很有競爭力如果不是高有機會贏藍軍怎麼可能倒戈而在藍軍倒戈之前支持高虹安的票源結構最多數的成員就是希望第三勢力茁壯的人這次高虹安會贏也要慶幸時代力量沒有強棒願意出來不然高就GG了而這些挺第三勢力的票大多都不是會支持郭台銘的票更不會想看著一個掛國民黨黨徽的人高虹安跟郭台銘掛國民黨籍根本得不到這群人支持如果沒有第三勢力而只有藍綠對決其實這些票以前都是親民進黨的況且新竹市還是柯文哲的家鄉是民眾黨當初政黨票最多地方可說是柯文哲本命區台大醫科這個招牌在當地也勝過你科技人招牌因為理工科的人最在意會不會讀書了理工科的人從小就承認醫學系是整個自然組最強很尊敬醫學系就算台大電資出身的人絕大多數還是自認不如台大醫科柯文哲還是比較有號召力再者從之前民進黨打高一堆案子看高的反應高明顯很想在政治上長遠走下去根本不想回業界她只要不想回業界那郭台銘對她還有何用處呢郭董對高姐姐的知遇之恩是在科技業期間但在政治路上真正一路提拔她的反而是柯文哲耶當初郭台銘丟了一堆名單給柯文哲選是柯文哲欽點高虹安出任不分區的也是柯文哲點名她參選新竹市長的高虹安有什麼理由要背棄柯文哲背棄支持者跟著郭台銘投靠國民黨也沒什麼理由在民眾黨內當郭的暗樁制衡柯文哲更沒什麼理由對郭台銘忠誠度比柯文哲高這用常理就可以判斷所以買一送一這種事情根本不會發生完全是不要臉的國民黨陣營在那邊像哈巴狗一樣一廂情願自作多情以及部分綠綠們想擾亂對手軍心而已</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Re: [討論] 蔡英文和麥卡錫合照出爐</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680721390.A.D24.html</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>聽說柯粉看到小英訪美好像很氣但是想想阿伯的訪美行程好像除了植物什麼屁也沒見到欸還是阿伯見到什麼高官了</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Re: [討論] 郭台銘向國民黨90度鞠躬道歉,大喊對不起</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680721641.A.872.html</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://imgur.com/ounVhkC你說說看  這矮了幾公分美國身為泱泱大國  買一個墊腳凳或擺個平台有很過分嗎??這不叫矮化  什麼才叫矮化?</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>[討論] 阿伯這次訪美除了植物還有見誰</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680722007.A.3CB.html</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>台灣人愛台灣土生土長的本土台灣人說土生土長的本土台灣話可是呀蔡英文見到麥肯錫就一堆台美最佳的高潮是不是因為這是台灣和美國的最佳關係和中華民國 無關呀？</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>[黑特] 抓到矮化的鐵證了!!</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680722496.A.5E8.html</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>原文來自FB：Flak聊軍事https://reurl.cc/ZXE55a        3/23，俄羅斯總理Mikhail Mishustin 宣布發行外幣主權債券的措施已經在準備中。這措施顯示俄國認為某些友好國家將會藉此來提供財務支持。        一旦準備工作完成，其他國家投資者就能購買俄羅斯主權債券並對俄國未來的預算短缺問題提供資金。這些投資者可說是間接資助俄羅斯入侵烏克蘭。        在最近幾個月，俄羅斯本土銀行一直是購買主權債券的主要管道，但這些不太可能補滿未來的預算赤字。俄國官員可能認為發行外債能填補侵烏長期戰爭所造成的財務缺口，但目前仍無法斷定俄國能不能成功執行這項措施（發行並完售）https://i.imgur.com/KnhEkIM.jpg心得：覺的美國好壞壞的板友們可以壓身家大量買進，表達支持正義的普丁讓俄羅斯能夠有足夠的錢戰勝邪惡的美國帝國主義#你買多少 #俄羅斯外幣計價國債https://i.imgur.com/jiwfAC4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>[討論] 蔡英文見麥肯錫 和中華民國沒關係吧？</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680722622.A.0FB.html</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>半夜兩三點有多少人在睡覺？蔡EE半夜兩三點，跑去跟美國人開會是不是想趁大家正在睡覺的時候跟美國人密謀把台灣賣給美國？</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>[討論] 俄羅斯要發行外幣主權債</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/HatePolitics/M.1680724369.A.BB7.html</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>抓到菜麥會是一場騙局的證據了！https://i.imgur.com/iDUc7PP.png各位觀眾看看現在外面天那麼黑怎麼可能像直播裡面的陽光那麼大？這不就證明 這是事先預錄的影像嗎？搞不好那位自稱麥卡錫的只是一個長得像的臨時演員 要來呼嚨塔綠班的</t>
         </is>
       </c>
     </row>
